--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4164" uniqueCount="2100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4311" uniqueCount="2170">
   <si>
     <t>FileID</t>
   </si>
@@ -6341,6 +6341,216 @@
   </si>
   <si>
     <t>Bearer RyU5cTKH3iTDAhf59hEi3oJ8PWiXkH</t>
+  </si>
+  <si>
+    <t>Bearer bRmGxI5ibXuqJlpRUSWPnFQ3dGd2wl</t>
+  </si>
+  <si>
+    <t>1003113</t>
+  </si>
+  <si>
+    <t>Bearer Yb9dwHIE6hkBmOI3Ovb8oEE4PCnFRl</t>
+  </si>
+  <si>
+    <t>70001852</t>
+  </si>
+  <si>
+    <t>4179</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Service: Other Service</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS22</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Retail: Other Retail</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS21</t>
+  </si>
+  <si>
+    <t>API LEED v4.1 Communities: ExistingUS79</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>API LEED v4.1 Communities: Plan and DesignUS02</t>
+  </si>
+  <si>
+    <t>1000172020</t>
+  </si>
+  <si>
+    <t>Bearer nI33n4TCYKfscKAD6Rn6ocTuzIKAoX</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>API LEED v4.1 Cities: ExistingUS80</t>
+  </si>
+  <si>
+    <t>1000172022</t>
+  </si>
+  <si>
+    <t>Bearer fkSIigYM8u1obXxXUOQaZUNHkNEktH</t>
+  </si>
+  <si>
+    <t>0000000010000000000846586</t>
+  </si>
+  <si>
+    <t>E9DB570BFA8F2CF1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9DB570BFA8F2EF1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000172022</t>
+  </si>
+  <si>
+    <t>HZuG2sEKFHYbxc2JDPeqYf83</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>API LEED v4.1 Cities: Plan and DesignUS10</t>
+  </si>
+  <si>
+    <t>1000172024</t>
+  </si>
+  <si>
+    <t>Bearer NyGgWMut0B2dyaYagwi3HEqMnxbO6e</t>
+  </si>
+  <si>
+    <t>Bearer sDl2j1IbvCCWpfwKAaF6lkeykBAUpD</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Healthcare: Outpatient Office (Diagnostic)</t>
+  </si>
+  <si>
+    <t>Government Use: Other (utility, airport, etc.)</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-71784</t>
+  </si>
+  <si>
+    <t>1000172025</t>
+  </si>
+  <si>
+    <t>Parksmart: Registration</t>
+  </si>
+  <si>
+    <t>000000000000004282</t>
+  </si>
+  <si>
+    <t>qmYiNdJAUfm0mZshVdBDTE1A</t>
+  </si>
+  <si>
+    <t>45278</t>
+  </si>
+  <si>
+    <t>Bearer HsVxCSf6Q7MkabCJTJJD0J9OsDoCUX</t>
+  </si>
+  <si>
+    <t>Bearer OYXbuouM3elAe0hiF83FgTQ0v73MWS</t>
+  </si>
+  <si>
+    <t>Airport: Hangar</t>
+  </si>
+  <si>
+    <t>Investor: REIT, Non-traded</t>
+  </si>
+  <si>
+    <t>US-API-City-None-79094</t>
+  </si>
+  <si>
+    <t>1000172026</t>
+  </si>
+  <si>
+    <t>Bearer IUOhSymJSUna4tZwBSmdEVwMXLR0Pt</t>
+  </si>
+  <si>
+    <t>Multi-Family Residential: Apartment</t>
+  </si>
+  <si>
+    <t>Educational: Community College, Public</t>
+  </si>
+  <si>
+    <t>US-API-Transit-Aboveground-37234</t>
+  </si>
+  <si>
+    <t>1000172027</t>
+  </si>
+  <si>
+    <t>Bearer FZvEJgiFnrjanGFYJYn1XrJ0nddS5d</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Public Assembly: Social/Meeting</t>
+  </si>
+  <si>
+    <t>Investor: Individual/Family</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-10235</t>
+  </si>
+  <si>
+    <t>1000172028</t>
+  </si>
+  <si>
+    <t>Bearer dGNOXoejA5gYB40Yb02k6Hqty3Ijp8</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Healthcare: Clinic/Other Outpatient</t>
+  </si>
+  <si>
+    <t>US-API-Transit-Aboveground-69041</t>
+  </si>
+  <si>
+    <t>1000172029</t>
+  </si>
+  <si>
+    <t>oFOTCNMkwFxzMI8Lsavp1A5V</t>
+  </si>
+  <si>
+    <t>45285</t>
+  </si>
+  <si>
+    <t>Bearer iwgG0j433RtSaNlEfqFjYgH71zly26</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Transit: System</t>
+  </si>
+  <si>
+    <t>Investor: ROEC</t>
+  </si>
+  <si>
+    <t>US-API-Transit-Underground-08912</t>
+  </si>
+  <si>
+    <t>1000172030</t>
+  </si>
+  <si>
+    <t>tr71MuoJs0xzo42nuuUdRiac</t>
   </si>
 </sst>
 </file>
@@ -6943,40 +7153,42 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.53515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.4296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.9765625" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="27.4375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.21484375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="37.21484375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="28.90625" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
     <col min="17" max="18" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.74609375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.73046875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.1171875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.10546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.51171875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.0703125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="33.00390625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="29.5078125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="32.94921875" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="64" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="37.21484375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="37.21484375" collapsed="true"/>
     <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -7196,16 +7408,16 @@
         <v>1953</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2035</v>
+        <v>2144</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2004</v>
+        <v>2155</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>1924</v>
+        <v>2160</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1915</v>
+        <v>2168</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
@@ -7215,15 +7427,17 @@
         <v>679</v>
       </c>
       <c r="L2" t="s">
-        <v>2025</v>
+        <v>2121</v>
       </c>
       <c r="M2" t="s">
-        <v>2026</v>
+        <v>2122</v>
       </c>
       <c r="N2" t="s">
-        <v>2024</v>
-      </c>
-      <c r="O2"/>
+        <v>2120</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2169</v>
+      </c>
       <c r="P2" t="s">
         <v>1952</v>
       </c>
@@ -7240,25 +7454,25 @@
         <v>2019</v>
       </c>
       <c r="U2" t="s">
-        <v>2086</v>
+        <v>2103</v>
       </c>
       <c r="V2" t="s">
-        <v>1958</v>
+        <v>2104</v>
       </c>
       <c r="W2" t="s">
-        <v>2030</v>
+        <v>468</v>
       </c>
       <c r="X2" t="s">
-        <v>2029</v>
+        <v>467</v>
       </c>
       <c r="Y2" t="s">
         <v>666</v>
       </c>
       <c r="Z2" t="s">
-        <v>2018</v>
+        <v>2162</v>
       </c>
       <c r="AA2" t="s">
-        <v>2099</v>
+        <v>2163</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -7312,7 +7526,7 @@
         <v>88</v>
       </c>
       <c r="AT2" t="s">
-        <v>2032</v>
+        <v>2164</v>
       </c>
       <c r="AU2" t="s">
         <v>89</v>
@@ -7324,13 +7538,13 @@
         <v>732</v>
       </c>
       <c r="AX2" t="s">
-        <v>146</v>
+        <v>469</v>
       </c>
       <c r="AY2" t="s">
-        <v>2033</v>
+        <v>2165</v>
       </c>
       <c r="AZ2" t="s">
-        <v>562</v>
+        <v>2166</v>
       </c>
       <c r="BA2" s="5" t="s">
         <v>427</v>
@@ -7354,19 +7568,19 @@
         <v>417</v>
       </c>
       <c r="BH2" t="s">
-        <v>2034</v>
+        <v>2167</v>
       </c>
       <c r="BI2" t="s">
-        <v>2027</v>
+        <v>2123</v>
       </c>
       <c r="BJ2" t="s">
-        <v>2024</v>
+        <v>2120</v>
       </c>
       <c r="BK2" t="s">
-        <v>2025</v>
+        <v>2121</v>
       </c>
       <c r="BL2" t="s">
-        <v>2026</v>
+        <v>2122</v>
       </c>
       <c r="BM2" t="s">
         <v>1956</v>
@@ -7375,7 +7589,7 @@
         <v>652</v>
       </c>
       <c r="BO2" t="s">
-        <v>2023</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -11254,7 +11468,7 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
@@ -11392,7 +11606,7 @@
         <v>769</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>1976</v>
+        <v>2101</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>1977</v>
@@ -20153,16 +20367,16 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.13671875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="22.42578125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.62109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="12.0" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="32.0" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="13.85546875" collapsed="true"/>
@@ -20284,7 +20498,7 @@
         <v>429</v>
       </c>
       <c r="C2" t="s">
-        <v>2022</v>
+        <v>2126</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>582</v>
@@ -20293,19 +20507,19 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>2021</v>
+        <v>2109</v>
       </c>
       <c r="H2" t="s">
         <v>1970</v>
       </c>
       <c r="I2" t="s">
-        <v>146</v>
+        <v>469</v>
       </c>
       <c r="J2" t="s">
         <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>2020</v>
+        <v>2125</v>
       </c>
       <c r="L2" t="s">
         <v>89</v>

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4311" uniqueCount="2170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4360" uniqueCount="2191">
   <si>
     <t>FileID</t>
   </si>
@@ -6551,6 +6551,69 @@
   </si>
   <si>
     <t>tr71MuoJs0xzo42nuuUdRiac</t>
+  </si>
+  <si>
+    <t>45292</t>
+  </si>
+  <si>
+    <t>Bearer T8UBsOxmomimrNk2QtrWHPMyf1WpFi</t>
+  </si>
+  <si>
+    <t>Multi-Family Residential: Condominium</t>
+  </si>
+  <si>
+    <t>Investor: Bank</t>
+  </si>
+  <si>
+    <t>US-API-City-None-48319</t>
+  </si>
+  <si>
+    <t>1000172031</t>
+  </si>
+  <si>
+    <t>yavWD1sVVsccvFnJPYdqxbJR</t>
+  </si>
+  <si>
+    <t>45299</t>
+  </si>
+  <si>
+    <t>Bearer o1YDwh81PyAeeCZlGth9TGtfkMd6ts</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Government Use: Local, City</t>
+  </si>
+  <si>
+    <t>US-API-City-None-02720</t>
+  </si>
+  <si>
+    <t>1000172032</t>
+  </si>
+  <si>
+    <t>Bearer MtexWMlEmQP7Q2L6EWdqt5E3XZIDua</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Single family home (detached)</t>
+  </si>
+  <si>
+    <t>US-API-Community-Other-62029</t>
+  </si>
+  <si>
+    <t>1000172033</t>
+  </si>
+  <si>
+    <t>LEED for Communities - Registration</t>
+  </si>
+  <si>
+    <t>000000000000004249</t>
+  </si>
+  <si>
+    <t>Iui5gRdH828jFnHigntrpf7G</t>
   </si>
 </sst>
 </file>
@@ -7152,17 +7215,17 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.91796875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.53515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="18.4296875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="21.125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="20.9765625" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5234375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="37.21484375" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="37.21484375" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="28.90625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.96875" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
     <col min="17" max="18" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
@@ -7172,17 +7235,17 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.51171875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.0703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.48046875" collapsed="true"/>
     <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
     <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
     <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
     <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="33.00390625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="29.5078125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="14.921875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="26.3203125" collapsed="true"/>
     <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
     <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="32.94921875" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="22.93359375" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
     <col min="62" max="62" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
     <col min="63" max="63" bestFit="true" customWidth="true" width="37.21484375" collapsed="true"/>
@@ -7405,10 +7468,10 @@
         <v>681</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1953</v>
+        <v>2175</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2144</v>
+        <v>2182</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2155</v>
@@ -7424,7 +7487,7 @@
         <v>678</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>679</v>
+        <v>2187</v>
       </c>
       <c r="L2" t="s">
         <v>2121</v>
@@ -7436,7 +7499,7 @@
         <v>2120</v>
       </c>
       <c r="O2" t="s">
-        <v>2169</v>
+        <v>2190</v>
       </c>
       <c r="P2" t="s">
         <v>1952</v>
@@ -7460,19 +7523,19 @@
         <v>2104</v>
       </c>
       <c r="W2" t="s">
-        <v>468</v>
+        <v>2189</v>
       </c>
       <c r="X2" t="s">
-        <v>467</v>
+        <v>2188</v>
       </c>
       <c r="Y2" t="s">
         <v>666</v>
       </c>
       <c r="Z2" t="s">
-        <v>2162</v>
+        <v>2177</v>
       </c>
       <c r="AA2" t="s">
-        <v>2163</v>
+        <v>2183</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -7526,7 +7589,7 @@
         <v>88</v>
       </c>
       <c r="AT2" t="s">
-        <v>2164</v>
+        <v>2184</v>
       </c>
       <c r="AU2" t="s">
         <v>89</v>
@@ -7538,13 +7601,13 @@
         <v>732</v>
       </c>
       <c r="AX2" t="s">
-        <v>469</v>
+        <v>146</v>
       </c>
       <c r="AY2" t="s">
-        <v>2165</v>
+        <v>2185</v>
       </c>
       <c r="AZ2" t="s">
-        <v>2166</v>
+        <v>562</v>
       </c>
       <c r="BA2" s="5" t="s">
         <v>427</v>
@@ -7568,7 +7631,7 @@
         <v>417</v>
       </c>
       <c r="BH2" t="s">
-        <v>2167</v>
+        <v>2186</v>
       </c>
       <c r="BI2" t="s">
         <v>2123</v>

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4360" uniqueCount="2191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="2713">
   <si>
     <t>FileID</t>
   </si>
@@ -6614,6 +6614,1572 @@
   </si>
   <si>
     <t>Iui5gRdH828jFnHigntrpf7G</t>
+  </si>
+  <si>
+    <t>45306</t>
+  </si>
+  <si>
+    <t>Bearer QD7GCLur2f1ZlM6Xc3Ao4oKwE5u2vY</t>
+  </si>
+  <si>
+    <t>Bearer Jjlu7Szn7ezESfoTFgwzqy9A8OuzFd</t>
+  </si>
+  <si>
+    <t>1005487</t>
+  </si>
+  <si>
+    <t>1002950</t>
+  </si>
+  <si>
+    <t>7141336</t>
+  </si>
+  <si>
+    <t>Bearer mzEOO152KPOdVFMleSgsPlvZuXS78g</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Public Assembly: Other Assembly</t>
+  </si>
+  <si>
+    <t>Educational: Early Childhood Education/Daycare</t>
+  </si>
+  <si>
+    <t>US-API-Transit-Aboveground-10272</t>
+  </si>
+  <si>
+    <t>1000172034</t>
+  </si>
+  <si>
+    <t>Bearer KmiBsOnBIgYVFNLKprPp0eSBGbm124</t>
+  </si>
+  <si>
+    <t>56lC30AqyIgp7UoSRJWyAcIf</t>
+  </si>
+  <si>
+    <t>Bearer T7Pm2iBSPle6tr0rXg3T1L0YL6gZQD</t>
+  </si>
+  <si>
+    <t>Bearer P4c4e4jKz1IAZi7JYCCYb9oBiHHEjX</t>
+  </si>
+  <si>
+    <t>Bearer a6Vl8XxGo8ijjqLowDn6pG6E6ePoC9</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Core Learning Space: K-12 Elementary/Middle School</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-79568</t>
+  </si>
+  <si>
+    <t>1000172103</t>
+  </si>
+  <si>
+    <t>0011047059</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Bearer G5PpnxzVHKjPHWWLtHjv0UiS5RTMCD</t>
+  </si>
+  <si>
+    <t>ACS2SS103L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2SS106L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2SS109L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2SS111L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2SS113L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2SS118L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2SS119L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2WE103L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2EA102L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2EA105L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2EA109L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2EA125L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2EA127L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2MR105L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2MR106L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2MR121L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2MR116L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2MR122L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2MR111L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2EQ103L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2EQ106L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2EQ108L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2EQ116L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2EQ120L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2EQ122L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2EQ125L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2EQ126L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2EQ127L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2EQ128L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2PF901L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2PF902L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2PF903L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2PF904L-1000172103</t>
+  </si>
+  <si>
+    <t>ACS2PF905L-1000172103</t>
+  </si>
+  <si>
+    <t>Bearer 5VZQ6aKPDH5d03B5CmKNyJ8aQWaIIL</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Retail: Fast Food</t>
+  </si>
+  <si>
+    <t>Main Street Organization</t>
+  </si>
+  <si>
+    <t>US-API-City-None-10777</t>
+  </si>
+  <si>
+    <t>1000172164</t>
+  </si>
+  <si>
+    <t>1007628</t>
+  </si>
+  <si>
+    <t>1007640</t>
+  </si>
+  <si>
+    <t>Bearer x2nRi6MTUanm8AJDRlZC46FP47AiFL</t>
+  </si>
+  <si>
+    <t>70001856</t>
+  </si>
+  <si>
+    <t>Bearer eIhzdDhaHOUyjeJpefJhvXNiDdA0lG</t>
+  </si>
+  <si>
+    <t>70001857</t>
+  </si>
+  <si>
+    <t>4187</t>
+  </si>
+  <si>
+    <t>4189</t>
+  </si>
+  <si>
+    <t>Bearer WufiFfs34H28N6yEy3muepDUTXpgp2</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Lodging: Hotel/Motel/Resort, Limited Service</t>
+  </si>
+  <si>
+    <t>Educational: Community College, Private</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-51452</t>
+  </si>
+  <si>
+    <t>9000162377</t>
+  </si>
+  <si>
+    <t>25skgQwggPWluzUvSMHNFdFN</t>
+  </si>
+  <si>
+    <t>1007663</t>
+  </si>
+  <si>
+    <t>1007664</t>
+  </si>
+  <si>
+    <t>7141812</t>
+  </si>
+  <si>
+    <t>1007661</t>
+  </si>
+  <si>
+    <t>1007660</t>
+  </si>
+  <si>
+    <t>1007659</t>
+  </si>
+  <si>
+    <t>1007658</t>
+  </si>
+  <si>
+    <t>1007657</t>
+  </si>
+  <si>
+    <t>1007656</t>
+  </si>
+  <si>
+    <t>1007655</t>
+  </si>
+  <si>
+    <t>1007654</t>
+  </si>
+  <si>
+    <t>1516</t>
+  </si>
+  <si>
+    <t>1517</t>
+  </si>
+  <si>
+    <t>1518</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>1520</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>1522</t>
+  </si>
+  <si>
+    <t>1523</t>
+  </si>
+  <si>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>1526</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>1528</t>
+  </si>
+  <si>
+    <t>1529</t>
+  </si>
+  <si>
+    <t>1007666</t>
+  </si>
+  <si>
+    <t>1007665</t>
+  </si>
+  <si>
+    <t>Transit: Line</t>
+  </si>
+  <si>
+    <t>1000172165</t>
+  </si>
+  <si>
+    <t>Bearer JoVYOHhOc6xRn0A9IyjwiZlybEfQzl</t>
+  </si>
+  <si>
+    <t>1000172166</t>
+  </si>
+  <si>
+    <t>1000172167</t>
+  </si>
+  <si>
+    <t>1000172168</t>
+  </si>
+  <si>
+    <t>1000172169</t>
+  </si>
+  <si>
+    <t>1000172170</t>
+  </si>
+  <si>
+    <t>1000172171</t>
+  </si>
+  <si>
+    <t>1000172172</t>
+  </si>
+  <si>
+    <t>1000172173</t>
+  </si>
+  <si>
+    <t>1000172174</t>
+  </si>
+  <si>
+    <t>1000172175</t>
+  </si>
+  <si>
+    <t>1000172176</t>
+  </si>
+  <si>
+    <t>Bearer 425BHvVeCpoMA9RVt4qKhwLlkWYhc6</t>
+  </si>
+  <si>
+    <t>US-API-City-None-70012</t>
+  </si>
+  <si>
+    <t>1000172179</t>
+  </si>
+  <si>
+    <t>Bearer Pkyv2mI5xotV1vQFcOBL87VQbrmzc2</t>
+  </si>
+  <si>
+    <t>Public Assembly: Stadium/Arena</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-94237</t>
+  </si>
+  <si>
+    <t>1000172188</t>
+  </si>
+  <si>
+    <t>0011047061</t>
+  </si>
+  <si>
+    <t>Bearer zOQBy3qyqEAZC7LqhoORTXaql1vbKy</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Core Learning Space: College/University</t>
+  </si>
+  <si>
+    <t>Educational: K-12 School, Private</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-88996</t>
+  </si>
+  <si>
+    <t>1000172197</t>
+  </si>
+  <si>
+    <t>0011047072</t>
+  </si>
+  <si>
+    <t>1007807</t>
+  </si>
+  <si>
+    <t>7142096</t>
+  </si>
+  <si>
+    <t>7142097</t>
+  </si>
+  <si>
+    <t>7142098</t>
+  </si>
+  <si>
+    <t>7142099</t>
+  </si>
+  <si>
+    <t>7142100</t>
+  </si>
+  <si>
+    <t>7142101</t>
+  </si>
+  <si>
+    <t>Bearer tzRXnn33vaJnQjnEKwd4SHz19lF2id</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Airport: Rental Car Center</t>
+  </si>
+  <si>
+    <t>Corporate: Privately Held</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-68483</t>
+  </si>
+  <si>
+    <t>1000172260</t>
+  </si>
+  <si>
+    <t>0011047079</t>
+  </si>
+  <si>
+    <t>pYfSK8tVv1BXEw7Yfm4bjrqI</t>
+  </si>
+  <si>
+    <t>1009132</t>
+  </si>
+  <si>
+    <t>7142370</t>
+  </si>
+  <si>
+    <t>7142371</t>
+  </si>
+  <si>
+    <t>7142375</t>
+  </si>
+  <si>
+    <t>7142379</t>
+  </si>
+  <si>
+    <t>7142380</t>
+  </si>
+  <si>
+    <t>7142384</t>
+  </si>
+  <si>
+    <t>7142388</t>
+  </si>
+  <si>
+    <t>7142389</t>
+  </si>
+  <si>
+    <t>7142393</t>
+  </si>
+  <si>
+    <t>7142397</t>
+  </si>
+  <si>
+    <t>7142401</t>
+  </si>
+  <si>
+    <t>7142405</t>
+  </si>
+  <si>
+    <t>7142409</t>
+  </si>
+  <si>
+    <t>7142413</t>
+  </si>
+  <si>
+    <t>7142414</t>
+  </si>
+  <si>
+    <t>7142418</t>
+  </si>
+  <si>
+    <t>7142419</t>
+  </si>
+  <si>
+    <t>7142423</t>
+  </si>
+  <si>
+    <t>7142427</t>
+  </si>
+  <si>
+    <t>7142428</t>
+  </si>
+  <si>
+    <t>7142432</t>
+  </si>
+  <si>
+    <t>7142436</t>
+  </si>
+  <si>
+    <t>7142440</t>
+  </si>
+  <si>
+    <t>7142441</t>
+  </si>
+  <si>
+    <t>7142445</t>
+  </si>
+  <si>
+    <t>7142449</t>
+  </si>
+  <si>
+    <t>7142453</t>
+  </si>
+  <si>
+    <t>7142457</t>
+  </si>
+  <si>
+    <t>7142458</t>
+  </si>
+  <si>
+    <t>7142462</t>
+  </si>
+  <si>
+    <t>7142466</t>
+  </si>
+  <si>
+    <t>7142467</t>
+  </si>
+  <si>
+    <t>7142471</t>
+  </si>
+  <si>
+    <t>7142475</t>
+  </si>
+  <si>
+    <t>7142477</t>
+  </si>
+  <si>
+    <t>7142480</t>
+  </si>
+  <si>
+    <t>7142484</t>
+  </si>
+  <si>
+    <t>7142485</t>
+  </si>
+  <si>
+    <t>7142489</t>
+  </si>
+  <si>
+    <t>7142493</t>
+  </si>
+  <si>
+    <t>7142497</t>
+  </si>
+  <si>
+    <t>7142498</t>
+  </si>
+  <si>
+    <t>7142502</t>
+  </si>
+  <si>
+    <t>7142506</t>
+  </si>
+  <si>
+    <t>7142510</t>
+  </si>
+  <si>
+    <t>7142514</t>
+  </si>
+  <si>
+    <t>7142515</t>
+  </si>
+  <si>
+    <t>7142519</t>
+  </si>
+  <si>
+    <t>7142523</t>
+  </si>
+  <si>
+    <t>7142527</t>
+  </si>
+  <si>
+    <t>7142531</t>
+  </si>
+  <si>
+    <t>7142535</t>
+  </si>
+  <si>
+    <t>7142536</t>
+  </si>
+  <si>
+    <t>7142540</t>
+  </si>
+  <si>
+    <t>7142541</t>
+  </si>
+  <si>
+    <t>7142545</t>
+  </si>
+  <si>
+    <t>7142549</t>
+  </si>
+  <si>
+    <t>7142553</t>
+  </si>
+  <si>
+    <t>7142554</t>
+  </si>
+  <si>
+    <t>7142558</t>
+  </si>
+  <si>
+    <t>7142559</t>
+  </si>
+  <si>
+    <t>7142560</t>
+  </si>
+  <si>
+    <t>1009925</t>
+  </si>
+  <si>
+    <t>7142561</t>
+  </si>
+  <si>
+    <t>7142562</t>
+  </si>
+  <si>
+    <t>7142563</t>
+  </si>
+  <si>
+    <t>7142568</t>
+  </si>
+  <si>
+    <t>7142569</t>
+  </si>
+  <si>
+    <t>7142570</t>
+  </si>
+  <si>
+    <t>7142571</t>
+  </si>
+  <si>
+    <t>7142572</t>
+  </si>
+  <si>
+    <t>7142573</t>
+  </si>
+  <si>
+    <t>7142574</t>
+  </si>
+  <si>
+    <t>7142575</t>
+  </si>
+  <si>
+    <t>7142576</t>
+  </si>
+  <si>
+    <t>7142577</t>
+  </si>
+  <si>
+    <t>7142578</t>
+  </si>
+  <si>
+    <t>7142579</t>
+  </si>
+  <si>
+    <t>7142580</t>
+  </si>
+  <si>
+    <t>7142581</t>
+  </si>
+  <si>
+    <t>7142582</t>
+  </si>
+  <si>
+    <t>7142583</t>
+  </si>
+  <si>
+    <t>7142584</t>
+  </si>
+  <si>
+    <t>7142585</t>
+  </si>
+  <si>
+    <t>7142586</t>
+  </si>
+  <si>
+    <t>7142587</t>
+  </si>
+  <si>
+    <t>7142588</t>
+  </si>
+  <si>
+    <t>7142589</t>
+  </si>
+  <si>
+    <t>7142591</t>
+  </si>
+  <si>
+    <t>7142592</t>
+  </si>
+  <si>
+    <t>7142593</t>
+  </si>
+  <si>
+    <t>7142594</t>
+  </si>
+  <si>
+    <t>7142595</t>
+  </si>
+  <si>
+    <t>7142596</t>
+  </si>
+  <si>
+    <t>7142597</t>
+  </si>
+  <si>
+    <t>7142598</t>
+  </si>
+  <si>
+    <t>7142602</t>
+  </si>
+  <si>
+    <t>7142603</t>
+  </si>
+  <si>
+    <t>7142604</t>
+  </si>
+  <si>
+    <t>7142605</t>
+  </si>
+  <si>
+    <t>7142606</t>
+  </si>
+  <si>
+    <t>7142607</t>
+  </si>
+  <si>
+    <t>7142608</t>
+  </si>
+  <si>
+    <t>7142609</t>
+  </si>
+  <si>
+    <t>7142610</t>
+  </si>
+  <si>
+    <t>7142611</t>
+  </si>
+  <si>
+    <t>7142612</t>
+  </si>
+  <si>
+    <t>7142613</t>
+  </si>
+  <si>
+    <t>7142614</t>
+  </si>
+  <si>
+    <t>7142615</t>
+  </si>
+  <si>
+    <t>7142616</t>
+  </si>
+  <si>
+    <t>7142617</t>
+  </si>
+  <si>
+    <t>7142618</t>
+  </si>
+  <si>
+    <t>7142619</t>
+  </si>
+  <si>
+    <t>7142620</t>
+  </si>
+  <si>
+    <t>7142621</t>
+  </si>
+  <si>
+    <t>7142622</t>
+  </si>
+  <si>
+    <t>7142623</t>
+  </si>
+  <si>
+    <t>7142624</t>
+  </si>
+  <si>
+    <t>7142628</t>
+  </si>
+  <si>
+    <t>7142629</t>
+  </si>
+  <si>
+    <t>7142630</t>
+  </si>
+  <si>
+    <t>7142631</t>
+  </si>
+  <si>
+    <t>7142632</t>
+  </si>
+  <si>
+    <t>7142633</t>
+  </si>
+  <si>
+    <t>237658</t>
+  </si>
+  <si>
+    <t>237659</t>
+  </si>
+  <si>
+    <t>237660</t>
+  </si>
+  <si>
+    <t>237661</t>
+  </si>
+  <si>
+    <t>237662</t>
+  </si>
+  <si>
+    <t>237663</t>
+  </si>
+  <si>
+    <t>237664</t>
+  </si>
+  <si>
+    <t>237665</t>
+  </si>
+  <si>
+    <t>237666</t>
+  </si>
+  <si>
+    <t>237667</t>
+  </si>
+  <si>
+    <t>237680</t>
+  </si>
+  <si>
+    <t>237681</t>
+  </si>
+  <si>
+    <t>237682</t>
+  </si>
+  <si>
+    <t>237683</t>
+  </si>
+  <si>
+    <t>237684</t>
+  </si>
+  <si>
+    <t>237685</t>
+  </si>
+  <si>
+    <t>237686</t>
+  </si>
+  <si>
+    <t>237687</t>
+  </si>
+  <si>
+    <t>237688</t>
+  </si>
+  <si>
+    <t>237689</t>
+  </si>
+  <si>
+    <t>237690</t>
+  </si>
+  <si>
+    <t>237691</t>
+  </si>
+  <si>
+    <t>237692</t>
+  </si>
+  <si>
+    <t>237693</t>
+  </si>
+  <si>
+    <t>237694</t>
+  </si>
+  <si>
+    <t>237695</t>
+  </si>
+  <si>
+    <t>237696</t>
+  </si>
+  <si>
+    <t>237697</t>
+  </si>
+  <si>
+    <t>237698</t>
+  </si>
+  <si>
+    <t>237699</t>
+  </si>
+  <si>
+    <t>237700</t>
+  </si>
+  <si>
+    <t>237701</t>
+  </si>
+  <si>
+    <t>237702</t>
+  </si>
+  <si>
+    <t>237703</t>
+  </si>
+  <si>
+    <t>237704</t>
+  </si>
+  <si>
+    <t>237705</t>
+  </si>
+  <si>
+    <t>237706</t>
+  </si>
+  <si>
+    <t>237707</t>
+  </si>
+  <si>
+    <t>237708</t>
+  </si>
+  <si>
+    <t>237709</t>
+  </si>
+  <si>
+    <t>237710</t>
+  </si>
+  <si>
+    <t>237711</t>
+  </si>
+  <si>
+    <t>237712</t>
+  </si>
+  <si>
+    <t>237713</t>
+  </si>
+  <si>
+    <t>237714</t>
+  </si>
+  <si>
+    <t>237715</t>
+  </si>
+  <si>
+    <t>237716</t>
+  </si>
+  <si>
+    <t>237717</t>
+  </si>
+  <si>
+    <t>237718</t>
+  </si>
+  <si>
+    <t>237719</t>
+  </si>
+  <si>
+    <t>237720</t>
+  </si>
+  <si>
+    <t>237721</t>
+  </si>
+  <si>
+    <t>237722</t>
+  </si>
+  <si>
+    <t>237723</t>
+  </si>
+  <si>
+    <t>237724</t>
+  </si>
+  <si>
+    <t>237725</t>
+  </si>
+  <si>
+    <t>237726</t>
+  </si>
+  <si>
+    <t>237727</t>
+  </si>
+  <si>
+    <t>237728</t>
+  </si>
+  <si>
+    <t>237729</t>
+  </si>
+  <si>
+    <t>237730</t>
+  </si>
+  <si>
+    <t>237731</t>
+  </si>
+  <si>
+    <t>1009970</t>
+  </si>
+  <si>
+    <t>1009971</t>
+  </si>
+  <si>
+    <t>Bearer WFLZvqhFSdz2MNddYvsjw7EfH6vRHF</t>
+  </si>
+  <si>
+    <t>70001859</t>
+  </si>
+  <si>
+    <t>4192</t>
+  </si>
+  <si>
+    <t>Bearer kCZ3NO4d7pw6VhW8J4Bx2cLYqtSaXH</t>
+  </si>
+  <si>
+    <t>70001860</t>
+  </si>
+  <si>
+    <t>4194</t>
+  </si>
+  <si>
+    <t>Bearer fSlwQFyQgPbGYjqI2ySQmwJTXjknNH</t>
+  </si>
+  <si>
+    <t>4196</t>
+  </si>
+  <si>
+    <t>Bearer QRN34DQUrYFt8SCqf3AyR9aJOkaJGp</t>
+  </si>
+  <si>
+    <t>70001861</t>
+  </si>
+  <si>
+    <t>4197</t>
+  </si>
+  <si>
+    <t>Bearer XNtHEdQuWwxtElUIWSvJKWz7diU9gW</t>
+  </si>
+  <si>
+    <t>70001862</t>
+  </si>
+  <si>
+    <t>4199</t>
+  </si>
+  <si>
+    <t>Bearer M9mE0qiFjMZ49iWmnX4ixFQyX4J5Sl</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Community Development Corporation or Non-profit Developer</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-12562</t>
+  </si>
+  <si>
+    <t>1000172330</t>
+  </si>
+  <si>
+    <t>0011047095</t>
+  </si>
+  <si>
+    <t>lBhzg8SeQlmsIx4DolXaLzwn</t>
+  </si>
+  <si>
+    <t>1010007</t>
+  </si>
+  <si>
+    <t>Bearer FwdYXMpPVALNsQa0oTUG91dZ6Ww4eZ</t>
+  </si>
+  <si>
+    <t>70001863</t>
+  </si>
+  <si>
+    <t>Bearer yja3SMKR3TkltDS8b7WbQCE8Zehx85</t>
+  </si>
+  <si>
+    <t>Transit: Depot</t>
+  </si>
+  <si>
+    <t>Business Improvement District</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-70519</t>
+  </si>
+  <si>
+    <t>1000172331</t>
+  </si>
+  <si>
+    <t>0011047096</t>
+  </si>
+  <si>
+    <t>4Z4ZCOflbAn5jc1ac9KCCGHG</t>
+  </si>
+  <si>
+    <t>1010026</t>
+  </si>
+  <si>
+    <t>Bearer wF4W1FRQvbXXuI9OWFGNp1oPoRTiyV</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Government Use: Local, County</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-36906</t>
+  </si>
+  <si>
+    <t>Bearer RDKY3yJFozchTWgqWsNCniO2ucr6NX</t>
+  </si>
+  <si>
+    <t>Retail: Enclosed Mall</t>
+  </si>
+  <si>
+    <t>Educational: College, Private</t>
+  </si>
+  <si>
+    <t>US-API-Transit-Underground-27735</t>
+  </si>
+  <si>
+    <t>1000172336</t>
+  </si>
+  <si>
+    <t>0011047097</t>
+  </si>
+  <si>
+    <t>xfi6NSnizxaLpWCajcAqpfHp</t>
+  </si>
+  <si>
+    <t>0000000010000000000846669</t>
+  </si>
+  <si>
+    <t>E9DB73079CD95EF1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9DB73079CD960F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000172336</t>
+  </si>
+  <si>
+    <t>1010050</t>
+  </si>
+  <si>
+    <t>7142720</t>
+  </si>
+  <si>
+    <t>237734</t>
+  </si>
+  <si>
+    <t>45382</t>
+  </si>
+  <si>
+    <t>1696</t>
+  </si>
+  <si>
+    <t>Transit Precertification Review</t>
+  </si>
+  <si>
+    <t>000000000000004289</t>
+  </si>
+  <si>
+    <t>1010054</t>
+  </si>
+  <si>
+    <t>1010053</t>
+  </si>
+  <si>
+    <t>1010052</t>
+  </si>
+  <si>
+    <t>1010051</t>
+  </si>
+  <si>
+    <t>Bearer EQZoU5CYF3vONLgCZLUagMlxoFkifd</t>
+  </si>
+  <si>
+    <t>Transit: Station/Underground</t>
+  </si>
+  <si>
+    <t>Educational: University, Private</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-33600</t>
+  </si>
+  <si>
+    <t>1000172337</t>
+  </si>
+  <si>
+    <t>0011047099</t>
+  </si>
+  <si>
+    <t>1010073</t>
+  </si>
+  <si>
+    <t>1010074</t>
+  </si>
+  <si>
+    <t>1010075</t>
+  </si>
+  <si>
+    <t>Bearer c4MjCo8yt9xxo4MAV0mJJM3pPDfsqz</t>
+  </si>
+  <si>
+    <t>1000092311</t>
+  </si>
+  <si>
+    <t>1000092312</t>
+  </si>
+  <si>
+    <t>1000092313</t>
+  </si>
+  <si>
+    <t>1000092315</t>
+  </si>
+  <si>
+    <t>1000092316</t>
+  </si>
+  <si>
+    <t>1000092320</t>
+  </si>
+  <si>
+    <t>1000092321</t>
+  </si>
+  <si>
+    <t>1000092322</t>
+  </si>
+  <si>
+    <t>1000092323</t>
+  </si>
+  <si>
+    <t>1000092324</t>
+  </si>
+  <si>
+    <t>1000092325</t>
+  </si>
+  <si>
+    <t>Bearer WVT5tmZSBQSq6qor6VE7XzXEO0SduR</t>
+  </si>
+  <si>
+    <t>Religious</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-87078</t>
+  </si>
+  <si>
+    <t>1000172338</t>
+  </si>
+  <si>
+    <t>0011047100</t>
+  </si>
+  <si>
+    <t>OLImOl7tdM0Wknb6shMTNjRm</t>
+  </si>
+  <si>
+    <t>1010095</t>
+  </si>
+  <si>
+    <t>1010096</t>
+  </si>
+  <si>
+    <t>7142778</t>
+  </si>
+  <si>
+    <t>Bearer SO5D36rxRmucaAKwEBIXDS1KobgMzI</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Investor: Investment Manager</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-76755</t>
+  </si>
+  <si>
+    <t>9000162379</t>
+  </si>
+  <si>
+    <t>XSkXecRKDT5g8N2DpGjbvLvI</t>
+  </si>
+  <si>
+    <t>1010115</t>
+  </si>
+  <si>
+    <t>1010116</t>
+  </si>
+  <si>
+    <t>7142782</t>
+  </si>
+  <si>
+    <t>1010114</t>
+  </si>
+  <si>
+    <t>1010113</t>
+  </si>
+  <si>
+    <t>1010112</t>
+  </si>
+  <si>
+    <t>1010111</t>
+  </si>
+  <si>
+    <t>1010110</t>
+  </si>
+  <si>
+    <t>1010109</t>
+  </si>
+  <si>
+    <t>1010108</t>
+  </si>
+  <si>
+    <t>1010107</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>1579</t>
+  </si>
+  <si>
+    <t>1580</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>1582</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>1584</t>
+  </si>
+  <si>
+    <t>1585</t>
+  </si>
+  <si>
+    <t>1586</t>
+  </si>
+  <si>
+    <t>1587</t>
+  </si>
+  <si>
+    <t>1588</t>
+  </si>
+  <si>
+    <t>1589</t>
+  </si>
+  <si>
+    <t>1590</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>1592</t>
+  </si>
+  <si>
+    <t>1593</t>
+  </si>
+  <si>
+    <t>1010118</t>
+  </si>
+  <si>
+    <t>1010117</t>
+  </si>
+  <si>
+    <t>Lodging: Hotel/Motel/Resort, Full Service</t>
+  </si>
+  <si>
+    <t>1000172339</t>
+  </si>
+  <si>
+    <t>0011047101</t>
+  </si>
+  <si>
+    <t>Bearer AJeFLBo4fUNNXHLXxIFtV2UBH0yrrg</t>
+  </si>
+  <si>
+    <t>Public Assembly: Recreation</t>
+  </si>
+  <si>
+    <t>Investor: Equity Fund</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-05968</t>
+  </si>
+  <si>
+    <t>1000172340</t>
+  </si>
+  <si>
+    <t>0011047102</t>
+  </si>
+  <si>
+    <t>Bearer 8jNW3CwsVeyqbQH1etFhmDYKM2JK8G</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-51604</t>
+  </si>
+  <si>
+    <t>1000172341</t>
+  </si>
+  <si>
+    <t>0011047103</t>
+  </si>
+  <si>
+    <t>ACS2SS103L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2SS106L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2SS109L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2SS111L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2SS113L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2SS118L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2SS119L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2WE103L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2EA102L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2EA105L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2EA109L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2EA125L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2EA127L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2MR105L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2MR106L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2MR121L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2MR116L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2MR122L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2MR111L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2EQ103L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2EQ106L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2EQ108L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2EQ116L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2EQ120L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2EQ122L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2EQ125L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2EQ126L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2EQ127L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2EQ128L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2PF901L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2PF902L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2PF903L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2PF904L-1000172341</t>
+  </si>
+  <si>
+    <t>ACS2PF905L-1000172341</t>
+  </si>
+  <si>
+    <t>1010160</t>
+  </si>
+  <si>
+    <t>7142839</t>
+  </si>
+  <si>
+    <t>Bearer U11Zx6K1ZNakq4YUy4gHye8NJ0iZfg</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>US-API-City-None-96324</t>
+  </si>
+  <si>
+    <t>1000172342</t>
+  </si>
+  <si>
+    <t>0011047104</t>
+  </si>
+  <si>
+    <t>Bearer 1pAMLX41yGA8iMUqgUQ49woMIsAnzm</t>
+  </si>
+  <si>
+    <t>70001864</t>
+  </si>
+  <si>
+    <t>4201</t>
   </si>
 </sst>
 </file>
@@ -7212,8 +8778,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="17.91796875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.53515625" collapsed="true"/>
@@ -7222,35 +8788,37 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="20.9765625" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="24.5234375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="37.21484375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="37.21484375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.44921875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="37.34765625" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.96875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="29.9453125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.84765625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.4140625" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.74609375" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="11.1171875" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="21.10546875" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.51171875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.48046875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="39.96484375" collapsed="true"/>
     <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
     <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
     <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
     <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="14.921875" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="26.3203125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="41.47265625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="41.02734375" collapsed="true"/>
     <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
     <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="22.93359375" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
     <col min="62" max="62" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="37.21484375" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="37.21484375" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="37.44921875" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="37.34765625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.12890625" collapsed="true"/>
     <col min="67" max="67" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -7459,28 +9027,28 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>680</v>
+        <v>2614</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2028</v>
+        <v>2666</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>681</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2175</v>
+        <v>2708</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2182</v>
+        <v>2314</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2155</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>2160</v>
+        <v>2202</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>2168</v>
+        <v>2572</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
@@ -7490,52 +9058,52 @@
         <v>2187</v>
       </c>
       <c r="L2" t="s">
-        <v>2121</v>
+        <v>2576</v>
       </c>
       <c r="M2" t="s">
-        <v>2122</v>
+        <v>2577</v>
       </c>
       <c r="N2" t="s">
-        <v>2120</v>
+        <v>2575</v>
       </c>
       <c r="O2" t="s">
-        <v>2190</v>
+        <v>2625</v>
       </c>
       <c r="P2" t="s">
-        <v>1952</v>
+        <v>2701</v>
       </c>
       <c r="Q2" t="s">
-        <v>1954</v>
+        <v>2702</v>
       </c>
       <c r="R2" t="s">
-        <v>1955</v>
+        <v>2703</v>
       </c>
       <c r="S2" t="s">
         <v>558</v>
       </c>
       <c r="T2" t="s">
-        <v>2019</v>
+        <v>2583</v>
       </c>
       <c r="U2" t="s">
-        <v>2103</v>
+        <v>2711</v>
       </c>
       <c r="V2" t="s">
-        <v>2104</v>
+        <v>2712</v>
       </c>
       <c r="W2" t="s">
-        <v>2189</v>
+        <v>2030</v>
       </c>
       <c r="X2" t="s">
-        <v>2188</v>
+        <v>2029</v>
       </c>
       <c r="Y2" t="s">
         <v>666</v>
       </c>
       <c r="Z2" t="s">
-        <v>2177</v>
+        <v>2582</v>
       </c>
       <c r="AA2" t="s">
-        <v>2183</v>
+        <v>2710</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -7589,7 +9157,7 @@
         <v>88</v>
       </c>
       <c r="AT2" t="s">
-        <v>2184</v>
+        <v>2705</v>
       </c>
       <c r="AU2" t="s">
         <v>89</v>
@@ -7604,10 +9172,10 @@
         <v>146</v>
       </c>
       <c r="AY2" t="s">
-        <v>2185</v>
+        <v>2706</v>
       </c>
       <c r="AZ2" t="s">
-        <v>562</v>
+        <v>2166</v>
       </c>
       <c r="BA2" s="5" t="s">
         <v>427</v>
@@ -7631,25 +9199,25 @@
         <v>417</v>
       </c>
       <c r="BH2" t="s">
-        <v>2186</v>
+        <v>2707</v>
       </c>
       <c r="BI2" t="s">
-        <v>2123</v>
+        <v>2578</v>
       </c>
       <c r="BJ2" t="s">
-        <v>2120</v>
+        <v>2575</v>
       </c>
       <c r="BK2" t="s">
-        <v>2121</v>
+        <v>2576</v>
       </c>
       <c r="BL2" t="s">
-        <v>2122</v>
+        <v>2577</v>
       </c>
       <c r="BM2" t="s">
-        <v>1956</v>
+        <v>2581</v>
       </c>
       <c r="BN2" t="s">
-        <v>652</v>
+        <v>2405</v>
       </c>
       <c r="BO2" t="s">
         <v>2127</v>
@@ -11204,20 +12772,20 @@
     <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.890625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.39453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.765625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.890625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.51171875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.39453125" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="22.7109375" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.15234375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="26.890625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="25.9296875" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="28.17578125" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
@@ -11340,25 +12908,25 @@
         <v>665</v>
       </c>
       <c r="F2" t="s">
-        <v>1948</v>
+        <v>2194</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>423</v>
       </c>
       <c r="H2" t="s">
-        <v>1949</v>
+        <v>2195</v>
       </c>
       <c r="I2" t="s">
-        <v>1950</v>
+        <v>2196</v>
       </c>
       <c r="J2" t="s">
         <v>1942</v>
       </c>
       <c r="K2" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="L2" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>1715</v>
@@ -11379,7 +12947,7 @@
         <v>1941</v>
       </c>
       <c r="S2" t="s">
-        <v>1946</v>
+        <v>1940</v>
       </c>
       <c r="T2" t="s">
         <v>1940</v>
@@ -11528,20 +13096,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.8359375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="28.25390625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.26171875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.39453125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="26.0546875" collapsed="true"/>
     <col min="26" max="26" customWidth="true" width="17.28515625" collapsed="true"/>
     <col min="27" max="27" customWidth="true" width="18.0" collapsed="true"/>
     <col min="28" max="28" customWidth="true" width="17.42578125" collapsed="true"/>
     <col min="29" max="29" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="15.78125" collapsed="true"/>
     <col min="65" max="66" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -11639,7 +13209,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>762</v>
+        <v>2596</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>763</v>
@@ -11657,7 +13227,7 @@
         <v>767</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>1977</v>
+        <v>2627</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>1961</v>
@@ -11666,16 +13236,16 @@
         <v>1973</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>769</v>
+        <v>2626</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>2101</v>
+        <v>2626</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>1977</v>
+        <v>2627</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>1978</v>
+        <v>2628</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>2037</v>
@@ -11700,7 +13270,7 @@
         <v>60</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>2002</v>
+        <v>2653</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>1959</v>
@@ -11724,12 +13294,12 @@
         <v>200</v>
       </c>
       <c r="AD2" t="s">
-        <v>2036</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>774</v>
+        <v>2597</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>775</v>
@@ -11747,7 +13317,7 @@
         <v>779</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>1976</v>
+        <v>2626</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>1962</v>
@@ -11782,7 +13352,7 @@
         <v>60</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>2003</v>
+        <v>2654</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>1960</v>
@@ -11808,7 +13378,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>784</v>
+        <v>2598</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>785</v>
@@ -11826,7 +13396,7 @@
         <v>789</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>1979</v>
+        <v>2629</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>559</v>
@@ -11861,7 +13431,7 @@
         <v>60</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>1977</v>
+        <v>2627</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>1961</v>
@@ -11905,7 +13475,7 @@
         <v>799</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>1980</v>
+        <v>2630</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>1919</v>
@@ -11940,7 +13510,7 @@
         <v>60</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>1976</v>
+        <v>2626</v>
       </c>
       <c r="W5" s="15" t="s">
         <v>1962</v>
@@ -11984,7 +13554,7 @@
         <v>809</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>1981</v>
+        <v>2631</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>1920</v>
@@ -12059,7 +13629,7 @@
         <v>819</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>1982</v>
+        <v>2632</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>1921</v>
@@ -12134,7 +13704,7 @@
         <v>829</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>1983</v>
+        <v>2633</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>1971</v>
@@ -12209,7 +13779,7 @@
         <v>839</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>1984</v>
+        <v>2634</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>1972</v>
@@ -12284,7 +13854,7 @@
         <v>849</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>1985</v>
+        <v>2635</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>1922</v>
@@ -12359,7 +13929,7 @@
         <v>859</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>1986</v>
+        <v>2636</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>768</v>
@@ -20449,7 +22019,9 @@
     <col min="25" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
     <col min="28" max="30" bestFit="true" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="31" max="33" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="18.51953125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.51953125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="18.51953125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -20642,68 +22214,68 @@
         <v>356</v>
       </c>
       <c r="AE2" t="s">
-        <v>1987</v>
+        <v>2637</v>
       </c>
       <c r="AF2" t="s">
-        <v>1996</v>
+        <v>2646</v>
       </c>
       <c r="AG2" t="s">
-        <v>1999</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE3" t="s">
-        <v>1988</v>
+        <v>2638</v>
       </c>
       <c r="AF3" t="s">
-        <v>1997</v>
+        <v>2647</v>
       </c>
       <c r="AG3" t="s">
-        <v>2000</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE4" t="s">
-        <v>1989</v>
+        <v>2639</v>
       </c>
       <c r="AF4" t="s">
-        <v>1998</v>
+        <v>2648</v>
       </c>
       <c r="AG4" t="s">
-        <v>2001</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE5" t="s">
-        <v>1990</v>
+        <v>2640</v>
       </c>
       <c r="AG5" t="s">
-        <v>1975</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE6" t="s">
-        <v>1991</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE7" t="s">
-        <v>1992</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE8" t="s">
-        <v>1993</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE9" t="s">
-        <v>1994</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE10" t="s">
-        <v>1995</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -20778,7 +22350,7 @@
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>2088</v>
+        <v>2600</v>
       </c>
       <c r="F2" t="s">
         <v>2051</v>
@@ -20801,7 +22373,7 @@
         <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>2089</v>
+        <v>2601</v>
       </c>
       <c r="F3" t="s">
         <v>2052</v>
@@ -20824,7 +22396,7 @@
         <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>2090</v>
+        <v>2602</v>
       </c>
       <c r="F4" t="s">
         <v>2053</v>
@@ -20847,7 +22419,7 @@
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>2091</v>
+        <v>2603</v>
       </c>
       <c r="F5" t="s">
         <v>2054</v>
@@ -20870,7 +22442,7 @@
         <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>2092</v>
+        <v>2604</v>
       </c>
       <c r="F6" t="s">
         <v>2055</v>
@@ -20893,7 +22465,7 @@
         <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>2093</v>
+        <v>2605</v>
       </c>
       <c r="F7" t="s">
         <v>134</v>
@@ -20916,7 +22488,7 @@
         <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>2094</v>
+        <v>2606</v>
       </c>
       <c r="F8" t="s">
         <v>135</v>
@@ -20939,7 +22511,7 @@
         <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>2095</v>
+        <v>2607</v>
       </c>
       <c r="F9" t="s">
         <v>136</v>
@@ -20962,7 +22534,7 @@
         <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>2096</v>
+        <v>2608</v>
       </c>
       <c r="F10" t="s">
         <v>137</v>
@@ -20985,7 +22557,7 @@
         <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>2097</v>
+        <v>2609</v>
       </c>
       <c r="F11" t="s">
         <v>138</v>
@@ -21008,7 +22580,7 @@
         <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>2098</v>
+        <v>2610</v>
       </c>
       <c r="F12" t="s">
         <v>139</v>

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="2713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5699" uniqueCount="3106">
   <si>
     <t>FileID</t>
   </si>
@@ -8180,6 +8180,1185 @@
   </si>
   <si>
     <t>4201</t>
+  </si>
+  <si>
+    <t>Bearer wYR9rAb3Tq9UNz5LNTJ4gk4zQqoTiO</t>
+  </si>
+  <si>
+    <t>Warehouse: General</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-10660</t>
+  </si>
+  <si>
+    <t>1000146772</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@2b53840a</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@7fd99443</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@34a6d9db</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@7c901203</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@145e958f</t>
+  </si>
+  <si>
+    <t>1000146775</t>
+  </si>
+  <si>
+    <t>Bearer FUcIDTZrBGOwjG6F7qjOQ0NMIyE6AT</t>
+  </si>
+  <si>
+    <t>Core Learning Space: Other classroom education</t>
+  </si>
+  <si>
+    <t>Educational: University, Public</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-97373</t>
+  </si>
+  <si>
+    <t>1000146777</t>
+  </si>
+  <si>
+    <t>Bearer L79MWrW08lFkw0wKcCgWhPBn3gf1qV</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-38827</t>
+  </si>
+  <si>
+    <t>1000146778</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@57bd6a8f</t>
+  </si>
+  <si>
+    <t>Bearer UjFXRdDndjYNPGdDlmiXI1wp1lGqaj</t>
+  </si>
+  <si>
+    <t>Public Assembly: Library</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-40329</t>
+  </si>
+  <si>
+    <t>1000146779</t>
+  </si>
+  <si>
+    <t>O+M EB With Performance : Registration</t>
+  </si>
+  <si>
+    <t>000000000000003370</t>
+  </si>
+  <si>
+    <t>0010400665</t>
+  </si>
+  <si>
+    <t>0P2CRCcMrV3y6EP6z0tu14in</t>
+  </si>
+  <si>
+    <t>0000000010000000000144619</t>
+  </si>
+  <si>
+    <t>E9DB882F4F73EAF1A60F0AE29B08431D</t>
+  </si>
+  <si>
+    <t>E9DB882F4F73ECF1A60F0AE29B08431D</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000146779</t>
+  </si>
+  <si>
+    <t>15069</t>
+  </si>
+  <si>
+    <t>164603</t>
+  </si>
+  <si>
+    <t>3093</t>
+  </si>
+  <si>
+    <t>1346</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>15073</t>
+  </si>
+  <si>
+    <t>15072</t>
+  </si>
+  <si>
+    <t>15071</t>
+  </si>
+  <si>
+    <t>15070</t>
+  </si>
+  <si>
+    <t>Bearer SLnvN69hn0jDTtqlhCqAq6m5ReodXX</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>Service: Post Office/Postal Center</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-85073</t>
+  </si>
+  <si>
+    <t>1000146780</t>
+  </si>
+  <si>
+    <t>0010400667</t>
+  </si>
+  <si>
+    <t>XKiRl6IkF2Bqgqg05k0AoL7s</t>
+  </si>
+  <si>
+    <t>15092</t>
+  </si>
+  <si>
+    <t>164656</t>
+  </si>
+  <si>
+    <t>164657</t>
+  </si>
+  <si>
+    <t>164658</t>
+  </si>
+  <si>
+    <t>164659</t>
+  </si>
+  <si>
+    <t>164660</t>
+  </si>
+  <si>
+    <t>164661</t>
+  </si>
+  <si>
+    <t>164662</t>
+  </si>
+  <si>
+    <t>164663</t>
+  </si>
+  <si>
+    <t>164664</t>
+  </si>
+  <si>
+    <t>164665</t>
+  </si>
+  <si>
+    <t>164666</t>
+  </si>
+  <si>
+    <t>164667</t>
+  </si>
+  <si>
+    <t>164668</t>
+  </si>
+  <si>
+    <t>164669</t>
+  </si>
+  <si>
+    <t>164670</t>
+  </si>
+  <si>
+    <t>164671</t>
+  </si>
+  <si>
+    <t>164672</t>
+  </si>
+  <si>
+    <t>164673</t>
+  </si>
+  <si>
+    <t>164674</t>
+  </si>
+  <si>
+    <t>164675</t>
+  </si>
+  <si>
+    <t>164676</t>
+  </si>
+  <si>
+    <t>164677</t>
+  </si>
+  <si>
+    <t>164678</t>
+  </si>
+  <si>
+    <t>164679</t>
+  </si>
+  <si>
+    <t>164680</t>
+  </si>
+  <si>
+    <t>164681</t>
+  </si>
+  <si>
+    <t>164682</t>
+  </si>
+  <si>
+    <t>164683</t>
+  </si>
+  <si>
+    <t>164684</t>
+  </si>
+  <si>
+    <t>164685</t>
+  </si>
+  <si>
+    <t>164686</t>
+  </si>
+  <si>
+    <t>164687</t>
+  </si>
+  <si>
+    <t>164688</t>
+  </si>
+  <si>
+    <t>164689</t>
+  </si>
+  <si>
+    <t>164690</t>
+  </si>
+  <si>
+    <t>164691</t>
+  </si>
+  <si>
+    <t>164692</t>
+  </si>
+  <si>
+    <t>164693</t>
+  </si>
+  <si>
+    <t>164694</t>
+  </si>
+  <si>
+    <t>164695</t>
+  </si>
+  <si>
+    <t>164696</t>
+  </si>
+  <si>
+    <t>164697</t>
+  </si>
+  <si>
+    <t>164698</t>
+  </si>
+  <si>
+    <t>164699</t>
+  </si>
+  <si>
+    <t>164700</t>
+  </si>
+  <si>
+    <t>164701</t>
+  </si>
+  <si>
+    <t>164702</t>
+  </si>
+  <si>
+    <t>164703</t>
+  </si>
+  <si>
+    <t>164704</t>
+  </si>
+  <si>
+    <t>164705</t>
+  </si>
+  <si>
+    <t>164706</t>
+  </si>
+  <si>
+    <t>164707</t>
+  </si>
+  <si>
+    <t>164708</t>
+  </si>
+  <si>
+    <t>164709</t>
+  </si>
+  <si>
+    <t>164710</t>
+  </si>
+  <si>
+    <t>164711</t>
+  </si>
+  <si>
+    <t>164712</t>
+  </si>
+  <si>
+    <t>164713</t>
+  </si>
+  <si>
+    <t>164714</t>
+  </si>
+  <si>
+    <t>164715</t>
+  </si>
+  <si>
+    <t>164716</t>
+  </si>
+  <si>
+    <t>164717</t>
+  </si>
+  <si>
+    <t>15093</t>
+  </si>
+  <si>
+    <t>164718</t>
+  </si>
+  <si>
+    <t>164719</t>
+  </si>
+  <si>
+    <t>164720</t>
+  </si>
+  <si>
+    <t>164721</t>
+  </si>
+  <si>
+    <t>164722</t>
+  </si>
+  <si>
+    <t>164723</t>
+  </si>
+  <si>
+    <t>164724</t>
+  </si>
+  <si>
+    <t>164725</t>
+  </si>
+  <si>
+    <t>164726</t>
+  </si>
+  <si>
+    <t>164727</t>
+  </si>
+  <si>
+    <t>164728</t>
+  </si>
+  <si>
+    <t>164729</t>
+  </si>
+  <si>
+    <t>164730</t>
+  </si>
+  <si>
+    <t>164731</t>
+  </si>
+  <si>
+    <t>164732</t>
+  </si>
+  <si>
+    <t>164733</t>
+  </si>
+  <si>
+    <t>164734</t>
+  </si>
+  <si>
+    <t>164735</t>
+  </si>
+  <si>
+    <t>164736</t>
+  </si>
+  <si>
+    <t>164737</t>
+  </si>
+  <si>
+    <t>164738</t>
+  </si>
+  <si>
+    <t>164739</t>
+  </si>
+  <si>
+    <t>164740</t>
+  </si>
+  <si>
+    <t>164741</t>
+  </si>
+  <si>
+    <t>164742</t>
+  </si>
+  <si>
+    <t>164743</t>
+  </si>
+  <si>
+    <t>164744</t>
+  </si>
+  <si>
+    <t>164745</t>
+  </si>
+  <si>
+    <t>164746</t>
+  </si>
+  <si>
+    <t>164747</t>
+  </si>
+  <si>
+    <t>164748</t>
+  </si>
+  <si>
+    <t>164749</t>
+  </si>
+  <si>
+    <t>164750</t>
+  </si>
+  <si>
+    <t>164751</t>
+  </si>
+  <si>
+    <t>164752</t>
+  </si>
+  <si>
+    <t>164753</t>
+  </si>
+  <si>
+    <t>164754</t>
+  </si>
+  <si>
+    <t>164755</t>
+  </si>
+  <si>
+    <t>164756</t>
+  </si>
+  <si>
+    <t>164757</t>
+  </si>
+  <si>
+    <t>164758</t>
+  </si>
+  <si>
+    <t>164759</t>
+  </si>
+  <si>
+    <t>164760</t>
+  </si>
+  <si>
+    <t>164761</t>
+  </si>
+  <si>
+    <t>164762</t>
+  </si>
+  <si>
+    <t>164763</t>
+  </si>
+  <si>
+    <t>164764</t>
+  </si>
+  <si>
+    <t>164765</t>
+  </si>
+  <si>
+    <t>164766</t>
+  </si>
+  <si>
+    <t>164767</t>
+  </si>
+  <si>
+    <t>164768</t>
+  </si>
+  <si>
+    <t>164769</t>
+  </si>
+  <si>
+    <t>164770</t>
+  </si>
+  <si>
+    <t>164771</t>
+  </si>
+  <si>
+    <t>164772</t>
+  </si>
+  <si>
+    <t>164773</t>
+  </si>
+  <si>
+    <t>164774</t>
+  </si>
+  <si>
+    <t>164775</t>
+  </si>
+  <si>
+    <t>164776</t>
+  </si>
+  <si>
+    <t>164777</t>
+  </si>
+  <si>
+    <t>164778</t>
+  </si>
+  <si>
+    <t>164779</t>
+  </si>
+  <si>
+    <t>3106</t>
+  </si>
+  <si>
+    <t>3107</t>
+  </si>
+  <si>
+    <t>3108</t>
+  </si>
+  <si>
+    <t>3109</t>
+  </si>
+  <si>
+    <t>3110</t>
+  </si>
+  <si>
+    <t>3111</t>
+  </si>
+  <si>
+    <t>3112</t>
+  </si>
+  <si>
+    <t>3113</t>
+  </si>
+  <si>
+    <t>3114</t>
+  </si>
+  <si>
+    <t>3115</t>
+  </si>
+  <si>
+    <t>3116</t>
+  </si>
+  <si>
+    <t>3117</t>
+  </si>
+  <si>
+    <t>3118</t>
+  </si>
+  <si>
+    <t>3119</t>
+  </si>
+  <si>
+    <t>3120</t>
+  </si>
+  <si>
+    <t>3122</t>
+  </si>
+  <si>
+    <t>3123</t>
+  </si>
+  <si>
+    <t>3124</t>
+  </si>
+  <si>
+    <t>3125</t>
+  </si>
+  <si>
+    <t>3126</t>
+  </si>
+  <si>
+    <t>3127</t>
+  </si>
+  <si>
+    <t>3128</t>
+  </si>
+  <si>
+    <t>3129</t>
+  </si>
+  <si>
+    <t>3130</t>
+  </si>
+  <si>
+    <t>3131</t>
+  </si>
+  <si>
+    <t>3132</t>
+  </si>
+  <si>
+    <t>3133</t>
+  </si>
+  <si>
+    <t>3134</t>
+  </si>
+  <si>
+    <t>3135</t>
+  </si>
+  <si>
+    <t>3136</t>
+  </si>
+  <si>
+    <t>3137</t>
+  </si>
+  <si>
+    <t>3138</t>
+  </si>
+  <si>
+    <t>3139</t>
+  </si>
+  <si>
+    <t>3140</t>
+  </si>
+  <si>
+    <t>3141</t>
+  </si>
+  <si>
+    <t>3142</t>
+  </si>
+  <si>
+    <t>3143</t>
+  </si>
+  <si>
+    <t>3144</t>
+  </si>
+  <si>
+    <t>3145</t>
+  </si>
+  <si>
+    <t>3146</t>
+  </si>
+  <si>
+    <t>3147</t>
+  </si>
+  <si>
+    <t>3148</t>
+  </si>
+  <si>
+    <t>3149</t>
+  </si>
+  <si>
+    <t>3150</t>
+  </si>
+  <si>
+    <t>3151</t>
+  </si>
+  <si>
+    <t>3152</t>
+  </si>
+  <si>
+    <t>3153</t>
+  </si>
+  <si>
+    <t>3154</t>
+  </si>
+  <si>
+    <t>3155</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>3157</t>
+  </si>
+  <si>
+    <t>3158</t>
+  </si>
+  <si>
+    <t>3159</t>
+  </si>
+  <si>
+    <t>3160</t>
+  </si>
+  <si>
+    <t>3161</t>
+  </si>
+  <si>
+    <t>3162</t>
+  </si>
+  <si>
+    <t>3163</t>
+  </si>
+  <si>
+    <t>3164</t>
+  </si>
+  <si>
+    <t>3165</t>
+  </si>
+  <si>
+    <t>3166</t>
+  </si>
+  <si>
+    <t>3167</t>
+  </si>
+  <si>
+    <t>15094</t>
+  </si>
+  <si>
+    <t>15095</t>
+  </si>
+  <si>
+    <t>Bearer 0CPN5RmjawktVzQfU5LziaLDpRc7QK</t>
+  </si>
+  <si>
+    <t>70001867</t>
+  </si>
+  <si>
+    <t>Bearer Dft27z9O8uYkuCip6bGgJsgzX556Zt</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Retail: Grocery Store/Food Market</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-32177</t>
+  </si>
+  <si>
+    <t>1000146781</t>
+  </si>
+  <si>
+    <t>0010400668</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Public Order and Safety: Other Public Order</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS16</t>
+  </si>
+  <si>
+    <t>Bearer R46FtuJg3u1vTbj1WZXvBlza3z6A32</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS28</t>
+  </si>
+  <si>
+    <t>Bearer bxyHIvhxQdMAfShrisLf8e2UzjisCi</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>API LEED v4.1 Communities: ExistingUS51</t>
+  </si>
+  <si>
+    <t>Bearer iMR1WXh1ER2xd1un7XyPYCVvVDrUU7</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>API LEED v4.1 Communities: Plan and DesignUS70</t>
+  </si>
+  <si>
+    <t>Bearer WOEI2Cz28g2D7XN9R0MeKNz0krnaxv</t>
+  </si>
+  <si>
+    <t>API LEED v4.1 Cities: ExistingUS72</t>
+  </si>
+  <si>
+    <t>Bearer NyERaK4BRh6V9F9n3MdpyrUJfrx4JP</t>
+  </si>
+  <si>
+    <t>API LEED v4.1 Cities: Plan and DesignUS64</t>
+  </si>
+  <si>
+    <t>Bearer QENWAjGsiMvCuHJEgIygQaUvwmbaXg</t>
+  </si>
+  <si>
+    <t>Bearer kTreugtPXQmyQIdQD9Ou0U4LxoCEaq</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Corporate: Publicly Traded</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-65686</t>
+  </si>
+  <si>
+    <t>1000146786</t>
+  </si>
+  <si>
+    <t>Parksmart : Registration</t>
+  </si>
+  <si>
+    <t>0010400669</t>
+  </si>
+  <si>
+    <t>LTbU6a34IUDY6huOlPR4k5jP</t>
+  </si>
+  <si>
+    <t>1355</t>
+  </si>
+  <si>
+    <t>Bearer ZnA6E1Ofjg0Rq9Izz4NX6cp8ALxl5v</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Retail: Restaurant/Cafeteria</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-28813</t>
+  </si>
+  <si>
+    <t>1000146789</t>
+  </si>
+  <si>
+    <t>0010400670</t>
+  </si>
+  <si>
+    <t>Bearer yYTSXVFfkaWlKWnWqdBAqoKlXnGbGB</t>
+  </si>
+  <si>
+    <t>Bearer 6AtH5zBuAjqI3WmIIAnnKNcdzwfHA9</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Lodging: Dormitory</t>
+  </si>
+  <si>
+    <t>US-API-Transit-Aboveground-81498</t>
+  </si>
+  <si>
+    <t>1000146790</t>
+  </si>
+  <si>
+    <t>O+M Transit : Registration</t>
+  </si>
+  <si>
+    <t>0010400671</t>
+  </si>
+  <si>
+    <t>Bearer HOAGTqgdIYTVeVjgAjcBYsfsEOO10y</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Airport: Other</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-40697</t>
+  </si>
+  <si>
+    <t>1000146791</t>
+  </si>
+  <si>
+    <t>0010400672</t>
+  </si>
+  <si>
+    <t>Bearer d0HQTjg7sgbTNCOSdHSNqLSSlbEvNV</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>Transit: Other</t>
+  </si>
+  <si>
+    <t>US-API-Transit-Aboveground-51055</t>
+  </si>
+  <si>
+    <t>1000146792</t>
+  </si>
+  <si>
+    <t>0010400673</t>
+  </si>
+  <si>
+    <t>m5Wj6I2iPjt2dwNQVK9g2ac8</t>
+  </si>
+  <si>
+    <t>1362</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3168</t>
+  </si>
+  <si>
+    <t>0000000010000000000144624</t>
+  </si>
+  <si>
+    <t>E9DB937359885DF1A60F0AE29B08431D</t>
+  </si>
+  <si>
+    <t>E9DB937359885FF1A60F0AE29B08431D</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000146792</t>
+  </si>
+  <si>
+    <t>15242</t>
+  </si>
+  <si>
+    <t>15241</t>
+  </si>
+  <si>
+    <t>15240</t>
+  </si>
+  <si>
+    <t>15244</t>
+  </si>
+  <si>
+    <t>15243</t>
+  </si>
+  <si>
+    <t>15245</t>
+  </si>
+  <si>
+    <t>164823</t>
+  </si>
+  <si>
+    <t>O+M Transit - Review</t>
+  </si>
+  <si>
+    <t>Bearer xuPh0OsGrFjlF3M5LRVI3iuiFpK6rg</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Data Center</t>
+  </si>
+  <si>
+    <t>Government Use: Local, Public Housing Authority</t>
+  </si>
+  <si>
+    <t>US-API-Transit-Underground-54504</t>
+  </si>
+  <si>
+    <t>1000146793</t>
+  </si>
+  <si>
+    <t>0010400675</t>
+  </si>
+  <si>
+    <t>E5BuZQTKor3fzRFYb2AiN6Q8</t>
+  </si>
+  <si>
+    <t>0000000010000000000144625</t>
+  </si>
+  <si>
+    <t>E9DB95160D3BFCF1A60F0AE29B08431D</t>
+  </si>
+  <si>
+    <t>E9DB95160D3BFEF1A60F0AE29B08431D</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000146793</t>
+  </si>
+  <si>
+    <t>15257</t>
+  </si>
+  <si>
+    <t>164903</t>
+  </si>
+  <si>
+    <t>3185</t>
+  </si>
+  <si>
+    <t>1373</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>LEED Transit Precert review</t>
+  </si>
+  <si>
+    <t>15261</t>
+  </si>
+  <si>
+    <t>15260</t>
+  </si>
+  <si>
+    <t>15259</t>
+  </si>
+  <si>
+    <t>15258</t>
+  </si>
+  <si>
+    <t>Bearer YSOy8JgRyj3AELdUlSmavSiEmME41p</t>
+  </si>
+  <si>
+    <t>Investor: Pension Fund</t>
+  </si>
+  <si>
+    <t>US-API-City-None-10293</t>
+  </si>
+  <si>
+    <t>1000146794</t>
+  </si>
+  <si>
+    <t>LEED for Cities Registration</t>
+  </si>
+  <si>
+    <t>0010400676</t>
+  </si>
+  <si>
+    <t>73X4Bbtrv6aAiD5OZlZxeplZ</t>
+  </si>
+  <si>
+    <t>0000000010000000000144626</t>
+  </si>
+  <si>
+    <t>E9DB972E2036DAF1A60F0AE29B08431D</t>
+  </si>
+  <si>
+    <t>E9DB972E2036DCF1A60F0AE29B08431D</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000146794</t>
+  </si>
+  <si>
+    <t>PF901</t>
+  </si>
+  <si>
+    <t>PF902</t>
+  </si>
+  <si>
+    <t>PF903</t>
+  </si>
+  <si>
+    <t>PF904</t>
+  </si>
+  <si>
+    <t>PF905</t>
+  </si>
+  <si>
+    <t>PF906</t>
+  </si>
+  <si>
+    <t>15265</t>
+  </si>
+  <si>
+    <t>15266</t>
+  </si>
+  <si>
+    <t>15267</t>
+  </si>
+  <si>
+    <t>15268</t>
+  </si>
+  <si>
+    <t>15269</t>
+  </si>
+  <si>
+    <t>15270</t>
+  </si>
+  <si>
+    <t>15271</t>
+  </si>
+  <si>
+    <t>15272</t>
+  </si>
+  <si>
+    <t>15273</t>
+  </si>
+  <si>
+    <t>15274</t>
+  </si>
+  <si>
+    <t>15275</t>
+  </si>
+  <si>
+    <t>15276</t>
+  </si>
+  <si>
+    <t>15277</t>
+  </si>
+  <si>
+    <t>15278</t>
+  </si>
+  <si>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>Bearer nksIryHROBCqg2jOH94qj2pNixIc9Y</t>
+  </si>
+  <si>
+    <t>Bearer 8aDIDqKNh7gIKG01WWiNhDNjAiHvMN</t>
+  </si>
+  <si>
+    <t>US-API-Community-Other-59838</t>
+  </si>
+  <si>
+    <t>1000146796</t>
+  </si>
+  <si>
+    <t>LEED for Communities Registration</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@1229e5fd</t>
+  </si>
+  <si>
+    <t>QFeEIcsC8zkDp9QwLanAFoFK</t>
+  </si>
+  <si>
+    <t>1388</t>
+  </si>
+  <si>
+    <t>Bearer xI0oG8gk4mYQ7bNaFpytOn0hTr9cCF</t>
+  </si>
+  <si>
+    <t>Transit: Station/Elevated</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-47232</t>
+  </si>
+  <si>
+    <t>1000146797</t>
+  </si>
+  <si>
+    <t>0010400681</t>
+  </si>
+  <si>
+    <t>Bearer 8oUNCpQUuYMZYegCUWfxJwOlUCzfoO</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-00363</t>
+  </si>
+  <si>
+    <t>1000146798</t>
+  </si>
+  <si>
+    <t>0010400682</t>
+  </si>
+  <si>
+    <t>Bearer W5WoGzrWcmshl1P6mjl3xbh3EO152v</t>
+  </si>
+  <si>
+    <t>US-API-Transit-Aboveground-50425</t>
+  </si>
+  <si>
+    <t>1000146799</t>
+  </si>
+  <si>
+    <t>0010400683</t>
+  </si>
+  <si>
+    <t>15385</t>
+  </si>
+  <si>
+    <t>15377</t>
+  </si>
+  <si>
+    <t>165095</t>
   </si>
 </sst>
 </file>
@@ -8788,13 +9967,13 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="20.9765625" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="24.5234375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="37.44921875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="37.34765625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.65625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="37.55859375" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="29.9453125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="25.546875" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="23.84765625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.7265625" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="14.4140625" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.74609375" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="11.1171875" collapsed="true"/>
@@ -8802,21 +9981,21 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.51171875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="39.96484375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="43.3203125" collapsed="true"/>
     <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
     <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
     <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
     <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="41.47265625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="41.02734375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="14.34375" collapsed="true"/>
     <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
     <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
     <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
     <col min="62" max="62" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="37.44921875" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="37.34765625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="37.65625" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="37.55859375" collapsed="true"/>
     <col min="65" max="65" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
     <col min="66" max="66" bestFit="true" customWidth="true" width="14.12890625" collapsed="true"/>
     <col min="67" max="67" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
@@ -9027,83 +10206,83 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2614</v>
+        <v>2735</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2666</v>
+        <v>3097</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>681</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2708</v>
+        <v>3052</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2314</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2155</v>
+        <v>3003</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>2202</v>
+        <v>3101</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>2572</v>
+        <v>3032</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
         <v>678</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>2187</v>
+        <v>3084</v>
       </c>
       <c r="L2" t="s">
-        <v>2576</v>
+        <v>3057</v>
       </c>
       <c r="M2" t="s">
-        <v>2577</v>
+        <v>3058</v>
       </c>
       <c r="N2" t="s">
-        <v>2575</v>
+        <v>3056</v>
       </c>
       <c r="O2" t="s">
-        <v>2625</v>
+        <v>3087</v>
       </c>
       <c r="P2" t="s">
         <v>2701</v>
       </c>
       <c r="Q2" t="s">
-        <v>2702</v>
+        <v>3039</v>
       </c>
       <c r="R2" t="s">
-        <v>2703</v>
+        <v>3040</v>
       </c>
       <c r="S2" t="s">
         <v>558</v>
       </c>
       <c r="T2" t="s">
-        <v>2583</v>
+        <v>300</v>
       </c>
       <c r="U2" t="s">
-        <v>2711</v>
+        <v>2950</v>
       </c>
       <c r="V2" t="s">
         <v>2712</v>
       </c>
       <c r="W2" t="s">
-        <v>2030</v>
+        <v>385</v>
       </c>
       <c r="X2" t="s">
-        <v>2029</v>
+        <v>3085</v>
       </c>
       <c r="Y2" t="s">
         <v>666</v>
       </c>
       <c r="Z2" t="s">
-        <v>2582</v>
+        <v>3088</v>
       </c>
       <c r="AA2" t="s">
-        <v>2710</v>
+        <v>3099</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -9157,7 +10336,7 @@
         <v>88</v>
       </c>
       <c r="AT2" t="s">
-        <v>2705</v>
+        <v>2108</v>
       </c>
       <c r="AU2" t="s">
         <v>89</v>
@@ -9169,13 +10348,13 @@
         <v>732</v>
       </c>
       <c r="AX2" t="s">
-        <v>146</v>
+        <v>469</v>
       </c>
       <c r="AY2" t="s">
-        <v>2706</v>
+        <v>2569</v>
       </c>
       <c r="AZ2" t="s">
-        <v>2166</v>
+        <v>2147</v>
       </c>
       <c r="BA2" s="5" t="s">
         <v>427</v>
@@ -9199,25 +10378,25 @@
         <v>417</v>
       </c>
       <c r="BH2" t="s">
-        <v>2707</v>
+        <v>3100</v>
       </c>
       <c r="BI2" t="s">
-        <v>2578</v>
+        <v>3059</v>
       </c>
       <c r="BJ2" t="s">
-        <v>2575</v>
+        <v>3056</v>
       </c>
       <c r="BK2" t="s">
-        <v>2576</v>
+        <v>3057</v>
       </c>
       <c r="BL2" t="s">
-        <v>2577</v>
+        <v>3058</v>
       </c>
       <c r="BM2" t="s">
-        <v>2581</v>
+        <v>3041</v>
       </c>
       <c r="BN2" t="s">
-        <v>2405</v>
+        <v>2823</v>
       </c>
       <c r="BO2" t="s">
         <v>2127</v>
@@ -11878,7 +13057,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.921875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
     <col min="4" max="5" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="20.85546875" collapsed="true"/>
@@ -11913,7 +13092,7 @@
         <v>653</v>
       </c>
       <c r="B2" t="s">
-        <v>2006</v>
+        <v>3060</v>
       </c>
       <c r="D2" t="s">
         <v>482</v>
@@ -11930,7 +13109,7 @@
         <v>654</v>
       </c>
       <c r="B3" t="s">
-        <v>2007</v>
+        <v>3061</v>
       </c>
       <c r="D3" t="s">
         <v>483</v>
@@ -11947,7 +13126,7 @@
         <v>655</v>
       </c>
       <c r="B4" t="s">
-        <v>2008</v>
+        <v>3062</v>
       </c>
       <c r="D4" t="s">
         <v>484</v>
@@ -11964,7 +13143,7 @@
         <v>656</v>
       </c>
       <c r="B5" t="s">
-        <v>2009</v>
+        <v>3063</v>
       </c>
       <c r="D5" t="s">
         <v>485</v>
@@ -11981,7 +13160,7 @@
         <v>657</v>
       </c>
       <c r="B6" t="s">
-        <v>2010</v>
+        <v>3064</v>
       </c>
       <c r="D6" t="s">
         <v>486</v>
@@ -11998,7 +13177,7 @@
         <v>658</v>
       </c>
       <c r="B7" t="s">
-        <v>2011</v>
+        <v>3065</v>
       </c>
       <c r="D7" t="s">
         <v>487</v>
@@ -12908,16 +14087,16 @@
         <v>665</v>
       </c>
       <c r="F2" t="s">
-        <v>2194</v>
+        <v>3103</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>423</v>
       </c>
       <c r="H2" t="s">
-        <v>2195</v>
+        <v>3104</v>
       </c>
       <c r="I2" t="s">
-        <v>2196</v>
+        <v>3105</v>
       </c>
       <c r="J2" t="s">
         <v>1942</v>
@@ -13096,15 +14275,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.296875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="49.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="50.01953125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7734375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="24.8359375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="28.25390625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.26171875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="49.4921875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="49.4921875" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="12.39453125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.9296875" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="26.0546875" collapsed="true"/>
     <col min="26" max="26" customWidth="true" width="17.28515625" collapsed="true"/>
@@ -13209,19 +14390,19 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>2596</v>
+        <v>2718</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>763</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>764</v>
+        <v>2719</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>765</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>766</v>
+        <v>2720</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>767</v>
@@ -13236,19 +14417,19 @@
         <v>1973</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>2626</v>
+        <v>2947</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>2626</v>
+        <v>2947</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>2627</v>
+        <v>2948</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>2628</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>2037</v>
+        <v>3066</v>
       </c>
       <c r="O2" s="16">
         <v>500</v>
@@ -13270,7 +14451,7 @@
         <v>60</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>2653</v>
+        <v>3045</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>1959</v>
@@ -13294,7 +14475,7 @@
         <v>200</v>
       </c>
       <c r="AD2" t="s">
-        <v>2709</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -13330,7 +14511,7 @@
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16" t="s">
-        <v>2038</v>
+        <v>3067</v>
       </c>
       <c r="O3" s="16">
         <v>450</v>
@@ -13352,7 +14533,7 @@
         <v>60</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>2654</v>
+        <v>3046</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>1960</v>
@@ -13409,7 +14590,7 @@
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16" t="s">
-        <v>2039</v>
+        <v>3068</v>
       </c>
       <c r="O4" s="16">
         <v>350</v>
@@ -13431,7 +14612,7 @@
         <v>60</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>2627</v>
+        <v>3047</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>1961</v>
@@ -13488,7 +14669,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16" t="s">
-        <v>2040</v>
+        <v>3069</v>
       </c>
       <c r="O5" s="16">
         <v>200</v>
@@ -13510,7 +14691,7 @@
         <v>60</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>2626</v>
+        <v>3048</v>
       </c>
       <c r="W5" s="15" t="s">
         <v>1962</v>
@@ -13567,7 +14748,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16" t="s">
-        <v>2041</v>
+        <v>3070</v>
       </c>
       <c r="O6" s="16">
         <v>100</v>
@@ -13642,7 +14823,7 @@
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16" t="s">
-        <v>2042</v>
+        <v>3071</v>
       </c>
       <c r="O7" s="16">
         <v>10</v>
@@ -13717,7 +14898,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16" t="s">
-        <v>2043</v>
+        <v>3072</v>
       </c>
       <c r="O8" s="16">
         <v>0.32</v>
@@ -13792,7 +14973,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16" t="s">
-        <v>2044</v>
+        <v>3073</v>
       </c>
       <c r="O9" s="16">
         <v>1</v>
@@ -13867,7 +15048,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16" t="s">
-        <v>2045</v>
+        <v>3074</v>
       </c>
       <c r="O10" s="16">
         <v>0.4</v>
@@ -13942,7 +15123,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16" t="s">
-        <v>2046</v>
+        <v>3075</v>
       </c>
       <c r="O11" s="16">
         <v>60000</v>
@@ -14009,7 +15190,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16" t="s">
-        <v>2047</v>
+        <v>3076</v>
       </c>
       <c r="O12" s="16">
         <v>0.12</v>
@@ -14070,7 +15251,7 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16" t="s">
-        <v>2048</v>
+        <v>3077</v>
       </c>
       <c r="O13" s="16">
         <v>0.22</v>
@@ -14127,7 +15308,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16" t="s">
-        <v>2049</v>
+        <v>3078</v>
       </c>
       <c r="O14" s="16">
         <v>90</v>
@@ -14172,7 +15353,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16" t="s">
-        <v>2050</v>
+        <v>3079</v>
       </c>
       <c r="O15" s="16">
         <v>90</v>
@@ -20679,7 +21860,7 @@
     <col min="22" max="22" bestFit="true" customWidth="true" style="15" width="8.7109375" collapsed="true"/>
     <col min="23" max="24" style="15" width="9.140625" collapsed="true"/>
     <col min="25" max="25" customWidth="true" style="15" width="11.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="37.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="37.0078125" collapsed="true"/>
     <col min="27" max="27" customWidth="true" style="15" width="6.5703125" collapsed="true"/>
     <col min="28" max="28" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
     <col min="29" max="29" bestFit="true" customWidth="true" style="15" width="6.28515625" collapsed="true"/>
@@ -20688,7 +21869,7 @@
     <col min="32" max="32" bestFit="true" customWidth="true" style="15" width="14.7109375" collapsed="true"/>
     <col min="33" max="33" bestFit="true" customWidth="true" style="15" width="16.5703125" collapsed="true"/>
     <col min="34" max="34" bestFit="true" customWidth="true" style="15" width="9.42578125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="15" width="17.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="15" width="17.11328125" collapsed="true"/>
     <col min="36" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -20867,7 +22048,7 @@
         <v>252</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>255</v>
+        <v>1920</v>
       </c>
       <c r="AA2" s="14" t="s">
         <v>270</v>
@@ -20894,7 +22075,7 @@
         <v>270</v>
       </c>
       <c r="AI2" s="15" t="s">
-        <v>1925</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -20965,7 +22146,7 @@
         <v>252</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>256</v>
+        <v>1921</v>
       </c>
       <c r="AA3" s="14" t="s">
         <v>271</v>
@@ -20992,7 +22173,7 @@
         <v>271</v>
       </c>
       <c r="AI3" s="15" t="s">
-        <v>1926</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -21063,7 +22244,7 @@
         <v>252</v>
       </c>
       <c r="Z4" s="15" t="s">
-        <v>418</v>
+        <v>1922</v>
       </c>
       <c r="AA4" s="14" t="s">
         <v>272</v>
@@ -21090,7 +22271,7 @@
         <v>325</v>
       </c>
       <c r="AI4" s="15" t="s">
-        <v>1927</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -22004,7 +23185,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="22.42578125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.62109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="40.0078125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
@@ -22133,7 +23314,7 @@
         <v>429</v>
       </c>
       <c r="C2" t="s">
-        <v>2126</v>
+        <v>2974</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>582</v>
@@ -22142,19 +23323,19 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>2109</v>
+        <v>2298</v>
       </c>
       <c r="H2" t="s">
         <v>1970</v>
       </c>
       <c r="I2" t="s">
-        <v>469</v>
+        <v>146</v>
       </c>
       <c r="J2" t="s">
         <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>2125</v>
+        <v>2020</v>
       </c>
       <c r="L2" t="s">
         <v>89</v>
@@ -22220,7 +23401,7 @@
         <v>2646</v>
       </c>
       <c r="AG2" t="s">
-        <v>2649</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -22231,7 +23412,7 @@
         <v>2647</v>
       </c>
       <c r="AG3" t="s">
-        <v>2650</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -22242,7 +23423,7 @@
         <v>2648</v>
       </c>
       <c r="AG4" t="s">
-        <v>2651</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -22250,7 +23431,7 @@
         <v>2640</v>
       </c>
       <c r="AG5" t="s">
-        <v>2652</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -22396,7 +23577,7 @@
         <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>2602</v>
+        <v>2722</v>
       </c>
       <c r="F4" t="s">
         <v>2053</v>

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="2063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="2405">
   <si>
     <t>FileID</t>
   </si>
@@ -6229,6 +6229,1032 @@
   </si>
   <si>
     <t>1000172362</t>
+  </si>
+  <si>
+    <t>Bearer uy3icfWhlYvdajWoObJ0iugmMgd4P9</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Public Order and Safety: Other Public Order</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-74679</t>
+  </si>
+  <si>
+    <t>1000172363</t>
+  </si>
+  <si>
+    <t>0011047125</t>
+  </si>
+  <si>
+    <t>ICYI2OxFxd7dtegJEfGjf1rG</t>
+  </si>
+  <si>
+    <t>0000000010000000000846700</t>
+  </si>
+  <si>
+    <t>E9DC57080DFDEEF1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9DC57080DFDF0F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000172363</t>
+  </si>
+  <si>
+    <t>1010269</t>
+  </si>
+  <si>
+    <t>Bearer vsuMsJ19N20gXNZNVA0l5j35rkqOFa</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>Transit: System</t>
+  </si>
+  <si>
+    <t>Educational: K-12 School, Private</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-29245</t>
+  </si>
+  <si>
+    <t>1000172526</t>
+  </si>
+  <si>
+    <t>0011047173</t>
+  </si>
+  <si>
+    <t>il4LxzMvlXpL4YFKHIitTNrA</t>
+  </si>
+  <si>
+    <t>1012889</t>
+  </si>
+  <si>
+    <t>1012890</t>
+  </si>
+  <si>
+    <t>1012891</t>
+  </si>
+  <si>
+    <t>1012892</t>
+  </si>
+  <si>
+    <t>1012893</t>
+  </si>
+  <si>
+    <t>1012894</t>
+  </si>
+  <si>
+    <t>1012895</t>
+  </si>
+  <si>
+    <t>1012896</t>
+  </si>
+  <si>
+    <t>1012897</t>
+  </si>
+  <si>
+    <t>1012898</t>
+  </si>
+  <si>
+    <t>7143982</t>
+  </si>
+  <si>
+    <t>7143983</t>
+  </si>
+  <si>
+    <t>7143984</t>
+  </si>
+  <si>
+    <t>7143985</t>
+  </si>
+  <si>
+    <t>7143986</t>
+  </si>
+  <si>
+    <t>7143987</t>
+  </si>
+  <si>
+    <t>7143988</t>
+  </si>
+  <si>
+    <t>7143989</t>
+  </si>
+  <si>
+    <t>7143990</t>
+  </si>
+  <si>
+    <t>7143991</t>
+  </si>
+  <si>
+    <t>1012899</t>
+  </si>
+  <si>
+    <t>7143992</t>
+  </si>
+  <si>
+    <t>1012900</t>
+  </si>
+  <si>
+    <t>1012901</t>
+  </si>
+  <si>
+    <t>1012902</t>
+  </si>
+  <si>
+    <t>1012903</t>
+  </si>
+  <si>
+    <t>1012904</t>
+  </si>
+  <si>
+    <t>1012905</t>
+  </si>
+  <si>
+    <t>1012906</t>
+  </si>
+  <si>
+    <t>1012907</t>
+  </si>
+  <si>
+    <t>1012908</t>
+  </si>
+  <si>
+    <t>1012909</t>
+  </si>
+  <si>
+    <t>1012910</t>
+  </si>
+  <si>
+    <t>1012911</t>
+  </si>
+  <si>
+    <t>1012912</t>
+  </si>
+  <si>
+    <t>1012913</t>
+  </si>
+  <si>
+    <t>1012914</t>
+  </si>
+  <si>
+    <t>1012915</t>
+  </si>
+  <si>
+    <t>1012916</t>
+  </si>
+  <si>
+    <t>1012917</t>
+  </si>
+  <si>
+    <t>1012918</t>
+  </si>
+  <si>
+    <t>1012919</t>
+  </si>
+  <si>
+    <t>1012920</t>
+  </si>
+  <si>
+    <t>1012921</t>
+  </si>
+  <si>
+    <t>1012922</t>
+  </si>
+  <si>
+    <t>1012923</t>
+  </si>
+  <si>
+    <t>1012924</t>
+  </si>
+  <si>
+    <t>1012925</t>
+  </si>
+  <si>
+    <t>1012926</t>
+  </si>
+  <si>
+    <t>1012927</t>
+  </si>
+  <si>
+    <t>1012928</t>
+  </si>
+  <si>
+    <t>1012929</t>
+  </si>
+  <si>
+    <t>1012930</t>
+  </si>
+  <si>
+    <t>1012931</t>
+  </si>
+  <si>
+    <t>1012932</t>
+  </si>
+  <si>
+    <t>1012933</t>
+  </si>
+  <si>
+    <t>1012934</t>
+  </si>
+  <si>
+    <t>1012935</t>
+  </si>
+  <si>
+    <t>1012936</t>
+  </si>
+  <si>
+    <t>1012937</t>
+  </si>
+  <si>
+    <t>1012938</t>
+  </si>
+  <si>
+    <t>1012939</t>
+  </si>
+  <si>
+    <t>1012940</t>
+  </si>
+  <si>
+    <t>1012941</t>
+  </si>
+  <si>
+    <t>1012942</t>
+  </si>
+  <si>
+    <t>1012943</t>
+  </si>
+  <si>
+    <t>1012944</t>
+  </si>
+  <si>
+    <t>1012945</t>
+  </si>
+  <si>
+    <t>1012946</t>
+  </si>
+  <si>
+    <t>1012947</t>
+  </si>
+  <si>
+    <t>1012948</t>
+  </si>
+  <si>
+    <t>1012949</t>
+  </si>
+  <si>
+    <t>1012950</t>
+  </si>
+  <si>
+    <t>1012951</t>
+  </si>
+  <si>
+    <t>1012952</t>
+  </si>
+  <si>
+    <t>1012953</t>
+  </si>
+  <si>
+    <t>1012954</t>
+  </si>
+  <si>
+    <t>1012955</t>
+  </si>
+  <si>
+    <t>1012956</t>
+  </si>
+  <si>
+    <t>1012957</t>
+  </si>
+  <si>
+    <t>1012958</t>
+  </si>
+  <si>
+    <t>1012959</t>
+  </si>
+  <si>
+    <t>1012960</t>
+  </si>
+  <si>
+    <t>1012961</t>
+  </si>
+  <si>
+    <t>1012962</t>
+  </si>
+  <si>
+    <t>1012963</t>
+  </si>
+  <si>
+    <t>1012964</t>
+  </si>
+  <si>
+    <t>1012965</t>
+  </si>
+  <si>
+    <t>1012966</t>
+  </si>
+  <si>
+    <t>1012967</t>
+  </si>
+  <si>
+    <t>1012968</t>
+  </si>
+  <si>
+    <t>1012969</t>
+  </si>
+  <si>
+    <t>1012970</t>
+  </si>
+  <si>
+    <t>1012971</t>
+  </si>
+  <si>
+    <t>1012972</t>
+  </si>
+  <si>
+    <t>1012973</t>
+  </si>
+  <si>
+    <t>1012974</t>
+  </si>
+  <si>
+    <t>1012975</t>
+  </si>
+  <si>
+    <t>1012976</t>
+  </si>
+  <si>
+    <t>1012977</t>
+  </si>
+  <si>
+    <t>1012978</t>
+  </si>
+  <si>
+    <t>1012979</t>
+  </si>
+  <si>
+    <t>1012980</t>
+  </si>
+  <si>
+    <t>1012981</t>
+  </si>
+  <si>
+    <t>1012982</t>
+  </si>
+  <si>
+    <t>1012983</t>
+  </si>
+  <si>
+    <t>1012984</t>
+  </si>
+  <si>
+    <t>1012985</t>
+  </si>
+  <si>
+    <t>1012986</t>
+  </si>
+  <si>
+    <t>1012987</t>
+  </si>
+  <si>
+    <t>1012988</t>
+  </si>
+  <si>
+    <t>1012989</t>
+  </si>
+  <si>
+    <t>1012990</t>
+  </si>
+  <si>
+    <t>1012991</t>
+  </si>
+  <si>
+    <t>1012992</t>
+  </si>
+  <si>
+    <t>1012993</t>
+  </si>
+  <si>
+    <t>1012994</t>
+  </si>
+  <si>
+    <t>1012995</t>
+  </si>
+  <si>
+    <t>1012996</t>
+  </si>
+  <si>
+    <t>1012997</t>
+  </si>
+  <si>
+    <t>1012998</t>
+  </si>
+  <si>
+    <t>1012999</t>
+  </si>
+  <si>
+    <t>1013000</t>
+  </si>
+  <si>
+    <t>1013001</t>
+  </si>
+  <si>
+    <t>1013002</t>
+  </si>
+  <si>
+    <t>1013003</t>
+  </si>
+  <si>
+    <t>1013004</t>
+  </si>
+  <si>
+    <t>1013005</t>
+  </si>
+  <si>
+    <t>1013006</t>
+  </si>
+  <si>
+    <t>1013007</t>
+  </si>
+  <si>
+    <t>1013008</t>
+  </si>
+  <si>
+    <t>1013009</t>
+  </si>
+  <si>
+    <t>1013010</t>
+  </si>
+  <si>
+    <t>1013011</t>
+  </si>
+  <si>
+    <t>1013012</t>
+  </si>
+  <si>
+    <t>1013013</t>
+  </si>
+  <si>
+    <t>1013014</t>
+  </si>
+  <si>
+    <t>1013015</t>
+  </si>
+  <si>
+    <t>1013016</t>
+  </si>
+  <si>
+    <t>1013017</t>
+  </si>
+  <si>
+    <t>1013018</t>
+  </si>
+  <si>
+    <t>1013019</t>
+  </si>
+  <si>
+    <t>1013020</t>
+  </si>
+  <si>
+    <t>1013021</t>
+  </si>
+  <si>
+    <t>1013022</t>
+  </si>
+  <si>
+    <t>1013023</t>
+  </si>
+  <si>
+    <t>1013024</t>
+  </si>
+  <si>
+    <t>1013025</t>
+  </si>
+  <si>
+    <t>1013026</t>
+  </si>
+  <si>
+    <t>1013027</t>
+  </si>
+  <si>
+    <t>1013028</t>
+  </si>
+  <si>
+    <t>Bearer LFU44PdfSwEwNRwS1AGrvoZjJo8FZ2</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Service: Vehicle Storage/Maintenance</t>
+  </si>
+  <si>
+    <t>Government Use: Local, Public Housing Authority</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-75578</t>
+  </si>
+  <si>
+    <t>1000172527</t>
+  </si>
+  <si>
+    <t>0011047174</t>
+  </si>
+  <si>
+    <t>mhoeTkYn3KC8xh0dkuZ1mWN3</t>
+  </si>
+  <si>
+    <t>1013048</t>
+  </si>
+  <si>
+    <t>1013049</t>
+  </si>
+  <si>
+    <t>1013050</t>
+  </si>
+  <si>
+    <t>1013051</t>
+  </si>
+  <si>
+    <t>1013052</t>
+  </si>
+  <si>
+    <t>1013053</t>
+  </si>
+  <si>
+    <t>1013054</t>
+  </si>
+  <si>
+    <t>1013055</t>
+  </si>
+  <si>
+    <t>1013056</t>
+  </si>
+  <si>
+    <t>1013057</t>
+  </si>
+  <si>
+    <t>1013058</t>
+  </si>
+  <si>
+    <t>1013059</t>
+  </si>
+  <si>
+    <t>1013060</t>
+  </si>
+  <si>
+    <t>1013061</t>
+  </si>
+  <si>
+    <t>1013062</t>
+  </si>
+  <si>
+    <t>1013063</t>
+  </si>
+  <si>
+    <t>1013064</t>
+  </si>
+  <si>
+    <t>1013065</t>
+  </si>
+  <si>
+    <t>1013066</t>
+  </si>
+  <si>
+    <t>1013067</t>
+  </si>
+  <si>
+    <t>1013068</t>
+  </si>
+  <si>
+    <t>1013069</t>
+  </si>
+  <si>
+    <t>1013070</t>
+  </si>
+  <si>
+    <t>1013071</t>
+  </si>
+  <si>
+    <t>1013072</t>
+  </si>
+  <si>
+    <t>1013073</t>
+  </si>
+  <si>
+    <t>1013074</t>
+  </si>
+  <si>
+    <t>1013075</t>
+  </si>
+  <si>
+    <t>1013076</t>
+  </si>
+  <si>
+    <t>1013077</t>
+  </si>
+  <si>
+    <t>1013078</t>
+  </si>
+  <si>
+    <t>1013079</t>
+  </si>
+  <si>
+    <t>1013080</t>
+  </si>
+  <si>
+    <t>1013081</t>
+  </si>
+  <si>
+    <t>1013082</t>
+  </si>
+  <si>
+    <t>1013083</t>
+  </si>
+  <si>
+    <t>1013084</t>
+  </si>
+  <si>
+    <t>1013085</t>
+  </si>
+  <si>
+    <t>1013086</t>
+  </si>
+  <si>
+    <t>1013087</t>
+  </si>
+  <si>
+    <t>1013088</t>
+  </si>
+  <si>
+    <t>1013089</t>
+  </si>
+  <si>
+    <t>1013090</t>
+  </si>
+  <si>
+    <t>1013091</t>
+  </si>
+  <si>
+    <t>1013092</t>
+  </si>
+  <si>
+    <t>7143997</t>
+  </si>
+  <si>
+    <t>7143998</t>
+  </si>
+  <si>
+    <t>7143999</t>
+  </si>
+  <si>
+    <t>7144000</t>
+  </si>
+  <si>
+    <t>7144001</t>
+  </si>
+  <si>
+    <t>7144002</t>
+  </si>
+  <si>
+    <t>7144003</t>
+  </si>
+  <si>
+    <t>7144004</t>
+  </si>
+  <si>
+    <t>7144005</t>
+  </si>
+  <si>
+    <t>7144006</t>
+  </si>
+  <si>
+    <t>7144007</t>
+  </si>
+  <si>
+    <t>7144008</t>
+  </si>
+  <si>
+    <t>7144009</t>
+  </si>
+  <si>
+    <t>7144010</t>
+  </si>
+  <si>
+    <t>7144011</t>
+  </si>
+  <si>
+    <t>7144012</t>
+  </si>
+  <si>
+    <t>7144013</t>
+  </si>
+  <si>
+    <t>7144014</t>
+  </si>
+  <si>
+    <t>7144015</t>
+  </si>
+  <si>
+    <t>7144016</t>
+  </si>
+  <si>
+    <t>7144017</t>
+  </si>
+  <si>
+    <t>7144018</t>
+  </si>
+  <si>
+    <t>7144019</t>
+  </si>
+  <si>
+    <t>7144020</t>
+  </si>
+  <si>
+    <t>7144021</t>
+  </si>
+  <si>
+    <t>7144022</t>
+  </si>
+  <si>
+    <t>7144023</t>
+  </si>
+  <si>
+    <t>7144024</t>
+  </si>
+  <si>
+    <t>7144025</t>
+  </si>
+  <si>
+    <t>7144026</t>
+  </si>
+  <si>
+    <t>7144027</t>
+  </si>
+  <si>
+    <t>7144028</t>
+  </si>
+  <si>
+    <t>7144029</t>
+  </si>
+  <si>
+    <t>7144030</t>
+  </si>
+  <si>
+    <t>7144031</t>
+  </si>
+  <si>
+    <t>7144032</t>
+  </si>
+  <si>
+    <t>7144033</t>
+  </si>
+  <si>
+    <t>7144034</t>
+  </si>
+  <si>
+    <t>7144035</t>
+  </si>
+  <si>
+    <t>7144036</t>
+  </si>
+  <si>
+    <t>7144037</t>
+  </si>
+  <si>
+    <t>7144038</t>
+  </si>
+  <si>
+    <t>7144039</t>
+  </si>
+  <si>
+    <t>7144040</t>
+  </si>
+  <si>
+    <t>1013093</t>
+  </si>
+  <si>
+    <t>1013094</t>
+  </si>
+  <si>
+    <t>1013095</t>
+  </si>
+  <si>
+    <t>1013096</t>
+  </si>
+  <si>
+    <t>1013097</t>
+  </si>
+  <si>
+    <t>1013098</t>
+  </si>
+  <si>
+    <t>1013099</t>
+  </si>
+  <si>
+    <t>1013100</t>
+  </si>
+  <si>
+    <t>1013101</t>
+  </si>
+  <si>
+    <t>1013102</t>
+  </si>
+  <si>
+    <t>1013103</t>
+  </si>
+  <si>
+    <t>1013104</t>
+  </si>
+  <si>
+    <t>1013105</t>
+  </si>
+  <si>
+    <t>1013106</t>
+  </si>
+  <si>
+    <t>1013107</t>
+  </si>
+  <si>
+    <t>1013108</t>
+  </si>
+  <si>
+    <t>1013109</t>
+  </si>
+  <si>
+    <t>1013110</t>
+  </si>
+  <si>
+    <t>1013111</t>
+  </si>
+  <si>
+    <t>1013112</t>
+  </si>
+  <si>
+    <t>1013113</t>
+  </si>
+  <si>
+    <t>1013114</t>
+  </si>
+  <si>
+    <t>1013115</t>
+  </si>
+  <si>
+    <t>1013116</t>
+  </si>
+  <si>
+    <t>1013117</t>
+  </si>
+  <si>
+    <t>1013118</t>
+  </si>
+  <si>
+    <t>1013119</t>
+  </si>
+  <si>
+    <t>1013120</t>
+  </si>
+  <si>
+    <t>1013121</t>
+  </si>
+  <si>
+    <t>1013122</t>
+  </si>
+  <si>
+    <t>1013123</t>
+  </si>
+  <si>
+    <t>1013124</t>
+  </si>
+  <si>
+    <t>1013125</t>
+  </si>
+  <si>
+    <t>1013126</t>
+  </si>
+  <si>
+    <t>1013127</t>
+  </si>
+  <si>
+    <t>1013128</t>
+  </si>
+  <si>
+    <t>1013129</t>
+  </si>
+  <si>
+    <t>1013130</t>
+  </si>
+  <si>
+    <t>1013131</t>
+  </si>
+  <si>
+    <t>1013132</t>
+  </si>
+  <si>
+    <t>1013133</t>
+  </si>
+  <si>
+    <t>1013134</t>
+  </si>
+  <si>
+    <t>1013135</t>
+  </si>
+  <si>
+    <t>1013136</t>
+  </si>
+  <si>
+    <t>1013137</t>
+  </si>
+  <si>
+    <t>1013138</t>
+  </si>
+  <si>
+    <t>1013139</t>
+  </si>
+  <si>
+    <t>1013140</t>
+  </si>
+  <si>
+    <t>1013141</t>
+  </si>
+  <si>
+    <t>1013142</t>
+  </si>
+  <si>
+    <t>1013143</t>
+  </si>
+  <si>
+    <t>1013144</t>
+  </si>
+  <si>
+    <t>1013145</t>
+  </si>
+  <si>
+    <t>1013146</t>
+  </si>
+  <si>
+    <t>1013147</t>
+  </si>
+  <si>
+    <t>1013148</t>
+  </si>
+  <si>
+    <t>1013149</t>
+  </si>
+  <si>
+    <t>1013150</t>
+  </si>
+  <si>
+    <t>1013151</t>
+  </si>
+  <si>
+    <t>1013152</t>
+  </si>
+  <si>
+    <t>1013153</t>
+  </si>
+  <si>
+    <t>1013154</t>
+  </si>
+  <si>
+    <t>1013155</t>
+  </si>
+  <si>
+    <t>1013156</t>
+  </si>
+  <si>
+    <t>1013157</t>
+  </si>
+  <si>
+    <t>1013158</t>
+  </si>
+  <si>
+    <t>1013159</t>
+  </si>
+  <si>
+    <t>1013160</t>
+  </si>
+  <si>
+    <t>1013161</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@15bb3db9</t>
+  </si>
+  <si>
+    <t>7144041</t>
+  </si>
+  <si>
+    <t>7144042</t>
+  </si>
+  <si>
+    <t>7144043</t>
+  </si>
+  <si>
+    <t>7144044</t>
   </si>
 </sst>
 </file>
@@ -6801,7 +7827,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
@@ -6811,35 +7837,35 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.73828125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="24.55078125" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.10546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.2421875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.34375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="14.73046875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="30.40625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="37.73828125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
     <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
     <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
     <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
@@ -7050,7 +8076,7 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1967</v>
+        <v>2239</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>649</v>
@@ -7081,22 +8107,22 @@
         <v>2009</v>
       </c>
       <c r="L2" t="s">
-        <v>1986</v>
+        <v>2071</v>
       </c>
       <c r="M2" t="s">
-        <v>1987</v>
+        <v>2072</v>
       </c>
       <c r="N2" t="s">
-        <v>1985</v>
+        <v>2070</v>
       </c>
       <c r="O2" t="s">
-        <v>2036</v>
+        <v>2241</v>
       </c>
       <c r="P2" t="s">
         <v>1961</v>
       </c>
       <c r="Q2" t="s">
-        <v>2037</v>
+        <v>2074</v>
       </c>
       <c r="R2" t="s">
         <v>1978</v>
@@ -7114,10 +8140,10 @@
         <v>1962</v>
       </c>
       <c r="W2" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
       <c r="X2" t="s">
-        <v>2010</v>
+        <v>441</v>
       </c>
       <c r="Y2" t="s">
         <v>636</v>
@@ -7126,7 +8152,7 @@
         <v>2011</v>
       </c>
       <c r="AA2" t="s">
-        <v>2051</v>
+        <v>2234</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -7180,7 +8206,7 @@
         <v>88</v>
       </c>
       <c r="AT2" t="s">
-        <v>2031</v>
+        <v>2235</v>
       </c>
       <c r="AU2" t="s">
         <v>89</v>
@@ -7192,13 +8218,13 @@
         <v>687</v>
       </c>
       <c r="AX2" t="s">
-        <v>464</v>
+        <v>146</v>
       </c>
       <c r="AY2" t="s">
-        <v>2032</v>
+        <v>2236</v>
       </c>
       <c r="AZ2" t="s">
-        <v>2033</v>
+        <v>2237</v>
       </c>
       <c r="BA2" s="5" t="s">
         <v>423</v>
@@ -7222,19 +8248,19 @@
         <v>414</v>
       </c>
       <c r="BH2" t="s">
-        <v>2034</v>
+        <v>2238</v>
       </c>
       <c r="BI2" t="s">
-        <v>1988</v>
+        <v>2073</v>
       </c>
       <c r="BJ2" t="s">
-        <v>1985</v>
+        <v>2070</v>
       </c>
       <c r="BK2" t="s">
-        <v>1986</v>
+        <v>2071</v>
       </c>
       <c r="BL2" t="s">
-        <v>1987</v>
+        <v>2072</v>
       </c>
       <c r="BM2" t="s">
         <v>1979</v>
@@ -10807,9 +11833,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="49.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="50.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.09765625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.12890625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.92578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.49609375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.29296875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
@@ -10824,7 +11853,7 @@
     <col min="27" max="27" customWidth="true" width="18.0" collapsed="true"/>
     <col min="28" max="28" customWidth="true" width="17.42578125" collapsed="true"/>
     <col min="29" max="29" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="15.78125" collapsed="true"/>
     <col min="65" max="66" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -10922,22 +11951,22 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>1963</v>
+        <v>2083</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>716</v>
+        <v>2093</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1964</v>
+        <v>2242</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>717</v>
+        <v>2287</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>1965</v>
+        <v>2331</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>718</v>
+        <v>2401</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>1939</v>
@@ -11007,27 +12036,27 @@
         <v>200</v>
       </c>
       <c r="AD2" t="s">
-        <v>2045</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>1926</v>
+        <v>2084</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>724</v>
+        <v>2094</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>725</v>
+        <v>2243</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>726</v>
+        <v>2288</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>727</v>
+        <v>2332</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>728</v>
+        <v>2402</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>1938</v>
@@ -11091,22 +12120,22 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>1927</v>
+        <v>2085</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>733</v>
+        <v>2095</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>734</v>
+        <v>2244</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>735</v>
+        <v>2289</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>736</v>
+        <v>2333</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>737</v>
+        <v>2403</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>1941</v>
@@ -11170,22 +12199,22 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>742</v>
+        <v>2086</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>743</v>
+        <v>2096</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>744</v>
+        <v>2245</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>745</v>
+        <v>2290</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>746</v>
+        <v>2334</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>747</v>
+        <v>2404</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>1942</v>
@@ -11249,19 +12278,19 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>752</v>
+        <v>2087</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>753</v>
+        <v>2097</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>754</v>
+        <v>2246</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>755</v>
+        <v>2291</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>756</v>
+        <v>2335</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>757</v>
@@ -11324,19 +12353,19 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>762</v>
+        <v>2088</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>763</v>
+        <v>2098</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>764</v>
+        <v>2247</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>765</v>
+        <v>2292</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>766</v>
+        <v>2336</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>767</v>
@@ -11399,19 +12428,19 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>772</v>
+        <v>2089</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>773</v>
+        <v>2099</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>774</v>
+        <v>2248</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>775</v>
+        <v>2293</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>776</v>
+        <v>2337</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>777</v>
@@ -11474,19 +12503,19 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>782</v>
+        <v>2090</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>783</v>
+        <v>2100</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>784</v>
+        <v>2249</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>785</v>
+        <v>2294</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>786</v>
+        <v>2338</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>787</v>
@@ -11549,19 +12578,19 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>792</v>
+        <v>2091</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>793</v>
+        <v>2101</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>794</v>
+        <v>2250</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>795</v>
+        <v>2295</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>796</v>
+        <v>2339</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>797</v>
@@ -11624,19 +12653,19 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>802</v>
+        <v>2092</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>803</v>
+        <v>2102</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>804</v>
+        <v>2251</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>805</v>
+        <v>2296</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>806</v>
+        <v>2340</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>807</v>
@@ -11701,11 +12730,13 @@
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>813</v>
-      </c>
-      <c r="D12" s="16"/>
+        <v>2252</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>2297</v>
+      </c>
       <c r="E12" s="16" t="s">
-        <v>814</v>
+        <v>2341</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
@@ -11768,11 +12799,13 @@
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>821</v>
-      </c>
-      <c r="D13" s="16"/>
+        <v>2253</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>2298</v>
+      </c>
       <c r="E13" s="16" t="s">
-        <v>822</v>
+        <v>2342</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -11825,11 +12858,13 @@
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
-        <v>826</v>
-      </c>
-      <c r="D14" s="16"/>
+        <v>2254</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>2299</v>
+      </c>
       <c r="E14" s="16" t="s">
-        <v>827</v>
+        <v>2343</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -11870,11 +12905,13 @@
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16" t="s">
-        <v>832</v>
-      </c>
-      <c r="D15" s="16"/>
+        <v>2255</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>2300</v>
+      </c>
       <c r="E15" s="16" t="s">
-        <v>833</v>
+        <v>2344</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -11917,11 +12954,13 @@
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16" t="s">
-        <v>838</v>
-      </c>
-      <c r="D16" s="16"/>
+        <v>2256</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>2301</v>
+      </c>
       <c r="E16" s="16" t="s">
-        <v>839</v>
+        <v>2345</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -11956,11 +12995,13 @@
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="16" t="s">
-        <v>843</v>
-      </c>
-      <c r="D17" s="16"/>
+        <v>2257</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>2302</v>
+      </c>
       <c r="E17" s="16" t="s">
-        <v>844</v>
+        <v>2346</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -11985,11 +13026,13 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18" s="16" t="s">
-        <v>848</v>
-      </c>
-      <c r="D18" s="16"/>
+        <v>2258</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>2303</v>
+      </c>
       <c r="E18" s="16" t="s">
-        <v>849</v>
+        <v>2347</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -12014,11 +13057,13 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="16" t="s">
-        <v>853</v>
-      </c>
-      <c r="D19" s="16"/>
+        <v>2259</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>2304</v>
+      </c>
       <c r="E19" s="16" t="s">
-        <v>854</v>
+        <v>2348</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -12043,11 +13088,13 @@
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20" s="16" t="s">
-        <v>858</v>
-      </c>
-      <c r="D20" s="16"/>
+        <v>2260</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>2305</v>
+      </c>
       <c r="E20" s="16" t="s">
-        <v>859</v>
+        <v>2349</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -12072,11 +13119,13 @@
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21" s="16" t="s">
-        <v>863</v>
-      </c>
-      <c r="D21" s="16"/>
+        <v>2261</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>2306</v>
+      </c>
       <c r="E21" s="16" t="s">
-        <v>864</v>
+        <v>2350</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -12101,11 +13150,13 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="16" t="s">
-        <v>868</v>
-      </c>
-      <c r="D22" s="16"/>
+        <v>2262</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>2307</v>
+      </c>
       <c r="E22" s="16" t="s">
-        <v>869</v>
+        <v>2351</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -12130,11 +13181,13 @@
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23" s="16" t="s">
-        <v>873</v>
-      </c>
-      <c r="D23" s="16"/>
+        <v>2263</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>2308</v>
+      </c>
       <c r="E23" s="16" t="s">
-        <v>874</v>
+        <v>2352</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -12159,11 +13212,13 @@
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24" s="16" t="s">
-        <v>877</v>
-      </c>
-      <c r="D24" s="16"/>
+        <v>2264</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>2309</v>
+      </c>
       <c r="E24" s="16" t="s">
-        <v>878</v>
+        <v>2353</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -12188,11 +13243,13 @@
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" s="16" t="s">
-        <v>882</v>
-      </c>
-      <c r="D25" s="16"/>
+        <v>2265</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>2310</v>
+      </c>
       <c r="E25" s="16" t="s">
-        <v>883</v>
+        <v>2354</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -12217,11 +13274,13 @@
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26" s="16" t="s">
-        <v>887</v>
-      </c>
-      <c r="D26" s="16"/>
+        <v>2266</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>2311</v>
+      </c>
       <c r="E26" s="16" t="s">
-        <v>888</v>
+        <v>2355</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -12246,11 +13305,13 @@
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" s="16" t="s">
-        <v>892</v>
-      </c>
-      <c r="D27" s="16"/>
+        <v>2267</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>2312</v>
+      </c>
       <c r="E27" s="16" t="s">
-        <v>893</v>
+        <v>2356</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -12275,11 +13336,13 @@
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="16" t="s">
-        <v>897</v>
-      </c>
-      <c r="D28" s="16"/>
+        <v>2268</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>2313</v>
+      </c>
       <c r="E28" s="16" t="s">
-        <v>898</v>
+        <v>2357</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -12304,11 +13367,13 @@
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C29" s="16" t="s">
-        <v>902</v>
-      </c>
-      <c r="D29" s="16"/>
+        <v>2269</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>2314</v>
+      </c>
       <c r="E29" s="16" t="s">
-        <v>903</v>
+        <v>2358</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -12333,11 +13398,13 @@
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C30" s="16" t="s">
-        <v>907</v>
-      </c>
-      <c r="D30" s="16"/>
+        <v>2270</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>2315</v>
+      </c>
       <c r="E30" s="16" t="s">
-        <v>908</v>
+        <v>2359</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -12362,11 +13429,13 @@
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C31" s="16" t="s">
-        <v>912</v>
-      </c>
-      <c r="D31" s="16"/>
+        <v>2271</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>2316</v>
+      </c>
       <c r="E31" s="16" t="s">
-        <v>913</v>
+        <v>2360</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -12391,11 +13460,13 @@
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C32" s="16" t="s">
-        <v>917</v>
-      </c>
-      <c r="D32" s="16"/>
+        <v>2272</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>2317</v>
+      </c>
       <c r="E32" s="16" t="s">
-        <v>918</v>
+        <v>2361</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -12420,11 +13491,13 @@
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="D33" s="16"/>
+        <v>2273</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>2318</v>
+      </c>
       <c r="E33" s="16" t="s">
-        <v>923</v>
+        <v>2362</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -12449,11 +13522,13 @@
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34" s="16" t="s">
-        <v>927</v>
-      </c>
-      <c r="D34" s="16"/>
+        <v>2274</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>2319</v>
+      </c>
       <c r="E34" s="16" t="s">
-        <v>928</v>
+        <v>2363</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -12478,11 +13553,13 @@
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35" s="16" t="s">
-        <v>932</v>
-      </c>
-      <c r="D35" s="16"/>
+        <v>2275</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>2320</v>
+      </c>
       <c r="E35" s="16" t="s">
-        <v>933</v>
+        <v>2364</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -12507,11 +13584,13 @@
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36" s="16" t="s">
-        <v>937</v>
-      </c>
-      <c r="D36" s="16"/>
+        <v>2276</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>2321</v>
+      </c>
       <c r="E36" s="16" t="s">
-        <v>938</v>
+        <v>2365</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -12536,11 +13615,13 @@
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="16" t="s">
-        <v>941</v>
-      </c>
-      <c r="D37" s="16"/>
+        <v>2277</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>2322</v>
+      </c>
       <c r="E37" s="16" t="s">
-        <v>942</v>
+        <v>2366</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -12565,11 +13646,13 @@
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38" s="16" t="s">
-        <v>946</v>
-      </c>
-      <c r="D38" s="16"/>
+        <v>2278</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>2323</v>
+      </c>
       <c r="E38" s="16" t="s">
-        <v>947</v>
+        <v>2367</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -12594,11 +13677,13 @@
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C39" s="16" t="s">
-        <v>951</v>
-      </c>
-      <c r="D39" s="16"/>
+        <v>2279</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>2324</v>
+      </c>
       <c r="E39" s="16" t="s">
-        <v>952</v>
+        <v>2368</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -12623,11 +13708,13 @@
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40" s="16" t="s">
-        <v>956</v>
-      </c>
-      <c r="D40" s="16"/>
+        <v>2280</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>2325</v>
+      </c>
       <c r="E40" s="16" t="s">
-        <v>957</v>
+        <v>2369</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -12652,11 +13739,13 @@
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C41" s="16" t="s">
-        <v>961</v>
-      </c>
-      <c r="D41" s="16"/>
+        <v>2281</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>2326</v>
+      </c>
       <c r="E41" s="16" t="s">
-        <v>962</v>
+        <v>2370</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -12681,11 +13770,13 @@
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42" s="16" t="s">
-        <v>966</v>
-      </c>
-      <c r="D42" s="16"/>
+        <v>2282</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>2327</v>
+      </c>
       <c r="E42" s="16" t="s">
-        <v>967</v>
+        <v>2371</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -12710,11 +13801,13 @@
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43" s="16" t="s">
-        <v>971</v>
-      </c>
-      <c r="D43" s="16"/>
+        <v>2283</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>2328</v>
+      </c>
       <c r="E43" s="16" t="s">
-        <v>972</v>
+        <v>2372</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -12739,11 +13832,13 @@
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C44" s="16" t="s">
-        <v>976</v>
-      </c>
-      <c r="D44" s="16"/>
+        <v>2284</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>2329</v>
+      </c>
       <c r="E44" s="16" t="s">
-        <v>977</v>
+        <v>2373</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
@@ -12768,11 +13863,13 @@
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45" s="16" t="s">
-        <v>980</v>
-      </c>
-      <c r="D45" s="16"/>
+        <v>2285</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>2330</v>
+      </c>
       <c r="E45" s="16" t="s">
-        <v>981</v>
+        <v>2374</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
@@ -12797,11 +13894,11 @@
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C46" s="16" t="s">
-        <v>984</v>
+        <v>2286</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16" t="s">
-        <v>985</v>
+        <v>2375</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
@@ -12828,7 +13925,7 @@
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16" t="s">
-        <v>988</v>
+        <v>2376</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -12855,7 +13952,7 @@
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16" t="s">
-        <v>991</v>
+        <v>2377</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
@@ -12880,7 +13977,7 @@
     </row>
     <row r="49" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E49" s="16" t="s">
-        <v>995</v>
+        <v>2378</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
@@ -12905,7 +14002,7 @@
     </row>
     <row r="50" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E50" s="16" t="s">
-        <v>999</v>
+        <v>2379</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
@@ -12930,7 +14027,7 @@
     </row>
     <row r="51" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E51" s="16" t="s">
-        <v>1003</v>
+        <v>2380</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
@@ -12955,7 +14052,7 @@
     </row>
     <row r="52" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E52" s="16" t="s">
-        <v>1007</v>
+        <v>2381</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
@@ -12980,7 +14077,7 @@
     </row>
     <row r="53" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E53" s="16" t="s">
-        <v>1011</v>
+        <v>2382</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
@@ -13005,7 +14102,7 @@
     </row>
     <row r="54" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E54" s="16" t="s">
-        <v>1015</v>
+        <v>2383</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
@@ -13030,7 +14127,7 @@
     </row>
     <row r="55" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E55" s="16" t="s">
-        <v>1019</v>
+        <v>2384</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
@@ -13055,7 +14152,7 @@
     </row>
     <row r="56" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E56" s="16" t="s">
-        <v>1023</v>
+        <v>2385</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
@@ -13080,7 +14177,7 @@
     </row>
     <row r="57" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E57" s="16" t="s">
-        <v>1027</v>
+        <v>2386</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
@@ -13105,7 +14202,7 @@
     </row>
     <row r="58" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E58" s="16" t="s">
-        <v>1031</v>
+        <v>2387</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
@@ -13130,7 +14227,7 @@
     </row>
     <row r="59" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E59" s="16" t="s">
-        <v>1035</v>
+        <v>2388</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
@@ -13155,7 +14252,7 @@
     </row>
     <row r="60" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E60" s="16" t="s">
-        <v>1039</v>
+        <v>2389</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
@@ -13180,7 +14277,7 @@
     </row>
     <row r="61" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E61" s="16" t="s">
-        <v>1043</v>
+        <v>2390</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
@@ -13205,7 +14302,7 @@
     </row>
     <row r="62" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E62" s="16" t="s">
-        <v>1047</v>
+        <v>2391</v>
       </c>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
@@ -13230,7 +14327,7 @@
     </row>
     <row r="63" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E63" s="16" t="s">
-        <v>1051</v>
+        <v>2392</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
@@ -13255,7 +14352,7 @@
     </row>
     <row r="64" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E64" s="16" t="s">
-        <v>1054</v>
+        <v>2393</v>
       </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
@@ -13280,7 +14377,7 @@
     </row>
     <row r="65" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E65" s="16" t="s">
-        <v>1058</v>
+        <v>2394</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
@@ -13305,7 +14402,7 @@
     </row>
     <row r="66" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E66" s="16" t="s">
-        <v>1061</v>
+        <v>2395</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
@@ -13330,7 +14427,7 @@
     </row>
     <row r="67" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E67" s="16" t="s">
-        <v>1064</v>
+        <v>2396</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
@@ -13355,7 +14452,7 @@
     </row>
     <row r="68" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E68" s="16" t="s">
-        <v>1068</v>
+        <v>2397</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
@@ -13380,7 +14477,7 @@
     </row>
     <row r="69" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E69" s="16" t="s">
-        <v>1072</v>
+        <v>2398</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
@@ -13405,7 +14502,7 @@
     </row>
     <row r="70" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E70" s="16" t="s">
-        <v>1076</v>
+        <v>2399</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
@@ -13430,7 +14527,7 @@
     </row>
     <row r="71" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E71" s="16" t="s">
-        <v>1080</v>
+        <v>2400</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
@@ -13455,7 +14552,7 @@
     </row>
     <row r="72" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E72" s="16" t="s">
-        <v>1084</v>
+        <v>2175</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
@@ -13480,7 +14577,7 @@
     </row>
     <row r="73" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E73" s="16" t="s">
-        <v>1088</v>
+        <v>2176</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
@@ -13505,7 +14602,7 @@
     </row>
     <row r="74" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E74" s="16" t="s">
-        <v>1092</v>
+        <v>2177</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
@@ -13530,7 +14627,7 @@
     </row>
     <row r="75" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E75" s="16" t="s">
-        <v>1096</v>
+        <v>2178</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
@@ -13555,7 +14652,7 @@
     </row>
     <row r="76" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E76" s="16" t="s">
-        <v>1100</v>
+        <v>2179</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
@@ -13580,7 +14677,7 @@
     </row>
     <row r="77" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E77" s="16" t="s">
-        <v>1104</v>
+        <v>2180</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
@@ -13605,7 +14702,7 @@
     </row>
     <row r="78" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E78" s="16" t="s">
-        <v>1108</v>
+        <v>2181</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
@@ -13630,7 +14727,7 @@
     </row>
     <row r="79" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E79" s="16" t="s">
-        <v>1112</v>
+        <v>2182</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
@@ -13655,7 +14752,7 @@
     </row>
     <row r="80" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E80" s="16" t="s">
-        <v>1116</v>
+        <v>2183</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
@@ -13680,7 +14777,7 @@
     </row>
     <row r="81" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E81" s="16" t="s">
-        <v>1120</v>
+        <v>2184</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
@@ -13705,7 +14802,7 @@
     </row>
     <row r="82" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E82" s="16" t="s">
-        <v>1124</v>
+        <v>2185</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
@@ -13730,7 +14827,7 @@
     </row>
     <row r="83" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E83" s="16" t="s">
-        <v>1128</v>
+        <v>2186</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
@@ -13755,7 +14852,7 @@
     </row>
     <row r="84" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E84" s="16" t="s">
-        <v>1132</v>
+        <v>2187</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
@@ -13780,7 +14877,7 @@
     </row>
     <row r="85" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E85" s="16" t="s">
-        <v>1136</v>
+        <v>2188</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
@@ -13805,7 +14902,7 @@
     </row>
     <row r="86" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E86" s="16" t="s">
-        <v>1139</v>
+        <v>2189</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
@@ -13830,7 +14927,7 @@
     </row>
     <row r="87" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E87" s="16" t="s">
-        <v>1142</v>
+        <v>2190</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
@@ -13855,7 +14952,7 @@
     </row>
     <row r="88" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E88" s="16" t="s">
-        <v>1145</v>
+        <v>2191</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
@@ -13880,7 +14977,7 @@
     </row>
     <row r="89" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E89" s="16" t="s">
-        <v>1148</v>
+        <v>2192</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
@@ -13905,7 +15002,7 @@
     </row>
     <row r="90" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E90" s="16" t="s">
-        <v>1151</v>
+        <v>2193</v>
       </c>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
@@ -13930,7 +15027,7 @@
     </row>
     <row r="91" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E91" s="16" t="s">
-        <v>1154</v>
+        <v>2194</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
@@ -13955,7 +15052,7 @@
     </row>
     <row r="92" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E92" s="16" t="s">
-        <v>1157</v>
+        <v>2195</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
@@ -13980,7 +15077,7 @@
     </row>
     <row r="93" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E93" s="16" t="s">
-        <v>1160</v>
+        <v>2196</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
@@ -14005,7 +15102,7 @@
     </row>
     <row r="94" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E94" s="16" t="s">
-        <v>1163</v>
+        <v>2197</v>
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
@@ -14030,7 +15127,7 @@
     </row>
     <row r="95" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E95" s="16" t="s">
-        <v>1166</v>
+        <v>2198</v>
       </c>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
@@ -14055,7 +15152,7 @@
     </row>
     <row r="96" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E96" s="16" t="s">
-        <v>1169</v>
+        <v>2199</v>
       </c>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
@@ -14080,7 +15177,7 @@
     </row>
     <row r="97" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E97" s="16" t="s">
-        <v>1172</v>
+        <v>2200</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
@@ -14105,7 +15202,7 @@
     </row>
     <row r="98" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E98" s="16" t="s">
-        <v>1175</v>
+        <v>2201</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
@@ -14130,7 +15227,7 @@
     </row>
     <row r="99" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E99" s="16" t="s">
-        <v>1178</v>
+        <v>2202</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
@@ -14155,7 +15252,7 @@
     </row>
     <row r="100" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E100" s="16" t="s">
-        <v>1182</v>
+        <v>2203</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
@@ -14180,7 +15277,7 @@
     </row>
     <row r="101" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E101" s="16" t="s">
-        <v>1186</v>
+        <v>2204</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
@@ -14205,7 +15302,7 @@
     </row>
     <row r="102" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E102" s="16" t="s">
-        <v>1190</v>
+        <v>2205</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
@@ -14230,7 +15327,7 @@
     </row>
     <row r="103" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E103" s="16" t="s">
-        <v>1194</v>
+        <v>2206</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
@@ -14255,7 +15352,7 @@
     </row>
     <row r="104" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E104" s="16" t="s">
-        <v>1198</v>
+        <v>2207</v>
       </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
@@ -14280,7 +15377,7 @@
     </row>
     <row r="105" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E105" s="16" t="s">
-        <v>1202</v>
+        <v>2208</v>
       </c>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
@@ -14305,7 +15402,7 @@
     </row>
     <row r="106" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E106" s="16" t="s">
-        <v>1206</v>
+        <v>2209</v>
       </c>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
@@ -14330,7 +15427,7 @@
     </row>
     <row r="107" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E107" s="16" t="s">
-        <v>1210</v>
+        <v>2210</v>
       </c>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
@@ -14355,7 +15452,7 @@
     </row>
     <row r="108" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E108" s="16" t="s">
-        <v>1214</v>
+        <v>2211</v>
       </c>
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
@@ -14380,7 +15477,7 @@
     </row>
     <row r="109" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E109" s="16" t="s">
-        <v>1218</v>
+        <v>2212</v>
       </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
@@ -14405,7 +15502,7 @@
     </row>
     <row r="110" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E110" s="16" t="s">
-        <v>1222</v>
+        <v>2213</v>
       </c>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
@@ -14430,7 +15527,7 @@
     </row>
     <row r="111" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E111" s="16" t="s">
-        <v>1226</v>
+        <v>2214</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
@@ -14455,7 +15552,7 @@
     </row>
     <row r="112" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E112" s="16" t="s">
-        <v>1230</v>
+        <v>2215</v>
       </c>
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
@@ -14480,7 +15577,7 @@
     </row>
     <row r="113" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E113" s="16" t="s">
-        <v>1234</v>
+        <v>2216</v>
       </c>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
@@ -14505,7 +15602,7 @@
     </row>
     <row r="114" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E114" s="16" t="s">
-        <v>1238</v>
+        <v>2217</v>
       </c>
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
@@ -14530,7 +15627,7 @@
     </row>
     <row r="115" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E115" s="16" t="s">
-        <v>1242</v>
+        <v>2218</v>
       </c>
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
@@ -14555,7 +15652,7 @@
     </row>
     <row r="116" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E116" s="16" t="s">
-        <v>1246</v>
+        <v>2219</v>
       </c>
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
@@ -14580,7 +15677,7 @@
     </row>
     <row r="117" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E117" s="16" t="s">
-        <v>1250</v>
+        <v>2220</v>
       </c>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
@@ -14605,7 +15702,7 @@
     </row>
     <row r="118" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E118" s="16" t="s">
-        <v>1254</v>
+        <v>2221</v>
       </c>
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
@@ -14630,7 +15727,7 @@
     </row>
     <row r="119" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E119" s="16" t="s">
-        <v>1258</v>
+        <v>2222</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="16"/>
@@ -14655,7 +15752,7 @@
     </row>
     <row r="120" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E120" s="16" t="s">
-        <v>1262</v>
+        <v>2223</v>
       </c>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
@@ -14680,7 +15777,7 @@
     </row>
     <row r="121" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E121" s="16" t="s">
-        <v>1266</v>
+        <v>2224</v>
       </c>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
@@ -14705,7 +15802,7 @@
     </row>
     <row r="122" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E122" s="16" t="s">
-        <v>1270</v>
+        <v>2225</v>
       </c>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
@@ -14730,7 +15827,7 @@
     </row>
     <row r="123" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E123" s="16" t="s">
-        <v>1274</v>
+        <v>2226</v>
       </c>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
@@ -14755,7 +15852,7 @@
     </row>
     <row r="124" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E124" s="16" t="s">
-        <v>1277</v>
+        <v>2227</v>
       </c>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
@@ -14780,7 +15877,7 @@
     </row>
     <row r="125" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E125" s="16" t="s">
-        <v>1281</v>
+        <v>2228</v>
       </c>
       <c r="F125" s="16"/>
       <c r="G125" s="16"/>
@@ -14805,7 +15902,7 @@
     </row>
     <row r="126" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E126" s="16" t="s">
-        <v>1284</v>
+        <v>2229</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
@@ -14830,7 +15927,7 @@
     </row>
     <row r="127" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E127" s="16" t="s">
-        <v>1288</v>
+        <v>2230</v>
       </c>
       <c r="F127" s="16"/>
       <c r="G127" s="16"/>
@@ -14855,7 +15952,7 @@
     </row>
     <row r="128" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E128" s="16" t="s">
-        <v>1292</v>
+        <v>2231</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
@@ -14880,7 +15977,7 @@
     </row>
     <row r="129" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E129" s="16" t="s">
-        <v>1296</v>
+        <v>2232</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
@@ -14905,7 +16002,7 @@
     </row>
     <row r="130" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E130" s="16" t="s">
-        <v>1300</v>
+        <v>2233</v>
       </c>
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1" backupFile="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C3E727-AFD9-4453-8F20-3642512F6145}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr backupFile="1" defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{47C3E727-AFD9-4453-8F20-3642512F6145}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="0" windowWidth="20280" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="10920" windowWidth="20280" xWindow="210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="STG" sheetId="2" r:id="rId1"/>
-    <sheet name="Credit" sheetId="13" r:id="rId2"/>
-    <sheet name="QAS" sheetId="19" r:id="rId3"/>
-    <sheet name="Emission" sheetId="20" r:id="rId4"/>
-    <sheet name="DataInput" sheetId="11" r:id="rId5"/>
-    <sheet name="Graphs" sheetId="16" r:id="rId6"/>
-    <sheet name="LEEDONLINE" sheetId="12" r:id="rId7"/>
-    <sheet name="Manual" sheetId="15" r:id="rId8"/>
-    <sheet name="Score" sheetId="14" r:id="rId9"/>
-    <sheet name="DEV" sheetId="4" r:id="rId10"/>
-    <sheet name="Material" sheetId="18" r:id="rId11"/>
-    <sheet name="MeterData" sheetId="21" r:id="rId12"/>
-    <sheet name="DEV2" sheetId="22" r:id="rId13"/>
+    <sheet name="STG" r:id="rId1" sheetId="2"/>
+    <sheet name="Credit" r:id="rId2" sheetId="13"/>
+    <sheet name="QAS" r:id="rId3" sheetId="19"/>
+    <sheet name="Emission" r:id="rId4" sheetId="20"/>
+    <sheet name="DataInput" r:id="rId5" sheetId="11"/>
+    <sheet name="Graphs" r:id="rId6" sheetId="16"/>
+    <sheet name="LEEDONLINE" r:id="rId7" sheetId="12"/>
+    <sheet name="Manual" r:id="rId8" sheetId="15"/>
+    <sheet name="Score" r:id="rId9" sheetId="14"/>
+    <sheet name="DEV" r:id="rId10" sheetId="4"/>
+    <sheet name="Material" r:id="rId11" sheetId="18"/>
+    <sheet name="MeterData" r:id="rId12" sheetId="21"/>
+    <sheet name="DEV2" r:id="rId13" sheetId="22"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId14"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4198" uniqueCount="2172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5020" uniqueCount="2647">
   <si>
     <t>FileID</t>
   </si>
@@ -6557,6 +6557,1431 @@
   </si>
   <si>
     <t>8000000042</t>
+  </si>
+  <si>
+    <t>Bearer Fhhz1AAemHIG88CCW6YPL2rvXFy7zM</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Office: Government</t>
+  </si>
+  <si>
+    <t>Investor: ROEC</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-54510</t>
+  </si>
+  <si>
+    <t>1000173209</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Core Learning Space: K-12 High School</t>
+  </si>
+  <si>
+    <t>US-API-City-None-19667</t>
+  </si>
+  <si>
+    <t>1000173211</t>
+  </si>
+  <si>
+    <t>0011047785</t>
+  </si>
+  <si>
+    <t>70001880</t>
+  </si>
+  <si>
+    <t>4229</t>
+  </si>
+  <si>
+    <t>Bearer 25Glg2G4Zq8bdbk2DAmLRzlM4uOPBP</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Core Learning Space: Preschool/Daycare</t>
+  </si>
+  <si>
+    <t>Government Use: Federal</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-82336</t>
+  </si>
+  <si>
+    <t>Bearer kVESzfp0MNRvRV8tcRGB1UrW13CyK0</t>
+  </si>
+  <si>
+    <t>Office: Medical (Non-Diagnostic)</t>
+  </si>
+  <si>
+    <t>Government Use: Local, City</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-10052</t>
+  </si>
+  <si>
+    <t>1000146995</t>
+  </si>
+  <si>
+    <t>Bearer sjhMvqjYutHG2rEubmhILPrtl1k1ZF</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Service: Vehicle Service/Repair</t>
+  </si>
+  <si>
+    <t>Investor: Equity Fund</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-11648</t>
+  </si>
+  <si>
+    <t>1000146996</t>
+  </si>
+  <si>
+    <t>Bearer SVddcwFaY2WtoFwewV3Q0WbWJ2yEOl</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Multi-Family Residential: Condominium</t>
+  </si>
+  <si>
+    <t>Investor: Endowment</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-32595</t>
+  </si>
+  <si>
+    <t>8000000043</t>
+  </si>
+  <si>
+    <t>18167</t>
+  </si>
+  <si>
+    <t>167464</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Lodging: Hotel/Motel/Resort, Limited Service</t>
+  </si>
+  <si>
+    <t>US-API-City-None-55648</t>
+  </si>
+  <si>
+    <t>1000146998</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>Warehouse: Self Storage Units</t>
+  </si>
+  <si>
+    <t>Government Use: Local, County</t>
+  </si>
+  <si>
+    <t>0010401101</t>
+  </si>
+  <si>
+    <t>US-API-City-None-37330</t>
+  </si>
+  <si>
+    <t>1000146999</t>
+  </si>
+  <si>
+    <t>Bearer aYVXzGcIFh3MQwJK2o5bIkahGMn2k1</t>
+  </si>
+  <si>
+    <t>Bearer rJKLw9Q3Jddnf53niUsAZCsbnCJr2E</t>
+  </si>
+  <si>
+    <t>Office: Financial</t>
+  </si>
+  <si>
+    <t>Educational: University, Public</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-45519</t>
+  </si>
+  <si>
+    <t>1000173377</t>
+  </si>
+  <si>
+    <t>0011047823</t>
+  </si>
+  <si>
+    <t>00d2LyOhKDYTLkADqyWTFIRs</t>
+  </si>
+  <si>
+    <t>Bearer vddJh8eN5VhJ9ov1UZT2bNQuJaKwQo</t>
+  </si>
+  <si>
+    <t>Bearer 6WW0WpXiq5xmE8fT8MVMs49zbAjrNv</t>
+  </si>
+  <si>
+    <t>Bearer pUhqOx63TCBlVER6ZmgAOLDZSHdTnd</t>
+  </si>
+  <si>
+    <t>Retail: Open Shopping Center</t>
+  </si>
+  <si>
+    <t>Investor: Individual/Family</t>
+  </si>
+  <si>
+    <t>Service: Post Office/Postal Center</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-70350</t>
+  </si>
+  <si>
+    <t>Bearer 8zl6hWiJurP7GAxFxNtCzI2HJ76vlZ</t>
+  </si>
+  <si>
+    <t>Bearer RbOkWHRhF1qQ4R7Ow4RpbR6gXPjbQS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Single family home (attached)</t>
+  </si>
+  <si>
+    <t>Investor: Investment Manager</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-21769</t>
+  </si>
+  <si>
+    <t>1000147000</t>
+  </si>
+  <si>
+    <t>0010401109</t>
+  </si>
+  <si>
+    <t>YIYwrH4rzNIQlAl6s0nazxJy</t>
+  </si>
+  <si>
+    <t>Bearer wzK6UUVqwkgfCUesiAEDOm3RgbOwKD</t>
+  </si>
+  <si>
+    <t>Bearer u5bVd94oUo0GYb60BtcXLps7AvS9Ed</t>
+  </si>
+  <si>
+    <t>Bearer FmspXekmq9s4U1Uj7IBek8hkfOSXoT</t>
+  </si>
+  <si>
+    <t>Lodging: Other lodging</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Main Street Organization</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-39426</t>
+  </si>
+  <si>
+    <t>Bearer QkJvgm74NabVMvOox6oDNlcSJcu0p5</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Airport: Control Tower</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-00040</t>
+  </si>
+  <si>
+    <t>Bearer h6OkgfEc9mPBjSlX3ruolPUf3kwHdB</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Transit: Other</t>
+  </si>
+  <si>
+    <t>Investor: REIT, Publicly traded</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-89812</t>
+  </si>
+  <si>
+    <t>Bearer 49qFUIKcKtq8en71ZP7xvreU1KqL5x</t>
+  </si>
+  <si>
+    <t>Airport: Other</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-64683</t>
+  </si>
+  <si>
+    <t>Bearer IeZsIlH5uNNfL3wrwcw1zuEUhSQHwK</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Warehouse: Refrigerated</t>
+  </si>
+  <si>
+    <t>Investor: Insurance Company</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-28926</t>
+  </si>
+  <si>
+    <t>Bearer kmm6blr5aBabGAPY8BSqdI0u9GkmbM</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@4833eff3</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@46911148</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@36f7d7b</t>
+  </si>
+  <si>
+    <t>Bearer joQG5wzVRmKpwVvisT2WfQmwRl5vDE</t>
+  </si>
+  <si>
+    <t>Bearer 3dRl4Tnjhwy4v83YGbJ77v9RW4Mt6p</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Airport: Hangar</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS95</t>
+  </si>
+  <si>
+    <t>Bearer eRXNPouwZr9h0kD7SkpsjzIH9kKx9R</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@67b355c8</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@c689973</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@5b5b59</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@2a02e34b</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@472d0f4</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@721d8ab5</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@627ff1b8</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@feb098f</t>
+  </si>
+  <si>
+    <t>com.jayway.restassured.path.xml.XmlPath@519c6fcc</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS06</t>
+  </si>
+  <si>
+    <t>Bearer WE2fVu94YUhoNFHxTxItdwQ3b84t5s</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Core Learning Space: Other classroom education</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS14</t>
+  </si>
+  <si>
+    <t>1000173387</t>
+  </si>
+  <si>
+    <t>Bearer mxOOnZrRt10BzOQajLlbJcHYek5nhe</t>
+  </si>
+  <si>
+    <t>0000000010000000000847165</t>
+  </si>
+  <si>
+    <t>E9EA83C9C0B0A7F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9EA83C9C0B0A9F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000173387</t>
+  </si>
+  <si>
+    <t>1021801</t>
+  </si>
+  <si>
+    <t>1021800</t>
+  </si>
+  <si>
+    <t>Xylenes-total</t>
+  </si>
+  <si>
+    <t>1021799</t>
+  </si>
+  <si>
+    <t>Dichlorobenzene</t>
+  </si>
+  <si>
+    <t>1021798</t>
+  </si>
+  <si>
+    <t>Naphthalene</t>
+  </si>
+  <si>
+    <t>1021797</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>1021796</t>
+  </si>
+  <si>
+    <t>Styrene</t>
+  </si>
+  <si>
+    <t>1021795</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>1021794</t>
+  </si>
+  <si>
+    <t>Acetaldehyde</t>
+  </si>
+  <si>
+    <t>1021793</t>
+  </si>
+  <si>
+    <t>1021792</t>
+  </si>
+  <si>
+    <t>7150410</t>
+  </si>
+  <si>
+    <t>7150411</t>
+  </si>
+  <si>
+    <t>7150412</t>
+  </si>
+  <si>
+    <t>7150413</t>
+  </si>
+  <si>
+    <t>7150414</t>
+  </si>
+  <si>
+    <t>7150415</t>
+  </si>
+  <si>
+    <t>7150416</t>
+  </si>
+  <si>
+    <t>7150417</t>
+  </si>
+  <si>
+    <t>7150418</t>
+  </si>
+  <si>
+    <t>Bearer bi7AbraTvqEQ2yvuL7F94AIdMxXHfa</t>
+  </si>
+  <si>
+    <t>Public Assembly: Stadium/Arena</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS34</t>
+  </si>
+  <si>
+    <t>1000173389</t>
+  </si>
+  <si>
+    <t>Bearer 23aAfIGvimrhxVwXVAVNKpr0SW0Uax</t>
+  </si>
+  <si>
+    <t>0000000010000000000847166</t>
+  </si>
+  <si>
+    <t>E9EA8583F9C5DDF1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9EA8583F9C5DFF1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000173389</t>
+  </si>
+  <si>
+    <t>1021819</t>
+  </si>
+  <si>
+    <t>1021818</t>
+  </si>
+  <si>
+    <t>1021817</t>
+  </si>
+  <si>
+    <t>1021816</t>
+  </si>
+  <si>
+    <t>1021815</t>
+  </si>
+  <si>
+    <t>1021814</t>
+  </si>
+  <si>
+    <t>1021813</t>
+  </si>
+  <si>
+    <t>1021812</t>
+  </si>
+  <si>
+    <t>1021811</t>
+  </si>
+  <si>
+    <t>1021810</t>
+  </si>
+  <si>
+    <t>7150423</t>
+  </si>
+  <si>
+    <t>7150424</t>
+  </si>
+  <si>
+    <t>7150425</t>
+  </si>
+  <si>
+    <t>7150426</t>
+  </si>
+  <si>
+    <t>7150427</t>
+  </si>
+  <si>
+    <t>7150428</t>
+  </si>
+  <si>
+    <t>7150429</t>
+  </si>
+  <si>
+    <t>7150430</t>
+  </si>
+  <si>
+    <t>7150431</t>
+  </si>
+  <si>
+    <t>Bearer cwjAIDVJxn7L5wFV0KfDRuYrHOQHCY</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS92</t>
+  </si>
+  <si>
+    <t>1000173391</t>
+  </si>
+  <si>
+    <t>Bearer eomZy3nleqRBrarypr4fZuCGyEGeVJ</t>
+  </si>
+  <si>
+    <t>0000000010000000000847167</t>
+  </si>
+  <si>
+    <t>E9EA86FCB3FEC5F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9EA86FCB3FEC7F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000173391</t>
+  </si>
+  <si>
+    <t>1021837</t>
+  </si>
+  <si>
+    <t>1021836</t>
+  </si>
+  <si>
+    <t>1021835</t>
+  </si>
+  <si>
+    <t>1021834</t>
+  </si>
+  <si>
+    <t>1021833</t>
+  </si>
+  <si>
+    <t>1021832</t>
+  </si>
+  <si>
+    <t>1021831</t>
+  </si>
+  <si>
+    <t>1021830</t>
+  </si>
+  <si>
+    <t>1021829</t>
+  </si>
+  <si>
+    <t>1021828</t>
+  </si>
+  <si>
+    <t>7150436</t>
+  </si>
+  <si>
+    <t>7150437</t>
+  </si>
+  <si>
+    <t>7150438</t>
+  </si>
+  <si>
+    <t>7150439</t>
+  </si>
+  <si>
+    <t>7150440</t>
+  </si>
+  <si>
+    <t>7150441</t>
+  </si>
+  <si>
+    <t>7150442</t>
+  </si>
+  <si>
+    <t>7150443</t>
+  </si>
+  <si>
+    <t>7150444</t>
+  </si>
+  <si>
+    <t>Bearer NQcDBiBFQuNiMHg4qqZ4DTGZw5lfvm</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Service: Other Service</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS98</t>
+  </si>
+  <si>
+    <t>1000173393</t>
+  </si>
+  <si>
+    <t>Bearer jNuGlB52Ao8N4cfjRUb80x4S19ZO5C</t>
+  </si>
+  <si>
+    <t>0000000010000000000847168</t>
+  </si>
+  <si>
+    <t>E9EA88916EA3E5F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9EA88916EA3E7F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000173393</t>
+  </si>
+  <si>
+    <t>1021855</t>
+  </si>
+  <si>
+    <t>1021854</t>
+  </si>
+  <si>
+    <t>1021853</t>
+  </si>
+  <si>
+    <t>1021852</t>
+  </si>
+  <si>
+    <t>1021851</t>
+  </si>
+  <si>
+    <t>1021850</t>
+  </si>
+  <si>
+    <t>1021849</t>
+  </si>
+  <si>
+    <t>1021848</t>
+  </si>
+  <si>
+    <t>1021847</t>
+  </si>
+  <si>
+    <t>1021846</t>
+  </si>
+  <si>
+    <t>7150449</t>
+  </si>
+  <si>
+    <t>7150450</t>
+  </si>
+  <si>
+    <t>7150451</t>
+  </si>
+  <si>
+    <t>7150452</t>
+  </si>
+  <si>
+    <t>7150453</t>
+  </si>
+  <si>
+    <t>7150454</t>
+  </si>
+  <si>
+    <t>7150455</t>
+  </si>
+  <si>
+    <t>7150456</t>
+  </si>
+  <si>
+    <t>7150457</t>
+  </si>
+  <si>
+    <t>Bearer 6wusaRrh2NTDxnIBtl83n22Mky2TYL</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Healthcare: Nursing Home/ Assisted Living</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS52</t>
+  </si>
+  <si>
+    <t>1000173408</t>
+  </si>
+  <si>
+    <t>Bearer 2iGZeuPofvN8JXmxZbl7wUeIx0K2KO</t>
+  </si>
+  <si>
+    <t>0000000010000000000847183</t>
+  </si>
+  <si>
+    <t>E9EB14965974EAF1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9EB14965974ECF1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000173408</t>
+  </si>
+  <si>
+    <t>1022253</t>
+  </si>
+  <si>
+    <t>1022252</t>
+  </si>
+  <si>
+    <t>1022251</t>
+  </si>
+  <si>
+    <t>1022250</t>
+  </si>
+  <si>
+    <t>1022249</t>
+  </si>
+  <si>
+    <t>1022248</t>
+  </si>
+  <si>
+    <t>1022247</t>
+  </si>
+  <si>
+    <t>1022246</t>
+  </si>
+  <si>
+    <t>1022245</t>
+  </si>
+  <si>
+    <t>1022244</t>
+  </si>
+  <si>
+    <t>7151009</t>
+  </si>
+  <si>
+    <t>7151010</t>
+  </si>
+  <si>
+    <t>7151011</t>
+  </si>
+  <si>
+    <t>7151012</t>
+  </si>
+  <si>
+    <t>7151013</t>
+  </si>
+  <si>
+    <t>7151014</t>
+  </si>
+  <si>
+    <t>7151015</t>
+  </si>
+  <si>
+    <t>7151016</t>
+  </si>
+  <si>
+    <t>7151017</t>
+  </si>
+  <si>
+    <t>Bearer hnEirgzdYinUPffqXm36D17ZVmsV4F</t>
+  </si>
+  <si>
+    <t>Warehouse: Nonrefrigerated Distribution/Shipping</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS47</t>
+  </si>
+  <si>
+    <t>1000173411</t>
+  </si>
+  <si>
+    <t>Bearer ylCYdMIG9jxY9IP5BghyZhisjcJgTm</t>
+  </si>
+  <si>
+    <t>0000000010000000000847186</t>
+  </si>
+  <si>
+    <t>E9EB15D05E5CE8F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9EB15D05E5CEAF1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000173411</t>
+  </si>
+  <si>
+    <t>1022274</t>
+  </si>
+  <si>
+    <t>1022273</t>
+  </si>
+  <si>
+    <t>1022272</t>
+  </si>
+  <si>
+    <t>1022271</t>
+  </si>
+  <si>
+    <t>1022270</t>
+  </si>
+  <si>
+    <t>1022269</t>
+  </si>
+  <si>
+    <t>1022268</t>
+  </si>
+  <si>
+    <t>1022267</t>
+  </si>
+  <si>
+    <t>1022266</t>
+  </si>
+  <si>
+    <t>1022265</t>
+  </si>
+  <si>
+    <t>7151035</t>
+  </si>
+  <si>
+    <t>7151036</t>
+  </si>
+  <si>
+    <t>7151037</t>
+  </si>
+  <si>
+    <t>7151038</t>
+  </si>
+  <si>
+    <t>7151041</t>
+  </si>
+  <si>
+    <t>7151045</t>
+  </si>
+  <si>
+    <t>7151046</t>
+  </si>
+  <si>
+    <t>7151047</t>
+  </si>
+  <si>
+    <t>7151048</t>
+  </si>
+  <si>
+    <t>Bearer wcLhPjpB0aKOlePR315NRgDOnMDb5Z</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Industrial Manufacturing</t>
+  </si>
+  <si>
+    <t>1000173413</t>
+  </si>
+  <si>
+    <t>Bearer xRTQplKZw280AhlX4IEVUl4NlmOkxF</t>
+  </si>
+  <si>
+    <t>Bearer V5ogi5DMu6A7HNKJTBQFgfUlymXWGX</t>
+  </si>
+  <si>
+    <t>Bearer zSW9zrz3S0vvFX4ZGQQCSnhNE7ToBH</t>
+  </si>
+  <si>
+    <t>Bearer 4ZOYrdJzJXlNvtd4jHNbLkMjri2N96</t>
+  </si>
+  <si>
+    <t>1000173416</t>
+  </si>
+  <si>
+    <t>Bearer EbtuSyqAiYkW76S5MPYCy2oyUFf7RT</t>
+  </si>
+  <si>
+    <t>0000000010000000000847191</t>
+  </si>
+  <si>
+    <t>E9EB1928C33256F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9EB1928C33258F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000173416</t>
+  </si>
+  <si>
+    <t>1022331</t>
+  </si>
+  <si>
+    <t>1022330</t>
+  </si>
+  <si>
+    <t>1022329</t>
+  </si>
+  <si>
+    <t>1022328</t>
+  </si>
+  <si>
+    <t>1022327</t>
+  </si>
+  <si>
+    <t>1022326</t>
+  </si>
+  <si>
+    <t>1022325</t>
+  </si>
+  <si>
+    <t>1022324</t>
+  </si>
+  <si>
+    <t>1022323</t>
+  </si>
+  <si>
+    <t>1022322</t>
+  </si>
+  <si>
+    <t>7151092</t>
+  </si>
+  <si>
+    <t>7151093</t>
+  </si>
+  <si>
+    <t>7151094</t>
+  </si>
+  <si>
+    <t>7151095</t>
+  </si>
+  <si>
+    <t>7151096</t>
+  </si>
+  <si>
+    <t>7151097</t>
+  </si>
+  <si>
+    <t>7151098</t>
+  </si>
+  <si>
+    <t>7151099</t>
+  </si>
+  <si>
+    <t>7151100</t>
+  </si>
+  <si>
+    <t>Bearer z19NsEiQFGu097uSJj13s8hZPHQxNr</t>
+  </si>
+  <si>
+    <t>Transit: Station/Underground</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS22</t>
+  </si>
+  <si>
+    <t>1000173420</t>
+  </si>
+  <si>
+    <t>Bearer 0QgKdBYNqMD0vJ2i54eWZpP3UHBDSF</t>
+  </si>
+  <si>
+    <t>0000000010000000000847195</t>
+  </si>
+  <si>
+    <t>E9EB1B455E0743F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9EB1B455E0745F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000173420</t>
+  </si>
+  <si>
+    <t>1022366</t>
+  </si>
+  <si>
+    <t>1022365</t>
+  </si>
+  <si>
+    <t>1022364</t>
+  </si>
+  <si>
+    <t>1022363</t>
+  </si>
+  <si>
+    <t>1022362</t>
+  </si>
+  <si>
+    <t>1022361</t>
+  </si>
+  <si>
+    <t>1022360</t>
+  </si>
+  <si>
+    <t>1022359</t>
+  </si>
+  <si>
+    <t>1022358</t>
+  </si>
+  <si>
+    <t>1022357</t>
+  </si>
+  <si>
+    <t>7151151</t>
+  </si>
+  <si>
+    <t>7151152</t>
+  </si>
+  <si>
+    <t>7151153</t>
+  </si>
+  <si>
+    <t>7151154</t>
+  </si>
+  <si>
+    <t>7151155</t>
+  </si>
+  <si>
+    <t>7151156</t>
+  </si>
+  <si>
+    <t>7151157</t>
+  </si>
+  <si>
+    <t>7151158</t>
+  </si>
+  <si>
+    <t>7151159</t>
+  </si>
+  <si>
+    <t>Bearer XM1eubobmroiDOVexQQAHtm9H3eiWf</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS59</t>
+  </si>
+  <si>
+    <t>1000173426</t>
+  </si>
+  <si>
+    <t>Bearer yklLUYEy8VI6hezbjkX8fq2Jk30uT0</t>
+  </si>
+  <si>
+    <t>0000000010000000000847200</t>
+  </si>
+  <si>
+    <t>E9EB1F04C052B1F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9EB1F04C052B3F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000173426</t>
+  </si>
+  <si>
+    <t>1022430</t>
+  </si>
+  <si>
+    <t>1022429</t>
+  </si>
+  <si>
+    <t>1022428</t>
+  </si>
+  <si>
+    <t>1022427</t>
+  </si>
+  <si>
+    <t>1022426</t>
+  </si>
+  <si>
+    <t>1022425</t>
+  </si>
+  <si>
+    <t>1022424</t>
+  </si>
+  <si>
+    <t>1022423</t>
+  </si>
+  <si>
+    <t>1022422</t>
+  </si>
+  <si>
+    <t>1022421</t>
+  </si>
+  <si>
+    <t>7151223</t>
+  </si>
+  <si>
+    <t>7151224</t>
+  </si>
+  <si>
+    <t>7151225</t>
+  </si>
+  <si>
+    <t>7151226</t>
+  </si>
+  <si>
+    <t>7151227</t>
+  </si>
+  <si>
+    <t>7151228</t>
+  </si>
+  <si>
+    <t>7151229</t>
+  </si>
+  <si>
+    <t>7151230</t>
+  </si>
+  <si>
+    <t>7151236</t>
+  </si>
+  <si>
+    <t>Bearer VYF63VgXl4tri89hEay3TOvjWmRrVm</t>
+  </si>
+  <si>
+    <t>Healthcare: Inpatient</t>
+  </si>
+  <si>
+    <t>1000173428</t>
+  </si>
+  <si>
+    <t>Bearer JZK1J6w522gXhok61tOR0Hsh64y0DM</t>
+  </si>
+  <si>
+    <t>0000000010000000000847203</t>
+  </si>
+  <si>
+    <t>E9EB218DA0C18BF1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9EB218DA0C18DF1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000173428</t>
+  </si>
+  <si>
+    <t>1022445</t>
+  </si>
+  <si>
+    <t>1022459</t>
+  </si>
+  <si>
+    <t>1022458</t>
+  </si>
+  <si>
+    <t>1022457</t>
+  </si>
+  <si>
+    <t>1022456</t>
+  </si>
+  <si>
+    <t>1022455</t>
+  </si>
+  <si>
+    <t>1022454</t>
+  </si>
+  <si>
+    <t>1022453</t>
+  </si>
+  <si>
+    <t>1022452</t>
+  </si>
+  <si>
+    <t>1022451</t>
+  </si>
+  <si>
+    <t>7151268</t>
+  </si>
+  <si>
+    <t>7151269</t>
+  </si>
+  <si>
+    <t>7151270</t>
+  </si>
+  <si>
+    <t>7151271</t>
+  </si>
+  <si>
+    <t>7151272</t>
+  </si>
+  <si>
+    <t>7151273</t>
+  </si>
+  <si>
+    <t>7151274</t>
+  </si>
+  <si>
+    <t>7151275</t>
+  </si>
+  <si>
+    <t>7151276</t>
+  </si>
+  <si>
+    <t>Bearer V4qcpfmUyADEw8qFuUdjM1D7h3K4Zr</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>Service: Vehicle Storage/Maintenance</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS49</t>
+  </si>
+  <si>
+    <t>1000173431</t>
+  </si>
+  <si>
+    <t>Bearer wUkRiYjFU1vfxWwl2C7QqASKyyIUYL</t>
+  </si>
+  <si>
+    <t>0000000010000000000847222</t>
+  </si>
+  <si>
+    <t>E9EB2366EDFC90F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9EB2366EDFC92F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000173431</t>
+  </si>
+  <si>
+    <t>1022482</t>
+  </si>
+  <si>
+    <t>1022481</t>
+  </si>
+  <si>
+    <t>1022480</t>
+  </si>
+  <si>
+    <t>1022479</t>
+  </si>
+  <si>
+    <t>1022478</t>
+  </si>
+  <si>
+    <t>1022477</t>
+  </si>
+  <si>
+    <t>1022476</t>
+  </si>
+  <si>
+    <t>1022475</t>
+  </si>
+  <si>
+    <t>1022474</t>
+  </si>
+  <si>
+    <t>1022473</t>
+  </si>
+  <si>
+    <t>7151285</t>
+  </si>
+  <si>
+    <t>7151286</t>
+  </si>
+  <si>
+    <t>7151287</t>
+  </si>
+  <si>
+    <t>7151288</t>
+  </si>
+  <si>
+    <t>7151289</t>
+  </si>
+  <si>
+    <t>7151290</t>
+  </si>
+  <si>
+    <t>7151291</t>
+  </si>
+  <si>
+    <t>7151292</t>
+  </si>
+  <si>
+    <t>7151293</t>
+  </si>
+  <si>
+    <t>Bearer cqJ38yZhmWWvo7ChnSeAIHGjkI1PsX</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS10</t>
+  </si>
+  <si>
+    <t>1000173433</t>
+  </si>
+  <si>
+    <t>Bearer ykZRlyeGasDp6ABjAru6CdNGP3BsFD</t>
+  </si>
+  <si>
+    <t>0000000010000000000847242</t>
+  </si>
+  <si>
+    <t>E9EB244428B2F5F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9EB244428B2F7F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000173433</t>
+  </si>
+  <si>
+    <t>1022500</t>
+  </si>
+  <si>
+    <t>1022499</t>
+  </si>
+  <si>
+    <t>1022498</t>
+  </si>
+  <si>
+    <t>1022497</t>
+  </si>
+  <si>
+    <t>1022496</t>
+  </si>
+  <si>
+    <t>1022495</t>
+  </si>
+  <si>
+    <t>1022494</t>
+  </si>
+  <si>
+    <t>1022493</t>
+  </si>
+  <si>
+    <t>1022492</t>
+  </si>
+  <si>
+    <t>1022491</t>
+  </si>
+  <si>
+    <t>7151298</t>
+  </si>
+  <si>
+    <t>7151299</t>
+  </si>
+  <si>
+    <t>7151300</t>
+  </si>
+  <si>
+    <t>7151301</t>
+  </si>
+  <si>
+    <t>7151302</t>
+  </si>
+  <si>
+    <t>7151303</t>
+  </si>
+  <si>
+    <t>7151304</t>
+  </si>
+  <si>
+    <t>7151305</t>
+  </si>
+  <si>
+    <t>7151306</t>
+  </si>
+  <si>
+    <t>Bearer seveP4rPjNEUj09oq3JlwKgKxQ2dPU</t>
+  </si>
+  <si>
+    <t>Bearer DxJDv2oSmxoDI5anUe3PJ1xb6lNA52</t>
+  </si>
+  <si>
+    <t>Office: Other Office</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-69290</t>
+  </si>
+  <si>
+    <t>1000173436</t>
+  </si>
+  <si>
+    <t>0011047851</t>
+  </si>
+  <si>
+    <t>Bearer fzW2rg6ytR7WhrRKJCyIdPn1A2Dcmv</t>
+  </si>
+  <si>
+    <t>Bearer ddwXnVxlxWuUUbx8KCinRfeoZtzxcB</t>
+  </si>
+  <si>
+    <t>Retail: Restaurant/Cafeteria</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-27928</t>
   </si>
 </sst>
 </file>
@@ -6651,64 +8076,64 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="164"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="3"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="3"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="4">
@@ -6753,7 +8178,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6805,10 +8230,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -6843,7 +8268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6895,7 +8320,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7000,7 +8425,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -7009,13 +8434,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -7025,7 +8450,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -7034,7 +8459,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7043,7 +8468,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7053,12 +8478,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -7089,7 +8514,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -7108,7 +8533,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -7120,8 +8545,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
@@ -7129,46 +8554,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="42" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.91796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.23046875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="37.23046875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="27.0078125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.74609375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.1171875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.10546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.70703125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="18.48828125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="25.609375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="37.23046875" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="37.23046875" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -7379,13 +8806,13 @@
         <v>1640</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>646</v>
+        <v>2641</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>646</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1719</v>
+        <v>2181</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1568</v>
@@ -7407,16 +8834,16 @@
         <v>1612</v>
       </c>
       <c r="L2" t="s">
-        <v>1674</v>
+        <v>2615</v>
       </c>
       <c r="M2" t="s">
-        <v>1675</v>
+        <v>2616</v>
       </c>
       <c r="N2" t="s">
-        <v>1673</v>
+        <v>2614</v>
       </c>
       <c r="O2" t="s">
-        <v>1672</v>
+        <v>2226</v>
       </c>
       <c r="P2" t="s">
         <v>1591</v>
@@ -7434,10 +8861,10 @@
         <v>298</v>
       </c>
       <c r="U2" t="s">
-        <v>1593</v>
+        <v>2183</v>
       </c>
       <c r="V2" t="s">
-        <v>1592</v>
+        <v>2184</v>
       </c>
       <c r="W2" t="s">
         <v>1715</v>
@@ -7452,7 +8879,7 @@
         <v>1677</v>
       </c>
       <c r="AA2" t="s">
-        <v>1771</v>
+        <v>2644</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -7506,7 +8933,7 @@
         <v>86</v>
       </c>
       <c r="AT2" t="s">
-        <v>1716</v>
+        <v>2289</v>
       </c>
       <c r="AU2" t="s">
         <v>87</v>
@@ -7521,10 +8948,10 @@
         <v>461</v>
       </c>
       <c r="AY2" t="s">
-        <v>1717</v>
+        <v>2645</v>
       </c>
       <c r="AZ2" t="s">
-        <v>1712</v>
+        <v>2175</v>
       </c>
       <c r="BA2" s="5" t="s">
         <v>420</v>
@@ -7548,19 +8975,19 @@
         <v>411</v>
       </c>
       <c r="BH2" t="s">
-        <v>1718</v>
+        <v>2646</v>
       </c>
       <c r="BI2" t="s">
-        <v>1676</v>
+        <v>2617</v>
       </c>
       <c r="BJ2" t="s">
-        <v>1673</v>
+        <v>2614</v>
       </c>
       <c r="BK2" t="s">
-        <v>1674</v>
+        <v>2615</v>
       </c>
       <c r="BL2" t="s">
-        <v>1675</v>
+        <v>2616</v>
       </c>
       <c r="BM2" t="s">
         <v>1600</v>
@@ -7569,7 +8996,7 @@
         <v>1624</v>
       </c>
       <c r="BO2" t="s">
-        <v>1567</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -7627,13 +9054,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:BO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
@@ -7641,35 +9068,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="3.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.91796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.0390625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="3.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="39.66796875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="13.484375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.73828125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="32.95703125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -7880,13 +9308,13 @@
         <v>1654</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1621</v>
+        <v>2240</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>665</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>666</v>
+        <v>2218</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>667</v>
@@ -7919,7 +9347,7 @@
         <v>1684</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>1651</v>
+        <v>2242</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
@@ -7953,7 +9381,7 @@
         <v>1652</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>1701</v>
+        <v>2259</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>676</v>
@@ -8008,7 +9436,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>1697</v>
+        <v>2247</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -8023,10 +9451,10 @@
         <v>144</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>1670</v>
+        <v>2260</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>1698</v>
+        <v>2231</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -8050,7 +9478,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>1699</v>
+        <v>2261</v>
       </c>
       <c r="BI2" s="15" t="s">
         <v>1687</v>
@@ -8299,15 +9727,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8315,16 +9743,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="14.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.85546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" hidden="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="26.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="21.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="29.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="10" width="20.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>356</v>
       </c>
@@ -8350,7 +9778,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>407</v>
       </c>
@@ -8364,7 +9792,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>408</v>
       </c>
@@ -8601,14 +10029,14 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D6:D7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="90" orientation="portrait" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
-  <dimension ref="A1:E63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8616,11 +10044,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>1615</v>
       </c>
@@ -9693,32 +11121,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A17 A2:A4">
-    <cfRule type="timePeriod" dxfId="3" priority="3" timePeriod="lastMonth">
+    <cfRule dxfId="3" priority="3" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A2)=MONTH(EDATE(TODAY(),0-1)),YEAR(A2)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="timePeriod" dxfId="2" priority="5" timePeriod="lastMonth">
+    <cfRule dxfId="2" priority="5" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A6)=MONTH(EDATE(TODAY(),0-1)),YEAR(A6)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A16">
-    <cfRule type="timePeriod" dxfId="1" priority="4" timePeriod="lastMonth">
+    <cfRule dxfId="1" priority="4" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A7)=MONTH(EDATE(TODAY(),0-1)),YEAR(A7)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">
+    <cfRule dxfId="0" priority="1" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A5)=MONTH(EDATE(TODAY(),0-1)),YEAR(A5)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AE12" sqref="AE12"/>
@@ -9726,38 +11154,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="40" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="44.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.91796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.7265625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.10546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.234375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="38.80078125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="36.40625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="20.30859375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -9968,13 +11396,13 @@
         <v>1950</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2171</v>
+        <v>2206</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>665</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1713</v>
+        <v>2212</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>667</v>
@@ -10011,10 +11439,10 @@
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
-        <v>1758</v>
+        <v>2207</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>1759</v>
+        <v>2208</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>673</v>
@@ -10041,7 +11469,7 @@
         <v>1761</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2167</v>
+        <v>2201</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>676</v>
@@ -10096,7 +11524,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>57</v>
+        <v>2209</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -10108,10 +11536,10 @@
         <v>677</v>
       </c>
       <c r="AX2" s="15" t="s">
-        <v>461</v>
+        <v>144</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>2168</v>
+        <v>2210</v>
       </c>
       <c r="AZ2" s="15" t="s">
         <v>2169</v>
@@ -10138,7 +11566,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2170</v>
+        <v>2211</v>
       </c>
       <c r="BI2" s="15" t="s">
         <v>1683</v>
@@ -10295,15 +11723,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -10311,12 +11739,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -10755,13 +12183,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BP6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BQ6"/>
   <sheetViews>
     <sheetView topLeftCell="BA1" workbookViewId="0">
       <selection activeCell="BO2" sqref="BO2"/>
@@ -10769,26 +12197,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.73828125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="49.05078125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="41.22265625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="33.49609375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="36.50390625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="37.73828125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
@@ -11030,13 +12466,13 @@
         <v>1612</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>1603</v>
+        <v>2278</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>1604</v>
+        <v>2279</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>1602</v>
+        <v>2277</v>
       </c>
       <c r="O2" s="16" t="s">
         <v>1642</v>
@@ -11072,10 +12508,10 @@
         <v>633</v>
       </c>
       <c r="Z2" s="16" t="s">
-        <v>1613</v>
+        <v>2268</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>1646</v>
+        <v>2276</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>556</v>
@@ -11130,7 +12566,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="16" t="s">
-        <v>1644</v>
+        <v>2263</v>
       </c>
       <c r="AU2" s="16" t="s">
         <v>87</v>
@@ -11145,10 +12581,10 @@
         <v>144</v>
       </c>
       <c r="AY2" s="16" t="s">
-        <v>1645</v>
+        <v>2264</v>
       </c>
       <c r="AZ2" s="16" t="s">
-        <v>1647</v>
+        <v>2265</v>
       </c>
       <c r="BA2" s="17" t="s">
         <v>420</v>
@@ -11172,19 +12608,19 @@
         <v>411</v>
       </c>
       <c r="BH2" s="16" t="s">
-        <v>1648</v>
+        <v>2266</v>
       </c>
       <c r="BI2" s="16" t="s">
-        <v>1605</v>
+        <v>2280</v>
       </c>
       <c r="BJ2" s="16" t="s">
-        <v>1602</v>
+        <v>2281</v>
       </c>
       <c r="BK2" s="16" t="s">
-        <v>1603</v>
+        <v>2283</v>
       </c>
       <c r="BL2" s="16" t="s">
-        <v>1604</v>
+        <v>2282</v>
       </c>
       <c r="BM2" s="16" t="s">
         <v>1600</v>
@@ -11405,13 +12841,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
@@ -11419,36 +12855,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -11734,13 +13170,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BN281"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AE281"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
@@ -11748,29 +13184,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="66" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.8359375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="37.0078125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.6328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="15.78125" collapsed="true"/>
+    <col min="65" max="66" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -11885,13 +13321,13 @@
         <v>1931</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>1570</v>
+        <v>2618</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>1536</v>
+        <v>706</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>1548</v>
+        <v>2628</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>1946</v>
@@ -11954,7 +13390,7 @@
         <v>200</v>
       </c>
       <c r="AD2" t="s">
-        <v>2159</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -11977,13 +13413,13 @@
         <v>1932</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>1569</v>
+        <v>2619</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>1537</v>
+        <v>2300</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>1549</v>
+        <v>2629</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -12058,13 +13494,13 @@
         <v>1933</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>1571</v>
+        <v>2620</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>551</v>
+        <v>2302</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>1538</v>
+        <v>2630</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -12139,13 +13575,13 @@
         <v>1934</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>1572</v>
+        <v>2621</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>1521</v>
+        <v>2304</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>1539</v>
+        <v>2631</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -12220,13 +13656,13 @@
         <v>1935</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>1573</v>
+        <v>2622</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>1522</v>
+        <v>2306</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>1540</v>
+        <v>2632</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
@@ -12297,13 +13733,13 @@
         <v>1936</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>1574</v>
+        <v>2623</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>1523</v>
+        <v>2308</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>1541</v>
+        <v>2633</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -12374,13 +13810,13 @@
         <v>1937</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>1575</v>
+        <v>2624</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>1546</v>
+        <v>2310</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>1542</v>
+        <v>2634</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -12451,13 +13887,13 @@
         <v>1938</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>1576</v>
+        <v>2625</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>1547</v>
+        <v>2312</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>1543</v>
+        <v>2635</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
@@ -12528,13 +13964,13 @@
         <v>1939</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>1577</v>
+        <v>2626</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>1524</v>
+        <v>257</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>1544</v>
+        <v>2636</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -12605,10 +14041,10 @@
         <v>1940</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>1578</v>
+        <v>2627</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>706</v>
+        <v>254</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>743</v>
@@ -19405,14 +20841,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AI15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AF18" sqref="AF18"/>
@@ -19420,40 +20856,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="9.140625" style="15" collapsed="1"/>
-    <col min="25" max="25" width="11" style="15" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="37" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.5703125" style="15" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="15.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="14.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="17.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="11.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="11.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="15" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="15" width="13.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="15" width="7.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="10.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="15.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="6.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="15" width="11.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="15" width="8.7109375" collapsed="true"/>
+    <col min="23" max="24" style="15" width="9.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="15" width="11.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="37.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="15" width="6.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="15" width="6.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="15" width="6.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="15" width="15.5703125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="15" width="14.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="15" width="16.5703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="15" width="9.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="15" width="17.140625" collapsed="true"/>
+    <col min="36" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -20753,13 +22189,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AE12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
@@ -20767,26 +22203,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="28" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.59765625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="35.07421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="26" max="28" bestFit="true" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="49.95703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.51953125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -20892,7 +22330,7 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>1658</v>
+        <v>2611</v>
       </c>
       <c r="E2" t="s">
         <v>1657</v>
@@ -20901,13 +22339,13 @@
         <v>1545</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>461</v>
       </c>
       <c r="H2" t="s">
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>1656</v>
+        <v>2236</v>
       </c>
       <c r="J2" t="s">
         <v>87</v>
@@ -20967,10 +22405,10 @@
         <v>352</v>
       </c>
       <c r="AC2" t="s">
-        <v>1579</v>
+        <v>2269</v>
       </c>
       <c r="AD2" t="s">
-        <v>1588</v>
+        <v>2270</v>
       </c>
       <c r="AE2" t="s">
         <v>1594</v>
@@ -21043,15 +22481,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink r:id="rId1" ref="Q2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:G14"/>
@@ -21059,9 +22497,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -21341,14 +22779,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:P366"/>
   <sheetViews>
     <sheetView topLeftCell="A329" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
@@ -21356,8 +22794,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -27238,6 +28676,6 @@
       <c r="O366" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5020" uniqueCount="2647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5021" uniqueCount="2648">
   <si>
     <t>FileID</t>
   </si>
@@ -7982,6 +7982,9 @@
   </si>
   <si>
     <t>US-API-Parksmart-Parksmart-27928</t>
+  </si>
+  <si>
+    <t>Bearer N0Pk8vq3qphLsEeOHVcCpODWcShD85</t>
   </si>
 </sst>
 </file>
@@ -8578,7 +8581,7 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.70703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.3203125" collapsed="true"/>
     <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
     <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
@@ -8879,7 +8882,7 @@
         <v>1677</v>
       </c>
       <c r="AA2" t="s">
-        <v>2644</v>
+        <v>2647</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5021" uniqueCount="2648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5022" uniqueCount="2649">
   <si>
     <t>FileID</t>
   </si>
@@ -7985,6 +7985,9 @@
   </si>
   <si>
     <t>Bearer N0Pk8vq3qphLsEeOHVcCpODWcShD85</t>
+  </si>
+  <si>
+    <t>Bearer mbmzICUsyEqoen7uaB6e7HO1DNecge</t>
   </si>
 </sst>
 </file>
@@ -8581,7 +8584,7 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.3203125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="42.76171875" collapsed="true"/>
     <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
     <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
@@ -8882,7 +8885,7 @@
         <v>1677</v>
       </c>
       <c r="AA2" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4500" uniqueCount="2276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4516" uniqueCount="2282">
   <si>
     <t>FileID</t>
   </si>
@@ -6870,6 +6870,24 @@
   </si>
   <si>
     <t>8000000020</t>
+  </si>
+  <si>
+    <t>Bearer Qs0gbdl768kSgj2DqzMavSsGeGKXui</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Core Learning Space: Preschool/Daycare</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-40062</t>
+  </si>
+  <si>
+    <t>1000173945</t>
+  </si>
+  <si>
+    <t>0011047960</t>
   </si>
 </sst>
 </file>
@@ -7466,17 +7484,17 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.51171875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="41.40234375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.5703125" collapsed="true"/>
     <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
     <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
     <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
     <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="26.01953125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="14.34375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="10.59765625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="45.0234375" collapsed="true"/>
     <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
     <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="32.95703125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
     <col min="62" max="62" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
     <col min="63" max="63" bestFit="true" customWidth="true" width="37.05859375" collapsed="true"/>
@@ -7691,7 +7709,7 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2215</v>
+        <v>2280</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2181</v>
@@ -7767,7 +7785,7 @@
         <v>2246</v>
       </c>
       <c r="AA2" t="s">
-        <v>2268</v>
+        <v>2276</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -7821,7 +7839,7 @@
         <v>86</v>
       </c>
       <c r="AT2" t="s">
-        <v>2211</v>
+        <v>2277</v>
       </c>
       <c r="AU2" t="s">
         <v>87</v>
@@ -7836,10 +7854,10 @@
         <v>461</v>
       </c>
       <c r="AY2" t="s">
-        <v>2212</v>
+        <v>2278</v>
       </c>
       <c r="AZ2" t="s">
-        <v>2213</v>
+        <v>2111</v>
       </c>
       <c r="BA2" s="5" t="s">
         <v>420</v>
@@ -7863,7 +7881,7 @@
         <v>411</v>
       </c>
       <c r="BH2" t="s">
-        <v>2214</v>
+        <v>2279</v>
       </c>
       <c r="BI2" t="s">
         <v>2226</v>
@@ -13304,7 +13322,7 @@
         <v>200</v>
       </c>
       <c r="AD2" t="s">
-        <v>2216</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4396" uniqueCount="2219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="2384">
   <si>
     <t>FileID</t>
   </si>
@@ -6699,6 +6699,501 @@
   </si>
   <si>
     <t>Bearer x0IrxDr1Eq1FQaqgViILQdDfXK1M4L</t>
+  </si>
+  <si>
+    <t>Bearer MksYbWHOJDd79aYu4HWy9C0LLeIvmO</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>1566136.0</t>
+  </si>
+  <si>
+    <t>7727</t>
+  </si>
+  <si>
+    <t>7000.0</t>
+  </si>
+  <si>
+    <t>Bearer rp0rn9YO5dHEio9RMHMI2KGNxZoic0</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>1586136.0</t>
+  </si>
+  <si>
+    <t>7827</t>
+  </si>
+  <si>
+    <t>Bearer dhek1AAuzBq4E6KXK2t4uT0KwD9jsQ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Core Learning Space: K-12 High School</t>
+  </si>
+  <si>
+    <t>US-API-Transit-Aboveground-78936</t>
+  </si>
+  <si>
+    <t>1000174116</t>
+  </si>
+  <si>
+    <t>0011048167</t>
+  </si>
+  <si>
+    <t>eir9YQ4K09Gr9BXOAV6DiwM8</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000174116</t>
+  </si>
+  <si>
+    <t>0000000010000000000847623</t>
+  </si>
+  <si>
+    <t>E9F0AE8738A5DBF1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9F0AE8738A5D9F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>46987</t>
+  </si>
+  <si>
+    <t>1757</t>
+  </si>
+  <si>
+    <t>239746</t>
+  </si>
+  <si>
+    <t>1042747</t>
+  </si>
+  <si>
+    <t>1042746</t>
+  </si>
+  <si>
+    <t>1042745</t>
+  </si>
+  <si>
+    <t>1042744</t>
+  </si>
+  <si>
+    <t>1042743</t>
+  </si>
+  <si>
+    <t>1042742</t>
+  </si>
+  <si>
+    <t>1042741</t>
+  </si>
+  <si>
+    <t>1042736</t>
+  </si>
+  <si>
+    <t>1042749</t>
+  </si>
+  <si>
+    <t>1042748</t>
+  </si>
+  <si>
+    <t>1042750</t>
+  </si>
+  <si>
+    <t>7162059</t>
+  </si>
+  <si>
+    <t>Transit certification rvw</t>
+  </si>
+  <si>
+    <t>000000000000004276</t>
+  </si>
+  <si>
+    <t>Bearer 4tUmsMBbvzAVD95NpT6dN3vBXXumRB</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>1588136.0</t>
+  </si>
+  <si>
+    <t>7922</t>
+  </si>
+  <si>
+    <t>9000.0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>70001916</t>
+  </si>
+  <si>
+    <t>4312</t>
+  </si>
+  <si>
+    <t>Bearer eg5AjTMZaNhHHwYfVWZ3COs6wVIkVj</t>
+  </si>
+  <si>
+    <t>Bearer 7mNVmLN11XNzngulljwA1kxTc4kh2K</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>1604136.0</t>
+  </si>
+  <si>
+    <t>8214</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Lodging: Inn</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS17</t>
+  </si>
+  <si>
+    <t>Bearer 7O2vQ2VIvExhKzbgU7S1jGBGHTA326</t>
+  </si>
+  <si>
+    <t>Bearer eZxoT731rn7k24EZ76oTiVocYqUDz9</t>
+  </si>
+  <si>
+    <t>Bearer 4gdQJO4THyQUUjChpZVlV25pRBsgsJ</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Airport: Hangar</t>
+  </si>
+  <si>
+    <t>Educational: Early Childhood Education/Daycare</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-74064</t>
+  </si>
+  <si>
+    <t>8000000453</t>
+  </si>
+  <si>
+    <t>tql0UybcBC1gFPI2CAJjcXXd</t>
+  </si>
+  <si>
+    <t>1043147</t>
+  </si>
+  <si>
+    <t>1043148</t>
+  </si>
+  <si>
+    <t>239826</t>
+  </si>
+  <si>
+    <t>1043149</t>
+  </si>
+  <si>
+    <t>7162797</t>
+  </si>
+  <si>
+    <t>1043150</t>
+  </si>
+  <si>
+    <t>7162798</t>
+  </si>
+  <si>
+    <t>Bearer 59jSP7tnVbB9RA6GihuSGUxIEUMqjH</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>1605136.0</t>
+  </si>
+  <si>
+    <t>8217</t>
+  </si>
+  <si>
+    <t>Bearer IC7Em45fGdQ08Il94y7ikIhVgWZevA</t>
+  </si>
+  <si>
+    <t>Bearer CTnZqSyiwGl6Hc4yJfloJWG4hr73Uu</t>
+  </si>
+  <si>
+    <t>Bearer xhQAm10onRKZXpSzZFj0U0eSptZqm6</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Business Improvement District</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-03780</t>
+  </si>
+  <si>
+    <t>8000000455</t>
+  </si>
+  <si>
+    <t>RchsRAYG0VGBpK0AQUY1f9Zw</t>
+  </si>
+  <si>
+    <t>1043187</t>
+  </si>
+  <si>
+    <t>1043188</t>
+  </si>
+  <si>
+    <t>239827</t>
+  </si>
+  <si>
+    <t>1043189</t>
+  </si>
+  <si>
+    <t>7162807</t>
+  </si>
+  <si>
+    <t>1043190</t>
+  </si>
+  <si>
+    <t>7162808</t>
+  </si>
+  <si>
+    <t>Bearer Xbhsp841oGlg7BmFrjhA34EYWfXDxz</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>1606136.0</t>
+  </si>
+  <si>
+    <t>8220</t>
+  </si>
+  <si>
+    <t>Bearer UHAXFMYk28CxFJ7roUDCXEyWmc8ONr</t>
+  </si>
+  <si>
+    <t>Bearer NxmYM03BA1Kwse0Dqj9xrIUhIpg4zW</t>
+  </si>
+  <si>
+    <t>Bearer DkPBxQVadwUTLUNEb987VkoEf49P5N</t>
+  </si>
+  <si>
+    <t>Bearer giDFz9ZWIty6h5yg97RgpgBDPywexk</t>
+  </si>
+  <si>
+    <t>Bearer l2PT4SfIWVEYU9elifiyPg4hfEvawA</t>
+  </si>
+  <si>
+    <t>Bearer i33jdhz1hfBxmFSSZhnbuoDrrCVrWQ</t>
+  </si>
+  <si>
+    <t>Bearer 6O9NOKMFvbOtXOyAmmuZOrPVI0yaju</t>
+  </si>
+  <si>
+    <t>Bearer jnrNOB9GCbpoxYmt0o8NUtMUvs0QF8</t>
+  </si>
+  <si>
+    <t>Bearer ZLrxT7ElRvKdCyS2MXkx2JsFIoYYvc</t>
+  </si>
+  <si>
+    <t>Bearer FXhmyBinmDUiI1GlLA2OtKDWxpuE9f</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>1611136.0</t>
+  </si>
+  <si>
+    <t>Bearer Wz4AFI0NkvPQivdfwVZtPRiaPV6vcb</t>
+  </si>
+  <si>
+    <t>Bearer 7t0zdu5WVccvdOY4x3CrV7HrwdKjIj</t>
+  </si>
+  <si>
+    <t>Bearer AhmMWALsFSJtypLrvCzHzGHn93VCxj</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>1618136.0</t>
+  </si>
+  <si>
+    <t>8246</t>
+  </si>
+  <si>
+    <t>Bearer 6w8p3oNmRVWIRUXjYfHQTRn7HWYvSF</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Airport: Distribution Center</t>
+  </si>
+  <si>
+    <t>Educational: College, Private</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-76762</t>
+  </si>
+  <si>
+    <t>8000000510</t>
+  </si>
+  <si>
+    <t>g8iiDGn6Ve6WNb17TTR9CCOV</t>
+  </si>
+  <si>
+    <t>1044727</t>
+  </si>
+  <si>
+    <t>1044728</t>
+  </si>
+  <si>
+    <t>239916</t>
+  </si>
+  <si>
+    <t>1044729</t>
+  </si>
+  <si>
+    <t>7163977</t>
+  </si>
+  <si>
+    <t>1044730</t>
+  </si>
+  <si>
+    <t>7163978</t>
+  </si>
+  <si>
+    <t>Bearer q1tAa8scqGRhRiY6xSgQzynyqlzmi4</t>
+  </si>
+  <si>
+    <t>Bearer 05iyMCWoVKh5yIgsqePQeeVpttR8Ju</t>
+  </si>
+  <si>
+    <t>Bearer cPBvDGDTLzB2FkrNIKsOeeWx68m2Bt</t>
+  </si>
+  <si>
+    <t>Transit: Office</t>
+  </si>
+  <si>
+    <t>Investor: Investment Manager</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>Multi-Family Residential: Condominium</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-89931</t>
+  </si>
+  <si>
+    <t>Bearer jlysQvg1hp83k7SOsLLiFbTB1FL8u0</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>1619136.0</t>
+  </si>
+  <si>
+    <t>8249</t>
+  </si>
+  <si>
+    <t>Bearer XVCU3BZ53RLOGEONYjea3xVh9CZrlA</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Multi-Family Residential: Lowrise</t>
+  </si>
+  <si>
+    <t>Educational: University, Private</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-24618</t>
+  </si>
+  <si>
+    <t>8000000511</t>
+  </si>
+  <si>
+    <t>mtXtg5JicT9eUqXwk6SQ98rb</t>
+  </si>
+  <si>
+    <t>1044764</t>
+  </si>
+  <si>
+    <t>1044765</t>
+  </si>
+  <si>
+    <t>239917</t>
+  </si>
+  <si>
+    <t>1044766</t>
+  </si>
+  <si>
+    <t>7163995</t>
+  </si>
+  <si>
+    <t>1044767</t>
+  </si>
+  <si>
+    <t>7163996</t>
   </si>
 </sst>
 </file>
@@ -10455,35 +10950,39 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="48.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="49.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="47.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="39.98046875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="28.93359375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.4140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.74609375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.1171875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.10546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="28.93359375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.51171875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="38.23046875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="36.40625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="11.40234375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="32.95703125" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="64" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.12890625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -10694,7 +11193,7 @@
         <v>2015</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2212</v>
+        <v>2375</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>653</v>
@@ -10709,7 +11208,7 @@
         <v>1609</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1913</v>
+        <v>2236</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>656</v>
@@ -10724,50 +11223,50 @@
         <v>2161</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>2167</v>
+        <v>2242</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>2168</v>
+        <v>2241</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>2166</v>
+        <v>2240</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>2165</v>
+        <v>2376</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
-        <v>1965</v>
+        <v>2377</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>1966</v>
+        <v>2257</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>660</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>2197</v>
+        <v>2244</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>2205</v>
+        <v>2267</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>2206</v>
+        <v>2268</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>2163</v>
+        <v>2259</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>2162</v>
+        <v>2258</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>621</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>2196</v>
+        <v>2243</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2218</v>
+        <v>2370</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>663</v>
@@ -10822,7 +11321,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>112</v>
+        <v>2371</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -10834,13 +11333,13 @@
         <v>664</v>
       </c>
       <c r="AX2" s="15" t="s">
-        <v>144</v>
+        <v>461</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>1964</v>
+        <v>2372</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>2159</v>
+        <v>2373</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -10864,25 +11363,25 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2160</v>
+        <v>2374</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>2169</v>
+        <v>2239</v>
       </c>
       <c r="BJ2" s="15" t="s">
-        <v>2166</v>
+        <v>2240</v>
       </c>
       <c r="BK2" s="15" t="s">
-        <v>2167</v>
+        <v>2242</v>
       </c>
       <c r="BL2" s="15" t="s">
-        <v>2168</v>
+        <v>2241</v>
       </c>
       <c r="BM2" s="15" t="s">
-        <v>1967</v>
+        <v>2379</v>
       </c>
       <c r="BN2" s="15" t="s">
-        <v>1570</v>
+        <v>2378</v>
       </c>
       <c r="BO2" s="15" t="s">
         <v>1542</v>
@@ -10967,7 +11466,7 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>2207</v>
+        <v>2365</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -10991,7 +11490,7 @@
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16" t="s">
-        <v>1661</v>
+        <v>2266</v>
       </c>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
@@ -11042,7 +11541,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>1596</v>
+        <v>2366</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -11115,7 +11614,7 @@
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>1655</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11188,7 +11687,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>2208</v>
+        <v>2367</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11261,7 +11760,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>2209</v>
+        <v>2368</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11334,7 +11833,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>2210</v>
+        <v>2369</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -11407,7 +11906,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>2014</v>
+        <v>2265</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -12950,19 +13449,19 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.26171875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.39453125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="26.0546875" collapsed="true"/>
     <col min="26" max="26" customWidth="true" width="17.28515625" collapsed="true"/>
     <col min="27" max="27" customWidth="true" width="18.0" collapsed="true"/>
     <col min="28" max="28" customWidth="true" width="17.42578125" collapsed="true"/>
     <col min="29" max="29" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="15.78125" collapsed="true"/>
     <col min="31" max="31" bestFit="true" customWidth="true" width="10.52734375" collapsed="true"/>
     <col min="65" max="66" width="9.140625" collapsed="true"/>
   </cols>
@@ -13091,16 +13590,16 @@
         <v>1982</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>2155</v>
+        <v>2380</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>2156</v>
+        <v>2381</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>2157</v>
+        <v>2382</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>2158</v>
+        <v>2383</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>2182</v>
@@ -13127,7 +13626,7 @@
         <v>60</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>2005</v>
+        <v>2254</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>1521</v>
@@ -13151,7 +13650,7 @@
         <v>200</v>
       </c>
       <c r="AD2" t="s">
-        <v>2164</v>
+        <v>2237</v>
       </c>
       <c r="AE2" t="s">
         <v>1514</v>
@@ -13214,7 +13713,7 @@
         <v>60</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>2006</v>
+        <v>2255</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>1520</v>
@@ -20683,7 +21182,7 @@
     <col min="32" max="32" bestFit="true" customWidth="true" style="15" width="14.7109375" collapsed="true"/>
     <col min="33" max="33" bestFit="true" customWidth="true" style="15" width="16.5703125" collapsed="true"/>
     <col min="34" max="34" bestFit="true" customWidth="true" style="15" width="9.42578125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="15" width="17.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="15" width="17.11328125" collapsed="true"/>
     <col min="36" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -20889,7 +21388,7 @@
         <v>268</v>
       </c>
       <c r="AI2" s="15" t="s">
-        <v>1626</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -20987,7 +21486,7 @@
         <v>269</v>
       </c>
       <c r="AI3" s="15" t="s">
-        <v>1625</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -21085,7 +21584,7 @@
         <v>323</v>
       </c>
       <c r="AI4" s="15" t="s">
-        <v>1624</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -21183,7 +21682,7 @@
         <v>324</v>
       </c>
       <c r="AI5" s="15" t="s">
-        <v>1622</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -21281,7 +21780,7 @@
         <v>325</v>
       </c>
       <c r="AI6" s="15" t="s">
-        <v>1623</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -21379,7 +21878,7 @@
         <v>326</v>
       </c>
       <c r="AI7" s="15" t="s">
-        <v>1619</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -21477,7 +21976,7 @@
         <v>327</v>
       </c>
       <c r="AI8" s="15" t="s">
-        <v>1621</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -21575,7 +22074,7 @@
         <v>328</v>
       </c>
       <c r="AI9" s="14" t="s">
-        <v>1620</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -22002,7 +22501,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="37.59765625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.7421875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="35.07421875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
@@ -22123,10 +22622,10 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>2217</v>
+        <v>2278</v>
       </c>
       <c r="E2" t="s">
-        <v>2216</v>
+        <v>2277</v>
       </c>
       <c r="F2" t="s">
         <v>1524</v>
@@ -22138,7 +22637,7 @@
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>2215</v>
+        <v>2276</v>
       </c>
       <c r="J2" t="s">
         <v>87</v>

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="2384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5012" uniqueCount="2543">
   <si>
     <t>FileID</t>
   </si>
@@ -7194,6 +7194,483 @@
   </si>
   <si>
     <t>7163996</t>
+  </si>
+  <si>
+    <t>Bearer DpOxA00ylPKINtBVDLN3d6s8OcjSfL</t>
+  </si>
+  <si>
+    <t>Bearer vImveSUPMhsMe1JWo6undyYJzOn2Ya</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Retail: Convenience Store</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-46724</t>
+  </si>
+  <si>
+    <t>1000174188</t>
+  </si>
+  <si>
+    <t>Bearer 0TAZKMCWrEBuflFHdYalakx0rQHgiD</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>1620136.0</t>
+  </si>
+  <si>
+    <t>8252</t>
+  </si>
+  <si>
+    <t>Bearer VqqvISXb5jpwcxG7Geqc54LTnOsUGZ</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Airport: Rental Car Center</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-95432</t>
+  </si>
+  <si>
+    <t>8000000512</t>
+  </si>
+  <si>
+    <t>iivbS9hFKFaFAB9zNKx5dUwg</t>
+  </si>
+  <si>
+    <t>1045081</t>
+  </si>
+  <si>
+    <t>1045082</t>
+  </si>
+  <si>
+    <t>240009</t>
+  </si>
+  <si>
+    <t>1045083</t>
+  </si>
+  <si>
+    <t>7164338</t>
+  </si>
+  <si>
+    <t>1045084</t>
+  </si>
+  <si>
+    <t>7164342</t>
+  </si>
+  <si>
+    <t>Bearer z8iG4mrSnph8izYX1ulrGUVjCHqqqV</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>1621136.0</t>
+  </si>
+  <si>
+    <t>8255</t>
+  </si>
+  <si>
+    <t>Bearer ZgGrOisp1GYuR18jcErKfAD3EEbVni</t>
+  </si>
+  <si>
+    <t>Bearer WO0VZSVE6SdyIyrCVFCxYQ8oLHXKlv</t>
+  </si>
+  <si>
+    <t>Bearer GvL1NP9LMDaHVAKFQbL31LmCfrVv3x</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Community Development Corporation or Non-profit Developer</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-55162</t>
+  </si>
+  <si>
+    <t>1000174336</t>
+  </si>
+  <si>
+    <t>0011048266</t>
+  </si>
+  <si>
+    <t>Bearer s5oHnnp0440qTa5hYe2kHnqJo7Wd17</t>
+  </si>
+  <si>
+    <t>Service: Post Office/Postal Center</t>
+  </si>
+  <si>
+    <t>US-API-City-None-40920</t>
+  </si>
+  <si>
+    <t>1000174337</t>
+  </si>
+  <si>
+    <t>LEED for Cities - Registration</t>
+  </si>
+  <si>
+    <t>000000000000004248</t>
+  </si>
+  <si>
+    <t>Bearer Kefl2fwIQYand8Ci7rtUAeiOtWWyVp</t>
+  </si>
+  <si>
+    <t>Bearer DDVDRZYjvU0iPVYfgePHbD5KU37YAx</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Core Learning Space: College/University</t>
+  </si>
+  <si>
+    <t>Investor: Bank</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-99085</t>
+  </si>
+  <si>
+    <t>1000093049</t>
+  </si>
+  <si>
+    <t>0011106866</t>
+  </si>
+  <si>
+    <t>Bearer CEOPHV11TuCQBrFLSD0RgLr6qQsrSG</t>
+  </si>
+  <si>
+    <t>Bearer BY9TQ6XRBEh5zkdPFnVSajgwjzjNea</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Service: Vehicle Service/Repair</t>
+  </si>
+  <si>
+    <t>Educational: K-12 School, Private</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-60798</t>
+  </si>
+  <si>
+    <t>1000174338</t>
+  </si>
+  <si>
+    <t>0011048268</t>
+  </si>
+  <si>
+    <t>Bearer MPfhv7QAzIo1HumZ2nygumgK5nezot</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Data Center</t>
+  </si>
+  <si>
+    <t>Non-Profit (that do not fit into other categories)</t>
+  </si>
+  <si>
+    <t>US-API-City-None-24149</t>
+  </si>
+  <si>
+    <t>1000174339</t>
+  </si>
+  <si>
+    <t>0011048269</t>
+  </si>
+  <si>
+    <t>Bearer 1ofeh04Bx7R9PpjF0KDW86eGzlTNoV</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>US-API-Transit-Aboveground-83151</t>
+  </si>
+  <si>
+    <t>1000174340</t>
+  </si>
+  <si>
+    <t>0011048270</t>
+  </si>
+  <si>
+    <t>Bearer MNrv57dLgtFbPpuDBD5KvicsJcCX26</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Office: Government</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-63759</t>
+  </si>
+  <si>
+    <t>1000174342</t>
+  </si>
+  <si>
+    <t>Parksmart: Registration</t>
+  </si>
+  <si>
+    <t>000000000000004282</t>
+  </si>
+  <si>
+    <t>0011048272</t>
+  </si>
+  <si>
+    <t>Bearer pE5ZQDdAMjQragI2wLp0QXXsjUrWLB</t>
+  </si>
+  <si>
+    <t>Bearer R5206t8uwlzOxpuDbhYly2rcNCGeLv</t>
+  </si>
+  <si>
+    <t>Government Use: Local, County</t>
+  </si>
+  <si>
+    <t>US-API-City-None-57147</t>
+  </si>
+  <si>
+    <t>1000174344</t>
+  </si>
+  <si>
+    <t>0011048274</t>
+  </si>
+  <si>
+    <t>1047723</t>
+  </si>
+  <si>
+    <t>1047724</t>
+  </si>
+  <si>
+    <t>1047725</t>
+  </si>
+  <si>
+    <t>1047726</t>
+  </si>
+  <si>
+    <t>1047727</t>
+  </si>
+  <si>
+    <t>1047728</t>
+  </si>
+  <si>
+    <t>1047729</t>
+  </si>
+  <si>
+    <t>1047730</t>
+  </si>
+  <si>
+    <t>1047731</t>
+  </si>
+  <si>
+    <t>1047732</t>
+  </si>
+  <si>
+    <t>1047733</t>
+  </si>
+  <si>
+    <t>1047734</t>
+  </si>
+  <si>
+    <t>1047735</t>
+  </si>
+  <si>
+    <t>1047736</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Transit: Depot</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS62</t>
+  </si>
+  <si>
+    <t>1000174346</t>
+  </si>
+  <si>
+    <t>Bearer V3jrK3uSDKUgA52zCd3dAGJOyPKU1I</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Retail: Restaurant/Cafeteria</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS50</t>
+  </si>
+  <si>
+    <t>1000174348</t>
+  </si>
+  <si>
+    <t>Bearer APMbCcRjy09h2GynJQtgdQIQWsdWrd</t>
+  </si>
+  <si>
+    <t>0000000010000000000847774</t>
+  </si>
+  <si>
+    <t>E9F4B6EB5A1B38F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9F4B6EB5A1B3AF1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000174348</t>
+  </si>
+  <si>
+    <t>1047772</t>
+  </si>
+  <si>
+    <t>1047771</t>
+  </si>
+  <si>
+    <t>1047770</t>
+  </si>
+  <si>
+    <t>1047769</t>
+  </si>
+  <si>
+    <t>1047768</t>
+  </si>
+  <si>
+    <t>1047767</t>
+  </si>
+  <si>
+    <t>1047766</t>
+  </si>
+  <si>
+    <t>1047765</t>
+  </si>
+  <si>
+    <t>1047764</t>
+  </si>
+  <si>
+    <t>1047763</t>
+  </si>
+  <si>
+    <t>7165181</t>
+  </si>
+  <si>
+    <t>7165182</t>
+  </si>
+  <si>
+    <t>7165183</t>
+  </si>
+  <si>
+    <t>7165184</t>
+  </si>
+  <si>
+    <t>7165185</t>
+  </si>
+  <si>
+    <t>7165186</t>
+  </si>
+  <si>
+    <t>7165187</t>
+  </si>
+  <si>
+    <t>7165188</t>
+  </si>
+  <si>
+    <t>7165189</t>
+  </si>
+  <si>
+    <t>47385</t>
+  </si>
+  <si>
+    <t>2057</t>
+  </si>
+  <si>
+    <t>2058</t>
+  </si>
+  <si>
+    <t>2059</t>
+  </si>
+  <si>
+    <t>2060</t>
+  </si>
+  <si>
+    <t>2061</t>
+  </si>
+  <si>
+    <t>2062</t>
+  </si>
+  <si>
+    <t>2063</t>
+  </si>
+  <si>
+    <t>2064</t>
+  </si>
+  <si>
+    <t>2065</t>
+  </si>
+  <si>
+    <t>2066</t>
+  </si>
+  <si>
+    <t>2067</t>
+  </si>
+  <si>
+    <t>2068</t>
+  </si>
+  <si>
+    <t>1767</t>
+  </si>
+  <si>
+    <t>1047776</t>
+  </si>
+  <si>
+    <t>1047775</t>
+  </si>
+  <si>
+    <t>1047774</t>
+  </si>
+  <si>
+    <t>1047773</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS52</t>
+  </si>
+  <si>
+    <t>1000174350</t>
+  </si>
+  <si>
+    <t>Bearer vJaHV0xE3Sq6qQC1Z2uBpTp3EhwSEC</t>
+  </si>
+  <si>
+    <t>0000000010000000000847776</t>
+  </si>
+  <si>
+    <t>E9F4B78B508402F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E9F4B78B508404F1B3040AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000174350</t>
   </si>
 </sst>
 </file>
@@ -7766,13 +8243,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.91796875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.4296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
@@ -7785,27 +8262,27 @@
     <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.10546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="39.8828125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="18.75390625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.12109375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="32.95703125" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
     <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
     <col min="63" max="64" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
     <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
     <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -8013,25 +8490,25 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2013</v>
+        <v>2389</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1959</v>
+        <v>2443</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>634</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1922</v>
+        <v>2469</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1543</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1608</v>
+        <v>2461</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>1600</v>
+        <v>2455</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>1551</v>
@@ -8077,10 +8554,10 @@
         <v>1924</v>
       </c>
       <c r="W2" t="s">
-        <v>439</v>
+        <v>2428</v>
       </c>
       <c r="X2" t="s">
-        <v>438</v>
+        <v>2427</v>
       </c>
       <c r="Y2" t="s">
         <v>621</v>
@@ -8089,7 +8566,7 @@
         <v>1991</v>
       </c>
       <c r="AA2" t="s">
-        <v>2202</v>
+        <v>2489</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -8143,7 +8620,7 @@
         <v>86</v>
       </c>
       <c r="AT2" t="s">
-        <v>2010</v>
+        <v>2418</v>
       </c>
       <c r="AU2" t="s">
         <v>87</v>
@@ -8155,13 +8632,13 @@
         <v>664</v>
       </c>
       <c r="AX2" t="s">
-        <v>461</v>
+        <v>144</v>
       </c>
       <c r="AY2" t="s">
-        <v>2011</v>
+        <v>1961</v>
       </c>
       <c r="AZ2" t="s">
-        <v>1921</v>
+        <v>2467</v>
       </c>
       <c r="BA2" s="5" t="s">
         <v>420</v>
@@ -8185,7 +8662,7 @@
         <v>411</v>
       </c>
       <c r="BH2" t="s">
-        <v>2012</v>
+        <v>2468</v>
       </c>
       <c r="BI2" t="s">
         <v>1971</v>
@@ -8206,7 +8683,7 @@
         <v>1572</v>
       </c>
       <c r="BO2" t="s">
-        <v>2009</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -10953,10 +11430,10 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="21.125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="37.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.296875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="37.453125" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="28.93359375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="27.01953125" collapsed="true"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="14.4140625" collapsed="true"/>
@@ -10966,23 +11443,24 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="28.93359375" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.51171875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="38.23046875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="42.29296875" collapsed="true"/>
     <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
     <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
     <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
     <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="36.40625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="11.40234375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="30.6484375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="28.96875" collapsed="true"/>
     <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
     <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="32.95703125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
     <col min="62" max="62" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="37.33203125" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="37.296875" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="37.453125" collapsed="true"/>
     <col min="65" max="65" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
     <col min="66" max="66" bestFit="true" customWidth="true" width="14.12890625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -11193,7 +11671,7 @@
         <v>2015</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2375</v>
+        <v>2400</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>653</v>
@@ -11223,20 +11701,20 @@
         <v>2161</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>2242</v>
+        <v>2540</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>2241</v>
+        <v>2541</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>2240</v>
+        <v>2539</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>2376</v>
+        <v>2401</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
-        <v>2377</v>
+        <v>2402</v>
       </c>
       <c r="R2" s="15" t="s">
         <v>2257</v>
@@ -11245,7 +11723,7 @@
         <v>660</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>2244</v>
+        <v>2531</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>2267</v>
@@ -11263,10 +11741,10 @@
         <v>621</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>2243</v>
+        <v>2518</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2370</v>
+        <v>2538</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>663</v>
@@ -11321,7 +11799,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>2371</v>
+        <v>2397</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -11333,13 +11811,13 @@
         <v>664</v>
       </c>
       <c r="AX2" s="15" t="s">
-        <v>461</v>
+        <v>144</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>2372</v>
+        <v>2398</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>2373</v>
+        <v>2159</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -11363,28 +11841,28 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2374</v>
+        <v>2399</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>2239</v>
+        <v>2542</v>
       </c>
       <c r="BJ2" s="15" t="s">
-        <v>2240</v>
+        <v>2539</v>
       </c>
       <c r="BK2" s="15" t="s">
-        <v>2242</v>
+        <v>2540</v>
       </c>
       <c r="BL2" s="15" t="s">
-        <v>2241</v>
+        <v>2541</v>
       </c>
       <c r="BM2" s="15" t="s">
-        <v>2379</v>
+        <v>2404</v>
       </c>
       <c r="BN2" s="15" t="s">
-        <v>2378</v>
+        <v>2403</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>1542</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -11466,7 +11944,7 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>2365</v>
+        <v>2410</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -11541,7 +12019,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>2366</v>
+        <v>2411</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -11687,7 +12165,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>2367</v>
+        <v>2412</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11760,7 +12238,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>2368</v>
+        <v>2413</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11833,7 +12311,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>2369</v>
+        <v>2414</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -12454,7 +12932,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
@@ -12465,17 +12943,17 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="39.95703125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="23.59375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.12109375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="32.95703125" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
     <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
     <col min="63" max="63" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
@@ -12694,7 +13172,7 @@
         <v>1591</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1588</v>
+        <v>2435</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>634</v>
@@ -12767,7 +13245,7 @@
         <v>1943</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>1944</v>
+        <v>2430</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -12822,7 +13300,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="16" t="s">
-        <v>1939</v>
+        <v>2431</v>
       </c>
       <c r="AU2" s="16" t="s">
         <v>87</v>
@@ -12834,13 +13312,13 @@
         <v>664</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>144</v>
+        <v>461</v>
       </c>
       <c r="AY2" s="16" t="s">
-        <v>1940</v>
+        <v>2432</v>
       </c>
       <c r="AZ2" s="16" t="s">
-        <v>1941</v>
+        <v>2433</v>
       </c>
       <c r="BA2" s="17" t="s">
         <v>420</v>
@@ -12864,7 +13342,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="16" t="s">
-        <v>1942</v>
+        <v>2434</v>
       </c>
       <c r="BI2" s="16" t="s">
         <v>1948</v>
@@ -13446,14 +13924,14 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.8359375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="37.0078125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.6328125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="12.26171875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="12.39453125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.9296875" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="26.0546875" collapsed="true"/>
@@ -13581,28 +14059,28 @@
         <v>2140</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>1972</v>
+        <v>2499</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>1510</v>
+        <v>693</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>1982</v>
+        <v>2509</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>2380</v>
+        <v>2405</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>2381</v>
+        <v>2406</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>2382</v>
+        <v>2407</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>2383</v>
+        <v>2408</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>2182</v>
+        <v>2471</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>1629</v>
@@ -13626,7 +14104,7 @@
         <v>60</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>2254</v>
+        <v>2532</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>1521</v>
@@ -13650,7 +14128,7 @@
         <v>200</v>
       </c>
       <c r="AD2" t="s">
-        <v>2237</v>
+        <v>2470</v>
       </c>
       <c r="AE2" t="s">
         <v>1514</v>
@@ -13676,20 +14154,20 @@
         <v>2141</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>1973</v>
+        <v>2500</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>693</v>
+        <v>1952</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>1983</v>
+        <v>2510</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16" t="s">
-        <v>2183</v>
+        <v>2472</v>
       </c>
       <c r="O3" s="17" t="s">
         <v>1629</v>
@@ -13713,7 +14191,7 @@
         <v>60</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>2255</v>
+        <v>2533</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>1520</v>
@@ -13760,20 +14238,20 @@
         <v>2142</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>1974</v>
+        <v>2501</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>1984</v>
+        <v>2511</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16" t="s">
-        <v>2184</v>
+        <v>2473</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>1630</v>
@@ -13797,7 +14275,7 @@
         <v>60</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>2007</v>
+        <v>2534</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>1522</v>
@@ -13844,20 +14322,20 @@
         <v>2143</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>1975</v>
+        <v>2502</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>1985</v>
+        <v>2512</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16" t="s">
-        <v>2185</v>
+        <v>2474</v>
       </c>
       <c r="O5" s="17" t="s">
         <v>1631</v>
@@ -13881,7 +14359,7 @@
         <v>60</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>2008</v>
+        <v>2535</v>
       </c>
       <c r="W5" s="15" t="s">
         <v>1523</v>
@@ -13928,20 +14406,20 @@
         <v>2144</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>1976</v>
+        <v>2503</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>1986</v>
+        <v>2513</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16" t="s">
-        <v>2186</v>
+        <v>2475</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>1629</v>
@@ -14008,20 +14486,20 @@
         <v>2145</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>1977</v>
+        <v>2504</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>1987</v>
+        <v>2514</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16" t="s">
-        <v>2187</v>
+        <v>2476</v>
       </c>
       <c r="O7" s="17" t="s">
         <v>1632</v>
@@ -14088,20 +14566,20 @@
         <v>2146</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>1978</v>
+        <v>2505</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>1988</v>
+        <v>2515</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16" t="s">
-        <v>2188</v>
+        <v>2477</v>
       </c>
       <c r="O8" s="15">
         <v>0.32</v>
@@ -14168,20 +14646,20 @@
         <v>2147</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>1979</v>
+        <v>2506</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>1989</v>
+        <v>2516</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16" t="s">
-        <v>2189</v>
+        <v>2478</v>
       </c>
       <c r="O9" s="15" t="s">
         <v>1634</v>
@@ -14248,20 +14726,20 @@
         <v>2148</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>1980</v>
+        <v>2507</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>1958</v>
+        <v>257</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>1990</v>
+        <v>2517</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16" t="s">
-        <v>2190</v>
+        <v>2479</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>1638</v>
@@ -14328,10 +14806,10 @@
         <v>2149</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>1981</v>
+        <v>2508</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>730</v>
@@ -14341,7 +14819,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16" t="s">
-        <v>2191</v>
+        <v>2480</v>
       </c>
       <c r="O11" s="15" t="s">
         <v>1635</v>
@@ -14417,7 +14895,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16" t="s">
-        <v>2192</v>
+        <v>2481</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>1636</v>
@@ -14487,7 +14965,7 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16" t="s">
-        <v>2193</v>
+        <v>2482</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>1637</v>
@@ -14553,7 +15031,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16" t="s">
-        <v>2194</v>
+        <v>2483</v>
       </c>
       <c r="O14" s="14" t="s">
         <v>1633</v>
@@ -14604,7 +15082,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16" t="s">
-        <v>2195</v>
+        <v>2484</v>
       </c>
       <c r="O15" s="14" t="s">
         <v>1633</v>
@@ -22501,7 +22979,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="37.59765625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="35.07421875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="26.01953125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
@@ -22516,7 +22994,9 @@
     <col min="23" max="24" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
     <col min="26" max="28" bestFit="true" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="29" max="31" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="18.51953125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.51953125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -22622,7 +23102,7 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>2278</v>
+        <v>2536</v>
       </c>
       <c r="E2" t="s">
         <v>2277</v>
@@ -22637,7 +23117,7 @@
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>2276</v>
+        <v>111</v>
       </c>
       <c r="J2" t="s">
         <v>87</v>
@@ -22697,10 +23177,10 @@
         <v>352</v>
       </c>
       <c r="AC2" t="s">
-        <v>1992</v>
+        <v>2519</v>
       </c>
       <c r="AD2" t="s">
-        <v>2001</v>
+        <v>2528</v>
       </c>
       <c r="AE2" t="s">
         <v>1547</v>
@@ -22708,10 +23188,10 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC3" t="s">
-        <v>1993</v>
+        <v>2520</v>
       </c>
       <c r="AD3" t="s">
-        <v>2002</v>
+        <v>2529</v>
       </c>
       <c r="AE3" t="s">
         <v>1548</v>
@@ -22719,10 +23199,10 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC4" t="s">
-        <v>1994</v>
+        <v>2521</v>
       </c>
       <c r="AD4" t="s">
-        <v>2003</v>
+        <v>2530</v>
       </c>
       <c r="AE4" t="s">
         <v>1549</v>
@@ -22730,7 +23210,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC5" t="s">
-        <v>1995</v>
+        <v>2522</v>
       </c>
       <c r="AE5" t="s">
         <v>73</v>
@@ -22738,27 +23218,27 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC6" t="s">
-        <v>1996</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC7" t="s">
-        <v>1997</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC8" t="s">
-        <v>1998</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC9" t="s">
-        <v>1999</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC10" t="s">
-        <v>2000</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
-  <workbookPr backupFile="1" defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{0535EE60-2C12-4FD9-A05C-9D3B739E4CB6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
+  <workbookPr filterPrivacy="1" backupFile="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD281AC-08D7-4ED6-9F57-4B6D337B9EED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="14" firstSheet="6" windowHeight="10920" windowWidth="20280" xWindow="210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="210" yWindow="0" windowWidth="20280" windowHeight="10920" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="STG" r:id="rId1" sheetId="2"/>
-    <sheet name="Credit" r:id="rId2" sheetId="13"/>
-    <sheet name="QAS" r:id="rId3" sheetId="19"/>
-    <sheet name="Emission" r:id="rId4" sheetId="20"/>
-    <sheet name="DataInput" r:id="rId5" sheetId="11"/>
-    <sheet name="Graphs" r:id="rId6" sheetId="16"/>
-    <sheet name="LEEDONLINE" r:id="rId7" sheetId="12"/>
-    <sheet name="Manual" r:id="rId8" sheetId="15"/>
-    <sheet name="Score" r:id="rId9" sheetId="14"/>
-    <sheet name="DEV" r:id="rId10" sheetId="4"/>
-    <sheet name="Material" r:id="rId11" sheetId="18"/>
-    <sheet name="MeterData" r:id="rId12" sheetId="21"/>
-    <sheet name="DEV2" r:id="rId13" sheetId="22"/>
-    <sheet name="STG2" r:id="rId14" sheetId="23"/>
-    <sheet name="QAS2" r:id="rId15" sheetId="24"/>
+    <sheet name="STG" sheetId="2" r:id="rId1"/>
+    <sheet name="Credit" sheetId="13" r:id="rId2"/>
+    <sheet name="QAS" sheetId="19" r:id="rId3"/>
+    <sheet name="Emission" sheetId="20" r:id="rId4"/>
+    <sheet name="DataInput" sheetId="11" r:id="rId5"/>
+    <sheet name="Graphs" sheetId="16" r:id="rId6"/>
+    <sheet name="LEEDONLINE" sheetId="12" r:id="rId7"/>
+    <sheet name="Manual" sheetId="15" r:id="rId8"/>
+    <sheet name="Score" sheetId="14" r:id="rId9"/>
+    <sheet name="DEV" sheetId="4" r:id="rId10"/>
+    <sheet name="Material" sheetId="18" r:id="rId11"/>
+    <sheet name="MeterData" sheetId="21" r:id="rId12"/>
+    <sheet name="DEV2" sheetId="22" r:id="rId13"/>
+    <sheet name="STG2" sheetId="23" r:id="rId14"/>
+    <sheet name="QAS2" sheetId="24" r:id="rId15"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId16"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4632" uniqueCount="2282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4513" uniqueCount="2236">
   <si>
     <t>FileID</t>
   </si>
@@ -5076,9 +5076,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>Single family home (attached)</t>
-  </si>
-  <si>
     <t>TotalScore</t>
   </si>
   <si>
@@ -5145,12 +5142,6 @@
     <t>1000174389</t>
   </si>
   <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
     <t>182</t>
   </si>
   <si>
@@ -6477,48 +6468,6 @@
     <t>000000000000004289</t>
   </si>
   <si>
-    <t>1049622</t>
-  </si>
-  <si>
-    <t>1049621</t>
-  </si>
-  <si>
-    <t>1049620</t>
-  </si>
-  <si>
-    <t>1049619</t>
-  </si>
-  <si>
-    <t>1049618</t>
-  </si>
-  <si>
-    <t>1049617</t>
-  </si>
-  <si>
-    <t>1049616</t>
-  </si>
-  <si>
-    <t>1049615</t>
-  </si>
-  <si>
-    <t>1049614</t>
-  </si>
-  <si>
-    <t>1049613</t>
-  </si>
-  <si>
-    <t>7166462</t>
-  </si>
-  <si>
-    <t>7166463</t>
-  </si>
-  <si>
-    <t>7166464</t>
-  </si>
-  <si>
-    <t>7166465</t>
-  </si>
-  <si>
     <t>7166466</t>
   </si>
   <si>
@@ -6660,15 +6609,6 @@
     <t>1783</t>
   </si>
   <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>API LEED v4.1 Cities: Plan and DesignUS57</t>
-  </si>
-  <si>
-    <t>1000174424</t>
-  </si>
-  <si>
     <t>8000000548</t>
   </si>
   <si>
@@ -6696,57 +6636,24 @@
     <t>7166566</t>
   </si>
   <si>
-    <t>Bearer Z6zprm0FXJHWmOpGFrYvftGdunnZ6C</t>
-  </si>
-  <si>
     <t>Office: Mixed-Use</t>
   </si>
   <si>
     <t>US-API-Parksmart-Parksmart-81563</t>
   </si>
   <si>
-    <t>Test Org</t>
-  </si>
-  <si>
     <t>70001114</t>
   </si>
   <si>
-    <t>Bearer QahdRSVeOkuoswFeiuko3OpC4xin1c</t>
-  </si>
-  <si>
     <t>266</t>
   </si>
   <si>
     <t>227</t>
   </si>
   <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>Retail: Restaurant/Cafeteria</t>
-  </si>
-  <si>
-    <t>Educational: Community College, Private</t>
-  </si>
-  <si>
-    <t>US-API-Building-Other-87849</t>
-  </si>
-  <si>
     <t>NM</t>
   </si>
   <si>
-    <t>Airport: Hangar</t>
-  </si>
-  <si>
-    <t>Educational: K-12 School, Private</t>
-  </si>
-  <si>
-    <t>US-API-Building-Other-77093</t>
-  </si>
-  <si>
-    <t>Bearer 4GqjeqOs2qk53zzHZCpShNeAkcuFOX</t>
-  </si>
-  <si>
     <t>Office: Financial</t>
   </si>
   <si>
@@ -6759,15 +6666,9 @@
     <t>8000000002</t>
   </si>
   <si>
-    <t>1358</t>
-  </si>
-  <si>
     <t>pvhQoTBuNXnjAz2fG7UQTM2h</t>
   </si>
   <si>
-    <t>DOCHOLDERL-8000000002</t>
-  </si>
-  <si>
     <t>2473845</t>
   </si>
   <si>
@@ -6777,51 +6678,9 @@
     <t>644713</t>
   </si>
   <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>Office: Government</t>
-  </si>
-  <si>
-    <t>API LEED v4 O+M: Existing BuildingsUS64</t>
-  </si>
-  <si>
-    <t>Bearer MQBusUOxAiuFfiTzPrWnXhEKZkiolF</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Public Assembly: Convention Center</t>
-  </si>
-  <si>
-    <t>API LEED v4 O+M: Existing BuildingsUS34</t>
-  </si>
-  <si>
-    <t>1000174445</t>
-  </si>
-  <si>
-    <t>Bearer 1vBufMM7Jzc48WG57AOa92aajtd3Ut</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Religious Worship</t>
-  </si>
-  <si>
-    <t>API LEED v4 O+M: Existing BuildingsUS04</t>
-  </si>
-  <si>
     <t>Bearer 6QiYlGYFtHtDId9bB2UC9Gke2CiUlH</t>
   </si>
   <si>
-    <t>Transit: Maintenance/Storage</t>
-  </si>
-  <si>
-    <t>API LEED v4 O+M: Existing BuildingsUS75</t>
-  </si>
-  <si>
     <t>1000174447</t>
   </si>
   <si>
@@ -6889,6 +6748,9 @@
   </si>
   <si>
     <t>7166892</t>
+  </si>
+  <si>
+    <t>70001055</t>
   </si>
 </sst>
 </file>
@@ -6898,7 +6760,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6930,6 +6792,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF28323B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6983,64 +6852,69 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="164"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="3"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="3"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="4">
@@ -7085,7 +6959,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7137,10 +7011,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7175,7 +7049,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7227,7 +7101,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7332,7 +7206,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -7341,13 +7215,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -7357,7 +7231,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -7366,7 +7240,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7375,7 +7249,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7385,12 +7259,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -7421,7 +7295,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -7440,7 +7314,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -7452,8 +7326,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -7461,46 +7335,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="64" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -7708,25 +7582,25 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>634</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1542</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>1550</v>
@@ -7739,25 +7613,25 @@
         <v>1553</v>
       </c>
       <c r="L2" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="M2" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="N2" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="O2" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="P2" t="s">
         <v>1543</v>
       </c>
       <c r="Q2" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="R2" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="S2" t="s">
         <v>538</v>
@@ -7784,7 +7658,7 @@
         <v>1674</v>
       </c>
       <c r="AA2" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -7838,7 +7712,7 @@
         <v>86</v>
       </c>
       <c r="AT2" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="AU2" t="s">
         <v>87</v>
@@ -7853,10 +7727,10 @@
         <v>144</v>
       </c>
       <c r="AY2" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="AZ2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="BA2" s="5" t="s">
         <v>420</v>
@@ -7880,28 +7754,28 @@
         <v>411</v>
       </c>
       <c r="BH2" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="BI2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="BM2" t="s">
         <v>1709</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>1706</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>1707</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>1708</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>1712</v>
       </c>
       <c r="BN2" t="s">
         <v>1564</v>
       </c>
       <c r="BO2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -7959,13 +7833,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:BP5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:BO5"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
@@ -7973,36 +7847,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="3.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="64" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="3.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -8632,15 +8506,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AB2" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8648,16 +8522,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" hidden="true" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="10" width="26.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="21.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="10" width="29.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="10" width="20.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="24.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="14.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.85546875" style="10" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>356</v>
       </c>
@@ -8683,7 +8557,7 @@
         <v>410</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>407</v>
       </c>
@@ -8697,7 +8571,7 @@
         <v>398</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>408</v>
       </c>
@@ -8934,14 +8808,14 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D6:D7"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="90" orientation="portrait" verticalDpi="90"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
-  <dimension ref="A1:F63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8949,11 +8823,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>1555</v>
       </c>
@@ -10026,32 +9900,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A17 A2:A4">
-    <cfRule dxfId="3" priority="3" timePeriod="lastMonth" type="timePeriod">
+    <cfRule type="timePeriod" dxfId="3" priority="3" timePeriod="lastMonth">
       <formula>AND(MONTH(A2)=MONTH(EDATE(TODAY(),0-1)),YEAR(A2)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule dxfId="2" priority="5" timePeriod="lastMonth" type="timePeriod">
+    <cfRule type="timePeriod" dxfId="2" priority="5" timePeriod="lastMonth">
       <formula>AND(MONTH(A6)=MONTH(EDATE(TODAY(),0-1)),YEAR(A6)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A16">
-    <cfRule dxfId="1" priority="4" timePeriod="lastMonth" type="timePeriod">
+    <cfRule type="timePeriod" dxfId="1" priority="4" timePeriod="lastMonth">
       <formula>AND(MONTH(A7)=MONTH(EDATE(TODAY(),0-1)),YEAR(A7)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule dxfId="0" priority="1" timePeriod="lastMonth" type="timePeriod">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A5)=MONTH(EDATE(TODAY(),0-1)),YEAR(A5)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
-  <dimension ref="A1:BP10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
+  <dimension ref="A1:BO10"/>
   <sheetViews>
     <sheetView topLeftCell="BI1" workbookViewId="0">
       <selection sqref="A1:BO10"/>
@@ -10059,38 +9933,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="41.42578125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="41.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -10628,15 +10502,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AB2" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
-  <dimension ref="A1:BP10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
+  <dimension ref="A1:BO10"/>
   <sheetViews>
     <sheetView topLeftCell="BM1" workbookViewId="0">
       <selection sqref="A1:BO10"/>
@@ -10644,41 +10518,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="41.625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="64" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="41.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -10886,28 +10760,28 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2208</v>
+        <v>2188</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>653</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>654</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>657</v>
@@ -10916,53 +10790,53 @@
         <v>658</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>2180</v>
+        <v>2163</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>2181</v>
+        <v>2164</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>2179</v>
+        <v>2162</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>2209</v>
+        <v>2189</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
-        <v>2210</v>
+        <v>2190</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>660</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>2204</v>
+        <v>2187</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>621</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>2203</v>
+        <v>2186</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2263</v>
+        <v>2216</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>663</v>
@@ -11017,7 +10891,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -11032,7 +10906,7 @@
         <v>461</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>2218</v>
+        <v>2197</v>
       </c>
       <c r="AZ2" s="15" t="s">
         <v>1654</v>
@@ -11059,28 +10933,28 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2219</v>
+        <v>2198</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>2182</v>
+        <v>2165</v>
       </c>
       <c r="BJ2" s="15" t="s">
-        <v>2179</v>
+        <v>2162</v>
       </c>
       <c r="BK2" s="15" t="s">
-        <v>2180</v>
+        <v>2163</v>
       </c>
       <c r="BL2" s="15" t="s">
-        <v>2181</v>
+        <v>2164</v>
       </c>
       <c r="BM2" s="15" t="s">
+        <v>2192</v>
+      </c>
+      <c r="BN2" s="15" t="s">
+        <v>2191</v>
+      </c>
+      <c r="BO2" s="15" t="s">
         <v>2212</v>
-      </c>
-      <c r="BN2" s="15" t="s">
-        <v>2211</v>
-      </c>
-      <c r="BO2" s="15" t="s">
-        <v>2259</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -11107,7 +10981,7 @@
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
@@ -11162,7 +11036,7 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>2223</v>
+        <v>2200</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -11237,7 +11111,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>2224</v>
+        <v>2201</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -11310,7 +11184,7 @@
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11383,7 +11257,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11456,7 +11330,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11529,7 +11403,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -11602,7 +11476,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11675,46 +11549,46 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AB2" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
-  <dimension ref="A1:BP10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
+  <dimension ref="A1:BO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.078125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="6.05859375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.73046875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.01953125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="5.49609375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="39.70703125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="14.921875" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="30.40625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="21.50390625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="24.203125" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="17.18359375" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -11922,28 +11796,28 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2237</v>
+        <v>2206</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2208</v>
+        <v>2188</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>653</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>654</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>657</v>
@@ -11952,53 +11826,53 @@
         <v>658</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>2265</v>
+        <v>2218</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>2266</v>
+        <v>2219</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>2264</v>
+        <v>2217</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>2239</v>
+        <v>2207</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
-        <v>2241</v>
+        <v>2208</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>2242</v>
+        <v>2209</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>660</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>2204</v>
+        <v>2187</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>621</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>2203</v>
+        <v>2186</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2256</v>
+        <v>2211</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>663</v>
@@ -12053,7 +11927,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>2229</v>
+        <v>2202</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -12068,10 +11942,10 @@
         <v>144</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>2234</v>
+        <v>2203</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>2235</v>
+        <v>2204</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -12095,28 +11969,28 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2236</v>
+        <v>2205</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>2267</v>
+        <v>2220</v>
       </c>
       <c r="BJ2" s="15" t="s">
-        <v>2264</v>
+        <v>2217</v>
       </c>
       <c r="BK2" s="15" t="s">
-        <v>2265</v>
+        <v>2218</v>
       </c>
       <c r="BL2" s="15" t="s">
-        <v>2266</v>
+        <v>2219</v>
       </c>
       <c r="BM2" s="15" t="s">
-        <v>2243</v>
+        <v>2210</v>
       </c>
       <c r="BN2" s="15" t="s">
-        <v>2211</v>
+        <v>2191</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2262</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -12143,7 +12017,7 @@
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15" t="s">
-        <v>2221</v>
+        <v>2199</v>
       </c>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
@@ -12565,7 +12439,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -12638,7 +12512,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -12711,15 +12585,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AB2" xr:uid="{CBB4546A-84E3-4AA0-844F-4EF590542F3D}"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{CBB4546A-84E3-4AA0-844F-4EF590542F3D}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -12727,12 +12601,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -12763,7 +12637,7 @@
         <v>608</v>
       </c>
       <c r="B2" t="s">
-        <v>2183</v>
+        <v>2166</v>
       </c>
       <c r="D2" t="s">
         <v>462</v>
@@ -12772,7 +12646,7 @@
         <v>500</v>
       </c>
       <c r="G2" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12780,7 +12654,7 @@
         <v>609</v>
       </c>
       <c r="B3" t="s">
-        <v>2184</v>
+        <v>2167</v>
       </c>
       <c r="D3" t="s">
         <v>463</v>
@@ -12789,7 +12663,7 @@
         <v>501</v>
       </c>
       <c r="G3" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -12797,7 +12671,7 @@
         <v>610</v>
       </c>
       <c r="B4" t="s">
-        <v>2185</v>
+        <v>2168</v>
       </c>
       <c r="D4" t="s">
         <v>464</v>
@@ -12806,7 +12680,7 @@
         <v>502</v>
       </c>
       <c r="G4" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -12814,7 +12688,7 @@
         <v>611</v>
       </c>
       <c r="B5" t="s">
-        <v>2186</v>
+        <v>2169</v>
       </c>
       <c r="D5" t="s">
         <v>465</v>
@@ -12823,7 +12697,7 @@
         <v>503</v>
       </c>
       <c r="G5" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -12831,7 +12705,7 @@
         <v>612</v>
       </c>
       <c r="B6" t="s">
-        <v>2187</v>
+        <v>2170</v>
       </c>
       <c r="D6" t="s">
         <v>466</v>
@@ -12840,7 +12714,7 @@
         <v>504</v>
       </c>
       <c r="G6" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -12848,7 +12722,7 @@
         <v>613</v>
       </c>
       <c r="B7" t="s">
-        <v>2188</v>
+        <v>2171</v>
       </c>
       <c r="D7" t="s">
         <v>467</v>
@@ -12857,7 +12731,7 @@
         <v>505</v>
       </c>
       <c r="G7" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -12874,7 +12748,7 @@
         <v>506</v>
       </c>
       <c r="G8" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12891,7 +12765,7 @@
         <v>507</v>
       </c>
       <c r="G9" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -12908,7 +12782,7 @@
         <v>508</v>
       </c>
       <c r="G10" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -12925,7 +12799,7 @@
         <v>509</v>
       </c>
       <c r="G11" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -12942,7 +12816,7 @@
         <v>510</v>
       </c>
       <c r="G12" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -12959,7 +12833,7 @@
         <v>511</v>
       </c>
       <c r="G13" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -13171,48 +13045,49 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BQ6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BP6"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BO2" sqref="BO2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="49" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="40" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
@@ -13276,7 +13151,7 @@
       <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -13426,7 +13301,7 @@
         <v>1581</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>634</v>
@@ -13480,7 +13355,7 @@
       <c r="T2" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="26" t="s">
         <v>1545</v>
       </c>
       <c r="V2" s="16" t="s">
@@ -13499,7 +13374,7 @@
         <v>1655</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -13554,7 +13429,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="16" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="AU2" s="16" t="s">
         <v>87</v>
@@ -13569,10 +13444,10 @@
         <v>461</v>
       </c>
       <c r="AY2" s="16" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AZ2" s="16" t="s">
         <v>1683</v>
-      </c>
-      <c r="AZ2" s="16" t="s">
-        <v>1684</v>
       </c>
       <c r="BA2" s="17" t="s">
         <v>420</v>
@@ -13596,7 +13471,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="16" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="BI2" s="16" t="s">
         <v>1659</v>
@@ -13643,7 +13518,9 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
+      <c r="U3" s="27" t="s">
+        <v>2235</v>
+      </c>
       <c r="V3" s="16"/>
       <c r="W3" s="16" t="s">
         <v>460</v>
@@ -13829,13 +13706,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AE7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
@@ -13843,36 +13721,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -13984,25 +13862,25 @@
         <v>620</v>
       </c>
       <c r="F2" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>416</v>
       </c>
       <c r="H2" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="I2" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="J2" t="s">
         <v>1516</v>
       </c>
       <c r="K2" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="L2" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>1339</v>
@@ -14017,13 +13895,13 @@
         <v>1518</v>
       </c>
       <c r="Q2" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="R2" t="s">
         <v>1515</v>
       </c>
       <c r="S2" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="T2" t="s">
         <v>1514</v>
@@ -14158,13 +14036,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AF281"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:BN281"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AC16" sqref="AC16"/>
@@ -14172,30 +14050,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.8359375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="37.0078125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.6328125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="65" max="66" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="18" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="66" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -14290,57 +14168,57 @@
         <v>1504</v>
       </c>
       <c r="AE1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>2268</v>
+        <v>2221</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>693</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>2278</v>
+        <v>2231</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>2213</v>
+        <v>2193</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>2214</v>
+        <v>2194</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>2215</v>
+        <v>2195</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>2216</v>
+        <v>2196</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>2189</v>
+        <v>2172</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>1609</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="Q2" s="16" t="s">
         <v>695</v>
@@ -14358,7 +14236,7 @@
         <v>60</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>2175</v>
+        <v>2158</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>1520</v>
@@ -14382,7 +14260,7 @@
         <v>200</v>
       </c>
       <c r="AD2" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="AE2" t="s">
         <v>1514</v>
@@ -14390,44 +14268,44 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>2269</v>
+        <v>2222</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>1663</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>2279</v>
+        <v>2232</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16" t="s">
-        <v>2190</v>
+        <v>2173</v>
       </c>
       <c r="O3" s="17" t="s">
         <v>1609</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="Q3" s="16" t="s">
         <v>699</v>
@@ -14445,7 +14323,7 @@
         <v>60</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>2176</v>
+        <v>2159</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>1519</v>
@@ -14474,44 +14352,44 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>2270</v>
+        <v>2223</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>1664</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>2280</v>
+        <v>2233</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16" t="s">
-        <v>2191</v>
+        <v>2174</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>1610</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="Q4" s="16" t="s">
         <v>703</v>
@@ -14529,7 +14407,7 @@
         <v>60</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>2177</v>
+        <v>2160</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>1521</v>
@@ -14558,44 +14436,44 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>2271</v>
+        <v>2224</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>1665</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>2281</v>
+        <v>2234</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16" t="s">
-        <v>2192</v>
+        <v>2175</v>
       </c>
       <c r="O5" s="17" t="s">
         <v>1611</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>707</v>
@@ -14613,7 +14491,7 @@
         <v>60</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>2178</v>
+        <v>2161</v>
       </c>
       <c r="W5" s="15" t="s">
         <v>1522</v>
@@ -14642,44 +14520,44 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>2272</v>
+        <v>2225</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>1666</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>2158</v>
+        <v>2141</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16" t="s">
-        <v>2193</v>
+        <v>2176</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>1609</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>711</v>
@@ -14722,44 +14600,44 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>2273</v>
+        <v>2226</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>1667</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>2159</v>
+        <v>2142</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16" t="s">
-        <v>2194</v>
+        <v>2177</v>
       </c>
       <c r="O7" s="17" t="s">
         <v>1612</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>715</v>
@@ -14802,44 +14680,44 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>2274</v>
+        <v>2227</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>1668</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>2160</v>
+        <v>2143</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16" t="s">
-        <v>2195</v>
+        <v>2178</v>
       </c>
       <c r="O8" s="15">
         <v>0.32</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>719</v>
@@ -14882,44 +14760,44 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>2275</v>
+        <v>2228</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>1669</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>2161</v>
+        <v>2144</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16" t="s">
-        <v>2196</v>
+        <v>2179</v>
       </c>
       <c r="O9" s="15" t="s">
         <v>1614</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>723</v>
@@ -14962,44 +14840,44 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>2276</v>
+        <v>2229</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>257</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>2162</v>
+        <v>2145</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16" t="s">
-        <v>2197</v>
+        <v>2180</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>1618</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="Q10" s="16" t="s">
         <v>727</v>
@@ -15042,25 +14920,25 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>2277</v>
+        <v>2230</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>254</v>
@@ -15073,13 +14951,13 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16" t="s">
-        <v>2198</v>
+        <v>2181</v>
       </c>
       <c r="O11" s="15" t="s">
         <v>1615</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="Q11" s="16" t="s">
         <v>732</v>
@@ -15124,16 +15002,16 @@
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>735</v>
@@ -15149,13 +15027,13 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16" t="s">
-        <v>2199</v>
+        <v>2182</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>1616</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>738</v>
@@ -15200,16 +15078,16 @@
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -15219,13 +15097,13 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16" t="s">
-        <v>2200</v>
+        <v>2183</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>1617</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="Q13" s="16" t="s">
         <v>325</v>
@@ -15259,23 +15137,23 @@
         <v>99</v>
       </c>
       <c r="AE13" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -15285,13 +15163,13 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16" t="s">
-        <v>2201</v>
+        <v>2184</v>
       </c>
       <c r="O14" s="14" t="s">
         <v>1613</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="Q14" s="16" t="s">
         <v>745</v>
@@ -15317,16 +15195,16 @@
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -15336,13 +15214,13 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16" t="s">
-        <v>2202</v>
+        <v>2185</v>
       </c>
       <c r="O15" s="14" t="s">
         <v>1613</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="Q15" s="16" t="s">
         <v>749</v>
@@ -15368,16 +15246,16 @@
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -15411,13 +15289,13 @@
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="16" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -15442,13 +15320,13 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18" s="16" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -15473,13 +15351,13 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="16" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -15504,13 +15382,13 @@
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20" s="16" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -15535,13 +15413,13 @@
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21" s="16" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -15566,13 +15444,13 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="16" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -15597,13 +15475,13 @@
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23" s="16" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -15628,13 +15506,13 @@
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24" s="16" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -15659,13 +15537,13 @@
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" s="16" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -15690,13 +15568,13 @@
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26" s="16" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -15721,13 +15599,13 @@
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" s="16" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -15752,13 +15630,13 @@
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="16" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -15783,13 +15661,13 @@
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C29" s="16" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -15814,13 +15692,13 @@
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C30" s="16" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -15845,13 +15723,13 @@
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C31" s="16" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -15876,13 +15754,13 @@
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C32" s="16" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -15907,13 +15785,13 @@
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33" s="16" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -15938,13 +15816,13 @@
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34" s="16" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -15969,13 +15847,13 @@
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35" s="16" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -16000,13 +15878,13 @@
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36" s="16" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -16031,13 +15909,13 @@
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="16" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -16062,13 +15940,13 @@
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38" s="16" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -16093,13 +15971,13 @@
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C39" s="16" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -16124,13 +16002,13 @@
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40" s="16" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -16155,13 +16033,13 @@
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C41" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -16186,13 +16064,13 @@
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42" s="16" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -16217,13 +16095,13 @@
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43" s="16" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -16248,13 +16126,13 @@
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C44" s="16" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
@@ -16279,13 +16157,13 @@
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45" s="16" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
@@ -16310,11 +16188,11 @@
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C46" s="16" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
@@ -16341,7 +16219,7 @@
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -16368,7 +16246,7 @@
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
@@ -16393,7 +16271,7 @@
     </row>
     <row r="49" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E49" s="16" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
@@ -16418,7 +16296,7 @@
     </row>
     <row r="50" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E50" s="16" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
@@ -16443,7 +16321,7 @@
     </row>
     <row r="51" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E51" s="16" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
@@ -16468,7 +16346,7 @@
     </row>
     <row r="52" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E52" s="16" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
@@ -16493,7 +16371,7 @@
     </row>
     <row r="53" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E53" s="16" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
@@ -16518,7 +16396,7 @@
     </row>
     <row r="54" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E54" s="16" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
@@ -16543,7 +16421,7 @@
     </row>
     <row r="55" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E55" s="16" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
@@ -16568,7 +16446,7 @@
     </row>
     <row r="56" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E56" s="16" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
@@ -16593,7 +16471,7 @@
     </row>
     <row r="57" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E57" s="16" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
@@ -16618,7 +16496,7 @@
     </row>
     <row r="58" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E58" s="16" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
@@ -16643,7 +16521,7 @@
     </row>
     <row r="59" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E59" s="16" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
@@ -16668,7 +16546,7 @@
     </row>
     <row r="60" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E60" s="16" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
@@ -16693,7 +16571,7 @@
     </row>
     <row r="61" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E61" s="16" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
@@ -16718,7 +16596,7 @@
     </row>
     <row r="62" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E62" s="16" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
@@ -16743,7 +16621,7 @@
     </row>
     <row r="63" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E63" s="16" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
@@ -16768,7 +16646,7 @@
     </row>
     <row r="64" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E64" s="16" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
@@ -16793,7 +16671,7 @@
     </row>
     <row r="65" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E65" s="16" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
@@ -16818,7 +16696,7 @@
     </row>
     <row r="66" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E66" s="16" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
@@ -16843,7 +16721,7 @@
     </row>
     <row r="67" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E67" s="16" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
@@ -16868,7 +16746,7 @@
     </row>
     <row r="68" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E68" s="16" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
@@ -16893,7 +16771,7 @@
     </row>
     <row r="69" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E69" s="16" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
@@ -16918,7 +16796,7 @@
     </row>
     <row r="70" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E70" s="16" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
@@ -16943,7 +16821,7 @@
     </row>
     <row r="71" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E71" s="16" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
@@ -16968,7 +16846,7 @@
     </row>
     <row r="72" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E72" s="16" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
@@ -16993,7 +16871,7 @@
     </row>
     <row r="73" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E73" s="16" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
@@ -17018,7 +16896,7 @@
     </row>
     <row r="74" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E74" s="16" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
@@ -17043,7 +16921,7 @@
     </row>
     <row r="75" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E75" s="16" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
@@ -17068,7 +16946,7 @@
     </row>
     <row r="76" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E76" s="16" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
@@ -17093,7 +16971,7 @@
     </row>
     <row r="77" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E77" s="16" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
@@ -17118,7 +16996,7 @@
     </row>
     <row r="78" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E78" s="16" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
@@ -17143,7 +17021,7 @@
     </row>
     <row r="79" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E79" s="16" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
@@ -17168,7 +17046,7 @@
     </row>
     <row r="80" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E80" s="16" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
@@ -17193,7 +17071,7 @@
     </row>
     <row r="81" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E81" s="16" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
@@ -17218,7 +17096,7 @@
     </row>
     <row r="82" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E82" s="16" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
@@ -17243,7 +17121,7 @@
     </row>
     <row r="83" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E83" s="16" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
@@ -17268,7 +17146,7 @@
     </row>
     <row r="84" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E84" s="16" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
@@ -17293,7 +17171,7 @@
     </row>
     <row r="85" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E85" s="16" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
@@ -17318,7 +17196,7 @@
     </row>
     <row r="86" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E86" s="16" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
@@ -17343,7 +17221,7 @@
     </row>
     <row r="87" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E87" s="16" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
@@ -17368,7 +17246,7 @@
     </row>
     <row r="88" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E88" s="16" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
@@ -17393,7 +17271,7 @@
     </row>
     <row r="89" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E89" s="16" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
@@ -17418,7 +17296,7 @@
     </row>
     <row r="90" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E90" s="16" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
@@ -17443,7 +17321,7 @@
     </row>
     <row r="91" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E91" s="16" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
@@ -17468,7 +17346,7 @@
     </row>
     <row r="92" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E92" s="16" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
@@ -17493,7 +17371,7 @@
     </row>
     <row r="93" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E93" s="16" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
@@ -17518,7 +17396,7 @@
     </row>
     <row r="94" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E94" s="16" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
@@ -17543,7 +17421,7 @@
     </row>
     <row r="95" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E95" s="16" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
@@ -17568,7 +17446,7 @@
     </row>
     <row r="96" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E96" s="16" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
@@ -17593,7 +17471,7 @@
     </row>
     <row r="97" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E97" s="16" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
@@ -17618,7 +17496,7 @@
     </row>
     <row r="98" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E98" s="16" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
@@ -17643,7 +17521,7 @@
     </row>
     <row r="99" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E99" s="16" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
@@ -17668,7 +17546,7 @@
     </row>
     <row r="100" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E100" s="16" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
@@ -17693,7 +17571,7 @@
     </row>
     <row r="101" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E101" s="16" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
@@ -17718,7 +17596,7 @@
     </row>
     <row r="102" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E102" s="16" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
@@ -17743,7 +17621,7 @@
     </row>
     <row r="103" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E103" s="16" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
@@ -17768,7 +17646,7 @@
     </row>
     <row r="104" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E104" s="16" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
@@ -17793,7 +17671,7 @@
     </row>
     <row r="105" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E105" s="16" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
@@ -17818,7 +17696,7 @@
     </row>
     <row r="106" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E106" s="16" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
@@ -17843,7 +17721,7 @@
     </row>
     <row r="107" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E107" s="16" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
@@ -17868,7 +17746,7 @@
     </row>
     <row r="108" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E108" s="16" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
@@ -17893,7 +17771,7 @@
     </row>
     <row r="109" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E109" s="16" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
@@ -17918,7 +17796,7 @@
     </row>
     <row r="110" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E110" s="16" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
@@ -17943,7 +17821,7 @@
     </row>
     <row r="111" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E111" s="16" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
@@ -17968,7 +17846,7 @@
     </row>
     <row r="112" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E112" s="16" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
@@ -17993,7 +17871,7 @@
     </row>
     <row r="113" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E113" s="16" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
@@ -18018,7 +17896,7 @@
     </row>
     <row r="114" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E114" s="16" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
@@ -18043,7 +17921,7 @@
     </row>
     <row r="115" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E115" s="16" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
@@ -18068,7 +17946,7 @@
     </row>
     <row r="116" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E116" s="16" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
@@ -18093,7 +17971,7 @@
     </row>
     <row r="117" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E117" s="16" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
@@ -18118,7 +17996,7 @@
     </row>
     <row r="118" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E118" s="16" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
@@ -18143,7 +18021,7 @@
     </row>
     <row r="119" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E119" s="16" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="16"/>
@@ -18168,7 +18046,7 @@
     </row>
     <row r="120" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E120" s="16" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
@@ -18193,7 +18071,7 @@
     </row>
     <row r="121" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E121" s="16" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
@@ -18218,7 +18096,7 @@
     </row>
     <row r="122" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E122" s="16" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
@@ -18243,7 +18121,7 @@
     </row>
     <row r="123" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E123" s="16" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
@@ -18268,7 +18146,7 @@
     </row>
     <row r="124" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E124" s="16" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
@@ -18293,7 +18171,7 @@
     </row>
     <row r="125" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E125" s="16" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="F125" s="16"/>
       <c r="G125" s="16"/>
@@ -18318,7 +18196,7 @@
     </row>
     <row r="126" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E126" s="16" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
@@ -18343,7 +18221,7 @@
     </row>
     <row r="127" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E127" s="16" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="F127" s="16"/>
       <c r="G127" s="16"/>
@@ -18368,7 +18246,7 @@
     </row>
     <row r="128" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E128" s="16" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
@@ -18393,7 +18271,7 @@
     </row>
     <row r="129" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E129" s="16" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
@@ -18418,7 +18296,7 @@
     </row>
     <row r="130" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E130" s="16" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
@@ -18443,7 +18321,7 @@
     </row>
     <row r="131" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E131" s="16" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="F131" s="16"/>
       <c r="G131" s="16"/>
@@ -18468,7 +18346,7 @@
     </row>
     <row r="132" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E132" s="16" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
@@ -18493,7 +18371,7 @@
     </row>
     <row r="133" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E133" s="16" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="F133" s="16"/>
       <c r="G133" s="16"/>
@@ -18518,7 +18396,7 @@
     </row>
     <row r="134" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E134" s="16" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="F134" s="16"/>
       <c r="G134" s="16"/>
@@ -18543,7 +18421,7 @@
     </row>
     <row r="135" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E135" s="16" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="F135" s="16"/>
       <c r="G135" s="16"/>
@@ -18568,7 +18446,7 @@
     </row>
     <row r="136" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E136" s="16" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
@@ -18593,7 +18471,7 @@
     </row>
     <row r="137" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E137" s="16" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="F137" s="16"/>
       <c r="G137" s="16"/>
@@ -18618,7 +18496,7 @@
     </row>
     <row r="138" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E138" s="16" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
@@ -18643,7 +18521,7 @@
     </row>
     <row r="139" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E139" s="16" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="F139" s="16"/>
       <c r="G139" s="16"/>
@@ -18668,7 +18546,7 @@
     </row>
     <row r="140" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E140" s="16" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
@@ -18693,7 +18571,7 @@
     </row>
     <row r="141" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E141" s="16" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="F141" s="16"/>
       <c r="G141" s="16"/>
@@ -18718,7 +18596,7 @@
     </row>
     <row r="142" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E142" s="16" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
@@ -18743,7 +18621,7 @@
     </row>
     <row r="143" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E143" s="16" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="F143" s="16"/>
       <c r="G143" s="16"/>
@@ -18768,7 +18646,7 @@
     </row>
     <row r="144" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E144" s="16" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
@@ -18793,7 +18671,7 @@
     </row>
     <row r="145" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E145" s="16" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="F145" s="16"/>
       <c r="G145" s="16"/>
@@ -18818,7 +18696,7 @@
     </row>
     <row r="146" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E146" s="16" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="F146" s="16"/>
       <c r="G146" s="16"/>
@@ -18843,7 +18721,7 @@
     </row>
     <row r="147" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E147" s="16" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="F147" s="16"/>
       <c r="G147" s="16"/>
@@ -18868,7 +18746,7 @@
     </row>
     <row r="148" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E148" s="16" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
@@ -18893,7 +18771,7 @@
     </row>
     <row r="149" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E149" s="16" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="F149" s="16"/>
       <c r="G149" s="16"/>
@@ -18918,7 +18796,7 @@
     </row>
     <row r="150" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E150" s="16" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="F150" s="16"/>
       <c r="G150" s="16"/>
@@ -18943,7 +18821,7 @@
     </row>
     <row r="151" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E151" s="16" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="F151" s="16"/>
       <c r="G151" s="16"/>
@@ -18968,7 +18846,7 @@
     </row>
     <row r="152" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E152" s="16" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="F152" s="16"/>
       <c r="G152" s="16"/>
@@ -18993,7 +18871,7 @@
     </row>
     <row r="153" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E153" s="16" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="F153" s="16"/>
       <c r="G153" s="16"/>
@@ -19018,7 +18896,7 @@
     </row>
     <row r="154" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E154" s="16" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="F154" s="16"/>
       <c r="G154" s="16"/>
@@ -19043,7 +18921,7 @@
     </row>
     <row r="155" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E155" s="16" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="F155" s="16"/>
       <c r="G155" s="16"/>
@@ -19068,7 +18946,7 @@
     </row>
     <row r="156" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E156" s="16" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="F156" s="16"/>
       <c r="G156" s="16"/>
@@ -19093,7 +18971,7 @@
     </row>
     <row r="157" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E157" s="16" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="F157" s="16"/>
       <c r="G157" s="16"/>
@@ -19118,7 +18996,7 @@
     </row>
     <row r="158" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E158" s="16" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="F158" s="16"/>
       <c r="G158" s="16"/>
@@ -19143,7 +19021,7 @@
     </row>
     <row r="159" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E159" s="16" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="F159" s="16"/>
       <c r="G159" s="16"/>
@@ -19168,7 +19046,7 @@
     </row>
     <row r="160" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E160" s="16" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="16"/>
@@ -19193,7 +19071,7 @@
     </row>
     <row r="161" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E161" s="16" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="16"/>
@@ -19218,7 +19096,7 @@
     </row>
     <row r="162" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E162" s="16" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="16"/>
@@ -19243,7 +19121,7 @@
     </row>
     <row r="163" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E163" s="16" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F163" s="16"/>
       <c r="G163" s="16"/>
@@ -19268,7 +19146,7 @@
     </row>
     <row r="164" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E164" s="16" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="F164" s="16"/>
       <c r="G164" s="16"/>
@@ -19293,7 +19171,7 @@
     </row>
     <row r="165" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E165" s="16" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="F165" s="16"/>
       <c r="G165" s="16"/>
@@ -19318,7 +19196,7 @@
     </row>
     <row r="166" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E166" s="16" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
@@ -19343,7 +19221,7 @@
     </row>
     <row r="167" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E167" s="16" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F167" s="16"/>
       <c r="G167" s="16"/>
@@ -19368,7 +19246,7 @@
     </row>
     <row r="168" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E168" s="16" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
@@ -19393,7 +19271,7 @@
     </row>
     <row r="169" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E169" s="16" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="F169" s="16"/>
       <c r="G169" s="16"/>
@@ -19418,7 +19296,7 @@
     </row>
     <row r="170" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E170" s="16" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="F170" s="16"/>
       <c r="G170" s="16"/>
@@ -19443,7 +19321,7 @@
     </row>
     <row r="171" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E171" s="16" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="F171" s="16"/>
       <c r="G171" s="16"/>
@@ -19468,7 +19346,7 @@
     </row>
     <row r="172" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E172" s="16" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
@@ -19493,7 +19371,7 @@
     </row>
     <row r="173" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E173" s="16" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="F173" s="16"/>
       <c r="G173" s="16"/>
@@ -19518,7 +19396,7 @@
     </row>
     <row r="174" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E174" s="16" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="16"/>
@@ -19543,7 +19421,7 @@
     </row>
     <row r="175" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E175" s="16" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F175" s="16"/>
       <c r="G175" s="16"/>
@@ -19568,7 +19446,7 @@
     </row>
     <row r="176" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E176" s="16" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F176" s="16"/>
       <c r="G176" s="16"/>
@@ -19593,7 +19471,7 @@
     </row>
     <row r="177" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E177" s="16" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="F177" s="16"/>
       <c r="G177" s="16"/>
@@ -19618,7 +19496,7 @@
     </row>
     <row r="178" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E178" s="16" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="F178" s="16"/>
       <c r="G178" s="16"/>
@@ -19643,7 +19521,7 @@
     </row>
     <row r="179" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E179" s="16" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="F179" s="16"/>
       <c r="G179" s="16"/>
@@ -19668,7 +19546,7 @@
     </row>
     <row r="180" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E180" s="16" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="F180" s="16"/>
       <c r="G180" s="16"/>
@@ -19693,7 +19571,7 @@
     </row>
     <row r="181" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E181" s="16" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="F181" s="16"/>
       <c r="G181" s="16"/>
@@ -19718,7 +19596,7 @@
     </row>
     <row r="182" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E182" s="16" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="F182" s="16"/>
       <c r="G182" s="16"/>
@@ -19743,7 +19621,7 @@
     </row>
     <row r="183" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E183" s="16" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="F183" s="16"/>
       <c r="G183" s="16"/>
@@ -19768,7 +19646,7 @@
     </row>
     <row r="184" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E184" s="16" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="F184" s="16"/>
       <c r="G184" s="16"/>
@@ -19793,7 +19671,7 @@
     </row>
     <row r="185" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E185" s="16" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="F185" s="16"/>
       <c r="G185" s="16"/>
@@ -19818,7 +19696,7 @@
     </row>
     <row r="186" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E186" s="16" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="F186" s="16"/>
       <c r="G186" s="16"/>
@@ -19843,7 +19721,7 @@
     </row>
     <row r="187" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E187" s="16" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="F187" s="16"/>
       <c r="G187" s="16"/>
@@ -19868,7 +19746,7 @@
     </row>
     <row r="188" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E188" s="16" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
@@ -19893,7 +19771,7 @@
     </row>
     <row r="189" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E189" s="16" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="F189" s="16"/>
       <c r="G189" s="16"/>
@@ -19918,7 +19796,7 @@
     </row>
     <row r="190" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E190" s="16" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
@@ -19943,7 +19821,7 @@
     </row>
     <row r="191" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E191" s="16" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="F191" s="16"/>
       <c r="G191" s="16"/>
@@ -19968,7 +19846,7 @@
     </row>
     <row r="192" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E192" s="16" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="F192" s="16"/>
       <c r="G192" s="16"/>
@@ -19993,7 +19871,7 @@
     </row>
     <row r="193" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E193" s="16" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="F193" s="16"/>
       <c r="G193" s="16"/>
@@ -20018,7 +19896,7 @@
     </row>
     <row r="194" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E194" s="16" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="F194" s="16"/>
       <c r="G194" s="16"/>
@@ -20043,7 +19921,7 @@
     </row>
     <row r="195" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E195" s="16" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="F195" s="16"/>
       <c r="G195" s="16"/>
@@ -20068,7 +19946,7 @@
     </row>
     <row r="196" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E196" s="16" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="F196" s="16"/>
       <c r="G196" s="16"/>
@@ -20093,7 +19971,7 @@
     </row>
     <row r="197" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E197" s="16" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="F197" s="16"/>
       <c r="G197" s="16"/>
@@ -20118,7 +19996,7 @@
     </row>
     <row r="198" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E198" s="16" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
@@ -20143,7 +20021,7 @@
     </row>
     <row r="199" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E199" s="16" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="F199" s="16"/>
       <c r="G199" s="16"/>
@@ -20168,7 +20046,7 @@
     </row>
     <row r="200" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E200" s="16" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
@@ -20193,7 +20071,7 @@
     </row>
     <row r="201" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E201" s="16" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="F201" s="16"/>
       <c r="G201" s="16"/>
@@ -20218,7 +20096,7 @@
     </row>
     <row r="202" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E202" s="16" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="F202" s="16"/>
       <c r="G202" s="16"/>
@@ -20243,7 +20121,7 @@
     </row>
     <row r="203" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E203" s="16" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="F203" s="16"/>
       <c r="G203" s="16"/>
@@ -20268,7 +20146,7 @@
     </row>
     <row r="204" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E204" s="16" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="F204" s="16"/>
       <c r="G204" s="16"/>
@@ -20293,7 +20171,7 @@
     </row>
     <row r="205" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E205" s="16" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="F205" s="16"/>
       <c r="G205" s="16"/>
@@ -20318,7 +20196,7 @@
     </row>
     <row r="206" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E206" s="16" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="F206" s="16"/>
       <c r="G206" s="16"/>
@@ -20343,7 +20221,7 @@
     </row>
     <row r="207" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E207" s="16" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="F207" s="16"/>
       <c r="G207" s="16"/>
@@ -20368,7 +20246,7 @@
     </row>
     <row r="208" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E208" s="16" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="F208" s="16"/>
       <c r="G208" s="16"/>
@@ -20393,7 +20271,7 @@
     </row>
     <row r="209" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E209" s="16" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="F209" s="16"/>
       <c r="G209" s="16"/>
@@ -20418,7 +20296,7 @@
     </row>
     <row r="210" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E210" s="16" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="F210" s="16"/>
       <c r="G210" s="16"/>
@@ -20443,7 +20321,7 @@
     </row>
     <row r="211" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E211" s="16" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="F211" s="16"/>
       <c r="G211" s="16"/>
@@ -20468,7 +20346,7 @@
     </row>
     <row r="212" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E212" s="16" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="F212" s="16"/>
       <c r="G212" s="16"/>
@@ -20493,7 +20371,7 @@
     </row>
     <row r="213" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E213" s="16" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="F213" s="16"/>
       <c r="G213" s="16"/>
@@ -20518,7 +20396,7 @@
     </row>
     <row r="214" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E214" s="16" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="F214" s="16"/>
       <c r="G214" s="16"/>
@@ -20543,7 +20421,7 @@
     </row>
     <row r="215" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E215" s="16" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="F215" s="16"/>
       <c r="G215" s="16"/>
@@ -20568,7 +20446,7 @@
     </row>
     <row r="216" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E216" s="16" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="F216" s="16"/>
       <c r="G216" s="16"/>
@@ -20593,7 +20471,7 @@
     </row>
     <row r="217" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E217" s="16" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="F217" s="16"/>
       <c r="G217" s="16"/>
@@ -20618,7 +20496,7 @@
     </row>
     <row r="218" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E218" s="16" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="F218" s="16"/>
       <c r="G218" s="16"/>
@@ -20643,7 +20521,7 @@
     </row>
     <row r="219" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E219" s="16" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="F219" s="16"/>
       <c r="G219" s="16"/>
@@ -20668,7 +20546,7 @@
     </row>
     <row r="220" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E220" s="16" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="F220" s="16"/>
       <c r="G220" s="16"/>
@@ -20693,7 +20571,7 @@
     </row>
     <row r="221" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E221" s="16" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="F221" s="16"/>
       <c r="G221" s="16"/>
@@ -20718,7 +20596,7 @@
     </row>
     <row r="222" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E222" s="16" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="F222" s="16"/>
       <c r="G222" s="16"/>
@@ -20743,7 +20621,7 @@
     </row>
     <row r="223" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E223" s="16" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="F223" s="16"/>
       <c r="G223" s="16"/>
@@ -20768,7 +20646,7 @@
     </row>
     <row r="224" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E224" s="16" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="F224" s="16"/>
       <c r="G224" s="16"/>
@@ -20793,7 +20671,7 @@
     </row>
     <row r="225" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E225" s="16" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="F225" s="16"/>
       <c r="G225" s="16"/>
@@ -20818,7 +20696,7 @@
     </row>
     <row r="226" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E226" s="16" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="F226" s="16"/>
       <c r="G226" s="16"/>
@@ -20843,7 +20721,7 @@
     </row>
     <row r="227" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E227" s="16" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="F227" s="16"/>
       <c r="G227" s="16"/>
@@ -20868,7 +20746,7 @@
     </row>
     <row r="228" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E228" s="16" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="F228" s="16"/>
       <c r="G228" s="16"/>
@@ -20893,7 +20771,7 @@
     </row>
     <row r="229" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E229" s="16" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="F229" s="16"/>
       <c r="G229" s="16"/>
@@ -20918,7 +20796,7 @@
     </row>
     <row r="230" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E230" s="16" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="F230" s="16"/>
       <c r="G230" s="16"/>
@@ -20943,7 +20821,7 @@
     </row>
     <row r="231" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E231" s="16" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="F231" s="16"/>
       <c r="G231" s="16"/>
@@ -20968,7 +20846,7 @@
     </row>
     <row r="232" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E232" s="16" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="F232" s="16"/>
       <c r="G232" s="16"/>
@@ -20993,7 +20871,7 @@
     </row>
     <row r="233" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E233" s="16" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="F233" s="16"/>
       <c r="G233" s="16"/>
@@ -21018,7 +20896,7 @@
     </row>
     <row r="234" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E234" s="16" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="F234" s="16"/>
       <c r="G234" s="16"/>
@@ -21043,7 +20921,7 @@
     </row>
     <row r="235" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E235" s="16" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="F235" s="16"/>
       <c r="G235" s="16"/>
@@ -21068,7 +20946,7 @@
     </row>
     <row r="236" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E236" s="16" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
@@ -21093,7 +20971,7 @@
     </row>
     <row r="237" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E237" s="16" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="F237" s="16"/>
       <c r="G237" s="16"/>
@@ -21118,7 +20996,7 @@
     </row>
     <row r="238" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E238" s="16" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="F238" s="16"/>
       <c r="G238" s="16"/>
@@ -21143,7 +21021,7 @@
     </row>
     <row r="239" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E239" s="16" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="F239" s="16"/>
       <c r="G239" s="16"/>
@@ -21168,7 +21046,7 @@
     </row>
     <row r="240" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E240" s="16" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="F240" s="16"/>
       <c r="G240" s="16"/>
@@ -21193,7 +21071,7 @@
     </row>
     <row r="241" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E241" s="16" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="F241" s="16"/>
       <c r="G241" s="16"/>
@@ -21218,7 +21096,7 @@
     </row>
     <row r="242" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E242" s="16" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="F242" s="16"/>
       <c r="G242" s="16"/>
@@ -21243,7 +21121,7 @@
     </row>
     <row r="243" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E243" s="16" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="F243" s="16"/>
       <c r="G243" s="16"/>
@@ -21268,7 +21146,7 @@
     </row>
     <row r="244" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E244" s="16" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
@@ -21293,7 +21171,7 @@
     </row>
     <row r="245" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E245" s="16" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="F245" s="16"/>
       <c r="G245" s="16"/>
@@ -21318,7 +21196,7 @@
     </row>
     <row r="246" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E246" s="16" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="F246" s="16"/>
       <c r="G246" s="16"/>
@@ -21343,7 +21221,7 @@
     </row>
     <row r="247" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E247" s="16" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="F247" s="16"/>
       <c r="G247" s="16"/>
@@ -21368,7 +21246,7 @@
     </row>
     <row r="248" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E248" s="16" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="F248" s="16"/>
       <c r="G248" s="16"/>
@@ -21393,7 +21271,7 @@
     </row>
     <row r="249" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E249" s="16" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="F249" s="16"/>
       <c r="G249" s="16"/>
@@ -21418,7 +21296,7 @@
     </row>
     <row r="250" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E250" s="16" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="F250" s="16"/>
       <c r="G250" s="16"/>
@@ -21443,7 +21321,7 @@
     </row>
     <row r="251" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E251" s="16" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="F251" s="16"/>
       <c r="G251" s="16"/>
@@ -21468,7 +21346,7 @@
     </row>
     <row r="252" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E252" s="16" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="F252" s="16"/>
       <c r="G252" s="16"/>
@@ -21493,7 +21371,7 @@
     </row>
     <row r="253" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E253" s="16" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="F253" s="16"/>
       <c r="G253" s="16"/>
@@ -21518,7 +21396,7 @@
     </row>
     <row r="254" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E254" s="16" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="F254" s="16"/>
       <c r="G254" s="16"/>
@@ -21543,7 +21421,7 @@
     </row>
     <row r="255" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E255" s="16" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="F255" s="16"/>
       <c r="G255" s="16"/>
@@ -21568,7 +21446,7 @@
     </row>
     <row r="256" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E256" s="16" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="F256" s="16"/>
       <c r="G256" s="16"/>
@@ -21867,14 +21745,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AJ15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AF18" sqref="AF18"/>
@@ -21882,40 +21760,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="11.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="11.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="15" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="15" width="13.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="15" width="7.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="10.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="15.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="6.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="15" width="11.5703125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="15" width="8.7109375" collapsed="true"/>
-    <col min="23" max="24" style="15" width="9.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="15" width="11.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="37.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="15" width="6.5703125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="15" width="6.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="15" width="6.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="15" width="15.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="15" width="14.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="15" width="16.5703125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="15" width="9.42578125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="15" width="17.140625" collapsed="true"/>
-    <col min="36" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="6" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="9.140625" style="15" collapsed="1"/>
+    <col min="25" max="25" width="11" style="15" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="37" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6.5703125" style="15" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.7109375" style="15" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="6.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="6.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="15.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="14.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="17.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -22120,7 +21998,7 @@
         <v>268</v>
       </c>
       <c r="AI2" s="15" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -22218,7 +22096,7 @@
         <v>269</v>
       </c>
       <c r="AI3" s="15" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -22316,7 +22194,7 @@
         <v>323</v>
       </c>
       <c r="AI4" s="15" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -22414,7 +22292,7 @@
         <v>324</v>
       </c>
       <c r="AI5" s="15" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -22512,7 +22390,7 @@
         <v>325</v>
       </c>
       <c r="AI6" s="15" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -22610,7 +22488,7 @@
         <v>326</v>
       </c>
       <c r="AI7" s="15" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -22708,7 +22586,7 @@
         <v>327</v>
       </c>
       <c r="AI8" s="15" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -22806,7 +22684,7 @@
         <v>328</v>
       </c>
       <c r="AI9" s="14" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -23215,13 +23093,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AF12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
@@ -23229,26 +23107,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.59765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="21" max="22" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="26" max="28" bestFit="true" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="29" max="31" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="32" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="28" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="31" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -23354,10 +23232,10 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>2261</v>
+        <v>2214</v>
       </c>
       <c r="E2" t="s">
-        <v>2260</v>
+        <v>2213</v>
       </c>
       <c r="F2" t="s">
         <v>1523</v>
@@ -23429,10 +23307,10 @@
         <v>352</v>
       </c>
       <c r="AC2" t="s">
-        <v>2163</v>
+        <v>2146</v>
       </c>
       <c r="AD2" t="s">
-        <v>2172</v>
+        <v>2155</v>
       </c>
       <c r="AE2" t="s">
         <v>1546</v>
@@ -23440,10 +23318,10 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC3" t="s">
-        <v>2164</v>
+        <v>2147</v>
       </c>
       <c r="AD3" t="s">
-        <v>2173</v>
+        <v>2156</v>
       </c>
       <c r="AE3" t="s">
         <v>1547</v>
@@ -23451,10 +23329,10 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC4" t="s">
-        <v>2165</v>
+        <v>2148</v>
       </c>
       <c r="AD4" t="s">
-        <v>2174</v>
+        <v>2157</v>
       </c>
       <c r="AE4" t="s">
         <v>1548</v>
@@ -23462,7 +23340,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC5" t="s">
-        <v>2166</v>
+        <v>2149</v>
       </c>
       <c r="AE5" t="s">
         <v>73</v>
@@ -23470,27 +23348,27 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC6" t="s">
-        <v>2167</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC7" t="s">
-        <v>2168</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC8" t="s">
-        <v>2169</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC9" t="s">
-        <v>2170</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC10" t="s">
-        <v>2171</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -23505,15 +23383,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="Q2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:G14"/>
@@ -23521,9 +23399,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -23803,14 +23681,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:P366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:O366"/>
   <sheetViews>
     <sheetView topLeftCell="A329" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
@@ -23818,8 +23696,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -29700,6 +29578,6 @@
       <c r="O366" s="15"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1" backupFile="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC24507E-8AC9-4A06-83FE-9D3275E4DD50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr backupFile="1" defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1F105882-8291-4E7E-9961-7FF645196D71}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="STG" sheetId="2" r:id="rId1"/>
-    <sheet name="Credit" sheetId="13" r:id="rId2"/>
-    <sheet name="QAS" sheetId="19" r:id="rId3"/>
-    <sheet name="Emission" sheetId="20" r:id="rId4"/>
-    <sheet name="DataInput" sheetId="11" r:id="rId5"/>
-    <sheet name="Graphs" sheetId="16" r:id="rId6"/>
-    <sheet name="LEEDONLINE" sheetId="12" r:id="rId7"/>
-    <sheet name="Manual" sheetId="15" r:id="rId8"/>
-    <sheet name="Score" sheetId="14" r:id="rId9"/>
-    <sheet name="DEV" sheetId="4" r:id="rId10"/>
-    <sheet name="Material" sheetId="18" r:id="rId11"/>
-    <sheet name="MeterData" sheetId="21" r:id="rId12"/>
-    <sheet name="DEV2" sheetId="22" r:id="rId13"/>
-    <sheet name="STG2" sheetId="23" r:id="rId14"/>
-    <sheet name="QAS2" sheetId="24" r:id="rId15"/>
+    <sheet name="STG" r:id="rId1" sheetId="2"/>
+    <sheet name="Credit" r:id="rId2" sheetId="13"/>
+    <sheet name="QAS" r:id="rId3" sheetId="19"/>
+    <sheet name="Emission" r:id="rId4" sheetId="20"/>
+    <sheet name="DataInput" r:id="rId5" sheetId="11"/>
+    <sheet name="Graphs" r:id="rId6" sheetId="16"/>
+    <sheet name="LEEDONLINE" r:id="rId7" sheetId="12"/>
+    <sheet name="Manual" r:id="rId8" sheetId="15"/>
+    <sheet name="Score" r:id="rId9" sheetId="14"/>
+    <sheet name="DEV" r:id="rId10" sheetId="4"/>
+    <sheet name="Material" r:id="rId11" sheetId="18"/>
+    <sheet name="MeterData" r:id="rId12" sheetId="21"/>
+    <sheet name="DEV2" r:id="rId13" sheetId="22"/>
+    <sheet name="STG2" r:id="rId14" sheetId="23"/>
+    <sheet name="QAS2" r:id="rId15" sheetId="24"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId16"/>
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="ReadingTableVOC">'[1]TVOC Readings'!$34:$35</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4508" uniqueCount="2233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4554" uniqueCount="2254">
   <si>
     <t>FileID</t>
   </si>
@@ -6615,18 +6615,6 @@
     <t>70001055</t>
   </si>
   <si>
-    <t>Bearer d0PTuBr7gIVGtbdZUPMQICfndaYoF0</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>Public Order and Safety: Fire/Police Station</t>
-  </si>
-  <si>
-    <t>API LEED v4 O+M: Existing BuildingsUS80</t>
-  </si>
-  <si>
     <t>1000174899</t>
   </si>
   <si>
@@ -6742,6 +6730,81 @@
   </si>
   <si>
     <t>2219</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Airport: Vehicle Service/Repair</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS44</t>
+  </si>
+  <si>
+    <t>Bearer icmOAYR8mmUbuUNMjDZbv450W0Y98c</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Transit: Station/Elevated</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS45</t>
+  </si>
+  <si>
+    <t>Bearer DSf2hyuiByHPGVUuNgWiNESEe4XgGn</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Public Assembly: Social/Meeting</t>
+  </si>
+  <si>
+    <t>Bearer vxtrwTlc2zHgdalgN5okzyEMgZPD05</t>
+  </si>
+  <si>
+    <t>Transit: System</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS43</t>
+  </si>
+  <si>
+    <t>Retail: Other Retail</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS57</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Retail: Vehicle Dealership</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS72</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Circulation Space</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS97</t>
+  </si>
+  <si>
+    <t>Bearer eqFIRChgthx3F4cuKkS9s3pRTFdeL5</t>
+  </si>
+  <si>
+    <t>Retail: Open Shopping Center</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS94</t>
+  </si>
+  <si>
+    <t>1000093670</t>
   </si>
 </sst>
 </file>
@@ -6843,69 +6906,69 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="164"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="3"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="3"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="4">
@@ -6950,7 +7013,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7002,10 +7065,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7040,7 +7103,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7092,7 +7155,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7197,7 +7260,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -7206,13 +7269,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -7222,7 +7285,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -7231,7 +7294,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7240,7 +7303,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7250,12 +7313,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -7286,7 +7349,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -7305,7 +7368,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -7317,8 +7380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -7326,46 +7389,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -7604,13 +7667,13 @@
         <v>1552</v>
       </c>
       <c r="L2" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="M2" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="N2" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="O2" t="s">
         <v>1693</v>
@@ -7646,10 +7709,10 @@
         <v>621</v>
       </c>
       <c r="Z2" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="AA2" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -7748,16 +7811,16 @@
         <v>1688</v>
       </c>
       <c r="BI2" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
       <c r="BJ2" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="BK2" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="BL2" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="BM2" t="s">
         <v>1696</v>
@@ -7766,7 +7829,7 @@
         <v>1563</v>
       </c>
       <c r="BO2" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -7824,50 +7887,50 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:BO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="BU13" sqref="BU13"/>
+      <selection activeCell="BO1" sqref="BO1:BO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="3.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="3.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -8497,15 +8560,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8513,16 +8576,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="14.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.85546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" hidden="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="26.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="21.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="29.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="10" width="20.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>356</v>
       </c>
@@ -8548,7 +8611,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>407</v>
       </c>
@@ -8562,7 +8625,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>408</v>
       </c>
@@ -8799,14 +8862,14 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D6:D7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="90" orientation="portrait" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
-  <dimension ref="A1:E63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8814,11 +8877,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>1554</v>
       </c>
@@ -9891,32 +9954,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A17 A2:A4">
-    <cfRule type="timePeriod" dxfId="3" priority="3" timePeriod="lastMonth">
+    <cfRule dxfId="3" priority="3" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A2)=MONTH(EDATE(TODAY(),0-1)),YEAR(A2)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="timePeriod" dxfId="2" priority="5" timePeriod="lastMonth">
+    <cfRule dxfId="2" priority="5" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A6)=MONTH(EDATE(TODAY(),0-1)),YEAR(A6)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A16">
-    <cfRule type="timePeriod" dxfId="1" priority="4" timePeriod="lastMonth">
+    <cfRule dxfId="1" priority="4" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A7)=MONTH(EDATE(TODAY(),0-1)),YEAR(A7)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">
+    <cfRule dxfId="0" priority="1" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A5)=MONTH(EDATE(TODAY(),0-1)),YEAR(A5)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView topLeftCell="BI1" workbookViewId="0">
       <selection activeCell="BO1" sqref="BO1"/>
@@ -9924,38 +9987,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="41.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -10493,15 +10556,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView topLeftCell="BM1" workbookViewId="0">
       <selection sqref="A1:BO10"/>
@@ -10509,41 +10572,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="41.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -11540,15 +11603,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="T8" sqref="T8"/>
@@ -11556,30 +11619,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -12576,15 +12639,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{CBB4546A-84E3-4AA0-844F-4EF590542F3D}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{CBB4546A-84E3-4AA0-844F-4EF590542F3D}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -12592,12 +12655,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -13036,49 +13099,50 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BO6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BP6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BM2" sqref="BM2"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BN7" sqref="BN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="41.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="39.48046875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" width="12.1875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -13280,7 +13344,7 @@
       <c r="BN1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BO1" s="16" t="s">
+      <c r="BO1" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -13362,7 +13426,7 @@
         <v>1654</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>2190</v>
+        <v>2250</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -13471,8 +13535,8 @@
       <c r="BN2" s="16" t="s">
         <v>1566</v>
       </c>
-      <c r="BO2" s="16" t="s">
-        <v>1540</v>
+      <c r="BO2" s="15" t="s">
+        <v>2253</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -13686,14 +13750,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
@@ -13701,36 +13765,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -14016,13 +14080,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BN281"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AF281"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AC16" sqref="AC16"/>
@@ -14030,30 +14094,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="66" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="65" max="66" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -14171,13 +14235,13 @@
         <v>2087</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>2163</v>
@@ -14266,13 +14330,13 @@
         <v>2088</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>1658</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -14350,13 +14414,13 @@
         <v>2089</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>1659</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -14434,13 +14498,13 @@
         <v>2090</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>1660</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -14518,13 +14582,13 @@
         <v>2091</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>1661</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
@@ -14598,13 +14662,13 @@
         <v>2092</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>1662</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -14678,13 +14742,13 @@
         <v>2093</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>1663</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -14758,13 +14822,13 @@
         <v>2094</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>1664</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
@@ -14838,13 +14902,13 @@
         <v>2095</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>257</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -14918,7 +14982,7 @@
         <v>2096</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>254</v>
@@ -21725,14 +21789,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AI15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AF18" sqref="AF18"/>
@@ -21740,40 +21804,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="9.140625" style="15" collapsed="1"/>
-    <col min="25" max="25" width="11" style="15" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="37" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.5703125" style="15" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="15.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="14.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="17.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="11.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="11.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="15" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="15" width="13.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="15" width="7.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="10.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="15.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="6.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="15" width="11.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="15" width="8.7109375" collapsed="true"/>
+    <col min="23" max="24" style="15" width="9.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="15" width="11.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="37.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="15" width="6.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="15" width="6.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="15" width="6.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="15" width="15.5703125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="15" width="14.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="15" width="16.5703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="15" width="9.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="15" width="17.140625" collapsed="true"/>
+    <col min="36" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -23073,13 +23137,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AE12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
@@ -23087,26 +23151,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="28" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.59765625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="26" max="28" bestFit="true" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="29" max="31" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -23212,22 +23276,22 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>2193</v>
+        <v>2252</v>
       </c>
       <c r="E2" t="s">
-        <v>2192</v>
+        <v>2251</v>
       </c>
       <c r="F2" t="s">
         <v>1522</v>
       </c>
       <c r="G2" t="s">
-        <v>461</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>2191</v>
+        <v>1665</v>
       </c>
       <c r="J2" t="s">
         <v>87</v>
@@ -23287,10 +23351,10 @@
         <v>352</v>
       </c>
       <c r="AC2" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="AD2" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="AE2" t="s">
         <v>1545</v>
@@ -23298,10 +23362,10 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC3" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="AD3" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="AE3" t="s">
         <v>1546</v>
@@ -23309,10 +23373,10 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC4" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="AD4" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="AE4" t="s">
         <v>1547</v>
@@ -23320,7 +23384,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC5" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="AE5" t="s">
         <v>73</v>
@@ -23328,27 +23392,27 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC6" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC7" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC8" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC9" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC10" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -23363,15 +23427,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink r:id="rId1" ref="Q2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:G14"/>
@@ -23379,9 +23443,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -23661,14 +23725,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:P366"/>
   <sheetViews>
     <sheetView topLeftCell="A329" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
@@ -23676,8 +23740,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -29558,6 +29622,6 @@
       <c r="O366" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
-  <workbookPr backupFile="1" defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{1F105882-8291-4E7E-9961-7FF645196D71}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
+  <workbookPr filterPrivacy="1" backupFile="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132FF58E-79A0-4D0A-9187-07630AF5EBFE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="STG" r:id="rId1" sheetId="2"/>
-    <sheet name="Credit" r:id="rId2" sheetId="13"/>
-    <sheet name="QAS" r:id="rId3" sheetId="19"/>
-    <sheet name="Emission" r:id="rId4" sheetId="20"/>
-    <sheet name="DataInput" r:id="rId5" sheetId="11"/>
-    <sheet name="Graphs" r:id="rId6" sheetId="16"/>
-    <sheet name="LEEDONLINE" r:id="rId7" sheetId="12"/>
-    <sheet name="Manual" r:id="rId8" sheetId="15"/>
-    <sheet name="Score" r:id="rId9" sheetId="14"/>
-    <sheet name="DEV" r:id="rId10" sheetId="4"/>
-    <sheet name="Material" r:id="rId11" sheetId="18"/>
-    <sheet name="MeterData" r:id="rId12" sheetId="21"/>
-    <sheet name="DEV2" r:id="rId13" sheetId="22"/>
-    <sheet name="STG2" r:id="rId14" sheetId="23"/>
-    <sheet name="QAS2" r:id="rId15" sheetId="24"/>
+    <sheet name="STG" sheetId="2" r:id="rId1"/>
+    <sheet name="Credit" sheetId="13" r:id="rId2"/>
+    <sheet name="QAS" sheetId="19" r:id="rId3"/>
+    <sheet name="Emission" sheetId="20" r:id="rId4"/>
+    <sheet name="DataInput" sheetId="11" r:id="rId5"/>
+    <sheet name="Graphs" sheetId="16" r:id="rId6"/>
+    <sheet name="LEEDONLINE" sheetId="12" r:id="rId7"/>
+    <sheet name="Manual" sheetId="15" r:id="rId8"/>
+    <sheet name="Score" sheetId="14" r:id="rId9"/>
+    <sheet name="DEV" sheetId="4" r:id="rId10"/>
+    <sheet name="Material" sheetId="18" r:id="rId11"/>
+    <sheet name="MeterData" sheetId="21" r:id="rId12"/>
+    <sheet name="DEV2" sheetId="22" r:id="rId13"/>
+    <sheet name="STG2" sheetId="23" r:id="rId14"/>
+    <sheet name="QAS2" sheetId="24" r:id="rId15"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId16"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4554" uniqueCount="2254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4508" uniqueCount="2233">
   <si>
     <t>FileID</t>
   </si>
@@ -6552,9 +6552,6 @@
     <t>US-API-Parksmart-Parksmart-81563</t>
   </si>
   <si>
-    <t>70001114</t>
-  </si>
-  <si>
     <t>266</t>
   </si>
   <si>
@@ -6612,9 +6609,6 @@
     <t>DOCHOLDERL-1000174449</t>
   </si>
   <si>
-    <t>70001055</t>
-  </si>
-  <si>
     <t>1000174899</t>
   </si>
   <si>
@@ -6732,69 +6726,6 @@
     <t>2219</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Airport: Vehicle Service/Repair</t>
-  </si>
-  <si>
-    <t>API LEED v4 O+M: Existing BuildingsUS44</t>
-  </si>
-  <si>
-    <t>Bearer icmOAYR8mmUbuUNMjDZbv450W0Y98c</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>Transit: Station/Elevated</t>
-  </si>
-  <si>
-    <t>API LEED v4 O+M: Existing BuildingsUS45</t>
-  </si>
-  <si>
-    <t>Bearer DSf2hyuiByHPGVUuNgWiNESEe4XgGn</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>Public Assembly: Social/Meeting</t>
-  </si>
-  <si>
-    <t>Bearer vxtrwTlc2zHgdalgN5okzyEMgZPD05</t>
-  </si>
-  <si>
-    <t>Transit: System</t>
-  </si>
-  <si>
-    <t>API LEED v4 O+M: Existing BuildingsUS43</t>
-  </si>
-  <si>
-    <t>Retail: Other Retail</t>
-  </si>
-  <si>
-    <t>API LEED v4 O+M: Existing BuildingsUS57</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>Retail: Vehicle Dealership</t>
-  </si>
-  <si>
-    <t>API LEED v4 O+M: Existing BuildingsUS72</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>Circulation Space</t>
-  </si>
-  <si>
-    <t>API LEED v4 O+M: Existing BuildingsUS97</t>
-  </si>
-  <si>
     <t>Bearer eqFIRChgthx3F4cuKkS9s3pRTFdeL5</t>
   </si>
   <si>
@@ -6805,6 +6736,12 @@
   </si>
   <si>
     <t>1000093670</t>
+  </si>
+  <si>
+    <t>70001136</t>
+  </si>
+  <si>
+    <t>70001138</t>
   </si>
 </sst>
 </file>
@@ -6906,69 +6843,69 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="164"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="3"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="3"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="4">
@@ -7013,7 +6950,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7065,10 +7002,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7103,7 +7040,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7155,7 +7092,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7260,7 +7197,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -7269,13 +7206,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -7285,7 +7222,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -7294,7 +7231,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7303,7 +7240,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7313,12 +7250,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -7349,7 +7286,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -7368,7 +7305,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -7380,55 +7317,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="64" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -7667,13 +7604,13 @@
         <v>1552</v>
       </c>
       <c r="L2" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="M2" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="N2" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="O2" t="s">
         <v>1693</v>
@@ -7709,10 +7646,10 @@
         <v>621</v>
       </c>
       <c r="Z2" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="AA2" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -7811,16 +7748,16 @@
         <v>1688</v>
       </c>
       <c r="BI2" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="BJ2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="BL2" t="s">
         <v>2192</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>2193</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>2194</v>
       </c>
       <c r="BM2" t="s">
         <v>1696</v>
@@ -7829,7 +7766,7 @@
         <v>1563</v>
       </c>
       <c r="BO2" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -7887,13 +7824,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:BP5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:BO5"/>
   <sheetViews>
     <sheetView topLeftCell="BK1" workbookViewId="0">
       <selection activeCell="BO1" sqref="BO1:BO2"/>
@@ -7901,36 +7838,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="3.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="64" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="3.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -8560,15 +8497,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AB2" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8576,16 +8513,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" hidden="true" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="10" width="26.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="21.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="10" width="29.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="10" width="20.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="24.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="14.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.85546875" style="10" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>356</v>
       </c>
@@ -8611,7 +8548,7 @@
         <v>410</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>407</v>
       </c>
@@ -8625,7 +8562,7 @@
         <v>398</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>408</v>
       </c>
@@ -8862,14 +8799,14 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D6:D7"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="90" orientation="portrait" verticalDpi="90"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
-  <dimension ref="A1:F63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8877,11 +8814,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>1554</v>
       </c>
@@ -9954,32 +9891,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A17 A2:A4">
-    <cfRule dxfId="3" priority="3" timePeriod="lastMonth" type="timePeriod">
+    <cfRule type="timePeriod" dxfId="3" priority="3" timePeriod="lastMonth">
       <formula>AND(MONTH(A2)=MONTH(EDATE(TODAY(),0-1)),YEAR(A2)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule dxfId="2" priority="5" timePeriod="lastMonth" type="timePeriod">
+    <cfRule type="timePeriod" dxfId="2" priority="5" timePeriod="lastMonth">
       <formula>AND(MONTH(A6)=MONTH(EDATE(TODAY(),0-1)),YEAR(A6)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A16">
-    <cfRule dxfId="1" priority="4" timePeriod="lastMonth" type="timePeriod">
+    <cfRule type="timePeriod" dxfId="1" priority="4" timePeriod="lastMonth">
       <formula>AND(MONTH(A7)=MONTH(EDATE(TODAY(),0-1)),YEAR(A7)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule dxfId="0" priority="1" timePeriod="lastMonth" type="timePeriod">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A5)=MONTH(EDATE(TODAY(),0-1)),YEAR(A5)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
-  <dimension ref="A1:BP10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
+  <dimension ref="A1:BO10"/>
   <sheetViews>
     <sheetView topLeftCell="BI1" workbookViewId="0">
       <selection activeCell="BO1" sqref="BO1"/>
@@ -9987,38 +9924,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="41.42578125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="41.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -10556,15 +10493,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AB2" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
-  <dimension ref="A1:BP10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
+  <dimension ref="A1:BO10"/>
   <sheetViews>
     <sheetView topLeftCell="BM1" workbookViewId="0">
       <selection sqref="A1:BO10"/>
@@ -10572,41 +10509,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="64" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="41.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -10890,7 +10827,7 @@
         <v>2156</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>663</v>
@@ -11008,7 +10945,7 @@
         <v>2161</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -11090,7 +11027,7 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -11165,7 +11102,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -11603,46 +11540,46 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AB2" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
-  <dimension ref="A1:BP10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
+  <dimension ref="A1:BO10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -11850,7 +11787,7 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2158</v>
@@ -11883,23 +11820,23 @@
         <v>2110</v>
       </c>
       <c r="L2" s="15" t="s">
+        <v>2185</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>2186</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>2187</v>
-      </c>
       <c r="N2" s="15" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
+        <v>2177</v>
+      </c>
+      <c r="R2" s="15" t="s">
         <v>2178</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>2179</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>660</v>
@@ -11926,7 +11863,7 @@
         <v>2156</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>663</v>
@@ -11981,7 +11918,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -11996,10 +11933,10 @@
         <v>144</v>
       </c>
       <c r="AY2" s="15" t="s">
+        <v>2172</v>
+      </c>
+      <c r="AZ2" s="15" t="s">
         <v>2173</v>
-      </c>
-      <c r="AZ2" s="15" t="s">
-        <v>2174</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -12023,28 +11960,28 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="BJ2" s="15" t="s">
+        <v>2184</v>
+      </c>
+      <c r="BK2" s="15" t="s">
         <v>2185</v>
       </c>
-      <c r="BK2" s="15" t="s">
+      <c r="BL2" s="15" t="s">
         <v>2186</v>
       </c>
-      <c r="BL2" s="15" t="s">
-        <v>2187</v>
-      </c>
       <c r="BM2" s="15" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="BN2" s="15" t="s">
         <v>2161</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -12071,7 +12008,7 @@
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15" t="s">
-        <v>2169</v>
+        <v>2232</v>
       </c>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
@@ -12639,15 +12576,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AB2" xr:uid="{CBB4546A-84E3-4AA0-844F-4EF590542F3D}"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{CBB4546A-84E3-4AA0-844F-4EF590542F3D}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -12655,12 +12592,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -13099,50 +13036,50 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BP6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BO6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BN7" sqref="BN7"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="39.48046875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="67" max="67" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="49" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -13426,7 +13363,7 @@
         <v>1654</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>2250</v>
+        <v>2227</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -13536,7 +13473,7 @@
         <v>1566</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2253</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -13563,7 +13500,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
       <c r="U3" s="23" t="s">
-        <v>2189</v>
+        <v>2231</v>
       </c>
       <c r="V3" s="16"/>
       <c r="W3" s="16" t="s">
@@ -13750,14 +13687,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AE7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
@@ -13765,36 +13702,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -14080,13 +14017,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AF281"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:BN281"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AC16" sqref="AC16"/>
@@ -14094,30 +14031,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="65" max="66" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="18" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="66" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -14235,13 +14172,13 @@
         <v>2087</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>2163</v>
@@ -14330,13 +14267,13 @@
         <v>2088</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>1658</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -14414,13 +14351,13 @@
         <v>2089</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>1659</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -14498,13 +14435,13 @@
         <v>2090</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>1660</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -14582,13 +14519,13 @@
         <v>2091</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>1661</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
@@ -14662,13 +14599,13 @@
         <v>2092</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>1662</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -14742,13 +14679,13 @@
         <v>2093</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>1663</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -14822,13 +14759,13 @@
         <v>2094</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>1664</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
@@ -14902,13 +14839,13 @@
         <v>2095</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>257</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -14982,7 +14919,7 @@
         <v>2096</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>254</v>
@@ -21789,14 +21726,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AJ15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AF18" sqref="AF18"/>
@@ -21804,40 +21741,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="11.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="11.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="15" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="15" width="13.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="15" width="7.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="10.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="15.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="6.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="15" width="11.5703125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="15" width="8.7109375" collapsed="true"/>
-    <col min="23" max="24" style="15" width="9.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="15" width="11.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="37.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="15" width="6.5703125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="15" width="6.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="15" width="6.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="15" width="15.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="15" width="14.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="15" width="16.5703125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="15" width="9.42578125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="15" width="17.140625" collapsed="true"/>
-    <col min="36" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="6" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="9.140625" style="15" collapsed="1"/>
+    <col min="25" max="25" width="11" style="15" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="37" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6.5703125" style="15" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.7109375" style="15" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="6.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="6.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="15.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="14.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="17.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -23137,13 +23074,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AF12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
@@ -23151,26 +23088,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.59765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="21" max="22" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="26" max="28" bestFit="true" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="29" max="31" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="32" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="28" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="31" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -23276,10 +23213,10 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>2252</v>
+        <v>2229</v>
       </c>
       <c r="E2" t="s">
-        <v>2251</v>
+        <v>2228</v>
       </c>
       <c r="F2" t="s">
         <v>1522</v>
@@ -23351,10 +23288,10 @@
         <v>352</v>
       </c>
       <c r="AC2" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="AD2" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="AE2" t="s">
         <v>1545</v>
@@ -23362,10 +23299,10 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC3" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="AD3" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="AE3" t="s">
         <v>1546</v>
@@ -23373,10 +23310,10 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC4" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="AD4" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="AE4" t="s">
         <v>1547</v>
@@ -23384,7 +23321,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC5" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="AE5" t="s">
         <v>73</v>
@@ -23392,27 +23329,27 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC6" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC7" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC8" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC9" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC10" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -23427,15 +23364,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="Q2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:G14"/>
@@ -23443,9 +23380,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -23725,14 +23662,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:P366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:O366"/>
   <sheetViews>
     <sheetView topLeftCell="A329" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
@@ -23740,8 +23677,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -29622,6 +29559,6 @@
       <c r="O366" s="15"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1" backupFile="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132FF58E-79A0-4D0A-9187-07630AF5EBFE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr backupFile="1" defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{132FF58E-79A0-4D0A-9187-07630AF5EBFE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="14" firstSheet="6" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="STG" sheetId="2" r:id="rId1"/>
-    <sheet name="Credit" sheetId="13" r:id="rId2"/>
-    <sheet name="QAS" sheetId="19" r:id="rId3"/>
-    <sheet name="Emission" sheetId="20" r:id="rId4"/>
-    <sheet name="DataInput" sheetId="11" r:id="rId5"/>
-    <sheet name="Graphs" sheetId="16" r:id="rId6"/>
-    <sheet name="LEEDONLINE" sheetId="12" r:id="rId7"/>
-    <sheet name="Manual" sheetId="15" r:id="rId8"/>
-    <sheet name="Score" sheetId="14" r:id="rId9"/>
-    <sheet name="DEV" sheetId="4" r:id="rId10"/>
-    <sheet name="Material" sheetId="18" r:id="rId11"/>
-    <sheet name="MeterData" sheetId="21" r:id="rId12"/>
-    <sheet name="DEV2" sheetId="22" r:id="rId13"/>
-    <sheet name="STG2" sheetId="23" r:id="rId14"/>
-    <sheet name="QAS2" sheetId="24" r:id="rId15"/>
+    <sheet name="STG" r:id="rId1" sheetId="2"/>
+    <sheet name="Credit" r:id="rId2" sheetId="13"/>
+    <sheet name="QAS" r:id="rId3" sheetId="19"/>
+    <sheet name="Emission" r:id="rId4" sheetId="20"/>
+    <sheet name="DataInput" r:id="rId5" sheetId="11"/>
+    <sheet name="Graphs" r:id="rId6" sheetId="16"/>
+    <sheet name="LEEDONLINE" r:id="rId7" sheetId="12"/>
+    <sheet name="Manual" r:id="rId8" sheetId="15"/>
+    <sheet name="Score" r:id="rId9" sheetId="14"/>
+    <sheet name="DEV" r:id="rId10" sheetId="4"/>
+    <sheet name="Material" r:id="rId11" sheetId="18"/>
+    <sheet name="MeterData" r:id="rId12" sheetId="21"/>
+    <sheet name="DEV2" r:id="rId13" sheetId="22"/>
+    <sheet name="STG2" r:id="rId14" sheetId="23"/>
+    <sheet name="QAS2" r:id="rId15" sheetId="24"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId16"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4508" uniqueCount="2233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4537" uniqueCount="2245">
   <si>
     <t>FileID</t>
   </si>
@@ -6742,6 +6742,42 @@
   </si>
   <si>
     <t>70001138</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Multi-Family Residential: Condominium</t>
+  </si>
+  <si>
+    <t>Business Improvement District</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-03138</t>
+  </si>
+  <si>
+    <t>Bearer 9LSNIQvAY2yrGvIt1m6eWHZgqf8C41</t>
+  </si>
+  <si>
+    <t>Healthcare: Outpatient Office (Diagnostic)</t>
+  </si>
+  <si>
+    <t>Government Use: Federal</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-55847</t>
+  </si>
+  <si>
+    <t>Transit: Station/Elevated</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS52</t>
+  </si>
+  <si>
+    <t>1000174959</t>
+  </si>
+  <si>
+    <t>Bearer 1QjcSsGgILFvarfVAvtqJNalUh37V6</t>
   </si>
 </sst>
 </file>
@@ -6843,69 +6879,69 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="164"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="3"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="3"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="4">
@@ -6950,7 +6986,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7002,10 +7038,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7040,7 +7076,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7092,7 +7128,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7197,7 +7233,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -7206,13 +7242,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -7222,7 +7258,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -7231,7 +7267,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7240,7 +7276,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7250,12 +7286,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -7286,7 +7322,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -7305,7 +7341,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -7317,8 +7353,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
@@ -7326,46 +7362,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.70703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.72265625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="36.40625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="28.34375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -7612,9 +7648,7 @@
       <c r="N2" t="s">
         <v>2190</v>
       </c>
-      <c r="O2" t="s">
-        <v>1693</v>
-      </c>
+      <c r="O2"/>
       <c r="P2" t="s">
         <v>1542</v>
       </c>
@@ -7649,7 +7683,7 @@
         <v>2214</v>
       </c>
       <c r="AA2" t="s">
-        <v>2189</v>
+        <v>2244</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -7703,7 +7737,7 @@
         <v>86</v>
       </c>
       <c r="AT2" t="s">
-        <v>1686</v>
+        <v>111</v>
       </c>
       <c r="AU2" t="s">
         <v>87</v>
@@ -7715,13 +7749,13 @@
         <v>664</v>
       </c>
       <c r="AX2" t="s">
-        <v>144</v>
+        <v>461</v>
       </c>
       <c r="AY2" t="s">
-        <v>1687</v>
+        <v>2238</v>
       </c>
       <c r="AZ2" t="s">
-        <v>1680</v>
+        <v>2239</v>
       </c>
       <c r="BA2" s="5" t="s">
         <v>420</v>
@@ -7745,7 +7779,7 @@
         <v>411</v>
       </c>
       <c r="BH2" t="s">
-        <v>1688</v>
+        <v>2240</v>
       </c>
       <c r="BI2" t="s">
         <v>2193</v>
@@ -7766,7 +7800,7 @@
         <v>1563</v>
       </c>
       <c r="BO2" t="s">
-        <v>2188</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -7824,13 +7858,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:BO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView topLeftCell="BK1" workbookViewId="0">
       <selection activeCell="BO1" sqref="BO1:BO2"/>
@@ -7838,36 +7872,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="3.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="3.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -8497,15 +8531,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8513,16 +8547,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="14.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.85546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" hidden="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="26.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="21.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="29.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="10" width="20.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>356</v>
       </c>
@@ -8548,7 +8582,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>407</v>
       </c>
@@ -8562,7 +8596,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>408</v>
       </c>
@@ -8799,14 +8833,14 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D6:D7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="90" orientation="portrait" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
-  <dimension ref="A1:E63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8814,11 +8848,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>1554</v>
       </c>
@@ -9891,32 +9925,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A17 A2:A4">
-    <cfRule type="timePeriod" dxfId="3" priority="3" timePeriod="lastMonth">
+    <cfRule dxfId="3" priority="3" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A2)=MONTH(EDATE(TODAY(),0-1)),YEAR(A2)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="timePeriod" dxfId="2" priority="5" timePeriod="lastMonth">
+    <cfRule dxfId="2" priority="5" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A6)=MONTH(EDATE(TODAY(),0-1)),YEAR(A6)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A16">
-    <cfRule type="timePeriod" dxfId="1" priority="4" timePeriod="lastMonth">
+    <cfRule dxfId="1" priority="4" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A7)=MONTH(EDATE(TODAY(),0-1)),YEAR(A7)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">
+    <cfRule dxfId="0" priority="1" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A5)=MONTH(EDATE(TODAY(),0-1)),YEAR(A5)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView topLeftCell="BI1" workbookViewId="0">
       <selection activeCell="BO1" sqref="BO1"/>
@@ -9924,38 +9958,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="41.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -10493,15 +10527,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView topLeftCell="BM1" workbookViewId="0">
       <selection sqref="A1:BO10"/>
@@ -10509,41 +10543,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="41.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -11540,15 +11574,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
@@ -11556,30 +11590,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -12576,15 +12610,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{CBB4546A-84E3-4AA0-844F-4EF590542F3D}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{CBB4546A-84E3-4AA0-844F-4EF590542F3D}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -12592,12 +12626,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -13036,13 +13070,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BO6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BP6"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
@@ -13050,36 +13084,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -13687,14 +13721,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
@@ -13702,36 +13736,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -14017,13 +14051,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BN281"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AF281"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AC16" sqref="AC16"/>
@@ -14031,30 +14065,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="66" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="65" max="66" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -21726,14 +21760,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AI15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AF18" sqref="AF18"/>
@@ -21741,40 +21775,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="9.140625" style="15" collapsed="1"/>
-    <col min="25" max="25" width="11" style="15" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="37" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.5703125" style="15" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="15.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="14.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="17.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="11.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="11.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="15" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="15" width="13.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="15" width="7.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="10.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="15.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="6.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="15" width="11.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="15" width="8.7109375" collapsed="true"/>
+    <col min="23" max="24" style="15" width="9.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="15" width="11.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="37.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="15" width="6.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="15" width="6.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="15" width="6.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="15" width="15.5703125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="15" width="14.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="15" width="16.5703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="15" width="9.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="15" width="17.140625" collapsed="true"/>
+    <col min="36" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -23074,13 +23108,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AE12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
@@ -23088,26 +23122,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="28" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.59765625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="26" max="28" bestFit="true" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="29" max="31" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -23213,10 +23247,10 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>2229</v>
+        <v>2242</v>
       </c>
       <c r="E2" t="s">
-        <v>2228</v>
+        <v>2241</v>
       </c>
       <c r="F2" t="s">
         <v>1522</v>
@@ -23228,7 +23262,7 @@
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>1665</v>
+        <v>1649</v>
       </c>
       <c r="J2" t="s">
         <v>87</v>
@@ -23364,15 +23398,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink r:id="rId1" ref="Q2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:G14"/>
@@ -23380,9 +23414,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -23662,14 +23696,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:P366"/>
   <sheetViews>
     <sheetView topLeftCell="A329" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
@@ -23677,8 +23711,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -29559,6 +29593,6 @@
       <c r="O366" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{132FF58E-79A0-4D0A-9187-07630AF5EBFE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
+  <xr:revisionPtr documentId="13_ncr:1_{400FF1DE-48A0-4A9A-82F6-D73199D3957E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView activeTab="14" firstSheet="6" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="14" firstSheet="6" windowHeight="10920" windowWidth="20280" xWindow="210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="STG" r:id="rId1" sheetId="2"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4537" uniqueCount="2245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4587" uniqueCount="2247">
   <si>
     <t>FileID</t>
   </si>
@@ -5085,9 +5085,6 @@
     <t>1000174338</t>
   </si>
   <si>
-    <t>Non-Profit (that do not fit into other categories)</t>
-  </si>
-  <si>
     <t>1000174340</t>
   </si>
   <si>
@@ -5103,15 +5100,6 @@
     <t>13000.0</t>
   </si>
   <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Public Assembly: Recreation</t>
-  </si>
-  <si>
-    <t>US-API-Building-Other-75669</t>
-  </si>
-  <si>
     <t>1000174389</t>
   </si>
   <si>
@@ -5124,9 +5112,6 @@
     <t>8997</t>
   </si>
   <si>
-    <t>9XC7oLfSztvvnRvMbo283haf</t>
-  </si>
-  <si>
     <t>1048887</t>
   </si>
   <si>
@@ -5136,9 +5121,6 @@
     <t>240126</t>
   </si>
   <si>
-    <t>53.0</t>
-  </si>
-  <si>
     <t>4335</t>
   </si>
   <si>
@@ -6429,18 +6411,6 @@
     <t>000000000000004289</t>
   </si>
   <si>
-    <t>1049626</t>
-  </si>
-  <si>
-    <t>1049625</t>
-  </si>
-  <si>
-    <t>1049624</t>
-  </si>
-  <si>
-    <t>1049623</t>
-  </si>
-  <si>
     <t>0000000010000000000847844</t>
   </si>
   <si>
@@ -6558,36 +6528,6 @@
     <t>227</t>
   </si>
   <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>Office: Financial</t>
-  </si>
-  <si>
-    <t>Government Use: Local, City</t>
-  </si>
-  <si>
-    <t>US-API-Building-Other-56550</t>
-  </si>
-  <si>
-    <t>8000000002</t>
-  </si>
-  <si>
-    <t>pvhQoTBuNXnjAz2fG7UQTM2h</t>
-  </si>
-  <si>
-    <t>2473845</t>
-  </si>
-  <si>
-    <t>18805952</t>
-  </si>
-  <si>
-    <t>644713</t>
-  </si>
-  <si>
-    <t>Bearer 6QiYlGYFtHtDId9bB2UC9Gke2CiUlH</t>
-  </si>
-  <si>
     <t>1000174447</t>
   </si>
   <si>
@@ -6597,24 +6537,6 @@
     <t>Bearer syByuk02kCIoXqIazvcxVehRpFTwsl</t>
   </si>
   <si>
-    <t>0000000010000000000847873</t>
-  </si>
-  <si>
-    <t>E9F6261827D7A7F1B3040AFDDE1F6773</t>
-  </si>
-  <si>
-    <t>E9F6261827D7A9F1B3040AFDDE1F6773</t>
-  </si>
-  <si>
-    <t>DOCHOLDERL-1000174449</t>
-  </si>
-  <si>
-    <t>1000174899</t>
-  </si>
-  <si>
-    <t>Bearer eeFgxikc9FVlxiLGTJt4Fsam6BQrpE</t>
-  </si>
-  <si>
     <t>0000000010000000000847958</t>
   </si>
   <si>
@@ -6729,12 +6651,6 @@
     <t>Bearer eqFIRChgthx3F4cuKkS9s3pRTFdeL5</t>
   </si>
   <si>
-    <t>Retail: Open Shopping Center</t>
-  </si>
-  <si>
-    <t>API LEED v4 O+M: Existing BuildingsUS94</t>
-  </si>
-  <si>
     <t>1000093670</t>
   </si>
   <si>
@@ -6744,21 +6660,6 @@
     <t>70001138</t>
   </si>
   <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>Multi-Family Residential: Condominium</t>
-  </si>
-  <si>
-    <t>Business Improvement District</t>
-  </si>
-  <si>
-    <t>US-API-Building-None-03138</t>
-  </si>
-  <si>
-    <t>Bearer 9LSNIQvAY2yrGvIt1m6eWHZgqf8C41</t>
-  </si>
-  <si>
     <t>Healthcare: Outpatient Office (Diagnostic)</t>
   </si>
   <si>
@@ -6778,6 +6679,111 @@
   </si>
   <si>
     <t>Bearer 1QjcSsGgILFvarfVAvtqJNalUh37V6</t>
+  </si>
+  <si>
+    <t>70001148</t>
+  </si>
+  <si>
+    <t>4574</t>
+  </si>
+  <si>
+    <t>8000000112</t>
+  </si>
+  <si>
+    <t>BkoqSu8zxY4UueG9iVNWVahT</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-8000000112</t>
+  </si>
+  <si>
+    <t>2757953</t>
+  </si>
+  <si>
+    <t>20473066</t>
+  </si>
+  <si>
+    <t>696717</t>
+  </si>
+  <si>
+    <t>40962</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>2757957</t>
+  </si>
+  <si>
+    <t>2757956</t>
+  </si>
+  <si>
+    <t>2757955</t>
+  </si>
+  <si>
+    <t>2757954</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>25000.0</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Airport: Hangar</t>
+  </si>
+  <si>
+    <t>Main Street Organization</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-13743</t>
+  </si>
+  <si>
+    <t>Bearer P5hOEfmEBSzLj5uYkK0OAnpTQ0EUcE</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>668306.2</t>
+  </si>
+  <si>
+    <t>3092</t>
+  </si>
+  <si>
+    <t>Bearer rQB5IOsujKvYre51SxCFjKOCP4SWkr</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>Bearer xszqDy4WgwNPLTEIn5Eb8Uq4YIKZEy</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>Bearer p6lHEXVVbG4Hipo0G88j9c2BwtZaDJ</t>
+  </si>
+  <si>
+    <t>Bearer ccrbfjD45ksJATce9ttr08NwRohOLO</t>
   </si>
 </sst>
 </file>
@@ -6884,7 +6890,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="164"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
@@ -6925,6 +6931,15 @@
     </xf>
     <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="3">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7374,7 +7389,7 @@
     <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
     <col min="12" max="13" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.70703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
@@ -7385,23 +7400,23 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.72265625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="36.40625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="28.34375" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
     <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
     <col min="63" max="64" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
     <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
     <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -7609,7 +7624,7 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1679</v>
@@ -7618,16 +7633,16 @@
         <v>634</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1541</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>1549</v>
@@ -7640,23 +7655,22 @@
         <v>1552</v>
       </c>
       <c r="L2" t="s">
-        <v>2191</v>
+        <v>2165</v>
       </c>
       <c r="M2" t="s">
-        <v>2192</v>
+        <v>2166</v>
       </c>
       <c r="N2" t="s">
-        <v>2190</v>
-      </c>
-      <c r="O2"/>
+        <v>2164</v>
+      </c>
       <c r="P2" t="s">
         <v>1542</v>
       </c>
       <c r="Q2" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="R2" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="S2" t="s">
         <v>538</v>
@@ -7680,10 +7694,10 @@
         <v>621</v>
       </c>
       <c r="Z2" t="s">
-        <v>2214</v>
+        <v>2188</v>
       </c>
       <c r="AA2" t="s">
-        <v>2244</v>
+        <v>2211</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -7752,10 +7766,10 @@
         <v>461</v>
       </c>
       <c r="AY2" t="s">
-        <v>2238</v>
+        <v>2205</v>
       </c>
       <c r="AZ2" t="s">
-        <v>2239</v>
+        <v>2206</v>
       </c>
       <c r="BA2" s="5" t="s">
         <v>420</v>
@@ -7779,28 +7793,28 @@
         <v>411</v>
       </c>
       <c r="BH2" t="s">
-        <v>2240</v>
+        <v>2207</v>
       </c>
       <c r="BI2" t="s">
-        <v>2193</v>
+        <v>2167</v>
       </c>
       <c r="BJ2" t="s">
-        <v>2190</v>
+        <v>2164</v>
       </c>
       <c r="BK2" t="s">
-        <v>2191</v>
+        <v>2165</v>
       </c>
       <c r="BL2" t="s">
-        <v>2192</v>
+        <v>2166</v>
       </c>
       <c r="BM2" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="BN2" t="s">
         <v>1563</v>
       </c>
       <c r="BO2" t="s">
-        <v>2243</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -8586,13 +8600,13 @@
       <c r="A2" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8600,11 +8614,11 @@
       <c r="A3" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -8616,17 +8630,17 @@
       <c r="C4" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="30" t="s">
         <v>382</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -8638,11 +8652,11 @@
       <c r="C5" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -8654,13 +8668,13 @@
       <c r="C6" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="27" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="30" t="s">
         <v>383</v>
       </c>
     </row>
@@ -8674,11 +8688,11 @@
       <c r="C7" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="27"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -8690,13 +8704,13 @@
       <c r="C8" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="27" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="30" t="s">
         <v>384</v>
       </c>
     </row>
@@ -8710,11 +8724,11 @@
       <c r="C9" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="27"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -8729,10 +8743,10 @@
       <c r="D10" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -8756,7 +8770,7 @@
       <c r="G11" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -8771,10 +8785,10 @@
       <c r="D12" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -8789,10 +8803,10 @@
       <c r="D13" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
@@ -9952,8 +9966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
   <dimension ref="A1:BP10"/>
   <sheetViews>
-    <sheetView topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BO1" sqref="BO1"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10537,8 +10551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
   <dimension ref="A1:BP10"/>
   <sheetViews>
-    <sheetView topLeftCell="BM1" workbookViewId="0">
-      <selection sqref="A1:BO10"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10785,28 +10799,28 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2158</v>
+        <v>2148</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>653</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2102</v>
+        <v>2096</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>654</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2104</v>
+        <v>2098</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>2123</v>
+        <v>2117</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>657</v>
@@ -10815,53 +10829,53 @@
         <v>658</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>2110</v>
+        <v>2104</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>2133</v>
+        <v>2123</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>2134</v>
+        <v>2124</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>2132</v>
+        <v>2122</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>2159</v>
+        <v>2149</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
-        <v>2160</v>
+        <v>2150</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>2125</v>
+        <v>2119</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>660</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>2157</v>
+        <v>2147</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>2103</v>
+        <v>2097</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>621</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>2156</v>
+        <v>2146</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2183</v>
+        <v>2163</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>663</v>
@@ -10931,7 +10945,7 @@
         <v>461</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>2167</v>
+        <v>2157</v>
       </c>
       <c r="AZ2" s="15" t="s">
         <v>1653</v>
@@ -10958,28 +10972,28 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2168</v>
+        <v>2158</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="BJ2" s="15" t="s">
-        <v>2132</v>
+        <v>2122</v>
       </c>
       <c r="BK2" s="15" t="s">
-        <v>2133</v>
+        <v>2123</v>
       </c>
       <c r="BL2" s="15" t="s">
-        <v>2134</v>
+        <v>2124</v>
       </c>
       <c r="BM2" s="15" t="s">
-        <v>2162</v>
+        <v>2152</v>
       </c>
       <c r="BN2" s="15" t="s">
+        <v>2151</v>
+      </c>
+      <c r="BO2" s="15" t="s">
         <v>2161</v>
-      </c>
-      <c r="BO2" s="15" t="s">
-        <v>2181</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -11061,7 +11075,7 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>2169</v>
+        <v>2159</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -11136,7 +11150,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>2170</v>
+        <v>2160</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -11209,7 +11223,7 @@
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11282,7 +11296,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11355,7 +11369,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11428,7 +11442,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -11501,7 +11515,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11584,1029 +11598,525 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
   <dimension ref="A1:BP10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="25" width="21.72265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="25" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="25" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="25" width="20.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="25" width="17.140625" collapsed="true"/>
+    <col min="6" max="11" style="25" width="9.140625" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="25" width="37.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="25" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="25" width="29.140625" collapsed="true"/>
+    <col min="16" max="16" style="25" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="25" width="8.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="25" width="5.42578125" collapsed="true"/>
+    <col min="19" max="19" style="25" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="25" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="25" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="25" width="11.140625" collapsed="true"/>
+    <col min="23" max="25" style="25" width="9.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="25" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="25" width="40.28125" collapsed="true"/>
+    <col min="28" max="44" style="25" width="9.140625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="25" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="25" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="25" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="25" width="13.140625" collapsed="true"/>
+    <col min="49" max="49" style="25" width="9.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="25" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="25" width="33.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="25" width="24.85546875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="25" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="25" width="14.28515625" collapsed="true"/>
+    <col min="55" max="59" style="25" width="9.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="25" width="27.140625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="25" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="25" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" style="25" width="37.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="25" width="8.7109375" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" style="25" width="12.85546875" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="25" width="12.140625" collapsed="true"/>
+    <col min="68" max="16384" style="25" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AV1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="AW1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="15" t="s">
+      <c r="BA1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BB1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="BC1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="BD1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="BE1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BF1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BG1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="BI1" s="15" t="s">
+      <c r="BI1" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="BJ1" s="15" t="s">
+      <c r="BJ1" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="BK1" s="15" t="s">
+      <c r="BK1" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="BL1" s="15" t="s">
+      <c r="BL1" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BO1" s="15" t="s">
+      <c r="BO1" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2175</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2158</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="25" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>653</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2102</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="25" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="25" t="s">
+        <v>1693</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>2098</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>2117</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>657</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>658</v>
+      </c>
+      <c r="K2" s="25" t="s">
         <v>2104</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>2123</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2110</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>2185</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>2186</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>2184</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>2176</v>
-      </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15" t="s">
-        <v>2177</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>2178</v>
-      </c>
-      <c r="S2" s="15" t="s">
+      <c r="L2" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>2215</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>2217</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>2218</v>
+      </c>
+      <c r="S2" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="T2" s="15" t="s">
-        <v>2157</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>2103</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>1698</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>2127</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>2126</v>
-      </c>
-      <c r="Y2" s="15" t="s">
+      <c r="T2" s="25" t="s">
+        <v>2221</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>2212</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>2213</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>2121</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>2120</v>
+      </c>
+      <c r="Y2" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="Z2" s="15" t="s">
-        <v>2156</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>2180</v>
-      </c>
-      <c r="AB2" s="20" t="s">
+      <c r="Z2" s="25" t="s">
+        <v>2220</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>2246</v>
+      </c>
+      <c r="AB2" s="26" t="s">
         <v>663</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="26" t="s">
         <v>1621</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AF2" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AG2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AH2" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AI2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AJ2" s="20" t="s">
+      <c r="AJ2" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AK2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AL2" s="20" t="s">
+      <c r="AL2" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="AM2" s="20" t="s">
+      <c r="AM2" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="AN2" s="20" t="s">
+      <c r="AN2" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="AO2" s="20" t="s">
+      <c r="AO2" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AP2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AQ2" s="20" t="s">
+      <c r="AQ2" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15" t="s">
+      <c r="AS2" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="AT2" s="15" t="s">
-        <v>2171</v>
-      </c>
-      <c r="AU2" s="15" t="s">
+      <c r="AT2" s="25" t="s">
+        <v>2228</v>
+      </c>
+      <c r="AU2" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="AV2" s="15" t="s">
+      <c r="AV2" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="AW2" s="14" t="s">
+      <c r="AW2" s="24" t="s">
         <v>664</v>
       </c>
-      <c r="AX2" s="15" t="s">
+      <c r="AX2" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="AY2" s="15" t="s">
-        <v>2172</v>
-      </c>
-      <c r="AZ2" s="15" t="s">
-        <v>2173</v>
-      </c>
-      <c r="BA2" s="14" t="s">
+      <c r="AY2" s="25" t="s">
+        <v>2229</v>
+      </c>
+      <c r="AZ2" s="25" t="s">
+        <v>2230</v>
+      </c>
+      <c r="BA2" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="BB2" s="15" t="s">
+      <c r="BB2" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="BC2" s="14" t="s">
+      <c r="BC2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="BD2" s="14" t="s">
+      <c r="BD2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="BE2" s="20" t="s">
+      <c r="BE2" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="BF2" s="14" t="s">
+      <c r="BF2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="BG2" s="14" t="s">
+      <c r="BG2" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="BH2" s="15" t="s">
-        <v>2174</v>
-      </c>
-      <c r="BI2" s="15" t="s">
-        <v>2187</v>
-      </c>
-      <c r="BJ2" s="15" t="s">
-        <v>2184</v>
-      </c>
-      <c r="BK2" s="15" t="s">
-        <v>2185</v>
-      </c>
-      <c r="BL2" s="15" t="s">
-        <v>2186</v>
-      </c>
-      <c r="BM2" s="15" t="s">
-        <v>2179</v>
-      </c>
-      <c r="BN2" s="15" t="s">
-        <v>2161</v>
-      </c>
-      <c r="BO2" s="15" t="s">
-        <v>2182</v>
+      <c r="BH2" s="25" t="s">
+        <v>2231</v>
+      </c>
+      <c r="BI2" s="25" t="s">
+        <v>2216</v>
+      </c>
+      <c r="BJ2" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="BK2" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="BL2" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="BM2" s="25" t="s">
+        <v>2219</v>
+      </c>
+      <c r="BN2" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="BO2" s="25" t="s">
+        <v>2162</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="24" t="s">
         <v>1560</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15" t="s">
-        <v>2232</v>
-      </c>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="20" t="s">
+      <c r="U3" s="25" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AD3" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AE3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="15"/>
-      <c r="BG3" s="15"/>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="15"/>
-      <c r="BK3" s="15"/>
-      <c r="BL3" s="15"/>
-      <c r="BM3" s="15"/>
-      <c r="BN3" s="15"/>
-      <c r="BO3" s="15"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
+      <c r="A4" s="25" t="s">
+        <v>2233</v>
+      </c>
+      <c r="K4" s="25" t="s">
         <v>1630</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="16"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="16"/>
-      <c r="BA4" s="16"/>
-      <c r="BB4" s="16"/>
-      <c r="BC4" s="16"/>
-      <c r="BD4" s="16"/>
-      <c r="BE4" s="16"/>
-      <c r="BF4" s="16"/>
-      <c r="BG4" s="16"/>
-      <c r="BH4" s="16"/>
-      <c r="BI4" s="16"/>
-      <c r="BJ4" s="16"/>
-      <c r="BK4" s="16"/>
-      <c r="BL4" s="16"/>
-      <c r="BM4" s="16"/>
-      <c r="BN4" s="16"/>
-      <c r="BO4" s="16"/>
+      <c r="U4" s="25" t="s">
+        <v>1630</v>
+      </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16" t="s">
+      <c r="A5" s="25" t="s">
+        <v>2234</v>
+      </c>
+      <c r="K5" s="25" t="s">
         <v>1630</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="16"/>
-      <c r="AP5" s="16"/>
-      <c r="AQ5" s="16"/>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="16"/>
-      <c r="AT5" s="16"/>
-      <c r="AU5" s="16"/>
-      <c r="AV5" s="16"/>
-      <c r="AW5" s="16"/>
-      <c r="AX5" s="16"/>
-      <c r="AY5" s="16"/>
-      <c r="AZ5" s="16"/>
-      <c r="BA5" s="16"/>
-      <c r="BB5" s="16"/>
-      <c r="BC5" s="16"/>
-      <c r="BD5" s="16"/>
-      <c r="BE5" s="16"/>
-      <c r="BF5" s="16"/>
-      <c r="BG5" s="16"/>
-      <c r="BH5" s="16"/>
-      <c r="BI5" s="16"/>
-      <c r="BJ5" s="16"/>
-      <c r="BK5" s="16"/>
-      <c r="BL5" s="16"/>
-      <c r="BM5" s="16"/>
-      <c r="BN5" s="16"/>
-      <c r="BO5" s="16"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
+      <c r="A6" s="25" t="s">
+        <v>1546</v>
+      </c>
+      <c r="K6" s="25" t="s">
         <v>1625</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="16"/>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="16"/>
-      <c r="BB6" s="16"/>
-      <c r="BC6" s="16"/>
-      <c r="BD6" s="16"/>
-      <c r="BE6" s="16"/>
-      <c r="BF6" s="16"/>
-      <c r="BG6" s="16"/>
-      <c r="BH6" s="16"/>
-      <c r="BI6" s="16"/>
-      <c r="BJ6" s="16"/>
-      <c r="BK6" s="16"/>
-      <c r="BL6" s="16"/>
-      <c r="BM6" s="16"/>
-      <c r="BN6" s="16"/>
-      <c r="BO6" s="16"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16" t="s">
+      <c r="A7" s="25" t="s">
+        <v>2235</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>1630</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="16"/>
-      <c r="AN7" s="16"/>
-      <c r="AO7" s="16"/>
-      <c r="AP7" s="16"/>
-      <c r="AQ7" s="16"/>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="16"/>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="16"/>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="16"/>
-      <c r="AX7" s="16"/>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16"/>
-      <c r="BC7" s="16"/>
-      <c r="BD7" s="16"/>
-      <c r="BE7" s="16"/>
-      <c r="BF7" s="16"/>
-      <c r="BG7" s="16"/>
-      <c r="BH7" s="16"/>
-      <c r="BI7" s="16"/>
-      <c r="BJ7" s="16"/>
-      <c r="BK7" s="16"/>
-      <c r="BL7" s="16"/>
-      <c r="BM7" s="16"/>
-      <c r="BN7" s="16"/>
-      <c r="BO7" s="16"/>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
+      <c r="A8" s="25" t="s">
+        <v>2236</v>
+      </c>
+      <c r="K8" s="25" t="s">
         <v>1631</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="16"/>
-      <c r="AP8" s="16"/>
-      <c r="AQ8" s="16"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="16"/>
-      <c r="AT8" s="16"/>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="16"/>
-      <c r="AW8" s="16"/>
-      <c r="AX8" s="16"/>
-      <c r="AY8" s="16"/>
-      <c r="AZ8" s="16"/>
-      <c r="BA8" s="16"/>
-      <c r="BB8" s="16"/>
-      <c r="BC8" s="16"/>
-      <c r="BD8" s="16"/>
-      <c r="BE8" s="16"/>
-      <c r="BF8" s="16"/>
-      <c r="BG8" s="16"/>
-      <c r="BH8" s="16"/>
-      <c r="BI8" s="16"/>
-      <c r="BJ8" s="16"/>
-      <c r="BK8" s="16"/>
-      <c r="BL8" s="16"/>
-      <c r="BM8" s="16"/>
-      <c r="BN8" s="16"/>
-      <c r="BO8" s="16"/>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16" t="s">
+      <c r="A9" s="25" t="s">
+        <v>2237</v>
+      </c>
+      <c r="K9" s="25" t="s">
         <v>1632</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="16"/>
-      <c r="AQ9" s="16"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="16"/>
-      <c r="AX9" s="16"/>
-      <c r="AY9" s="16"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="16"/>
-      <c r="BE9" s="16"/>
-      <c r="BF9" s="16"/>
-      <c r="BG9" s="16"/>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="16"/>
-      <c r="BJ9" s="16"/>
-      <c r="BK9" s="16"/>
-      <c r="BL9" s="16"/>
-      <c r="BM9" s="16"/>
-      <c r="BN9" s="16"/>
-      <c r="BO9" s="16"/>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
+      <c r="A10" s="25" t="s">
+        <v>2227</v>
+      </c>
+      <c r="K10" s="25" t="s">
         <v>1626</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="16"/>
-      <c r="AX10" s="16"/>
-      <c r="AY10" s="16"/>
-      <c r="AZ10" s="16"/>
-      <c r="BA10" s="16"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="16"/>
-      <c r="BD10" s="16"/>
-      <c r="BE10" s="16"/>
-      <c r="BF10" s="16"/>
-      <c r="BG10" s="16"/>
-      <c r="BH10" s="16"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="16"/>
-      <c r="BK10" s="16"/>
-      <c r="BL10" s="16"/>
-      <c r="BM10" s="16"/>
-      <c r="BN10" s="16"/>
-      <c r="BO10" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12662,7 +12172,7 @@
         <v>608</v>
       </c>
       <c r="B2" t="s">
-        <v>2136</v>
+        <v>2126</v>
       </c>
       <c r="D2" t="s">
         <v>462</v>
@@ -12671,7 +12181,7 @@
         <v>500</v>
       </c>
       <c r="G2" t="s">
-        <v>2111</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12679,7 +12189,7 @@
         <v>609</v>
       </c>
       <c r="B3" t="s">
-        <v>2137</v>
+        <v>2127</v>
       </c>
       <c r="D3" t="s">
         <v>463</v>
@@ -12688,7 +12198,7 @@
         <v>501</v>
       </c>
       <c r="G3" t="s">
-        <v>2112</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -12696,7 +12206,7 @@
         <v>610</v>
       </c>
       <c r="B4" t="s">
-        <v>2138</v>
+        <v>2128</v>
       </c>
       <c r="D4" t="s">
         <v>464</v>
@@ -12705,7 +12215,7 @@
         <v>502</v>
       </c>
       <c r="G4" t="s">
-        <v>2113</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -12713,7 +12223,7 @@
         <v>611</v>
       </c>
       <c r="B5" t="s">
-        <v>2139</v>
+        <v>2129</v>
       </c>
       <c r="D5" t="s">
         <v>465</v>
@@ -12722,7 +12232,7 @@
         <v>503</v>
       </c>
       <c r="G5" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -12730,7 +12240,7 @@
         <v>612</v>
       </c>
       <c r="B6" t="s">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="D6" t="s">
         <v>466</v>
@@ -12739,7 +12249,7 @@
         <v>504</v>
       </c>
       <c r="G6" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -12747,7 +12257,7 @@
         <v>613</v>
       </c>
       <c r="B7" t="s">
-        <v>2141</v>
+        <v>2131</v>
       </c>
       <c r="D7" t="s">
         <v>467</v>
@@ -12756,7 +12266,7 @@
         <v>505</v>
       </c>
       <c r="G7" t="s">
-        <v>2116</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -12773,7 +12283,7 @@
         <v>506</v>
       </c>
       <c r="G8" t="s">
-        <v>2117</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12790,7 +12300,7 @@
         <v>507</v>
       </c>
       <c r="G9" t="s">
-        <v>2118</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -12807,7 +12317,7 @@
         <v>508</v>
       </c>
       <c r="G10" t="s">
-        <v>2119</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -12824,7 +12334,7 @@
         <v>509</v>
       </c>
       <c r="G11" t="s">
-        <v>2120</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -12841,7 +12351,7 @@
         <v>510</v>
       </c>
       <c r="G12" t="s">
-        <v>2121</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -12858,7 +12368,7 @@
         <v>511</v>
       </c>
       <c r="G13" t="s">
-        <v>2122</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -13397,7 +12907,7 @@
         <v>1654</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>2227</v>
+        <v>2201</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -13507,7 +13017,7 @@
         <v>1566</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2230</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -13534,7 +13044,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
       <c r="U3" s="23" t="s">
-        <v>2231</v>
+        <v>2203</v>
       </c>
       <c r="V3" s="16"/>
       <c r="W3" s="16" t="s">
@@ -13877,25 +13387,25 @@
         <v>620</v>
       </c>
       <c r="F2" t="s">
-        <v>2105</v>
+        <v>2099</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>416</v>
       </c>
       <c r="H2" t="s">
-        <v>2106</v>
+        <v>2100</v>
       </c>
       <c r="I2" t="s">
-        <v>2107</v>
+        <v>2101</v>
       </c>
       <c r="J2" t="s">
         <v>1515</v>
       </c>
       <c r="K2" t="s">
-        <v>2108</v>
+        <v>2102</v>
       </c>
       <c r="L2" t="s">
-        <v>2109</v>
+        <v>2103</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>1338</v>
@@ -13910,13 +13420,13 @@
         <v>1517</v>
       </c>
       <c r="Q2" t="s">
-        <v>2108</v>
+        <v>2102</v>
       </c>
       <c r="R2" t="s">
         <v>1514</v>
       </c>
       <c r="S2" t="s">
-        <v>2109</v>
+        <v>2103</v>
       </c>
       <c r="T2" t="s">
         <v>1513</v>
@@ -14087,7 +13597,7 @@
     <col min="28" max="28" customWidth="true" width="17.42578125" collapsed="true"/>
     <col min="29" max="29" customWidth="true" width="16.140625" collapsed="true"/>
     <col min="30" max="30" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.52734375" collapsed="true"/>
     <col min="65" max="66" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -14188,52 +13698,52 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>2194</v>
+        <v>2168</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>2195</v>
+        <v>2169</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>2205</v>
+        <v>2179</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>2163</v>
+        <v>2153</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>2164</v>
+        <v>2154</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>2165</v>
+        <v>2155</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>2166</v>
+        <v>2156</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>2142</v>
+        <v>2132</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>1608</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="Q2" s="16" t="s">
         <v>694</v>
@@ -14251,7 +13761,7 @@
         <v>60</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>2128</v>
+        <v>2222</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>1519</v>
@@ -14275,52 +13785,52 @@
         <v>200</v>
       </c>
       <c r="AD2" t="s">
-        <v>2124</v>
+        <v>2118</v>
       </c>
       <c r="AE2" t="s">
-        <v>1513</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>2196</v>
+        <v>2170</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>1658</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>2206</v>
+        <v>2180</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16" t="s">
-        <v>2143</v>
+        <v>2133</v>
       </c>
       <c r="O3" s="17" t="s">
         <v>1608</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="Q3" s="16" t="s">
         <v>698</v>
@@ -14338,7 +13848,7 @@
         <v>60</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>2129</v>
+        <v>2223</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>1518</v>
@@ -14362,49 +13872,49 @@
         <v>200</v>
       </c>
       <c r="AE3" t="s">
-        <v>1513</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>2197</v>
+        <v>2171</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>1659</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>2207</v>
+        <v>2181</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16" t="s">
-        <v>2144</v>
+        <v>2134</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>1609</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="Q4" s="16" t="s">
         <v>702</v>
@@ -14422,7 +13932,7 @@
         <v>60</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>2130</v>
+        <v>2224</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>1520</v>
@@ -14446,49 +13956,49 @@
         <v>199</v>
       </c>
       <c r="AE4" t="s">
-        <v>1513</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>2198</v>
+        <v>2172</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>1660</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>2208</v>
+        <v>2182</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16" t="s">
-        <v>2145</v>
+        <v>2135</v>
       </c>
       <c r="O5" s="17" t="s">
         <v>1610</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>706</v>
@@ -14506,7 +14016,7 @@
         <v>60</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>2131</v>
+        <v>2225</v>
       </c>
       <c r="W5" s="15" t="s">
         <v>1521</v>
@@ -14530,49 +14040,49 @@
         <v>199</v>
       </c>
       <c r="AE5" t="s">
-        <v>1513</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>2199</v>
+        <v>2173</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>1661</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>2209</v>
+        <v>2183</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16" t="s">
-        <v>2146</v>
+        <v>2136</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>1608</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>710</v>
@@ -14610,49 +14120,49 @@
         <v>99</v>
       </c>
       <c r="AE6" t="s">
-        <v>1513</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>2200</v>
+        <v>2174</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>1662</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>2210</v>
+        <v>2184</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16" t="s">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="O7" s="17" t="s">
         <v>1611</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>714</v>
@@ -14690,49 +14200,49 @@
         <v>199</v>
       </c>
       <c r="AE7" t="s">
-        <v>1513</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>2201</v>
+        <v>2175</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>1663</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>2211</v>
+        <v>2185</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16" t="s">
-        <v>2148</v>
+        <v>2138</v>
       </c>
       <c r="O8" s="15">
         <v>0.32</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>718</v>
@@ -14770,49 +14280,49 @@
         <v>99</v>
       </c>
       <c r="AE8" t="s">
-        <v>1513</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>2202</v>
+        <v>2176</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>1664</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>2212</v>
+        <v>2186</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16" t="s">
-        <v>2149</v>
+        <v>2139</v>
       </c>
       <c r="O9" s="15" t="s">
         <v>1613</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>722</v>
@@ -14850,49 +14360,49 @@
         <v>299</v>
       </c>
       <c r="AE9" t="s">
-        <v>1513</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>2203</v>
+        <v>2177</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>257</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>2213</v>
+        <v>2187</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16" t="s">
-        <v>2150</v>
+        <v>2140</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>1617</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="Q10" s="16" t="s">
         <v>726</v>
@@ -14930,30 +14440,30 @@
         <v>100</v>
       </c>
       <c r="AE10" t="s">
-        <v>1513</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>2096</v>
+        <v>2090</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>2204</v>
+        <v>2178</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>254</v>
@@ -14966,13 +14476,13 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16" t="s">
-        <v>2151</v>
+        <v>2141</v>
       </c>
       <c r="O11" s="15" t="s">
         <v>1614</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="Q11" s="16" t="s">
         <v>731</v>
@@ -15010,23 +14520,23 @@
         <v>222</v>
       </c>
       <c r="AE11" t="s">
-        <v>1513</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>2097</v>
+        <v>2091</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>734</v>
@@ -15042,13 +14552,13 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16" t="s">
-        <v>2152</v>
+        <v>2142</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>1615</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>737</v>
@@ -15086,23 +14596,23 @@
         <v>88</v>
       </c>
       <c r="AE12" t="s">
-        <v>1513</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>2098</v>
+        <v>2092</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -15112,13 +14622,13 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16" t="s">
-        <v>2153</v>
+        <v>2143</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>1616</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="Q13" s="16" t="s">
         <v>325</v>
@@ -15152,23 +14662,23 @@
         <v>99</v>
       </c>
       <c r="AE13" t="s">
-        <v>1697</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>2099</v>
+        <v>2093</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -15178,13 +14688,13 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16" t="s">
-        <v>2154</v>
+        <v>2144</v>
       </c>
       <c r="O14" s="14" t="s">
         <v>1612</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="Q14" s="16" t="s">
         <v>744</v>
@@ -15210,16 +14720,16 @@
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>2100</v>
+        <v>2094</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -15229,13 +14739,13 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16" t="s">
-        <v>2155</v>
+        <v>2145</v>
       </c>
       <c r="O15" s="14" t="s">
         <v>1612</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="Q15" s="16" t="s">
         <v>748</v>
@@ -15261,16 +14771,16 @@
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>2101</v>
+        <v>2095</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -15304,13 +14814,13 @@
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="16" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -15335,13 +14845,13 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18" s="16" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -15366,13 +14876,13 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="16" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -15397,13 +14907,13 @@
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20" s="16" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -15428,13 +14938,13 @@
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21" s="16" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -15459,13 +14969,13 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="16" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -15490,13 +15000,13 @@
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23" s="16" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -15521,13 +15031,13 @@
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24" s="16" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -15552,13 +15062,13 @@
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" s="16" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -15583,13 +15093,13 @@
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26" s="16" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -15614,13 +15124,13 @@
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" s="16" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -15645,13 +15155,13 @@
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="16" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -15676,13 +15186,13 @@
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C29" s="16" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -15707,13 +15217,13 @@
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C30" s="16" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -15738,13 +15248,13 @@
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C31" s="16" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -15769,13 +15279,13 @@
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C32" s="16" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -15800,13 +15310,13 @@
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33" s="16" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -15831,13 +15341,13 @@
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34" s="16" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -15862,13 +15372,13 @@
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35" s="16" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -15893,13 +15403,13 @@
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36" s="16" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -15924,13 +15434,13 @@
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="16" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -15955,13 +15465,13 @@
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38" s="16" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -15986,13 +15496,13 @@
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C39" s="16" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -16017,13 +15527,13 @@
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40" s="16" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -16048,13 +15558,13 @@
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C41" s="16" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -16079,13 +15589,13 @@
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42" s="16" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -16110,13 +15620,13 @@
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43" s="16" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -16141,13 +15651,13 @@
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C44" s="16" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
@@ -16172,13 +15682,13 @@
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45" s="16" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
@@ -16203,11 +15713,11 @@
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C46" s="16" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
@@ -16234,7 +15744,7 @@
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -16261,7 +15771,7 @@
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
@@ -16286,7 +15796,7 @@
     </row>
     <row r="49" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E49" s="16" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
@@ -16311,7 +15821,7 @@
     </row>
     <row r="50" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E50" s="16" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
@@ -16336,7 +15846,7 @@
     </row>
     <row r="51" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E51" s="16" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
@@ -16361,7 +15871,7 @@
     </row>
     <row r="52" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E52" s="16" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
@@ -16386,7 +15896,7 @@
     </row>
     <row r="53" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E53" s="16" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
@@ -16411,7 +15921,7 @@
     </row>
     <row r="54" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E54" s="16" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
@@ -16436,7 +15946,7 @@
     </row>
     <row r="55" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E55" s="16" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
@@ -16461,7 +15971,7 @@
     </row>
     <row r="56" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E56" s="16" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
@@ -16486,7 +15996,7 @@
     </row>
     <row r="57" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E57" s="16" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
@@ -16511,7 +16021,7 @@
     </row>
     <row r="58" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E58" s="16" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
@@ -16536,7 +16046,7 @@
     </row>
     <row r="59" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E59" s="16" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
@@ -16561,7 +16071,7 @@
     </row>
     <row r="60" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E60" s="16" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
@@ -16586,7 +16096,7 @@
     </row>
     <row r="61" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E61" s="16" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
@@ -16611,7 +16121,7 @@
     </row>
     <row r="62" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E62" s="16" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
@@ -16636,7 +16146,7 @@
     </row>
     <row r="63" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E63" s="16" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
@@ -16661,7 +16171,7 @@
     </row>
     <row r="64" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E64" s="16" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
@@ -16686,7 +16196,7 @@
     </row>
     <row r="65" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E65" s="16" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
@@ -16711,7 +16221,7 @@
     </row>
     <row r="66" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E66" s="16" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
@@ -16736,7 +16246,7 @@
     </row>
     <row r="67" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E67" s="16" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
@@ -16761,7 +16271,7 @@
     </row>
     <row r="68" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E68" s="16" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
@@ -16786,7 +16296,7 @@
     </row>
     <row r="69" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E69" s="16" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
@@ -16811,7 +16321,7 @@
     </row>
     <row r="70" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E70" s="16" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
@@ -16836,7 +16346,7 @@
     </row>
     <row r="71" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E71" s="16" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
@@ -16861,7 +16371,7 @@
     </row>
     <row r="72" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E72" s="16" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
@@ -16886,7 +16396,7 @@
     </row>
     <row r="73" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E73" s="16" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
@@ -16911,7 +16421,7 @@
     </row>
     <row r="74" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E74" s="16" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
@@ -16936,7 +16446,7 @@
     </row>
     <row r="75" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E75" s="16" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
@@ -16961,7 +16471,7 @@
     </row>
     <row r="76" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E76" s="16" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
@@ -16986,7 +16496,7 @@
     </row>
     <row r="77" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E77" s="16" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
@@ -17011,7 +16521,7 @@
     </row>
     <row r="78" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E78" s="16" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
@@ -17036,7 +16546,7 @@
     </row>
     <row r="79" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E79" s="16" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
@@ -17061,7 +16571,7 @@
     </row>
     <row r="80" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E80" s="16" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
@@ -17086,7 +16596,7 @@
     </row>
     <row r="81" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E81" s="16" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
@@ -17111,7 +16621,7 @@
     </row>
     <row r="82" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E82" s="16" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
@@ -17136,7 +16646,7 @@
     </row>
     <row r="83" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E83" s="16" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
@@ -17161,7 +16671,7 @@
     </row>
     <row r="84" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E84" s="16" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
@@ -17186,7 +16696,7 @@
     </row>
     <row r="85" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E85" s="16" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
@@ -17211,7 +16721,7 @@
     </row>
     <row r="86" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E86" s="16" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
@@ -17236,7 +16746,7 @@
     </row>
     <row r="87" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E87" s="16" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
@@ -17261,7 +16771,7 @@
     </row>
     <row r="88" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E88" s="16" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
@@ -17286,7 +16796,7 @@
     </row>
     <row r="89" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E89" s="16" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
@@ -17311,7 +16821,7 @@
     </row>
     <row r="90" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E90" s="16" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
@@ -17336,7 +16846,7 @@
     </row>
     <row r="91" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E91" s="16" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
@@ -17361,7 +16871,7 @@
     </row>
     <row r="92" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E92" s="16" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
@@ -17386,7 +16896,7 @@
     </row>
     <row r="93" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E93" s="16" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
@@ -17411,7 +16921,7 @@
     </row>
     <row r="94" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E94" s="16" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
@@ -17436,7 +16946,7 @@
     </row>
     <row r="95" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E95" s="16" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
@@ -17461,7 +16971,7 @@
     </row>
     <row r="96" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E96" s="16" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
@@ -17486,7 +16996,7 @@
     </row>
     <row r="97" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E97" s="16" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
@@ -17511,7 +17021,7 @@
     </row>
     <row r="98" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E98" s="16" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
@@ -17536,7 +17046,7 @@
     </row>
     <row r="99" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E99" s="16" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
@@ -17561,7 +17071,7 @@
     </row>
     <row r="100" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E100" s="16" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
@@ -17586,7 +17096,7 @@
     </row>
     <row r="101" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E101" s="16" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
@@ -17611,7 +17121,7 @@
     </row>
     <row r="102" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E102" s="16" t="s">
-        <v>1932</v>
+        <v>1926</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
@@ -17636,7 +17146,7 @@
     </row>
     <row r="103" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E103" s="16" t="s">
-        <v>1933</v>
+        <v>1927</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
@@ -17661,7 +17171,7 @@
     </row>
     <row r="104" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E104" s="16" t="s">
-        <v>1934</v>
+        <v>1928</v>
       </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
@@ -17686,7 +17196,7 @@
     </row>
     <row r="105" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E105" s="16" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
@@ -17711,7 +17221,7 @@
     </row>
     <row r="106" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E106" s="16" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
@@ -17736,7 +17246,7 @@
     </row>
     <row r="107" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E107" s="16" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
@@ -17761,7 +17271,7 @@
     </row>
     <row r="108" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E108" s="16" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
@@ -17786,7 +17296,7 @@
     </row>
     <row r="109" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E109" s="16" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
@@ -17811,7 +17321,7 @@
     </row>
     <row r="110" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E110" s="16" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
@@ -17836,7 +17346,7 @@
     </row>
     <row r="111" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E111" s="16" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
@@ -17861,7 +17371,7 @@
     </row>
     <row r="112" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E112" s="16" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
@@ -17886,7 +17396,7 @@
     </row>
     <row r="113" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E113" s="16" t="s">
-        <v>1943</v>
+        <v>1937</v>
       </c>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
@@ -17911,7 +17421,7 @@
     </row>
     <row r="114" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E114" s="16" t="s">
-        <v>1944</v>
+        <v>1938</v>
       </c>
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
@@ -17936,7 +17446,7 @@
     </row>
     <row r="115" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E115" s="16" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
@@ -17961,7 +17471,7 @@
     </row>
     <row r="116" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E116" s="16" t="s">
-        <v>1946</v>
+        <v>1940</v>
       </c>
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
@@ -17986,7 +17496,7 @@
     </row>
     <row r="117" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E117" s="16" t="s">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
@@ -18011,7 +17521,7 @@
     </row>
     <row r="118" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E118" s="16" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
@@ -18036,7 +17546,7 @@
     </row>
     <row r="119" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E119" s="16" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="16"/>
@@ -18061,7 +17571,7 @@
     </row>
     <row r="120" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E120" s="16" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
@@ -18086,7 +17596,7 @@
     </row>
     <row r="121" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E121" s="16" t="s">
-        <v>1951</v>
+        <v>1945</v>
       </c>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
@@ -18111,7 +17621,7 @@
     </row>
     <row r="122" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E122" s="16" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
@@ -18136,7 +17646,7 @@
     </row>
     <row r="123" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E123" s="16" t="s">
-        <v>1953</v>
+        <v>1947</v>
       </c>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
@@ -18161,7 +17671,7 @@
     </row>
     <row r="124" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E124" s="16" t="s">
-        <v>1954</v>
+        <v>1948</v>
       </c>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
@@ -18186,7 +17696,7 @@
     </row>
     <row r="125" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E125" s="16" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="F125" s="16"/>
       <c r="G125" s="16"/>
@@ -18211,7 +17721,7 @@
     </row>
     <row r="126" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E126" s="16" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
@@ -18236,7 +17746,7 @@
     </row>
     <row r="127" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E127" s="16" t="s">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="F127" s="16"/>
       <c r="G127" s="16"/>
@@ -18261,7 +17771,7 @@
     </row>
     <row r="128" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E128" s="16" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
@@ -18286,7 +17796,7 @@
     </row>
     <row r="129" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E129" s="16" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
@@ -18311,7 +17821,7 @@
     </row>
     <row r="130" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E130" s="16" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
@@ -18336,7 +17846,7 @@
     </row>
     <row r="131" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E131" s="16" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
       <c r="F131" s="16"/>
       <c r="G131" s="16"/>
@@ -18361,7 +17871,7 @@
     </row>
     <row r="132" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E132" s="16" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
@@ -18386,7 +17896,7 @@
     </row>
     <row r="133" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E133" s="16" t="s">
-        <v>1963</v>
+        <v>1957</v>
       </c>
       <c r="F133" s="16"/>
       <c r="G133" s="16"/>
@@ -18411,7 +17921,7 @@
     </row>
     <row r="134" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E134" s="16" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
       <c r="F134" s="16"/>
       <c r="G134" s="16"/>
@@ -18436,7 +17946,7 @@
     </row>
     <row r="135" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E135" s="16" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
       <c r="F135" s="16"/>
       <c r="G135" s="16"/>
@@ -18461,7 +17971,7 @@
     </row>
     <row r="136" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E136" s="16" t="s">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
@@ -18486,7 +17996,7 @@
     </row>
     <row r="137" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E137" s="16" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
       <c r="F137" s="16"/>
       <c r="G137" s="16"/>
@@ -18511,7 +18021,7 @@
     </row>
     <row r="138" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E138" s="16" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
@@ -18536,7 +18046,7 @@
     </row>
     <row r="139" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E139" s="16" t="s">
-        <v>1969</v>
+        <v>1963</v>
       </c>
       <c r="F139" s="16"/>
       <c r="G139" s="16"/>
@@ -18561,7 +18071,7 @@
     </row>
     <row r="140" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E140" s="16" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
@@ -18586,7 +18096,7 @@
     </row>
     <row r="141" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E141" s="16" t="s">
-        <v>1971</v>
+        <v>1965</v>
       </c>
       <c r="F141" s="16"/>
       <c r="G141" s="16"/>
@@ -18611,7 +18121,7 @@
     </row>
     <row r="142" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E142" s="16" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
@@ -18636,7 +18146,7 @@
     </row>
     <row r="143" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E143" s="16" t="s">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="F143" s="16"/>
       <c r="G143" s="16"/>
@@ -18661,7 +18171,7 @@
     </row>
     <row r="144" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E144" s="16" t="s">
-        <v>1974</v>
+        <v>1968</v>
       </c>
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
@@ -18686,7 +18196,7 @@
     </row>
     <row r="145" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E145" s="16" t="s">
-        <v>1975</v>
+        <v>1969</v>
       </c>
       <c r="F145" s="16"/>
       <c r="G145" s="16"/>
@@ -18711,7 +18221,7 @@
     </row>
     <row r="146" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E146" s="16" t="s">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="F146" s="16"/>
       <c r="G146" s="16"/>
@@ -18736,7 +18246,7 @@
     </row>
     <row r="147" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E147" s="16" t="s">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="F147" s="16"/>
       <c r="G147" s="16"/>
@@ -18761,7 +18271,7 @@
     </row>
     <row r="148" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E148" s="16" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
@@ -18786,7 +18296,7 @@
     </row>
     <row r="149" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E149" s="16" t="s">
-        <v>1979</v>
+        <v>1973</v>
       </c>
       <c r="F149" s="16"/>
       <c r="G149" s="16"/>
@@ -18811,7 +18321,7 @@
     </row>
     <row r="150" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E150" s="16" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F150" s="16"/>
       <c r="G150" s="16"/>
@@ -18836,7 +18346,7 @@
     </row>
     <row r="151" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E151" s="16" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="F151" s="16"/>
       <c r="G151" s="16"/>
@@ -18861,7 +18371,7 @@
     </row>
     <row r="152" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E152" s="16" t="s">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="F152" s="16"/>
       <c r="G152" s="16"/>
@@ -18886,7 +18396,7 @@
     </row>
     <row r="153" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E153" s="16" t="s">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="F153" s="16"/>
       <c r="G153" s="16"/>
@@ -18911,7 +18421,7 @@
     </row>
     <row r="154" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E154" s="16" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="F154" s="16"/>
       <c r="G154" s="16"/>
@@ -18936,7 +18446,7 @@
     </row>
     <row r="155" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E155" s="16" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="F155" s="16"/>
       <c r="G155" s="16"/>
@@ -18961,7 +18471,7 @@
     </row>
     <row r="156" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E156" s="16" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="F156" s="16"/>
       <c r="G156" s="16"/>
@@ -18986,7 +18496,7 @@
     </row>
     <row r="157" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E157" s="16" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="F157" s="16"/>
       <c r="G157" s="16"/>
@@ -19011,7 +18521,7 @@
     </row>
     <row r="158" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E158" s="16" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="F158" s="16"/>
       <c r="G158" s="16"/>
@@ -19036,7 +18546,7 @@
     </row>
     <row r="159" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E159" s="16" t="s">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="F159" s="16"/>
       <c r="G159" s="16"/>
@@ -19061,7 +18571,7 @@
     </row>
     <row r="160" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E160" s="16" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="16"/>
@@ -19086,7 +18596,7 @@
     </row>
     <row r="161" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E161" s="16" t="s">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="16"/>
@@ -19111,7 +18621,7 @@
     </row>
     <row r="162" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E162" s="16" t="s">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="16"/>
@@ -19136,7 +18646,7 @@
     </row>
     <row r="163" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E163" s="16" t="s">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="F163" s="16"/>
       <c r="G163" s="16"/>
@@ -19161,7 +18671,7 @@
     </row>
     <row r="164" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E164" s="16" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="F164" s="16"/>
       <c r="G164" s="16"/>
@@ -19186,7 +18696,7 @@
     </row>
     <row r="165" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E165" s="16" t="s">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="F165" s="16"/>
       <c r="G165" s="16"/>
@@ -19211,7 +18721,7 @@
     </row>
     <row r="166" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E166" s="16" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
@@ -19236,7 +18746,7 @@
     </row>
     <row r="167" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E167" s="16" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="F167" s="16"/>
       <c r="G167" s="16"/>
@@ -19261,7 +18771,7 @@
     </row>
     <row r="168" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E168" s="16" t="s">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
@@ -19286,7 +18796,7 @@
     </row>
     <row r="169" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E169" s="16" t="s">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="F169" s="16"/>
       <c r="G169" s="16"/>
@@ -19311,7 +18821,7 @@
     </row>
     <row r="170" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E170" s="16" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="F170" s="16"/>
       <c r="G170" s="16"/>
@@ -19336,7 +18846,7 @@
     </row>
     <row r="171" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E171" s="16" t="s">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="F171" s="16"/>
       <c r="G171" s="16"/>
@@ -19361,7 +18871,7 @@
     </row>
     <row r="172" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E172" s="16" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
@@ -19386,7 +18896,7 @@
     </row>
     <row r="173" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E173" s="16" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="F173" s="16"/>
       <c r="G173" s="16"/>
@@ -19411,7 +18921,7 @@
     </row>
     <row r="174" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E174" s="16" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="16"/>
@@ -19436,7 +18946,7 @@
     </row>
     <row r="175" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E175" s="16" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="F175" s="16"/>
       <c r="G175" s="16"/>
@@ -19461,7 +18971,7 @@
     </row>
     <row r="176" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E176" s="16" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="F176" s="16"/>
       <c r="G176" s="16"/>
@@ -19486,7 +18996,7 @@
     </row>
     <row r="177" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E177" s="16" t="s">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="F177" s="16"/>
       <c r="G177" s="16"/>
@@ -19511,7 +19021,7 @@
     </row>
     <row r="178" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E178" s="16" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="F178" s="16"/>
       <c r="G178" s="16"/>
@@ -19536,7 +19046,7 @@
     </row>
     <row r="179" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E179" s="16" t="s">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="F179" s="16"/>
       <c r="G179" s="16"/>
@@ -19561,7 +19071,7 @@
     </row>
     <row r="180" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E180" s="16" t="s">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="F180" s="16"/>
       <c r="G180" s="16"/>
@@ -19586,7 +19096,7 @@
     </row>
     <row r="181" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E181" s="16" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="F181" s="16"/>
       <c r="G181" s="16"/>
@@ -19611,7 +19121,7 @@
     </row>
     <row r="182" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E182" s="16" t="s">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="F182" s="16"/>
       <c r="G182" s="16"/>
@@ -19636,7 +19146,7 @@
     </row>
     <row r="183" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E183" s="16" t="s">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="F183" s="16"/>
       <c r="G183" s="16"/>
@@ -19661,7 +19171,7 @@
     </row>
     <row r="184" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E184" s="16" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="F184" s="16"/>
       <c r="G184" s="16"/>
@@ -19686,7 +19196,7 @@
     </row>
     <row r="185" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E185" s="16" t="s">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="F185" s="16"/>
       <c r="G185" s="16"/>
@@ -19711,7 +19221,7 @@
     </row>
     <row r="186" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E186" s="16" t="s">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="F186" s="16"/>
       <c r="G186" s="16"/>
@@ -19736,7 +19246,7 @@
     </row>
     <row r="187" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E187" s="16" t="s">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="F187" s="16"/>
       <c r="G187" s="16"/>
@@ -19761,7 +19271,7 @@
     </row>
     <row r="188" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E188" s="16" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
@@ -19786,7 +19296,7 @@
     </row>
     <row r="189" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E189" s="16" t="s">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="F189" s="16"/>
       <c r="G189" s="16"/>
@@ -19811,7 +19321,7 @@
     </row>
     <row r="190" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E190" s="16" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
@@ -19836,7 +19346,7 @@
     </row>
     <row r="191" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E191" s="16" t="s">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="F191" s="16"/>
       <c r="G191" s="16"/>
@@ -19861,7 +19371,7 @@
     </row>
     <row r="192" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E192" s="16" t="s">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="F192" s="16"/>
       <c r="G192" s="16"/>
@@ -19886,7 +19396,7 @@
     </row>
     <row r="193" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E193" s="16" t="s">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="F193" s="16"/>
       <c r="G193" s="16"/>
@@ -19911,7 +19421,7 @@
     </row>
     <row r="194" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E194" s="16" t="s">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="F194" s="16"/>
       <c r="G194" s="16"/>
@@ -19936,7 +19446,7 @@
     </row>
     <row r="195" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E195" s="16" t="s">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="F195" s="16"/>
       <c r="G195" s="16"/>
@@ -19961,7 +19471,7 @@
     </row>
     <row r="196" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E196" s="16" t="s">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="F196" s="16"/>
       <c r="G196" s="16"/>
@@ -19986,7 +19496,7 @@
     </row>
     <row r="197" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E197" s="16" t="s">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="F197" s="16"/>
       <c r="G197" s="16"/>
@@ -20011,7 +19521,7 @@
     </row>
     <row r="198" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E198" s="16" t="s">
-        <v>2028</v>
+        <v>2022</v>
       </c>
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
@@ -20036,7 +19546,7 @@
     </row>
     <row r="199" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E199" s="16" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="F199" s="16"/>
       <c r="G199" s="16"/>
@@ -20061,7 +19571,7 @@
     </row>
     <row r="200" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E200" s="16" t="s">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
@@ -20086,7 +19596,7 @@
     </row>
     <row r="201" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E201" s="16" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="F201" s="16"/>
       <c r="G201" s="16"/>
@@ -20111,7 +19621,7 @@
     </row>
     <row r="202" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E202" s="16" t="s">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="F202" s="16"/>
       <c r="G202" s="16"/>
@@ -20136,7 +19646,7 @@
     </row>
     <row r="203" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E203" s="16" t="s">
-        <v>2033</v>
+        <v>2027</v>
       </c>
       <c r="F203" s="16"/>
       <c r="G203" s="16"/>
@@ -20161,7 +19671,7 @@
     </row>
     <row r="204" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E204" s="16" t="s">
-        <v>2034</v>
+        <v>2028</v>
       </c>
       <c r="F204" s="16"/>
       <c r="G204" s="16"/>
@@ -20186,7 +19696,7 @@
     </row>
     <row r="205" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E205" s="16" t="s">
-        <v>2035</v>
+        <v>2029</v>
       </c>
       <c r="F205" s="16"/>
       <c r="G205" s="16"/>
@@ -20211,7 +19721,7 @@
     </row>
     <row r="206" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E206" s="16" t="s">
-        <v>2036</v>
+        <v>2030</v>
       </c>
       <c r="F206" s="16"/>
       <c r="G206" s="16"/>
@@ -20236,7 +19746,7 @@
     </row>
     <row r="207" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E207" s="16" t="s">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="F207" s="16"/>
       <c r="G207" s="16"/>
@@ -20261,7 +19771,7 @@
     </row>
     <row r="208" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E208" s="16" t="s">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="F208" s="16"/>
       <c r="G208" s="16"/>
@@ -20286,7 +19796,7 @@
     </row>
     <row r="209" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E209" s="16" t="s">
-        <v>2039</v>
+        <v>2033</v>
       </c>
       <c r="F209" s="16"/>
       <c r="G209" s="16"/>
@@ -20311,7 +19821,7 @@
     </row>
     <row r="210" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E210" s="16" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="F210" s="16"/>
       <c r="G210" s="16"/>
@@ -20336,7 +19846,7 @@
     </row>
     <row r="211" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E211" s="16" t="s">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="F211" s="16"/>
       <c r="G211" s="16"/>
@@ -20361,7 +19871,7 @@
     </row>
     <row r="212" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E212" s="16" t="s">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="F212" s="16"/>
       <c r="G212" s="16"/>
@@ -20386,7 +19896,7 @@
     </row>
     <row r="213" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E213" s="16" t="s">
-        <v>2043</v>
+        <v>2037</v>
       </c>
       <c r="F213" s="16"/>
       <c r="G213" s="16"/>
@@ -20411,7 +19921,7 @@
     </row>
     <row r="214" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E214" s="16" t="s">
-        <v>2044</v>
+        <v>2038</v>
       </c>
       <c r="F214" s="16"/>
       <c r="G214" s="16"/>
@@ -20436,7 +19946,7 @@
     </row>
     <row r="215" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E215" s="16" t="s">
-        <v>2045</v>
+        <v>2039</v>
       </c>
       <c r="F215" s="16"/>
       <c r="G215" s="16"/>
@@ -20461,7 +19971,7 @@
     </row>
     <row r="216" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E216" s="16" t="s">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="F216" s="16"/>
       <c r="G216" s="16"/>
@@ -20486,7 +19996,7 @@
     </row>
     <row r="217" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E217" s="16" t="s">
-        <v>2047</v>
+        <v>2041</v>
       </c>
       <c r="F217" s="16"/>
       <c r="G217" s="16"/>
@@ -20511,7 +20021,7 @@
     </row>
     <row r="218" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E218" s="16" t="s">
-        <v>2048</v>
+        <v>2042</v>
       </c>
       <c r="F218" s="16"/>
       <c r="G218" s="16"/>
@@ -20536,7 +20046,7 @@
     </row>
     <row r="219" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E219" s="16" t="s">
-        <v>2049</v>
+        <v>2043</v>
       </c>
       <c r="F219" s="16"/>
       <c r="G219" s="16"/>
@@ -20561,7 +20071,7 @@
     </row>
     <row r="220" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E220" s="16" t="s">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="F220" s="16"/>
       <c r="G220" s="16"/>
@@ -20586,7 +20096,7 @@
     </row>
     <row r="221" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E221" s="16" t="s">
-        <v>2051</v>
+        <v>2045</v>
       </c>
       <c r="F221" s="16"/>
       <c r="G221" s="16"/>
@@ -20611,7 +20121,7 @@
     </row>
     <row r="222" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E222" s="16" t="s">
-        <v>2052</v>
+        <v>2046</v>
       </c>
       <c r="F222" s="16"/>
       <c r="G222" s="16"/>
@@ -20636,7 +20146,7 @@
     </row>
     <row r="223" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E223" s="16" t="s">
-        <v>2053</v>
+        <v>2047</v>
       </c>
       <c r="F223" s="16"/>
       <c r="G223" s="16"/>
@@ -20661,7 +20171,7 @@
     </row>
     <row r="224" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E224" s="16" t="s">
-        <v>2054</v>
+        <v>2048</v>
       </c>
       <c r="F224" s="16"/>
       <c r="G224" s="16"/>
@@ -20686,7 +20196,7 @@
     </row>
     <row r="225" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E225" s="16" t="s">
-        <v>2055</v>
+        <v>2049</v>
       </c>
       <c r="F225" s="16"/>
       <c r="G225" s="16"/>
@@ -20711,7 +20221,7 @@
     </row>
     <row r="226" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E226" s="16" t="s">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="F226" s="16"/>
       <c r="G226" s="16"/>
@@ -20736,7 +20246,7 @@
     </row>
     <row r="227" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E227" s="16" t="s">
-        <v>2057</v>
+        <v>2051</v>
       </c>
       <c r="F227" s="16"/>
       <c r="G227" s="16"/>
@@ -20761,7 +20271,7 @@
     </row>
     <row r="228" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E228" s="16" t="s">
-        <v>2058</v>
+        <v>2052</v>
       </c>
       <c r="F228" s="16"/>
       <c r="G228" s="16"/>
@@ -20786,7 +20296,7 @@
     </row>
     <row r="229" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E229" s="16" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="F229" s="16"/>
       <c r="G229" s="16"/>
@@ -20811,7 +20321,7 @@
     </row>
     <row r="230" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E230" s="16" t="s">
-        <v>2060</v>
+        <v>2054</v>
       </c>
       <c r="F230" s="16"/>
       <c r="G230" s="16"/>
@@ -20836,7 +20346,7 @@
     </row>
     <row r="231" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E231" s="16" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="F231" s="16"/>
       <c r="G231" s="16"/>
@@ -20861,7 +20371,7 @@
     </row>
     <row r="232" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E232" s="16" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="F232" s="16"/>
       <c r="G232" s="16"/>
@@ -20886,7 +20396,7 @@
     </row>
     <row r="233" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E233" s="16" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="F233" s="16"/>
       <c r="G233" s="16"/>
@@ -20911,7 +20421,7 @@
     </row>
     <row r="234" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E234" s="16" t="s">
-        <v>2064</v>
+        <v>2058</v>
       </c>
       <c r="F234" s="16"/>
       <c r="G234" s="16"/>
@@ -20936,7 +20446,7 @@
     </row>
     <row r="235" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E235" s="16" t="s">
-        <v>2065</v>
+        <v>2059</v>
       </c>
       <c r="F235" s="16"/>
       <c r="G235" s="16"/>
@@ -20961,7 +20471,7 @@
     </row>
     <row r="236" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E236" s="16" t="s">
-        <v>2066</v>
+        <v>2060</v>
       </c>
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
@@ -20986,7 +20496,7 @@
     </row>
     <row r="237" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E237" s="16" t="s">
-        <v>2067</v>
+        <v>2061</v>
       </c>
       <c r="F237" s="16"/>
       <c r="G237" s="16"/>
@@ -21011,7 +20521,7 @@
     </row>
     <row r="238" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E238" s="16" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="F238" s="16"/>
       <c r="G238" s="16"/>
@@ -21036,7 +20546,7 @@
     </row>
     <row r="239" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E239" s="16" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
       <c r="F239" s="16"/>
       <c r="G239" s="16"/>
@@ -21061,7 +20571,7 @@
     </row>
     <row r="240" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E240" s="16" t="s">
-        <v>2070</v>
+        <v>2064</v>
       </c>
       <c r="F240" s="16"/>
       <c r="G240" s="16"/>
@@ -21086,7 +20596,7 @@
     </row>
     <row r="241" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E241" s="16" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="F241" s="16"/>
       <c r="G241" s="16"/>
@@ -21111,7 +20621,7 @@
     </row>
     <row r="242" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E242" s="16" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="F242" s="16"/>
       <c r="G242" s="16"/>
@@ -21136,7 +20646,7 @@
     </row>
     <row r="243" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E243" s="16" t="s">
-        <v>2073</v>
+        <v>2067</v>
       </c>
       <c r="F243" s="16"/>
       <c r="G243" s="16"/>
@@ -21161,7 +20671,7 @@
     </row>
     <row r="244" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E244" s="16" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
@@ -21186,7 +20696,7 @@
     </row>
     <row r="245" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E245" s="16" t="s">
-        <v>2075</v>
+        <v>2069</v>
       </c>
       <c r="F245" s="16"/>
       <c r="G245" s="16"/>
@@ -21211,7 +20721,7 @@
     </row>
     <row r="246" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E246" s="16" t="s">
-        <v>2076</v>
+        <v>2070</v>
       </c>
       <c r="F246" s="16"/>
       <c r="G246" s="16"/>
@@ -21236,7 +20746,7 @@
     </row>
     <row r="247" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E247" s="16" t="s">
-        <v>2077</v>
+        <v>2071</v>
       </c>
       <c r="F247" s="16"/>
       <c r="G247" s="16"/>
@@ -21261,7 +20771,7 @@
     </row>
     <row r="248" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E248" s="16" t="s">
-        <v>2078</v>
+        <v>2072</v>
       </c>
       <c r="F248" s="16"/>
       <c r="G248" s="16"/>
@@ -21286,7 +20796,7 @@
     </row>
     <row r="249" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E249" s="16" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
       <c r="F249" s="16"/>
       <c r="G249" s="16"/>
@@ -21311,7 +20821,7 @@
     </row>
     <row r="250" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E250" s="16" t="s">
-        <v>2080</v>
+        <v>2074</v>
       </c>
       <c r="F250" s="16"/>
       <c r="G250" s="16"/>
@@ -21336,7 +20846,7 @@
     </row>
     <row r="251" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E251" s="16" t="s">
-        <v>2081</v>
+        <v>2075</v>
       </c>
       <c r="F251" s="16"/>
       <c r="G251" s="16"/>
@@ -21361,7 +20871,7 @@
     </row>
     <row r="252" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E252" s="16" t="s">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="F252" s="16"/>
       <c r="G252" s="16"/>
@@ -21386,7 +20896,7 @@
     </row>
     <row r="253" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E253" s="16" t="s">
-        <v>2083</v>
+        <v>2077</v>
       </c>
       <c r="F253" s="16"/>
       <c r="G253" s="16"/>
@@ -21411,7 +20921,7 @@
     </row>
     <row r="254" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E254" s="16" t="s">
-        <v>2084</v>
+        <v>2078</v>
       </c>
       <c r="F254" s="16"/>
       <c r="G254" s="16"/>
@@ -21436,7 +20946,7 @@
     </row>
     <row r="255" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E255" s="16" t="s">
-        <v>2085</v>
+        <v>2079</v>
       </c>
       <c r="F255" s="16"/>
       <c r="G255" s="16"/>
@@ -21461,7 +20971,7 @@
     </row>
     <row r="256" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E256" s="16" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="F256" s="16"/>
       <c r="G256" s="16"/>
@@ -22013,7 +21523,7 @@
         <v>268</v>
       </c>
       <c r="AI2" s="15" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -22111,7 +21621,7 @@
         <v>269</v>
       </c>
       <c r="AI3" s="15" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -22209,7 +21719,7 @@
         <v>323</v>
       </c>
       <c r="AI4" s="15" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -22307,7 +21817,7 @@
         <v>324</v>
       </c>
       <c r="AI5" s="15" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -22405,7 +21915,7 @@
         <v>325</v>
       </c>
       <c r="AI6" s="15" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -22503,7 +22013,7 @@
         <v>326</v>
       </c>
       <c r="AI7" s="15" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -22601,7 +22111,7 @@
         <v>327</v>
       </c>
       <c r="AI8" s="15" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -22699,7 +22209,7 @@
         <v>328</v>
       </c>
       <c r="AI9" s="14" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -23124,14 +22634,14 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.59765625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="32.0" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="13.85546875" collapsed="true"/>
@@ -23247,10 +22757,10 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>2242</v>
+        <v>2209</v>
       </c>
       <c r="E2" t="s">
-        <v>2241</v>
+        <v>2208</v>
       </c>
       <c r="F2" t="s">
         <v>1522</v>
@@ -23322,10 +22832,10 @@
         <v>352</v>
       </c>
       <c r="AC2" t="s">
-        <v>2215</v>
+        <v>2189</v>
       </c>
       <c r="AD2" t="s">
-        <v>2224</v>
+        <v>2198</v>
       </c>
       <c r="AE2" t="s">
         <v>1545</v>
@@ -23333,10 +22843,10 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC3" t="s">
-        <v>2216</v>
+        <v>2190</v>
       </c>
       <c r="AD3" t="s">
-        <v>2225</v>
+        <v>2199</v>
       </c>
       <c r="AE3" t="s">
         <v>1546</v>
@@ -23344,10 +22854,10 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC4" t="s">
-        <v>2217</v>
+        <v>2191</v>
       </c>
       <c r="AD4" t="s">
-        <v>2226</v>
+        <v>2200</v>
       </c>
       <c r="AE4" t="s">
         <v>1547</v>
@@ -23355,7 +22865,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC5" t="s">
-        <v>2218</v>
+        <v>2192</v>
       </c>
       <c r="AE5" t="s">
         <v>73</v>
@@ -23363,27 +22873,27 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC6" t="s">
-        <v>2219</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC7" t="s">
-        <v>2220</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC8" t="s">
-        <v>2221</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC9" t="s">
-        <v>2222</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC10" t="s">
-        <v>2223</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" backupFile="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A5E09D-8B75-4E01-BBFC-D87C734155EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8273729-8168-4C18-9C6C-81376C8299EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="0" windowWidth="20280" windowHeight="10920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="0" windowWidth="20280" windowHeight="10920" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STG" sheetId="2" r:id="rId1"/>
@@ -6943,7 +6943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7364,503 +7364,509 @@
   <dimension ref="A1:BO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="15"/>
+    <col min="10" max="10" width="24.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="37.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="15"/>
+    <col min="20" max="20" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="37.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="44.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="44" width="9.140625" style="15"/>
+    <col min="45" max="45" width="8.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="9.140625" style="15"/>
+    <col min="50" max="50" width="4.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="36.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="28.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="59" width="9.140625" style="15"/>
+    <col min="60" max="60" width="26.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="37.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="8.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="14.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1684</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1678</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1681</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>1540</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>1680</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="19" t="s">
         <v>1679</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="19" t="s">
         <v>1548</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>1551</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="15" t="s">
         <v>2234</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="15" t="s">
         <v>2235</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="15" t="s">
         <v>2233</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="15" t="s">
         <v>1541</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="15" t="s">
         <v>1688</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="15" t="s">
         <v>1689</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="15" t="s">
         <v>1668</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="15" t="s">
         <v>1637</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="15" t="s">
         <v>1638</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="15" t="s">
         <v>2182</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="15" t="s">
         <v>2240</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AL2" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AM2" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AN2" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AO2" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AP2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AQ2" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AS2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AT2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AV2" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AW2" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AX2" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AY2" s="15" t="s">
         <v>2198</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AZ2" s="15" t="s">
         <v>2199</v>
       </c>
-      <c r="BA2" s="5" t="s">
+      <c r="BA2" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BB2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="BC2" s="5" t="s">
+      <c r="BC2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="BD2" s="5" t="s">
+      <c r="BD2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BE2" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="BF2" s="5" t="s">
+      <c r="BF2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="BG2" s="5" t="s">
+      <c r="BG2" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BH2" s="15" t="s">
         <v>2200</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BI2" s="15" t="s">
         <v>2236</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BJ2" s="15" t="s">
         <v>2233</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BK2" s="15" t="s">
         <v>2234</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BL2" s="15" t="s">
         <v>2235</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BM2" s="15" t="s">
         <v>1690</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BN2" s="15" t="s">
         <v>1562</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BO2" s="15" t="s">
         <v>2239</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="19" t="s">
         <v>1561</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="14" t="s">
         <v>1618</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="BO3" s="17" t="s">
+      <c r="BO3" s="14" t="s">
         <v>1617</v>
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
-      <c r="U4" t="s">
+      <c r="U4" s="15" t="s">
         <v>1669</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="AD5" s="3" t="s">
+      <c r="AD5" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7875,41 +7881,50 @@
   <dimension ref="A1:BO5"/>
   <sheetViews>
     <sheetView topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="BO1" sqref="BO1:BO2"/>
+      <selection activeCell="BL14" sqref="BL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="3.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="15"/>
+    <col min="4" max="4" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="15"/>
+    <col min="7" max="7" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="11" width="9.140625" style="15"/>
+    <col min="12" max="13" width="37.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.140625" style="15"/>
+    <col min="17" max="17" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="3.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="22" width="9.140625" style="15"/>
+    <col min="23" max="23" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="39.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="44" width="9.140625" style="15"/>
+    <col min="45" max="45" width="8.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="11.7109375" style="15" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="27.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="59" width="9.140625" style="15"/>
+    <col min="60" max="60" width="33" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="37.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="9.140625" style="15"/>
+    <col min="66" max="66" width="14.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -8161,7 +8176,6 @@
       <c r="O2" s="15" t="s">
         <v>1647</v>
       </c>
-      <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
         <v>1605</v>
       </c>
@@ -8243,7 +8257,6 @@
       <c r="AQ2" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="AR2" s="15"/>
       <c r="AS2" s="15" t="s">
         <v>86</v>
       </c>
@@ -8315,227 +8328,34 @@
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
       <c r="B3" s="14" t="s">
         <v>1586</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
       <c r="U3" s="14" t="s">
         <v>1619</v>
       </c>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
       <c r="AD3" s="20" t="s">
         <v>540</v>
       </c>
       <c r="AE3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="15"/>
-      <c r="BG3" s="15"/>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="15"/>
-      <c r="BK3" s="15"/>
-      <c r="BL3" s="15"/>
-      <c r="BM3" s="15"/>
-      <c r="BN3" s="15"/>
-      <c r="BO3" s="15"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
       <c r="AD4" s="20" t="s">
         <v>540</v>
       </c>
       <c r="AE4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="15"/>
-      <c r="BA4" s="15"/>
-      <c r="BB4" s="15"/>
-      <c r="BC4" s="15"/>
-      <c r="BD4" s="15"/>
-      <c r="BE4" s="15"/>
-      <c r="BF4" s="15"/>
-      <c r="BG4" s="15"/>
-      <c r="BH4" s="15"/>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="15"/>
-      <c r="BK4" s="15"/>
-      <c r="BL4" s="15"/>
-      <c r="BM4" s="15"/>
-      <c r="BN4" s="15"/>
-      <c r="BO4" s="15"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
       <c r="AD5" s="20" t="s">
         <v>540</v>
       </c>
       <c r="AE5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
-      <c r="AZ5" s="15"/>
-      <c r="BA5" s="15"/>
-      <c r="BB5" s="15"/>
-      <c r="BC5" s="15"/>
-      <c r="BD5" s="15"/>
-      <c r="BE5" s="15"/>
-      <c r="BF5" s="15"/>
-      <c r="BG5" s="15"/>
-      <c r="BH5" s="15"/>
-      <c r="BI5" s="15"/>
-      <c r="BJ5" s="15"/>
-      <c r="BK5" s="15"/>
-      <c r="BL5" s="15"/>
-      <c r="BM5" s="15"/>
-      <c r="BN5" s="15"/>
-      <c r="BO5" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9961,7 +9781,7 @@
   <dimension ref="A1:BO10"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10478,60 +10298,515 @@
       <c r="BO3" s="15"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="15" t="s">
         <v>1629</v>
       </c>
-      <c r="K4" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15" t="s">
         <v>1629</v>
       </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15"/>
+      <c r="BL4" s="15"/>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="15"/>
+      <c r="BO4" s="15"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="15" t="s">
         <v>1629</v>
       </c>
-      <c r="K5" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15" t="s">
         <v>1629</v>
       </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="15"/>
+      <c r="BC5" s="15"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="15"/>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="15"/>
+      <c r="BH5" s="15"/>
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15"/>
+      <c r="BL5" s="15"/>
+      <c r="BM5" s="15"/>
+      <c r="BN5" s="15"/>
+      <c r="BO5" s="15"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="15" t="s">
         <v>1624</v>
       </c>
-      <c r="K6" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15" t="s">
         <v>1624</v>
       </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="15"/>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="15"/>
+      <c r="BO6" s="15"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="15" t="s">
         <v>1629</v>
       </c>
-      <c r="K7" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15" t="s">
         <v>1629</v>
       </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="15"/>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="15"/>
+      <c r="BO7" s="15"/>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="15" t="s">
         <v>1630</v>
       </c>
-      <c r="K8" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15" t="s">
         <v>1630</v>
       </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="15"/>
+      <c r="BD8" s="15"/>
+      <c r="BE8" s="15"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="15"/>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="15"/>
+      <c r="BL8" s="15"/>
+      <c r="BM8" s="15"/>
+      <c r="BN8" s="15"/>
+      <c r="BO8" s="15"/>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="15" t="s">
         <v>1631</v>
       </c>
-      <c r="K9" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15" t="s">
         <v>1631</v>
       </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="15"/>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="15"/>
+      <c r="BO9" s="15"/>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="15" t="s">
         <v>1632</v>
       </c>
-      <c r="K10" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>1625</v>
       </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
+      <c r="BL10" s="15"/>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="15"/>
+      <c r="BO10" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10546,7 +10821,7 @@
   <dimension ref="A1:BO10"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11068,517 +11343,517 @@
       <c r="BO3" s="15"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>2158</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15" t="s">
         <v>1629</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="16"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="16"/>
-      <c r="BA4" s="16"/>
-      <c r="BB4" s="16"/>
-      <c r="BC4" s="16"/>
-      <c r="BD4" s="16"/>
-      <c r="BE4" s="16"/>
-      <c r="BF4" s="16"/>
-      <c r="BG4" s="16"/>
-      <c r="BH4" s="16"/>
-      <c r="BI4" s="16"/>
-      <c r="BJ4" s="16"/>
-      <c r="BK4" s="16"/>
-      <c r="BL4" s="16"/>
-      <c r="BM4" s="16"/>
-      <c r="BN4" s="16"/>
-      <c r="BO4" s="16"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15"/>
+      <c r="BL4" s="15"/>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="15"/>
+      <c r="BO4" s="15"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>2159</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15" t="s">
         <v>1629</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="16"/>
-      <c r="AP5" s="16"/>
-      <c r="AQ5" s="16"/>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="16"/>
-      <c r="AT5" s="16"/>
-      <c r="AU5" s="16"/>
-      <c r="AV5" s="16"/>
-      <c r="AW5" s="16"/>
-      <c r="AX5" s="16"/>
-      <c r="AY5" s="16"/>
-      <c r="AZ5" s="16"/>
-      <c r="BA5" s="16"/>
-      <c r="BB5" s="16"/>
-      <c r="BC5" s="16"/>
-      <c r="BD5" s="16"/>
-      <c r="BE5" s="16"/>
-      <c r="BF5" s="16"/>
-      <c r="BG5" s="16"/>
-      <c r="BH5" s="16"/>
-      <c r="BI5" s="16"/>
-      <c r="BJ5" s="16"/>
-      <c r="BK5" s="16"/>
-      <c r="BL5" s="16"/>
-      <c r="BM5" s="16"/>
-      <c r="BN5" s="16"/>
-      <c r="BO5" s="16"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="15"/>
+      <c r="BC5" s="15"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="15"/>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="15"/>
+      <c r="BH5" s="15"/>
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15"/>
+      <c r="BL5" s="15"/>
+      <c r="BM5" s="15"/>
+      <c r="BN5" s="15"/>
+      <c r="BO5" s="15"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>1682</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15" t="s">
         <v>1624</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="16"/>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="16"/>
-      <c r="BB6" s="16"/>
-      <c r="BC6" s="16"/>
-      <c r="BD6" s="16"/>
-      <c r="BE6" s="16"/>
-      <c r="BF6" s="16"/>
-      <c r="BG6" s="16"/>
-      <c r="BH6" s="16"/>
-      <c r="BI6" s="16"/>
-      <c r="BJ6" s="16"/>
-      <c r="BK6" s="16"/>
-      <c r="BL6" s="16"/>
-      <c r="BM6" s="16"/>
-      <c r="BN6" s="16"/>
-      <c r="BO6" s="16"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="15"/>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="15"/>
+      <c r="BO6" s="15"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>1685</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15" t="s">
         <v>1629</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="16"/>
-      <c r="AN7" s="16"/>
-      <c r="AO7" s="16"/>
-      <c r="AP7" s="16"/>
-      <c r="AQ7" s="16"/>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="16"/>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="16"/>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="16"/>
-      <c r="AX7" s="16"/>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16"/>
-      <c r="BC7" s="16"/>
-      <c r="BD7" s="16"/>
-      <c r="BE7" s="16"/>
-      <c r="BF7" s="16"/>
-      <c r="BG7" s="16"/>
-      <c r="BH7" s="16"/>
-      <c r="BI7" s="16"/>
-      <c r="BJ7" s="16"/>
-      <c r="BK7" s="16"/>
-      <c r="BL7" s="16"/>
-      <c r="BM7" s="16"/>
-      <c r="BN7" s="16"/>
-      <c r="BO7" s="16"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="15"/>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="15"/>
+      <c r="BO7" s="15"/>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>1686</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15" t="s">
         <v>1630</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="16"/>
-      <c r="AP8" s="16"/>
-      <c r="AQ8" s="16"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="16"/>
-      <c r="AT8" s="16"/>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="16"/>
-      <c r="AW8" s="16"/>
-      <c r="AX8" s="16"/>
-      <c r="AY8" s="16"/>
-      <c r="AZ8" s="16"/>
-      <c r="BA8" s="16"/>
-      <c r="BB8" s="16"/>
-      <c r="BC8" s="16"/>
-      <c r="BD8" s="16"/>
-      <c r="BE8" s="16"/>
-      <c r="BF8" s="16"/>
-      <c r="BG8" s="16"/>
-      <c r="BH8" s="16"/>
-      <c r="BI8" s="16"/>
-      <c r="BJ8" s="16"/>
-      <c r="BK8" s="16"/>
-      <c r="BL8" s="16"/>
-      <c r="BM8" s="16"/>
-      <c r="BN8" s="16"/>
-      <c r="BO8" s="16"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="15"/>
+      <c r="BD8" s="15"/>
+      <c r="BE8" s="15"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="15"/>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="15"/>
+      <c r="BL8" s="15"/>
+      <c r="BM8" s="15"/>
+      <c r="BN8" s="15"/>
+      <c r="BO8" s="15"/>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>1687</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15" t="s">
         <v>1631</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="16"/>
-      <c r="AQ9" s="16"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="16"/>
-      <c r="AX9" s="16"/>
-      <c r="AY9" s="16"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="16"/>
-      <c r="BE9" s="16"/>
-      <c r="BF9" s="16"/>
-      <c r="BG9" s="16"/>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="16"/>
-      <c r="BJ9" s="16"/>
-      <c r="BK9" s="16"/>
-      <c r="BL9" s="16"/>
-      <c r="BM9" s="16"/>
-      <c r="BN9" s="16"/>
-      <c r="BO9" s="16"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="15"/>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="15"/>
+      <c r="BO9" s="15"/>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>1683</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>1625</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="16"/>
-      <c r="AX10" s="16"/>
-      <c r="AY10" s="16"/>
-      <c r="AZ10" s="16"/>
-      <c r="BA10" s="16"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="16"/>
-      <c r="BD10" s="16"/>
-      <c r="BE10" s="16"/>
-      <c r="BF10" s="16"/>
-      <c r="BG10" s="16"/>
-      <c r="BH10" s="16"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="16"/>
-      <c r="BK10" s="16"/>
-      <c r="BL10" s="16"/>
-      <c r="BM10" s="16"/>
-      <c r="BN10" s="16"/>
-      <c r="BO10" s="16"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
+      <c r="BL10" s="15"/>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="15"/>
+      <c r="BO10" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11592,8 +11867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
   <dimension ref="A1:BO10"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12582,7 +12857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BO6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" backupFile="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8273729-8168-4C18-9C6C-81376C8299EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C645148-B5EE-491E-95DF-9A59E7F29E4F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="210" yWindow="0" windowWidth="20280" windowHeight="10920" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6636,9 +6636,6 @@
     <t>70001136</t>
   </si>
   <si>
-    <t>70001138</t>
-  </si>
-  <si>
     <t>Healthcare: Outpatient Office (Diagnostic)</t>
   </si>
   <si>
@@ -6769,6 +6766,9 @@
   </si>
   <si>
     <t>2019-12-01</t>
+  </si>
+  <si>
+    <t>70001906</t>
   </si>
 </sst>
 </file>
@@ -6931,6 +6931,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6943,7 +6944,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7653,13 +7653,13 @@
         <v>1551</v>
       </c>
       <c r="L2" s="15" t="s">
+        <v>2233</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>2234</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>2235</v>
-      </c>
       <c r="N2" s="15" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="P2" s="15" t="s">
         <v>1541</v>
@@ -7695,7 +7695,7 @@
         <v>2182</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>16</v>
@@ -7764,10 +7764,10 @@
         <v>461</v>
       </c>
       <c r="AY2" s="15" t="s">
+        <v>2197</v>
+      </c>
+      <c r="AZ2" s="15" t="s">
         <v>2198</v>
-      </c>
-      <c r="AZ2" s="15" t="s">
-        <v>2199</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -7791,19 +7791,19 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="BJ2" s="15" t="s">
+        <v>2232</v>
+      </c>
+      <c r="BK2" s="15" t="s">
         <v>2233</v>
       </c>
-      <c r="BK2" s="15" t="s">
+      <c r="BL2" s="15" t="s">
         <v>2234</v>
-      </c>
-      <c r="BL2" s="15" t="s">
-        <v>2235</v>
       </c>
       <c r="BM2" s="15" t="s">
         <v>1690</v>
@@ -7812,7 +7812,7 @@
         <v>1562</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -7842,7 +7842,7 @@
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
+      <c r="B4" s="27"/>
       <c r="U4" s="15" t="s">
         <v>1669</v>
       </c>
@@ -8414,13 +8414,13 @@
       <c r="A2" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8428,11 +8428,11 @@
       <c r="A3" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -8444,17 +8444,17 @@
       <c r="C4" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -8466,11 +8466,11 @@
       <c r="C5" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -8482,13 +8482,13 @@
       <c r="C6" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="31" t="s">
         <v>383</v>
       </c>
     </row>
@@ -8502,11 +8502,11 @@
       <c r="C7" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -8518,13 +8518,13 @@
       <c r="C8" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="30" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="31" t="s">
         <v>384</v>
       </c>
     </row>
@@ -8538,11 +8538,11 @@
       <c r="C9" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -8557,10 +8557,10 @@
       <c r="D10" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -8584,7 +8584,7 @@
       <c r="G11" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="H11" s="28"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -8599,10 +8599,10 @@
       <c r="D12" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -8617,10 +8617,10 @@
       <c r="D13" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
@@ -9739,7 +9739,7 @@
         <v>1558</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>169</v>
@@ -11262,7 +11262,7 @@
         <v>2150</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -11868,7 +11868,7 @@
   <dimension ref="A1:BO10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="A1:XFD1048576"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12119,10 +12119,10 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>652</v>
@@ -12161,25 +12161,25 @@
         <v>447</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="Q2" s="25" t="s">
+        <v>2205</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>2206</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>2207</v>
       </c>
       <c r="S2" s="25" t="s">
         <v>659</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="U2" s="25" t="s">
+        <v>2200</v>
+      </c>
+      <c r="V2" s="25" t="s">
         <v>2201</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>2202</v>
       </c>
       <c r="W2" s="25" t="s">
         <v>2120</v>
@@ -12191,10 +12191,10 @@
         <v>620</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="AB2" s="26" t="s">
         <v>662</v>
@@ -12248,7 +12248,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="25" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="AU2" s="25" t="s">
         <v>87</v>
@@ -12263,10 +12263,10 @@
         <v>144</v>
       </c>
       <c r="AY2" s="25" t="s">
+        <v>2216</v>
+      </c>
+      <c r="AZ2" s="25" t="s">
         <v>2217</v>
-      </c>
-      <c r="AZ2" s="25" t="s">
-        <v>2218</v>
       </c>
       <c r="BA2" s="24" t="s">
         <v>420</v>
@@ -12290,10 +12290,10 @@
         <v>411</v>
       </c>
       <c r="BH2" s="25" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="BI2" s="25" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BJ2" s="25" t="s">
         <v>447</v>
@@ -12305,7 +12305,7 @@
         <v>447</v>
       </c>
       <c r="BM2" s="25" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="BN2" s="25" t="s">
         <v>2150</v>
@@ -12319,7 +12319,7 @@
         <v>1559</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>2197</v>
+        <v>2241</v>
       </c>
       <c r="AD3" s="26" t="s">
         <v>540</v>
@@ -12330,7 +12330,7 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="K4" s="25" t="s">
         <v>1629</v>
@@ -12341,7 +12341,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>1629</v>
@@ -12357,7 +12357,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>1629</v>
@@ -12365,7 +12365,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>1630</v>
@@ -12373,7 +12373,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>1631</v>
@@ -12381,7 +12381,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>1625</v>
@@ -13176,7 +13176,7 @@
         <v>1653</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -14030,7 +14030,7 @@
         <v>60</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>1518</v>
@@ -14057,7 +14057,7 @@
         <v>2117</v>
       </c>
       <c r="AE2" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -14117,7 +14117,7 @@
         <v>60</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>1517</v>
@@ -14141,7 +14141,7 @@
         <v>200</v>
       </c>
       <c r="AE3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -14201,7 +14201,7 @@
         <v>60</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>1519</v>
@@ -14225,7 +14225,7 @@
         <v>199</v>
       </c>
       <c r="AE4" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -14285,7 +14285,7 @@
         <v>60</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="W5" s="15" t="s">
         <v>1520</v>
@@ -14309,7 +14309,7 @@
         <v>199</v>
       </c>
       <c r="AE5" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -14389,7 +14389,7 @@
         <v>99</v>
       </c>
       <c r="AE6" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -14469,7 +14469,7 @@
         <v>199</v>
       </c>
       <c r="AE7" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -14549,7 +14549,7 @@
         <v>99</v>
       </c>
       <c r="AE8" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -14629,7 +14629,7 @@
         <v>299</v>
       </c>
       <c r="AE9" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -14709,7 +14709,7 @@
         <v>100</v>
       </c>
       <c r="AE10" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -14789,7 +14789,7 @@
         <v>222</v>
       </c>
       <c r="AE11" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -14865,7 +14865,7 @@
         <v>88</v>
       </c>
       <c r="AE12" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -14931,7 +14931,7 @@
         <v>99</v>
       </c>
       <c r="AE13" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -23026,10 +23026,10 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E2" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="F2" t="s">
         <v>1521</v>
@@ -23041,7 +23041,7 @@
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="J2" t="s">
         <v>87</v>

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1" backupFile="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C645148-B5EE-491E-95DF-9A59E7F29E4F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr backupFile="1" defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9B76E98D-3512-426A-9940-5EAF7AA325BA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="0" windowWidth="20280" windowHeight="10920" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="14" firstSheet="6" windowHeight="10920" windowWidth="20280" xWindow="210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="STG" sheetId="2" r:id="rId1"/>
-    <sheet name="Credit" sheetId="13" r:id="rId2"/>
-    <sheet name="QAS" sheetId="19" r:id="rId3"/>
-    <sheet name="Emission" sheetId="20" r:id="rId4"/>
-    <sheet name="DataInput" sheetId="11" r:id="rId5"/>
-    <sheet name="Graphs" sheetId="16" r:id="rId6"/>
-    <sheet name="LEEDONLINE" sheetId="12" r:id="rId7"/>
-    <sheet name="Manual" sheetId="15" r:id="rId8"/>
-    <sheet name="Score" sheetId="14" r:id="rId9"/>
-    <sheet name="DEV" sheetId="4" r:id="rId10"/>
-    <sheet name="Material" sheetId="18" r:id="rId11"/>
-    <sheet name="MeterData" sheetId="21" r:id="rId12"/>
-    <sheet name="DEV2" sheetId="22" r:id="rId13"/>
-    <sheet name="STG2" sheetId="23" r:id="rId14"/>
-    <sheet name="QAS2" sheetId="24" r:id="rId15"/>
+    <sheet name="STG" r:id="rId1" sheetId="2"/>
+    <sheet name="Credit" r:id="rId2" sheetId="13"/>
+    <sheet name="QAS" r:id="rId3" sheetId="19"/>
+    <sheet name="Emission" r:id="rId4" sheetId="20"/>
+    <sheet name="DataInput" r:id="rId5" sheetId="11"/>
+    <sheet name="Graphs" r:id="rId6" sheetId="16"/>
+    <sheet name="LEEDONLINE" r:id="rId7" sheetId="12"/>
+    <sheet name="Manual" r:id="rId8" sheetId="15"/>
+    <sheet name="Score" r:id="rId9" sheetId="14"/>
+    <sheet name="DEV" r:id="rId10" sheetId="4"/>
+    <sheet name="Material" r:id="rId11" sheetId="18"/>
+    <sheet name="MeterData" r:id="rId12" sheetId="21"/>
+    <sheet name="DEV2" r:id="rId13" sheetId="22"/>
+    <sheet name="STG2" r:id="rId14" sheetId="23"/>
+    <sheet name="QAS2" r:id="rId15" sheetId="24"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId16"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="2242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4892" uniqueCount="2465">
   <si>
     <t>FileID</t>
   </si>
@@ -6768,7 +6768,676 @@
     <t>2019-12-01</t>
   </si>
   <si>
-    <t>70001906</t>
+    <t>70001137</t>
+  </si>
+  <si>
+    <t>Bearer GZYmAVEaPfEnpLkoDQymHMujqDGdjA</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>1.0897346E7</t>
+  </si>
+  <si>
+    <t>12281</t>
+  </si>
+  <si>
+    <t>32000.0</t>
+  </si>
+  <si>
+    <t>Bearer Edw4QMNAP7CW0FF4QKwIorsqJDabs0</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Retail: Fast Food</t>
+  </si>
+  <si>
+    <t>Investor: REIT, Non-traded</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-83502</t>
+  </si>
+  <si>
+    <t>8000000617</t>
+  </si>
+  <si>
+    <t>1065309</t>
+  </si>
+  <si>
+    <t>1065308</t>
+  </si>
+  <si>
+    <t>7174983</t>
+  </si>
+  <si>
+    <t>5.648676</t>
+  </si>
+  <si>
+    <t>0.358362</t>
+  </si>
+  <si>
+    <t>0.7181607116281641</t>
+  </si>
+  <si>
+    <t>0.718161</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Single family home (attached)</t>
+  </si>
+  <si>
+    <t>Educational: Community College, Public</t>
+  </si>
+  <si>
+    <t>US-API-Transit-Aboveground-38882</t>
+  </si>
+  <si>
+    <t>1000175344</t>
+  </si>
+  <si>
+    <t>0011048771</t>
+  </si>
+  <si>
+    <t>1065323</t>
+  </si>
+  <si>
+    <t>1065315</t>
+  </si>
+  <si>
+    <t>7174997</t>
+  </si>
+  <si>
+    <t>5.805818</t>
+  </si>
+  <si>
+    <t>0.71884</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Government Use: Other (utility, airport, etc.)</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-16211</t>
+  </si>
+  <si>
+    <t>8000000618</t>
+  </si>
+  <si>
+    <t>Bearer Z33Xxw27ID5lo0OrEKzpG0w95mUSL4</t>
+  </si>
+  <si>
+    <t>Bearer tFmjXMJYDb8vaDsGnYxwCJTBHlwmCv</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Service: Other Service</t>
+  </si>
+  <si>
+    <t>Educational: University, Private</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-94502</t>
+  </si>
+  <si>
+    <t>1000094349</t>
+  </si>
+  <si>
+    <t>0011108223</t>
+  </si>
+  <si>
+    <t>2763057</t>
+  </si>
+  <si>
+    <t>2763056</t>
+  </si>
+  <si>
+    <t>20476748</t>
+  </si>
+  <si>
+    <t>Bearer 5F8F1d5GmoLK9UJo4KNZkw39vd9RGC</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Public Assembly: Recreation</t>
+  </si>
+  <si>
+    <t>Educational: Community College, Private</t>
+  </si>
+  <si>
+    <t>US-API-Transit-Aboveground-50749</t>
+  </si>
+  <si>
+    <t>1000094350</t>
+  </si>
+  <si>
+    <t>0011108224</t>
+  </si>
+  <si>
+    <t>Bearer N07NgIhVI8efeH4caC0MSkRh2bCPn7</t>
+  </si>
+  <si>
+    <t>Bearer a0W37pw9miSaGbywSVscsNyMoVQO1J</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Service: Repair Shop</t>
+  </si>
+  <si>
+    <t>Government Use: Local, County</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-16658</t>
+  </si>
+  <si>
+    <t>8000000619</t>
+  </si>
+  <si>
+    <t>tw6cX9gHBXUEwYYjRZ7jdmVn</t>
+  </si>
+  <si>
+    <t>1065393</t>
+  </si>
+  <si>
+    <t>1065394</t>
+  </si>
+  <si>
+    <t>241211</t>
+  </si>
+  <si>
+    <t>Bearer AAiKyuijk6KlaXnvM8b6CuHtRsFC4T</t>
+  </si>
+  <si>
+    <t>Bearer cqthnYxinNw8IxDDu8ooiM9ci64EXk</t>
+  </si>
+  <si>
+    <t>Bearer J4VjJbMBUw8dGmDCEJBSB9u7iQmVYP</t>
+  </si>
+  <si>
+    <t>Warehouse: Self Storage Units</t>
+  </si>
+  <si>
+    <t>Educational: College, Private</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Healthcare: Clinic/Other Outpatient</t>
+  </si>
+  <si>
+    <t>Investor: Investment Manager</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-61864</t>
+  </si>
+  <si>
+    <t>Bearer 7qG1qOdDSiKT3PUWmUj7SfRYbZnRCy</t>
+  </si>
+  <si>
+    <t>Bearer 10vJbAZK2Wix73gE3BtFiUOGdb0ZCF</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Airport: Distribution Center</t>
+  </si>
+  <si>
+    <t>Government Use: Local, Public Housing Authority</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-74343</t>
+  </si>
+  <si>
+    <t>8000000136</t>
+  </si>
+  <si>
+    <t>8ixHutV4X8JUi2aHJCuaIGnu</t>
+  </si>
+  <si>
+    <t>2763091</t>
+  </si>
+  <si>
+    <t>2763092</t>
+  </si>
+  <si>
+    <t>696986</t>
+  </si>
+  <si>
+    <t>2763084</t>
+  </si>
+  <si>
+    <t>2763082</t>
+  </si>
+  <si>
+    <t>Bearer HryHYfoXibWwvW547FLcLIo191KhRn</t>
+  </si>
+  <si>
+    <t>Bearer FHqOKHwzKmcR5yVRi318g49ZzI972f</t>
+  </si>
+  <si>
+    <t>Bearer Kjci7dwGRqBLJH7PEXh2gnia8g1ZWB</t>
+  </si>
+  <si>
+    <t>Retail: Enclosed Mall</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-54012</t>
+  </si>
+  <si>
+    <t>Bearer rhzrt1EDLnBVdITtUDSyl9i8i62Wj4</t>
+  </si>
+  <si>
+    <t>Bearer 6SZerOMZD9ayMqQABrpTwe6rw6ngJQ</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Transit: Station</t>
+  </si>
+  <si>
+    <t>Educational: Early Childhood Education/Daycare</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-31718</t>
+  </si>
+  <si>
+    <t>8000000137</t>
+  </si>
+  <si>
+    <t>ZKjAzDJpQNmJm62EJd5vUhwB</t>
+  </si>
+  <si>
+    <t>2763121</t>
+  </si>
+  <si>
+    <t>2763119</t>
+  </si>
+  <si>
+    <t>2763128</t>
+  </si>
+  <si>
+    <t>2763129</t>
+  </si>
+  <si>
+    <t>696987</t>
+  </si>
+  <si>
+    <t>Bearer zWdAA9Lq29tfLikZGEWoWzMMukK0Qs</t>
+  </si>
+  <si>
+    <t>Bearer kZ3YGW6g92x7hiqVGlBWlSK5w9J9oB</t>
+  </si>
+  <si>
+    <t>Bearer 9CumtLo63ZVc5dM5gxNsNyVET5I7ap</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Government Use: Local, City</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-44715</t>
+  </si>
+  <si>
+    <t>Bearer HI4sVBt5N8TJoladKStYTQQXJlsDcY</t>
+  </si>
+  <si>
+    <t>Bearer FrR82d9kCxFwRwYl9ooQJWcDuy9imX</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Service: Post Office/Postal Center</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-94888</t>
+  </si>
+  <si>
+    <t>8000000138</t>
+  </si>
+  <si>
+    <t>7my6vQpEyOYDgjDo3OoRUwYZ</t>
+  </si>
+  <si>
+    <t>2763157</t>
+  </si>
+  <si>
+    <t>2763156</t>
+  </si>
+  <si>
+    <t>2763165</t>
+  </si>
+  <si>
+    <t>2763166</t>
+  </si>
+  <si>
+    <t>696988</t>
+  </si>
+  <si>
+    <t>Bearer iRroSpXjoFkvPkr1S0KW4Eue02tjmc</t>
+  </si>
+  <si>
+    <t>Bearer rFKvJu3YVC9l9AcdOLTu6Z6XlIpNtW</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Transit: Office</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-01955</t>
+  </si>
+  <si>
+    <t>8000000139</t>
+  </si>
+  <si>
+    <t>ZY2o8XbmWEA5Qn9aGlCqVFgX</t>
+  </si>
+  <si>
+    <t>2763196</t>
+  </si>
+  <si>
+    <t>2763194</t>
+  </si>
+  <si>
+    <t>2763202</t>
+  </si>
+  <si>
+    <t>2763203</t>
+  </si>
+  <si>
+    <t>696989</t>
+  </si>
+  <si>
+    <t>Bearer hKjhjJkLZb4NdzHyLVmKYb4gfll0CA</t>
+  </si>
+  <si>
+    <t>Bearer TapqlB2QS31hFGcNdsgPvI3tuCzpRB</t>
+  </si>
+  <si>
+    <t>Lodging: Other lodging</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-10516</t>
+  </si>
+  <si>
+    <t>8000000140</t>
+  </si>
+  <si>
+    <t>FctPmyte32MDwVTrpQuyBPXB</t>
+  </si>
+  <si>
+    <t>2763231</t>
+  </si>
+  <si>
+    <t>2763230</t>
+  </si>
+  <si>
+    <t>2763239</t>
+  </si>
+  <si>
+    <t>2763240</t>
+  </si>
+  <si>
+    <t>696990</t>
+  </si>
+  <si>
+    <t>Bearer Ahhextg7HByzmmhMrYw6k8sWSRi3Y3</t>
+  </si>
+  <si>
+    <t>Data Center</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS85</t>
+  </si>
+  <si>
+    <t>1000147202</t>
+  </si>
+  <si>
+    <t>Bearer TvswDh4hD98RIFvWqMgqu4W5QyPCM7</t>
+  </si>
+  <si>
+    <t>0000000010000000000144897</t>
+  </si>
+  <si>
+    <t>EA01F8441D7BB6F1A60F0AE29B08431D</t>
+  </si>
+  <si>
+    <t>EA01F8441D7BB8F1A60F0AE29B08431D</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000147202</t>
+  </si>
+  <si>
+    <t>19265</t>
+  </si>
+  <si>
+    <t>19264</t>
+  </si>
+  <si>
+    <t>19263</t>
+  </si>
+  <si>
+    <t>19262</t>
+  </si>
+  <si>
+    <t>19261</t>
+  </si>
+  <si>
+    <t>19260</t>
+  </si>
+  <si>
+    <t>19259</t>
+  </si>
+  <si>
+    <t>19258</t>
+  </si>
+  <si>
+    <t>19257</t>
+  </si>
+  <si>
+    <t>19256</t>
+  </si>
+  <si>
+    <t>168222</t>
+  </si>
+  <si>
+    <t>168223</t>
+  </si>
+  <si>
+    <t>168224</t>
+  </si>
+  <si>
+    <t>168225</t>
+  </si>
+  <si>
+    <t>168226</t>
+  </si>
+  <si>
+    <t>168227</t>
+  </si>
+  <si>
+    <t>168228</t>
+  </si>
+  <si>
+    <t>168229</t>
+  </si>
+  <si>
+    <t>168230</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>19267</t>
+  </si>
+  <si>
+    <t>19266</t>
+  </si>
+  <si>
+    <t>19248</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Public Assembly: Stadium/Arena</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS92</t>
+  </si>
+  <si>
+    <t>1000147204</t>
+  </si>
+  <si>
+    <t>Bearer FsiXbCCcPhCe0ZAYezJZbDi5wY491y</t>
+  </si>
+  <si>
+    <t>0000000010000000000144899</t>
+  </si>
+  <si>
+    <t>EA01F9526EC86CF1A60F0AE29B08431D</t>
+  </si>
+  <si>
+    <t>EA01F9526EC86EF1A60F0AE29B08431D</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000147204</t>
+  </si>
+  <si>
+    <t>Bearer cfu3AKekSNQ1Zdent85Id112K4qUgM</t>
+  </si>
+  <si>
+    <t>Bearer Oa3j9e3zilMtDB6BM6V3L7dXh9r7gg</t>
+  </si>
+  <si>
+    <t>Bearer eEUqykjSwGwXChKcI3KiY2zg5ZNb35</t>
+  </si>
+  <si>
+    <t>Bearer llZeKRpoxxwliP5zaBcivBMjOhyYpU</t>
+  </si>
+  <si>
+    <t>Bearer JaM0oWp6KsHQiYjnNN2jZf2s2hdTQq</t>
+  </si>
+  <si>
+    <t>Bearer Sh9u7KuKYURJlP1xTyOEptLIw38jNv</t>
+  </si>
+  <si>
+    <t>Bearer YI83vwXnnwC8j0h73Awh6smaxNQwfQ</t>
+  </si>
+  <si>
+    <t>Bearer 1RWKHQmBniuifrevoc24Eryn9S1WPh</t>
+  </si>
+  <si>
+    <t>Bearer aKPBTHlGcpHroew3u5GrCiQZxA6hOC</t>
+  </si>
+  <si>
+    <t>Bearer jYYGDm4bc6onHFNQXd99mF9z9EYejq</t>
+  </si>
+  <si>
+    <t>Bearer JvVIUhp43py3ks1TfL8M0ZRGzwwedV</t>
+  </si>
+  <si>
+    <t>19270</t>
+  </si>
+  <si>
+    <t>Bearer 3BPyewtgc6hCZEfxSMzrofLp3GM3p4</t>
+  </si>
+  <si>
+    <t>Bearer d6ljuuLGJ0E6515EaHpFuvAH4Mnhmu</t>
+  </si>
+  <si>
+    <t>Public Assembly: Convention Center</t>
+  </si>
+  <si>
+    <t>Business Improvement District</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-02961</t>
+  </si>
+  <si>
+    <t>8000000066</t>
+  </si>
+  <si>
+    <t>Bearer ZulHHk8eSkqoyBeZ1WlIHHXkJnAYBv</t>
+  </si>
+  <si>
+    <t>Bearer FftTM2O27S8DShQj7jGFYlJLS1z82x</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>81185.4</t>
+  </si>
+  <si>
+    <t>13763.9</t>
   </si>
 </sst>
 </file>
@@ -6876,79 +7545,79 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="164"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="3"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="3">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="3"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="4">
@@ -6993,7 +7662,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7045,10 +7714,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7083,7 +7752,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7135,7 +7804,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7240,7 +7909,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -7249,13 +7918,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -7265,7 +7934,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -7274,7 +7943,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7283,7 +7952,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7293,12 +7962,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -7329,7 +7998,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -7348,7 +8017,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -7360,8 +8029,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -7369,52 +8038,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="15"/>
-    <col min="10" max="10" width="24.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="15"/>
-    <col min="20" max="20" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="44.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="44" width="9.140625" style="15"/>
-    <col min="45" max="45" width="8.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="9.140625" style="15"/>
-    <col min="50" max="50" width="4.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="36.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="28.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="59" width="9.140625" style="15"/>
-    <col min="60" max="60" width="26.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="15" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="21.0" collapsed="true"/>
+    <col min="9" max="9" style="15" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="15" width="24.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="15" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="15" width="37.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="26.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="15" width="23.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="5.42578125" collapsed="true"/>
+    <col min="19" max="19" style="15" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="15" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="15" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="15" width="37.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="15" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="15" width="44.42578125" collapsed="true"/>
+    <col min="28" max="44" style="15" width="9.140625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="15" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="15" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
+    <col min="49" max="49" style="15" width="9.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="15" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="15" width="36.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="15" width="28.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
+    <col min="55" max="59" style="15" width="9.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="15" width="26.7109375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="15" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="15" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" style="15" width="37.140625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="15" width="8.7109375" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="15" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="15" width="12.140625" collapsed="true"/>
+    <col min="68" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -7871,14 +8540,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:BO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView topLeftCell="BK1" workbookViewId="0">
       <selection activeCell="BL14" sqref="BL14"/>
@@ -7886,45 +8555,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="15"/>
-    <col min="4" max="4" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="15"/>
-    <col min="7" max="7" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="11" width="9.140625" style="15"/>
-    <col min="12" max="13" width="37.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="15"/>
-    <col min="17" max="17" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="3.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="22" width="9.140625" style="15"/>
-    <col min="23" max="23" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="39.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="44" width="9.140625" style="15"/>
-    <col min="45" max="45" width="8.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="11.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="59" width="9.140625" style="15"/>
-    <col min="60" max="60" width="33" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="9.140625" style="15"/>
-    <col min="66" max="66" width="14.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="21.72265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" style="15" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="5" max="6" style="15" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
+    <col min="8" max="11" style="15" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="15" width="37.51953125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="15" width="37.51953125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="28.91015625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="26.0" collapsed="true"/>
+    <col min="16" max="16" style="15" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="8.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="3.28515625" collapsed="true"/>
+    <col min="19" max="19" style="15" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="14.4140625" collapsed="true"/>
+    <col min="21" max="22" style="15" width="9.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="15" width="24.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="15" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="8.51171875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="15" width="41.46484375" collapsed="true"/>
+    <col min="28" max="44" style="15" width="9.140625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="15" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="15" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="15" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="15" width="13.1796875" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="15" width="11.7109375" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="15" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="15" width="13.69921875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="15" width="24.86328125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="15" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="15" width="14.2265625" collapsed="true"/>
+    <col min="55" max="59" style="15" width="9.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="15" width="32.95703125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="15" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="15" width="28.91015625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="15" width="37.51953125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="15" width="37.51953125" collapsed="true"/>
+    <col min="65" max="65" style="15" width="9.140625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="15" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="15" width="12.1875" collapsed="true"/>
+    <col min="68" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -8132,7 +8805,7 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1583</v>
+        <v>2457</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1646</v>
@@ -8165,13 +8838,13 @@
         <v>658</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>1602</v>
+        <v>2437</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>1603</v>
+        <v>2438</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>1601</v>
+        <v>2436</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>1647</v>
@@ -8186,7 +8859,7 @@
         <v>659</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>130</v>
+        <v>2427</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>660</v>
@@ -8204,10 +8877,10 @@
         <v>620</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>1581</v>
+        <v>2415</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>1649</v>
+        <v>2458</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>662</v>
@@ -8261,7 +8934,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>1648</v>
+        <v>2236</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -8276,10 +8949,10 @@
         <v>144</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>1650</v>
+        <v>2454</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>1645</v>
+        <v>2455</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -8303,19 +8976,19 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>1651</v>
+        <v>2456</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>1604</v>
+        <v>2439</v>
       </c>
       <c r="BJ2" s="15" t="s">
-        <v>1601</v>
+        <v>2436</v>
       </c>
       <c r="BK2" s="15" t="s">
-        <v>1602</v>
+        <v>2437</v>
       </c>
       <c r="BL2" s="15" t="s">
-        <v>1603</v>
+        <v>2438</v>
       </c>
       <c r="BM2" s="15" t="s">
         <v>1549</v>
@@ -8324,7 +8997,7 @@
         <v>1560</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>1585</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -8359,15 +9032,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8375,16 +9048,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="14.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.85546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" hidden="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="26.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="21.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="29.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="10" width="20.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>356</v>
       </c>
@@ -8410,7 +9083,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>407</v>
       </c>
@@ -8424,7 +9097,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>408</v>
       </c>
@@ -8661,14 +9334,14 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D6:D7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="90" orientation="portrait" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
-  <dimension ref="A1:E63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -8676,11 +9349,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>1553</v>
       </c>
@@ -9753,32 +10426,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A16 A2:A3">
-    <cfRule type="timePeriod" dxfId="3" priority="3" timePeriod="lastMonth">
+    <cfRule dxfId="3" priority="3" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A2)=MONTH(EDATE(TODAY(),0-1)),YEAR(A2)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="timePeriod" dxfId="2" priority="5" timePeriod="lastMonth">
+    <cfRule dxfId="2" priority="5" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A5)=MONTH(EDATE(TODAY(),0-1)),YEAR(A5)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A15">
-    <cfRule type="timePeriod" dxfId="1" priority="4" timePeriod="lastMonth">
+    <cfRule dxfId="1" priority="4" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A6)=MONTH(EDATE(TODAY(),0-1)),YEAR(A6)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">
+    <cfRule dxfId="0" priority="1" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A4)=MONTH(EDATE(TODAY(),0-1)),YEAR(A4)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="Y16" sqref="Y16"/>
@@ -9786,38 +10459,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="41.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="43.8125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -10101,7 +10774,7 @@
         <v>1627</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>1639</v>
+        <v>2459</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>662</v>
@@ -10299,7 +10972,7 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>1629</v>
+        <v>2460</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -10372,7 +11045,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>1629</v>
+        <v>1682</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -10445,7 +11118,7 @@
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>1624</v>
+        <v>2461</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -10518,7 +11191,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>1629</v>
+        <v>2462</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -10591,7 +11264,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>1630</v>
+        <v>2463</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -10664,7 +11337,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>1631</v>
+        <v>2244</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -10737,7 +11410,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>1632</v>
+        <v>2464</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -10810,15 +11483,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="Z15" sqref="Z15"/>
@@ -10826,41 +11499,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="41.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.01953125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="39.62109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="28.2265625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="26.5078125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.12890625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -11071,7 +11745,7 @@
         <v>1715</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2147</v>
+        <v>2300</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>652</v>
@@ -11086,7 +11760,7 @@
         <v>1692</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2097</v>
+        <v>2265</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>2116</v>
@@ -11110,11 +11784,11 @@
         <v>2121</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>2148</v>
+        <v>2301</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
-        <v>2149</v>
+        <v>2302</v>
       </c>
       <c r="R2" s="15" t="s">
         <v>2118</v>
@@ -11144,7 +11818,7 @@
         <v>2145</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2161</v>
+        <v>2307</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>662</v>
@@ -11199,7 +11873,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>1672</v>
+        <v>2310</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -11211,13 +11885,13 @@
         <v>663</v>
       </c>
       <c r="AX2" s="15" t="s">
-        <v>461</v>
+        <v>144</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>2156</v>
+        <v>2311</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>1652</v>
+        <v>2312</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -11241,7 +11915,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2157</v>
+        <v>2313</v>
       </c>
       <c r="BI2" s="15" t="s">
         <v>2124</v>
@@ -11256,10 +11930,10 @@
         <v>2123</v>
       </c>
       <c r="BM2" s="15" t="s">
-        <v>2151</v>
+        <v>2304</v>
       </c>
       <c r="BN2" s="15" t="s">
-        <v>2150</v>
+        <v>2303</v>
       </c>
       <c r="BO2" s="15" t="s">
         <v>2231</v>
@@ -11344,7 +12018,7 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>2158</v>
+        <v>692</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -11419,7 +12093,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>2159</v>
+        <v>717</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -11492,7 +12166,7 @@
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>1682</v>
+        <v>2243</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -11565,7 +12239,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>1685</v>
+        <v>2244</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -11638,7 +12312,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>1686</v>
+        <v>2245</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -11711,7 +12385,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>1687</v>
+        <v>2246</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -11784,7 +12458,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>1683</v>
+        <v>2247</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -11857,15 +12531,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
@@ -11873,45 +12547,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.42578125" style="25" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.7109375" style="25" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="25" customWidth="1" collapsed="1"/>
-    <col min="6" max="11" width="9.140625" style="25" collapsed="1"/>
-    <col min="12" max="13" width="37.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="25" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="25" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="25" width="9.140625" style="25" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="39" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="44" width="9.140625" style="25" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="9.140625" style="25" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="33.42578125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="24.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="59" width="9.140625" style="25" collapsed="1"/>
-    <col min="60" max="60" width="27.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="12.85546875" style="25" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="16384" width="9.140625" style="25" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="25" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="25" width="21.33984375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="25" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="25" width="20.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="25" width="17.140625" collapsed="true"/>
+    <col min="6" max="11" style="25" width="9.140625" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="25" width="37.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="25" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="25" width="29.46484375" collapsed="true"/>
+    <col min="16" max="16" style="25" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="25" width="8.83984375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="25" width="5.42578125" collapsed="true"/>
+    <col min="19" max="19" style="25" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="25" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="25" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="25" width="11.140625" collapsed="true"/>
+    <col min="23" max="25" style="25" width="9.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="25" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="25" width="38.44921875" collapsed="true"/>
+    <col min="28" max="44" style="25" width="9.140625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="25" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="25" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="25" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="25" width="13.1796875" collapsed="true"/>
+    <col min="49" max="49" style="25" width="9.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="25" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="25" width="13.6015625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="25" width="44.15234375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="25" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="25" width="14.2265625" collapsed="true"/>
+    <col min="55" max="59" style="25" width="9.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="25" width="26.734375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="25" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="25" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" style="25" width="37.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="25" width="8.64453125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="25" width="14.12890625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="25" width="12.140625" collapsed="true"/>
+    <col min="68" max="16384" style="25" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -12122,7 +12796,7 @@
         <v>2202</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>2202</v>
+        <v>2380</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>652</v>
@@ -12161,10 +12835,10 @@
         <v>447</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>2203</v>
+        <v>2381</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>2205</v>
+        <v>2384</v>
       </c>
       <c r="R2" s="25" t="s">
         <v>2206</v>
@@ -12194,7 +12868,7 @@
         <v>2208</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>2230</v>
+        <v>2377</v>
       </c>
       <c r="AB2" s="26" t="s">
         <v>662</v>
@@ -12248,7 +12922,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="25" t="s">
-        <v>2215</v>
+        <v>2334</v>
       </c>
       <c r="AU2" s="25" t="s">
         <v>87</v>
@@ -12260,13 +12934,13 @@
         <v>663</v>
       </c>
       <c r="AX2" s="25" t="s">
-        <v>144</v>
+        <v>461</v>
       </c>
       <c r="AY2" s="25" t="s">
-        <v>2216</v>
+        <v>2378</v>
       </c>
       <c r="AZ2" s="25" t="s">
-        <v>2217</v>
+        <v>1652</v>
       </c>
       <c r="BA2" s="24" t="s">
         <v>420</v>
@@ -12290,7 +12964,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="25" t="s">
-        <v>2218</v>
+        <v>2379</v>
       </c>
       <c r="BI2" s="25" t="s">
         <v>2204</v>
@@ -12305,10 +12979,10 @@
         <v>447</v>
       </c>
       <c r="BM2" s="25" t="s">
-        <v>2207</v>
+        <v>2386</v>
       </c>
       <c r="BN2" s="25" t="s">
-        <v>2150</v>
+        <v>2385</v>
       </c>
       <c r="BO2" s="25" t="s">
         <v>2160</v>
@@ -12389,15 +13063,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{CBB4546A-84E3-4AA0-844F-4EF590542F3D}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{CBB4546A-84E3-4AA0-844F-4EF590542F3D}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -12405,12 +13079,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -12849,13 +13523,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BO6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -12863,36 +13537,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="41.87890625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="20.62109375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="28.96875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -13103,7 +13778,7 @@
         <v>1579</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1677</v>
+        <v>2282</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>633</v>
@@ -13118,7 +13793,7 @@
         <v>1547</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>1552</v>
+        <v>2292</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>1548</v>
@@ -13176,7 +13851,7 @@
         <v>1653</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>2229</v>
+        <v>2287</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -13231,7 +13906,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="16" t="s">
-        <v>1673</v>
+        <v>2288</v>
       </c>
       <c r="AU2" s="16" t="s">
         <v>87</v>
@@ -13243,13 +13918,13 @@
         <v>663</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>461</v>
+        <v>144</v>
       </c>
       <c r="AY2" s="16" t="s">
-        <v>1674</v>
+        <v>2289</v>
       </c>
       <c r="AZ2" s="16" t="s">
-        <v>1675</v>
+        <v>2290</v>
       </c>
       <c r="BA2" s="17" t="s">
         <v>420</v>
@@ -13273,7 +13948,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="16" t="s">
-        <v>1676</v>
+        <v>2291</v>
       </c>
       <c r="BI2" s="16"/>
       <c r="BJ2" s="16"/>
@@ -13500,14 +14175,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
@@ -13515,36 +14190,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.890625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.39453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.765625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.890625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.51171875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.39453125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.15234375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="26.890625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="25.9296875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="28.17578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -13656,25 +14331,25 @@
         <v>619</v>
       </c>
       <c r="F2" t="s">
-        <v>2098</v>
+        <v>2284</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>416</v>
       </c>
       <c r="H2" t="s">
-        <v>2099</v>
+        <v>2285</v>
       </c>
       <c r="I2" t="s">
-        <v>2100</v>
+        <v>2286</v>
       </c>
       <c r="J2" t="s">
         <v>1514</v>
       </c>
       <c r="K2" t="s">
-        <v>2101</v>
+        <v>2257</v>
       </c>
       <c r="L2" t="s">
-        <v>2102</v>
+        <v>2258</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>1337</v>
@@ -13683,19 +14358,19 @@
         <v>1515</v>
       </c>
       <c r="O2" t="s">
-        <v>1514</v>
+        <v>2259</v>
       </c>
       <c r="P2" t="s">
         <v>1516</v>
       </c>
       <c r="Q2" t="s">
-        <v>2101</v>
+        <v>1512</v>
       </c>
       <c r="R2" t="s">
         <v>1513</v>
       </c>
       <c r="S2" t="s">
-        <v>2102</v>
+        <v>2260</v>
       </c>
       <c r="T2" t="s">
         <v>1512</v>
@@ -13830,13 +14505,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BN281"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AF281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -13844,30 +14519,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="66" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.8359375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="37.0078125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.6328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="15.78125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="65" max="66" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -13985,13 +14660,13 @@
         <v>2080</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>2162</v>
+        <v>2396</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>2163</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>2173</v>
+        <v>2406</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>2152</v>
@@ -14030,7 +14705,7 @@
         <v>60</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>2210</v>
+        <v>2428</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>1518</v>
@@ -14054,7 +14729,7 @@
         <v>200</v>
       </c>
       <c r="AD2" t="s">
-        <v>2117</v>
+        <v>2293</v>
       </c>
       <c r="AE2" t="s">
         <v>2228</v>
@@ -14080,13 +14755,13 @@
         <v>2081</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>2164</v>
+        <v>2397</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>1657</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>2174</v>
+        <v>2407</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -14117,7 +14792,7 @@
         <v>60</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>2211</v>
+        <v>2429</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>1517</v>
@@ -14164,13 +14839,13 @@
         <v>2082</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>2165</v>
+        <v>2398</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>1658</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>2175</v>
+        <v>2408</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -14201,7 +14876,7 @@
         <v>60</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>2212</v>
+        <v>2383</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>1519</v>
@@ -14248,13 +14923,13 @@
         <v>2083</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>2166</v>
+        <v>2399</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>1659</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>2176</v>
+        <v>2409</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -14285,7 +14960,7 @@
         <v>60</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>2213</v>
+        <v>2451</v>
       </c>
       <c r="W5" s="15" t="s">
         <v>1520</v>
@@ -14332,13 +15007,13 @@
         <v>2084</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>2167</v>
+        <v>2400</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>1660</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>2177</v>
+        <v>2410</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
@@ -14412,13 +15087,13 @@
         <v>2085</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>2168</v>
+        <v>2401</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>1661</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>2178</v>
+        <v>2411</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -14492,13 +15167,13 @@
         <v>2086</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>2169</v>
+        <v>2402</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>1662</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>2179</v>
+        <v>2412</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -14572,13 +15247,13 @@
         <v>2087</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>2170</v>
+        <v>2403</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>1663</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>2180</v>
+        <v>2413</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
@@ -14652,13 +15327,13 @@
         <v>2088</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>2171</v>
+        <v>2404</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>257</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>2181</v>
+        <v>2414</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -14732,7 +15407,7 @@
         <v>2089</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>2172</v>
+        <v>2405</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>254</v>
@@ -21539,14 +22214,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AI15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AF18" sqref="AF18"/>
@@ -21554,40 +22229,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="9.140625" style="15" collapsed="1"/>
-    <col min="25" max="25" width="11" style="15" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="37" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.5703125" style="15" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="15.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="14.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="17.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="11.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="11.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="15" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="15" width="13.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="15" width="7.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="10.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="15.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="6.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="15" width="11.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="15" width="8.7109375" collapsed="true"/>
+    <col min="23" max="24" style="15" width="9.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="15" width="11.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="37.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="15" width="6.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="15" width="6.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="15" width="6.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="15" width="15.5703125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="15" width="14.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="15" width="16.5703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="15" width="9.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="15" width="17.140625" collapsed="true"/>
+    <col min="36" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -22887,13 +23562,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AE12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
@@ -22901,26 +23576,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="28" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.59765625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="26" max="28" bestFit="true" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="18.51953125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.51953125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -23026,10 +23703,10 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>2237</v>
+        <v>2433</v>
       </c>
       <c r="E2" t="s">
-        <v>2216</v>
+        <v>2432</v>
       </c>
       <c r="F2" t="s">
         <v>1521</v>
@@ -23041,7 +23718,7 @@
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>2236</v>
+        <v>2431</v>
       </c>
       <c r="J2" t="s">
         <v>87</v>
@@ -23101,10 +23778,10 @@
         <v>352</v>
       </c>
       <c r="AC2" t="s">
-        <v>2183</v>
+        <v>2416</v>
       </c>
       <c r="AD2" t="s">
-        <v>2192</v>
+        <v>2424</v>
       </c>
       <c r="AE2" t="s">
         <v>1544</v>
@@ -23112,10 +23789,10 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC3" t="s">
-        <v>2184</v>
+        <v>2417</v>
       </c>
       <c r="AD3" t="s">
-        <v>2193</v>
+        <v>2425</v>
       </c>
       <c r="AE3" t="s">
         <v>1545</v>
@@ -23123,10 +23800,10 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC4" t="s">
-        <v>2185</v>
+        <v>2418</v>
       </c>
       <c r="AD4" t="s">
-        <v>2194</v>
+        <v>2426</v>
       </c>
       <c r="AE4" t="s">
         <v>1546</v>
@@ -23134,7 +23811,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC5" t="s">
-        <v>2186</v>
+        <v>2419</v>
       </c>
       <c r="AE5" t="s">
         <v>73</v>
@@ -23142,27 +23819,27 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC6" t="s">
-        <v>2187</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC7" t="s">
-        <v>2188</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC8" t="s">
-        <v>2189</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC9" t="s">
-        <v>2190</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC10" t="s">
-        <v>2191</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -23177,15 +23854,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink r:id="rId1" ref="Q2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:G14"/>
@@ -23193,9 +23870,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -23475,14 +24152,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:P366"/>
   <sheetViews>
     <sheetView topLeftCell="A329" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
@@ -23490,8 +24167,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -29372,6 +30049,6 @@
       <c r="O366" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
-  <workbookPr backupFile="1" defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{9B76E98D-3512-426A-9940-5EAF7AA325BA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
+  <workbookPr filterPrivacy="1" backupFile="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D47201C-4FC3-4B3E-9E1C-8F8463A67B8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="14" firstSheet="6" windowHeight="10920" windowWidth="20280" xWindow="210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="210" yWindow="0" windowWidth="20280" windowHeight="10920" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="STG" r:id="rId1" sheetId="2"/>
-    <sheet name="Credit" r:id="rId2" sheetId="13"/>
-    <sheet name="QAS" r:id="rId3" sheetId="19"/>
-    <sheet name="Emission" r:id="rId4" sheetId="20"/>
-    <sheet name="DataInput" r:id="rId5" sheetId="11"/>
-    <sheet name="Graphs" r:id="rId6" sheetId="16"/>
-    <sheet name="LEEDONLINE" r:id="rId7" sheetId="12"/>
-    <sheet name="Manual" r:id="rId8" sheetId="15"/>
-    <sheet name="Score" r:id="rId9" sheetId="14"/>
-    <sheet name="DEV" r:id="rId10" sheetId="4"/>
-    <sheet name="Material" r:id="rId11" sheetId="18"/>
-    <sheet name="MeterData" r:id="rId12" sheetId="21"/>
-    <sheet name="DEV2" r:id="rId13" sheetId="22"/>
-    <sheet name="STG2" r:id="rId14" sheetId="23"/>
-    <sheet name="QAS2" r:id="rId15" sheetId="24"/>
+    <sheet name="STG" sheetId="2" r:id="rId1"/>
+    <sheet name="Credit" sheetId="13" r:id="rId2"/>
+    <sheet name="QAS" sheetId="19" r:id="rId3"/>
+    <sheet name="Emission" sheetId="20" r:id="rId4"/>
+    <sheet name="DataInput" sheetId="11" r:id="rId5"/>
+    <sheet name="Graphs" sheetId="16" r:id="rId6"/>
+    <sheet name="LEEDONLINE" sheetId="12" r:id="rId7"/>
+    <sheet name="Manual" sheetId="15" r:id="rId8"/>
+    <sheet name="Score" sheetId="14" r:id="rId9"/>
+    <sheet name="DEV" sheetId="4" r:id="rId10"/>
+    <sheet name="Material" sheetId="18" r:id="rId11"/>
+    <sheet name="MeterData" sheetId="21" r:id="rId12"/>
+    <sheet name="DEV2" sheetId="22" r:id="rId13"/>
+    <sheet name="STG2" sheetId="23" r:id="rId14"/>
+    <sheet name="QAS2" sheetId="24" r:id="rId15"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId16"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4892" uniqueCount="2465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="2252">
   <si>
     <t>FileID</t>
   </si>
@@ -4701,9 +4701,6 @@
     <t>1000146796</t>
   </si>
   <si>
-    <t>1000146799</t>
-  </si>
-  <si>
     <t>startDate</t>
   </si>
   <si>
@@ -4788,21 +4785,12 @@
     <t>1356</t>
   </si>
   <si>
-    <t>1426</t>
-  </si>
-  <si>
     <t>devusgbcarc1@gmail.com</t>
   </si>
   <si>
-    <t>1000146914</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
-    <t>1000146949</t>
-  </si>
-  <si>
     <t>1000146916</t>
   </si>
   <si>
@@ -4848,18 +4836,6 @@
     <t>DOCHOLDERL-1000146964</t>
   </si>
   <si>
-    <t>0000000010000000000144735</t>
-  </si>
-  <si>
-    <t>E9E42EBBA7B14CF1A60F0AE29B08431D</t>
-  </si>
-  <si>
-    <t>E9E42EBBA7B14EF1A60F0AE29B08431D</t>
-  </si>
-  <si>
-    <t>DOCHOLDERL-1000146968</t>
-  </si>
-  <si>
     <t>17097</t>
   </si>
   <si>
@@ -4941,9 +4917,6 @@
     <t>156</t>
   </si>
   <si>
-    <t>2000.0</t>
-  </si>
-  <si>
     <t>70001879</t>
   </si>
   <si>
@@ -4962,9 +4935,6 @@
     <t>4229</t>
   </si>
   <si>
-    <t>Bearer SVddcwFaY2WtoFwewV3Q0WbWJ2yEOl</t>
-  </si>
-  <si>
     <t>8000000043</t>
   </si>
   <si>
@@ -4980,27 +4950,12 @@
     <t>1000146999</t>
   </si>
   <si>
-    <t>Investor: Individual/Family</t>
-  </si>
-  <si>
     <t>1000147000</t>
   </si>
   <si>
     <t>YIYwrH4rzNIQlAl6s0nazxJy</t>
   </si>
   <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>Bearer 49qFUIKcKtq8en71ZP7xvreU1KqL5x</t>
-  </si>
-  <si>
-    <t>Airport: Other</t>
-  </si>
-  <si>
-    <t>US-API-Parksmart-Parksmart-64683</t>
-  </si>
-  <si>
     <t>Investor: Insurance Company</t>
   </si>
   <si>
@@ -5061,24 +5016,6 @@
     <t>70001904</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Core Learning Space: College/University</t>
-  </si>
-  <si>
-    <t>Investor: Bank</t>
-  </si>
-  <si>
-    <t>US-API-Building-None-99085</t>
-  </si>
-  <si>
-    <t>1000093049</t>
-  </si>
-  <si>
     <t>1000174338</t>
   </si>
   <si>
@@ -5094,21 +5031,9 @@
     <t>18</t>
   </si>
   <si>
-    <t>13000.0</t>
-  </si>
-  <si>
     <t>1000174389</t>
   </si>
   <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>1647336.0</t>
-  </si>
-  <si>
-    <t>8997</t>
-  </si>
-  <si>
     <t>1048887</t>
   </si>
   <si>
@@ -6339,21 +6264,6 @@
     <t>1000174404</t>
   </si>
   <si>
-    <t>1049513</t>
-  </si>
-  <si>
-    <t>1049505</t>
-  </si>
-  <si>
-    <t>7166369</t>
-  </si>
-  <si>
-    <t>41.678586</t>
-  </si>
-  <si>
-    <t>0.358701</t>
-  </si>
-  <si>
     <t>1000174407</t>
   </si>
   <si>
@@ -6396,9 +6306,6 @@
     <t>1000174409</t>
   </si>
   <si>
-    <t>0011048318</t>
-  </si>
-  <si>
     <t>7166409</t>
   </si>
   <si>
@@ -6486,21 +6393,6 @@
     <t>1783</t>
   </si>
   <si>
-    <t>8000000548</t>
-  </si>
-  <si>
-    <t>yLZbi9zlMyI8etLkd7cT0unM</t>
-  </si>
-  <si>
-    <t>1049715</t>
-  </si>
-  <si>
-    <t>1049716</t>
-  </si>
-  <si>
-    <t>240187</t>
-  </si>
-  <si>
     <t>1049717</t>
   </si>
   <si>
@@ -6513,123 +6405,15 @@
     <t>7166566</t>
   </si>
   <si>
-    <t>Office: Mixed-Use</t>
-  </si>
-  <si>
-    <t>US-API-Parksmart-Parksmart-81563</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
     <t>1000174449</t>
   </si>
   <si>
-    <t>Bearer syByuk02kCIoXqIazvcxVehRpFTwsl</t>
-  </si>
-  <si>
-    <t>1058357</t>
-  </si>
-  <si>
     <t>Formaldehyde</t>
   </si>
   <si>
-    <t>1058356</t>
-  </si>
-  <si>
-    <t>1058355</t>
-  </si>
-  <si>
-    <t>1058354</t>
-  </si>
-  <si>
-    <t>1058353</t>
-  </si>
-  <si>
-    <t>1058352</t>
-  </si>
-  <si>
-    <t>1058351</t>
-  </si>
-  <si>
-    <t>1058350</t>
-  </si>
-  <si>
-    <t>1058349</t>
-  </si>
-  <si>
-    <t>1058348</t>
-  </si>
-  <si>
-    <t>7169974</t>
-  </si>
-  <si>
-    <t>7169975</t>
-  </si>
-  <si>
-    <t>7169976</t>
-  </si>
-  <si>
-    <t>7169977</t>
-  </si>
-  <si>
-    <t>7169978</t>
-  </si>
-  <si>
-    <t>7169979</t>
-  </si>
-  <si>
-    <t>7169980</t>
-  </si>
-  <si>
-    <t>7169981</t>
-  </si>
-  <si>
-    <t>7169982</t>
-  </si>
-  <si>
     <t>47909</t>
   </si>
   <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2213</t>
-  </si>
-  <si>
-    <t>2214</t>
-  </si>
-  <si>
-    <t>2215</t>
-  </si>
-  <si>
-    <t>2216</t>
-  </si>
-  <si>
-    <t>2217</t>
-  </si>
-  <si>
-    <t>2218</t>
-  </si>
-  <si>
-    <t>2219</t>
-  </si>
-  <si>
     <t>1000093670</t>
   </si>
   <si>
@@ -6654,54 +6438,21 @@
     <t>8000000112</t>
   </si>
   <si>
-    <t>BkoqSu8zxY4UueG9iVNWVahT</t>
-  </si>
-  <si>
     <t>DOCHOLDERL-8000000112</t>
   </si>
   <si>
-    <t>2757953</t>
-  </si>
-  <si>
     <t>20473066</t>
   </si>
   <si>
-    <t>696717</t>
-  </si>
-  <si>
     <t>40962</t>
   </si>
   <si>
     <t>1005</t>
   </si>
   <si>
-    <t>2757957</t>
-  </si>
-  <si>
-    <t>2757956</t>
-  </si>
-  <si>
-    <t>2757955</t>
-  </si>
-  <si>
-    <t>2757954</t>
-  </si>
-  <si>
     <t>25000.0</t>
   </si>
   <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>Airport: Hangar</t>
-  </si>
-  <si>
-    <t>Main Street Organization</t>
-  </si>
-  <si>
-    <t>US-API-Building-Other-13743</t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
@@ -6732,12 +6483,6 @@
     <t>51.0</t>
   </si>
   <si>
-    <t>Bearer k2qi3o0Va53C5RYaSo0Pp201NAOx5F</t>
-  </si>
-  <si>
-    <t>Bearer EoMdquWO7TwPRgKWmq0OxbgINrpN3U</t>
-  </si>
-  <si>
     <t>1000175251</t>
   </si>
   <si>
@@ -6756,9 +6501,6 @@
     <t>AS</t>
   </si>
   <si>
-    <t>API LEED v4.1 Cities: Plan and DesignUS60</t>
-  </si>
-  <si>
     <t>1000175263</t>
   </si>
   <si>
@@ -6768,12 +6510,6 @@
     <t>2019-12-01</t>
   </si>
   <si>
-    <t>70001137</t>
-  </si>
-  <si>
-    <t>Bearer GZYmAVEaPfEnpLkoDQymHMujqDGdjA</t>
-  </si>
-  <si>
     <t>47</t>
   </si>
   <si>
@@ -6789,33 +6525,6 @@
     <t>32000.0</t>
   </si>
   <si>
-    <t>Bearer Edw4QMNAP7CW0FF4QKwIorsqJDabs0</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>Retail: Fast Food</t>
-  </si>
-  <si>
-    <t>Investor: REIT, Non-traded</t>
-  </si>
-  <si>
-    <t>US-API-Building-None-83502</t>
-  </si>
-  <si>
-    <t>8000000617</t>
-  </si>
-  <si>
-    <t>1065309</t>
-  </si>
-  <si>
-    <t>1065308</t>
-  </si>
-  <si>
-    <t>7174983</t>
-  </si>
-  <si>
     <t>5.648676</t>
   </si>
   <si>
@@ -6828,75 +6537,12 @@
     <t>0.718161</t>
   </si>
   <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>Single family home (attached)</t>
-  </si>
-  <si>
-    <t>Educational: Community College, Public</t>
-  </si>
-  <si>
-    <t>US-API-Transit-Aboveground-38882</t>
-  </si>
-  <si>
     <t>1000175344</t>
   </si>
   <si>
-    <t>0011048771</t>
-  </si>
-  <si>
-    <t>1065323</t>
-  </si>
-  <si>
-    <t>1065315</t>
-  </si>
-  <si>
-    <t>7174997</t>
-  </si>
-  <si>
-    <t>5.805818</t>
-  </si>
-  <si>
-    <t>0.71884</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Government Use: Other (utility, airport, etc.)</t>
-  </si>
-  <si>
-    <t>US-API-Building-None-16211</t>
-  </si>
-  <si>
-    <t>8000000618</t>
-  </si>
-  <si>
-    <t>Bearer Z33Xxw27ID5lo0OrEKzpG0w95mUSL4</t>
-  </si>
-  <si>
-    <t>Bearer tFmjXMJYDb8vaDsGnYxwCJTBHlwmCv</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Service: Other Service</t>
-  </si>
-  <si>
-    <t>Educational: University, Private</t>
-  </si>
-  <si>
-    <t>US-API-Building-None-94502</t>
-  </si>
-  <si>
     <t>1000094349</t>
   </si>
   <si>
-    <t>0011108223</t>
-  </si>
-  <si>
     <t>2763057</t>
   </si>
   <si>
@@ -6906,9 +6552,6 @@
     <t>20476748</t>
   </si>
   <si>
-    <t>Bearer 5F8F1d5GmoLK9UJo4KNZkw39vd9RGC</t>
-  </si>
-  <si>
     <t>GU</t>
   </si>
   <si>
@@ -6927,24 +6570,6 @@
     <t>0011108224</t>
   </si>
   <si>
-    <t>Bearer N07NgIhVI8efeH4caC0MSkRh2bCPn7</t>
-  </si>
-  <si>
-    <t>Bearer a0W37pw9miSaGbywSVscsNyMoVQO1J</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>Service: Repair Shop</t>
-  </si>
-  <si>
-    <t>Government Use: Local, County</t>
-  </si>
-  <si>
-    <t>US-API-Building-None-16658</t>
-  </si>
-  <si>
     <t>8000000619</t>
   </si>
   <si>
@@ -6960,21 +6585,9 @@
     <t>241211</t>
   </si>
   <si>
-    <t>Bearer AAiKyuijk6KlaXnvM8b6CuHtRsFC4T</t>
-  </si>
-  <si>
-    <t>Bearer cqthnYxinNw8IxDDu8ooiM9ci64EXk</t>
-  </si>
-  <si>
     <t>Bearer J4VjJbMBUw8dGmDCEJBSB9u7iQmVYP</t>
   </si>
   <si>
-    <t>Warehouse: Self Storage Units</t>
-  </si>
-  <si>
-    <t>Educational: College, Private</t>
-  </si>
-  <si>
     <t>NJ</t>
   </si>
   <si>
@@ -6987,195 +6600,9 @@
     <t>US-API-Parksmart-Parksmart-61864</t>
   </si>
   <si>
-    <t>Bearer 7qG1qOdDSiKT3PUWmUj7SfRYbZnRCy</t>
-  </si>
-  <si>
-    <t>Bearer 10vJbAZK2Wix73gE3BtFiUOGdb0ZCF</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>Airport: Distribution Center</t>
-  </si>
-  <si>
-    <t>Government Use: Local, Public Housing Authority</t>
-  </si>
-  <si>
-    <t>US-API-Building-None-74343</t>
-  </si>
-  <si>
-    <t>8000000136</t>
-  </si>
-  <si>
-    <t>8ixHutV4X8JUi2aHJCuaIGnu</t>
-  </si>
-  <si>
-    <t>2763091</t>
-  </si>
-  <si>
-    <t>2763092</t>
-  </si>
-  <si>
-    <t>696986</t>
-  </si>
-  <si>
-    <t>2763084</t>
-  </si>
-  <si>
-    <t>2763082</t>
-  </si>
-  <si>
-    <t>Bearer HryHYfoXibWwvW547FLcLIo191KhRn</t>
-  </si>
-  <si>
-    <t>Bearer FHqOKHwzKmcR5yVRi318g49ZzI972f</t>
-  </si>
-  <si>
-    <t>Bearer Kjci7dwGRqBLJH7PEXh2gnia8g1ZWB</t>
-  </si>
-  <si>
-    <t>Retail: Enclosed Mall</t>
-  </si>
-  <si>
-    <t>US-API-Parksmart-Parksmart-54012</t>
-  </si>
-  <si>
-    <t>Bearer rhzrt1EDLnBVdITtUDSyl9i8i62Wj4</t>
-  </si>
-  <si>
-    <t>Bearer 6SZerOMZD9ayMqQABrpTwe6rw6ngJQ</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
-    <t>Transit: Station</t>
-  </si>
-  <si>
-    <t>Educational: Early Childhood Education/Daycare</t>
-  </si>
-  <si>
-    <t>US-API-Building-None-31718</t>
-  </si>
-  <si>
-    <t>8000000137</t>
-  </si>
-  <si>
-    <t>ZKjAzDJpQNmJm62EJd5vUhwB</t>
-  </si>
-  <si>
-    <t>2763121</t>
-  </si>
-  <si>
-    <t>2763119</t>
-  </si>
-  <si>
-    <t>2763128</t>
-  </si>
-  <si>
-    <t>2763129</t>
-  </si>
-  <si>
-    <t>696987</t>
-  </si>
-  <si>
-    <t>Bearer zWdAA9Lq29tfLikZGEWoWzMMukK0Qs</t>
-  </si>
-  <si>
-    <t>Bearer kZ3YGW6g92x7hiqVGlBWlSK5w9J9oB</t>
-  </si>
-  <si>
-    <t>Bearer 9CumtLo63ZVc5dM5gxNsNyVET5I7ap</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>Government Use: Local, City</t>
-  </si>
-  <si>
-    <t>US-API-Parksmart-Parksmart-44715</t>
-  </si>
-  <si>
-    <t>Bearer HI4sVBt5N8TJoladKStYTQQXJlsDcY</t>
-  </si>
-  <si>
-    <t>Bearer FrR82d9kCxFwRwYl9ooQJWcDuy9imX</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Service: Post Office/Postal Center</t>
-  </si>
-  <si>
-    <t>US-API-Building-None-94888</t>
-  </si>
-  <si>
-    <t>8000000138</t>
-  </si>
-  <si>
-    <t>7my6vQpEyOYDgjDo3OoRUwYZ</t>
-  </si>
-  <si>
-    <t>2763157</t>
-  </si>
-  <si>
-    <t>2763156</t>
-  </si>
-  <si>
-    <t>2763165</t>
-  </si>
-  <si>
-    <t>2763166</t>
-  </si>
-  <si>
-    <t>696988</t>
-  </si>
-  <si>
-    <t>Bearer iRroSpXjoFkvPkr1S0KW4Eue02tjmc</t>
-  </si>
-  <si>
-    <t>Bearer rFKvJu3YVC9l9AcdOLTu6Z6XlIpNtW</t>
-  </si>
-  <si>
-    <t>WY</t>
-  </si>
-  <si>
-    <t>Transit: Office</t>
-  </si>
-  <si>
-    <t>US-API-Building-None-01955</t>
-  </si>
-  <si>
-    <t>8000000139</t>
-  </si>
-  <si>
-    <t>ZY2o8XbmWEA5Qn9aGlCqVFgX</t>
-  </si>
-  <si>
-    <t>2763196</t>
-  </si>
-  <si>
-    <t>2763194</t>
-  </si>
-  <si>
-    <t>2763202</t>
-  </si>
-  <si>
-    <t>2763203</t>
-  </si>
-  <si>
-    <t>696989</t>
-  </si>
-  <si>
-    <t>Bearer hKjhjJkLZb4NdzHyLVmKYb4gfll0CA</t>
-  </si>
-  <si>
     <t>Bearer TapqlB2QS31hFGcNdsgPvI3tuCzpRB</t>
   </si>
   <si>
@@ -7191,9 +6618,6 @@
     <t>FctPmyte32MDwVTrpQuyBPXB</t>
   </si>
   <si>
-    <t>2763231</t>
-  </si>
-  <si>
     <t>2763230</t>
   </si>
   <si>
@@ -7206,33 +6630,6 @@
     <t>696990</t>
   </si>
   <si>
-    <t>Bearer Ahhextg7HByzmmhMrYw6k8sWSRi3Y3</t>
-  </si>
-  <si>
-    <t>Data Center</t>
-  </si>
-  <si>
-    <t>API LEED v4 O+M: Existing BuildingsUS85</t>
-  </si>
-  <si>
-    <t>1000147202</t>
-  </si>
-  <si>
-    <t>Bearer TvswDh4hD98RIFvWqMgqu4W5QyPCM7</t>
-  </si>
-  <si>
-    <t>0000000010000000000144897</t>
-  </si>
-  <si>
-    <t>EA01F8441D7BB6F1A60F0AE29B08431D</t>
-  </si>
-  <si>
-    <t>EA01F8441D7BB8F1A60F0AE29B08431D</t>
-  </si>
-  <si>
-    <t>DOCHOLDERL-1000147202</t>
-  </si>
-  <si>
     <t>19265</t>
   </si>
   <si>
@@ -7335,9 +6732,6 @@
     <t>19266</t>
   </si>
   <si>
-    <t>19248</t>
-  </si>
-  <si>
     <t>WA</t>
   </si>
   <si>
@@ -7350,9 +6744,6 @@
     <t>1000147204</t>
   </si>
   <si>
-    <t>Bearer FsiXbCCcPhCe0ZAYezJZbDi5wY491y</t>
-  </si>
-  <si>
     <t>0000000010000000000144899</t>
   </si>
   <si>
@@ -7365,48 +6756,9 @@
     <t>DOCHOLDERL-1000147204</t>
   </si>
   <si>
-    <t>Bearer cfu3AKekSNQ1Zdent85Id112K4qUgM</t>
-  </si>
-  <si>
-    <t>Bearer Oa3j9e3zilMtDB6BM6V3L7dXh9r7gg</t>
-  </si>
-  <si>
-    <t>Bearer eEUqykjSwGwXChKcI3KiY2zg5ZNb35</t>
-  </si>
-  <si>
-    <t>Bearer llZeKRpoxxwliP5zaBcivBMjOhyYpU</t>
-  </si>
-  <si>
-    <t>Bearer JaM0oWp6KsHQiYjnNN2jZf2s2hdTQq</t>
-  </si>
-  <si>
-    <t>Bearer Sh9u7KuKYURJlP1xTyOEptLIw38jNv</t>
-  </si>
-  <si>
-    <t>Bearer YI83vwXnnwC8j0h73Awh6smaxNQwfQ</t>
-  </si>
-  <si>
-    <t>Bearer 1RWKHQmBniuifrevoc24Eryn9S1WPh</t>
-  </si>
-  <si>
-    <t>Bearer aKPBTHlGcpHroew3u5GrCiQZxA6hOC</t>
-  </si>
-  <si>
-    <t>Bearer jYYGDm4bc6onHFNQXd99mF9z9EYejq</t>
-  </si>
-  <si>
-    <t>Bearer JvVIUhp43py3ks1TfL8M0ZRGzwwedV</t>
-  </si>
-  <si>
     <t>19270</t>
   </si>
   <si>
-    <t>Bearer 3BPyewtgc6hCZEfxSMzrofLp3GM3p4</t>
-  </si>
-  <si>
-    <t>Bearer d6ljuuLGJ0E6515EaHpFuvAH4Mnhmu</t>
-  </si>
-  <si>
     <t>Public Assembly: Convention Center</t>
   </si>
   <si>
@@ -7438,6 +6790,15 @@
   </si>
   <si>
     <t>13763.9</t>
+  </si>
+  <si>
+    <t>Bearer 5x1WGbObDUETCuUrTJSXpxwgVGeF1b</t>
+  </si>
+  <si>
+    <t>rmishra@usgbc.org</t>
+  </si>
+  <si>
+    <t>70001157</t>
   </si>
 </sst>
 </file>
@@ -7545,79 +6906,79 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="164"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="3"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="3">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="3"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="4">
@@ -7662,7 +7023,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7714,10 +7075,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7752,7 +7113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7804,7 +7165,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7909,7 +7270,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -7918,13 +7279,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -7934,7 +7295,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -7943,7 +7304,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7952,7 +7313,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7962,12 +7323,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -7998,7 +7359,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -8017,7 +7378,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -8029,8 +7390,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -8038,52 +7399,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="21.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="15" width="17.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="17.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="18.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="21.0" collapsed="true"/>
-    <col min="9" max="9" style="15" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="15" width="24.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="15" width="24.5703125" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" style="15" width="37.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="26.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="15" width="23.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="5.42578125" collapsed="true"/>
-    <col min="19" max="19" style="15" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="15" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="15" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="15" width="37.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="15" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="15" width="44.42578125" collapsed="true"/>
-    <col min="28" max="44" style="15" width="9.140625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="15" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="15" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
-    <col min="49" max="49" style="15" width="9.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="15" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="15" width="36.42578125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="15" width="28.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
-    <col min="55" max="59" style="15" width="9.140625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="15" width="26.7109375" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" style="15" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="15" width="28.85546875" collapsed="true"/>
-    <col min="63" max="64" bestFit="true" customWidth="true" style="15" width="37.140625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="15" width="8.7109375" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="15" width="14.140625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="15" width="12.140625" collapsed="true"/>
-    <col min="68" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="15" collapsed="1"/>
+    <col min="10" max="10" width="24.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="37.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="15" collapsed="1"/>
+    <col min="20" max="20" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="37.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="44.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="44" width="9.140625" style="15" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="9.140625" style="15" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="36.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="28.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="59" width="9.140625" style="15" collapsed="1"/>
+    <col min="60" max="60" width="26.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="37.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="8.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="14.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -8291,25 +7652,25 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1684</v>
+        <v>1662</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1678</v>
+        <v>1657</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>633</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1681</v>
+        <v>1660</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1540</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1680</v>
+        <v>1659</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>1679</v>
+        <v>1658</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>1548</v>
@@ -8322,34 +7683,34 @@
         <v>1551</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>2233</v>
+        <v>2148</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>2234</v>
+        <v>2149</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>2232</v>
+        <v>2147</v>
       </c>
       <c r="P2" s="15" t="s">
         <v>1541</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1688</v>
+        <v>1663</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>1689</v>
+        <v>1664</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>538</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>1668</v>
+        <v>1653</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>439</v>
@@ -8361,10 +7722,10 @@
         <v>620</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>2182</v>
+        <v>2122</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2239</v>
+        <v>2153</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>16</v>
@@ -8433,10 +7794,10 @@
         <v>461</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>2197</v>
+        <v>2125</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>2198</v>
+        <v>2126</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -8460,36 +7821,36 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2199</v>
+        <v>2127</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>2235</v>
+        <v>2150</v>
       </c>
       <c r="BJ2" s="15" t="s">
-        <v>2232</v>
+        <v>2147</v>
       </c>
       <c r="BK2" s="15" t="s">
-        <v>2233</v>
+        <v>2148</v>
       </c>
       <c r="BL2" s="15" t="s">
-        <v>2234</v>
+        <v>2149</v>
       </c>
       <c r="BM2" s="15" t="s">
-        <v>1690</v>
+        <v>1665</v>
       </c>
       <c r="BN2" s="15" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2238</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>460</v>
@@ -8507,13 +7868,13 @@
         <v>15</v>
       </c>
       <c r="BO3" s="14" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B4" s="27"/>
       <c r="U4" s="15" t="s">
-        <v>1669</v>
+        <v>1654</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>439</v>
@@ -8540,14 +7901,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:BP5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:BO5"/>
   <sheetViews>
     <sheetView topLeftCell="BK1" workbookViewId="0">
       <selection activeCell="BL14" sqref="BL14"/>
@@ -8555,49 +7916,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="21.72265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="21.28515625" collapsed="true"/>
-    <col min="3" max="3" style="15" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="5" max="6" style="15" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
-    <col min="8" max="11" style="15" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="15" width="37.51953125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="15" width="37.51953125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="28.91015625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="26.0" collapsed="true"/>
-    <col min="16" max="16" style="15" width="9.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="8.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="3.28515625" collapsed="true"/>
-    <col min="19" max="19" style="15" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="14.4140625" collapsed="true"/>
-    <col min="21" max="22" style="15" width="9.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="15" width="24.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="15" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="8.51171875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="15" width="41.46484375" collapsed="true"/>
-    <col min="28" max="44" style="15" width="9.140625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="15" width="8.1796875" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="15" width="5.66796875" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="15" width="8.30859375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="15" width="13.1796875" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" style="15" width="11.7109375" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="15" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="15" width="13.69921875" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="15" width="24.86328125" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="15" width="10.33984375" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="15" width="14.2265625" collapsed="true"/>
-    <col min="55" max="59" style="15" width="9.140625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="15" width="32.95703125" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" style="15" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="15" width="28.91015625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" style="15" width="37.51953125" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="15" width="37.51953125" collapsed="true"/>
-    <col min="65" max="65" style="15" width="9.140625" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="15" width="14.140625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="15" width="12.1875" collapsed="true"/>
-    <col min="68" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="15" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="15" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="11" width="9.140625" style="15" collapsed="1"/>
+    <col min="12" max="13" width="37.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.140625" style="15" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="3.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="15" collapsed="1"/>
+    <col min="20" max="20" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="9.140625" style="15" collapsed="1"/>
+    <col min="23" max="23" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="41.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="44" width="9.140625" style="15" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="11.7109375" style="15" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="24.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="59" width="9.140625" style="15" collapsed="1"/>
+    <col min="60" max="60" width="33" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="37.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="9.140625" style="15" collapsed="1"/>
+    <col min="66" max="66" width="14.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -8805,16 +8164,16 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2457</v>
+        <v>2241</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1646</v>
+        <v>1635</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>652</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1644</v>
+        <v>1634</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>653</v>
@@ -8823,7 +8182,7 @@
         <v>654</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>655</v>
@@ -8838,28 +8197,28 @@
         <v>658</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>2437</v>
+        <v>2234</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>2438</v>
+        <v>2235</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>2436</v>
+        <v>2233</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>1647</v>
+        <v>1636</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>659</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>2427</v>
+        <v>2226</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>660</v>
@@ -8871,16 +8230,16 @@
         <v>378</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>620</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>2415</v>
+        <v>2214</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2458</v>
+        <v>2242</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>662</v>
@@ -8889,7 +8248,7 @@
         <v>15</v>
       </c>
       <c r="AD2" s="20" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="AE2" s="20" t="s">
         <v>15</v>
@@ -8934,7 +8293,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>2236</v>
+        <v>2151</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -8949,10 +8308,10 @@
         <v>144</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>2454</v>
+        <v>2238</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>2455</v>
+        <v>2239</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -8976,36 +8335,36 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2456</v>
+        <v>2240</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>2439</v>
+        <v>2236</v>
       </c>
       <c r="BJ2" s="15" t="s">
-        <v>2436</v>
+        <v>2233</v>
       </c>
       <c r="BK2" s="15" t="s">
-        <v>2437</v>
+        <v>2234</v>
       </c>
       <c r="BL2" s="15" t="s">
-        <v>2438</v>
+        <v>2235</v>
       </c>
       <c r="BM2" s="15" t="s">
         <v>1549</v>
       </c>
       <c r="BN2" s="15" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2434</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="AD3" s="20" t="s">
         <v>540</v>
@@ -9032,15 +8391,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AB2" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -9048,16 +8407,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" hidden="true" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="10" width="26.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="21.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="10" width="29.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="10" width="20.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="24.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="14.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.85546875" style="10" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>356</v>
       </c>
@@ -9083,7 +8442,7 @@
         <v>410</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>407</v>
       </c>
@@ -9097,7 +8456,7 @@
         <v>398</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>408</v>
       </c>
@@ -9334,14 +8693,14 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D6:D7"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="90" orientation="portrait" verticalDpi="90"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
-  <dimension ref="A1:F63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -9349,25 +8708,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1553</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>1554</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>1555</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>1556</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10395,7 +9754,7 @@
         <v>602</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>169</v>
@@ -10409,10 +9768,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>2240</v>
+        <v>2154</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>169</v>
@@ -10426,32 +9785,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A16 A2:A3">
-    <cfRule dxfId="3" priority="3" timePeriod="lastMonth" type="timePeriod">
+    <cfRule type="timePeriod" dxfId="3" priority="3" timePeriod="lastMonth">
       <formula>AND(MONTH(A2)=MONTH(EDATE(TODAY(),0-1)),YEAR(A2)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule dxfId="2" priority="5" timePeriod="lastMonth" type="timePeriod">
+    <cfRule type="timePeriod" dxfId="2" priority="5" timePeriod="lastMonth">
       <formula>AND(MONTH(A5)=MONTH(EDATE(TODAY(),0-1)),YEAR(A5)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A15">
-    <cfRule dxfId="1" priority="4" timePeriod="lastMonth" type="timePeriod">
+    <cfRule type="timePeriod" dxfId="1" priority="4" timePeriod="lastMonth">
       <formula>AND(MONTH(A6)=MONTH(EDATE(TODAY(),0-1)),YEAR(A6)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule dxfId="0" priority="1" timePeriod="lastMonth" type="timePeriod">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">
       <formula>AND(MONTH(A4)=MONTH(EDATE(TODAY(),0-1)),YEAR(A4)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
-  <dimension ref="A1:BP10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
+  <dimension ref="A1:BO10"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="Y16" sqref="Y16"/>
@@ -10459,38 +9818,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="43.8125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="41.42578125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="41.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -10698,25 +10057,25 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1640</v>
+        <v>1630</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>652</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>653</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>655</v>
@@ -10731,32 +10090,32 @@
         <v>658</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
-        <v>1641</v>
+        <v>1631</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>1642</v>
+        <v>1632</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>659</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="V2" s="15" t="s">
         <v>661</v>
@@ -10765,16 +10124,16 @@
         <v>145</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>620</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2459</v>
+        <v>2243</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>662</v>
@@ -10783,7 +10142,7 @@
         <v>15</v>
       </c>
       <c r="AD2" s="20" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="AE2" s="20" t="s">
         <v>15</v>
@@ -10829,7 +10188,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>1664</v>
+        <v>1649</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -10844,10 +10203,10 @@
         <v>461</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>1665</v>
+        <v>1650</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>1666</v>
+        <v>1651</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -10871,25 +10230,25 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>1667</v>
+        <v>1652</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="BJ2" s="15" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="BK2" s="15" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="BL2" s="15" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="BM2" s="15" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="BN2" s="15" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="BO2" s="15" t="s">
         <v>1539</v>
@@ -10898,7 +10257,7 @@
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="14" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -10972,7 +10331,7 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>2460</v>
+        <v>2244</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -10984,7 +10343,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
@@ -11045,7 +10404,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>1682</v>
+        <v>1661</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -11057,7 +10416,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -11118,7 +10477,7 @@
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>2461</v>
+        <v>2245</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -11130,7 +10489,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -11191,7 +10550,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>2462</v>
+        <v>2246</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -11203,7 +10562,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -11264,7 +10623,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>2463</v>
+        <v>2247</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -11276,7 +10635,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -11337,7 +10696,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>2244</v>
+        <v>2156</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -11349,7 +10708,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
@@ -11410,7 +10769,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>2464</v>
+        <v>2248</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -11422,7 +10781,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -11483,15 +10842,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AB2" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
-  <dimension ref="A1:BP10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
+  <dimension ref="A1:BO10"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="Z15" sqref="Z15"/>
@@ -11499,42 +10858,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.01953125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="39.62109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="28.2265625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="26.5078125" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="64" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="14.12890625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="39.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -11742,28 +11100,28 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1715</v>
+        <v>1690</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2300</v>
+        <v>2175</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>652</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2095</v>
+        <v>2070</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>653</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1692</v>
+        <v>1667</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2265</v>
+        <v>2164</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>2116</v>
+        <v>2086</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>656</v>
@@ -11772,53 +11130,53 @@
         <v>657</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>2103</v>
+        <v>2073</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>2122</v>
+        <v>2091</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>2123</v>
+        <v>2092</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>2121</v>
+        <v>2090</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>2301</v>
+        <v>2176</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
-        <v>2302</v>
+        <v>2177</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>2118</v>
+        <v>2087</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>659</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>2146</v>
+        <v>2115</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>2096</v>
+        <v>2071</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>1691</v>
+        <v>1666</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>2120</v>
+        <v>2089</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>2119</v>
+        <v>2088</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>620</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2307</v>
+        <v>2180</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>662</v>
@@ -11827,7 +11185,7 @@
         <v>15</v>
       </c>
       <c r="AD2" s="20" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="AE2" s="20" t="s">
         <v>15</v>
@@ -11873,7 +11231,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>2310</v>
+        <v>2181</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -11888,10 +11246,10 @@
         <v>144</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>2311</v>
+        <v>2182</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>2312</v>
+        <v>2183</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -11915,34 +11273,34 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2313</v>
+        <v>2184</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>2124</v>
+        <v>2093</v>
       </c>
       <c r="BJ2" s="15" t="s">
-        <v>2121</v>
+        <v>2090</v>
       </c>
       <c r="BK2" s="15" t="s">
-        <v>2122</v>
+        <v>2091</v>
       </c>
       <c r="BL2" s="15" t="s">
-        <v>2123</v>
+        <v>2092</v>
       </c>
       <c r="BM2" s="15" t="s">
-        <v>2304</v>
+        <v>2179</v>
       </c>
       <c r="BN2" s="15" t="s">
-        <v>2303</v>
+        <v>2178</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2231</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="14" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -11963,7 +11321,7 @@
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15" t="s">
-        <v>1671</v>
+        <v>1656</v>
       </c>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
@@ -12030,7 +11388,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
@@ -12105,7 +11463,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -12166,7 +11524,7 @@
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>2243</v>
+        <v>2155</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -12178,7 +11536,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -12239,7 +11597,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>2244</v>
+        <v>2156</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -12251,7 +11609,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -12312,7 +11670,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>2245</v>
+        <v>2157</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -12324,7 +11682,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -12385,7 +11743,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>2246</v>
+        <v>2158</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -12397,7 +11755,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
@@ -12458,7 +11816,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>2247</v>
+        <v>2159</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -12470,7 +11828,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -12531,61 +11889,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AB2" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
-  <dimension ref="A1:BP10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
+  <dimension ref="A1:BO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BE2" sqref="BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="25" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="25" width="21.33984375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="25" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="25" width="20.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="25" width="17.140625" collapsed="true"/>
-    <col min="6" max="11" style="25" width="9.140625" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" style="25" width="37.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="25" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="25" width="29.46484375" collapsed="true"/>
-    <col min="16" max="16" style="25" width="9.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="25" width="8.83984375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="25" width="5.42578125" collapsed="true"/>
-    <col min="19" max="19" style="25" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="25" width="14.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="25" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="25" width="11.140625" collapsed="true"/>
-    <col min="23" max="25" style="25" width="9.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="25" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="25" width="38.44921875" collapsed="true"/>
-    <col min="28" max="44" style="25" width="9.140625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="25" width="8.1796875" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="25" width="5.66796875" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="25" width="8.30859375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="25" width="13.1796875" collapsed="true"/>
-    <col min="49" max="49" style="25" width="9.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="25" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="25" width="13.6015625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="25" width="44.15234375" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="25" width="10.33984375" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="25" width="14.2265625" collapsed="true"/>
-    <col min="55" max="59" style="25" width="9.140625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="25" width="26.734375" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" style="25" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="25" width="28.85546875" collapsed="true"/>
-    <col min="63" max="64" bestFit="true" customWidth="true" style="25" width="37.28515625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="25" width="8.64453125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="25" width="14.12890625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="25" width="12.140625" collapsed="true"/>
-    <col min="68" max="16384" style="25" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.7109375" style="25" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="25" customWidth="1" collapsed="1"/>
+    <col min="6" max="11" width="9.140625" style="25" collapsed="1"/>
+    <col min="12" max="13" width="37.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29.42578125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.140625" style="25" collapsed="1"/>
+    <col min="17" max="17" width="8.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.42578125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="25" collapsed="1"/>
+    <col min="20" max="20" width="14.42578125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="25" width="9.140625" style="25" collapsed="1"/>
+    <col min="26" max="26" width="8.5703125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="38.42578125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.85546875" style="25" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9.140625" style="25" collapsed="1"/>
+    <col min="30" max="30" width="22.140625" style="25" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12" style="25" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.5703125" style="25" customWidth="1" collapsed="1"/>
+    <col min="33" max="44" width="9.140625" style="25" collapsed="1"/>
+    <col min="45" max="45" width="8.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="9.140625" style="25" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.5703125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="44.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="59" width="9.140625" style="25" collapsed="1"/>
+    <col min="60" max="60" width="26.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="37.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="8.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="14.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="16384" width="9.140625" style="25" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -12793,28 +12156,28 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>2202</v>
+        <v>2130</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>2380</v>
+        <v>2189</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>652</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>2095</v>
+        <v>2070</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>653</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>1692</v>
+        <v>1667</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>2097</v>
+        <v>2072</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>2116</v>
+        <v>2086</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>656</v>
@@ -12823,7 +12186,7 @@
         <v>657</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>2103</v>
+        <v>2073</v>
       </c>
       <c r="L2" s="25" t="s">
         <v>447</v>
@@ -12835,55 +12198,55 @@
         <v>447</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>2381</v>
+        <v>2190</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>2384</v>
+        <v>2192</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>2206</v>
+        <v>2132</v>
       </c>
       <c r="S2" s="25" t="s">
         <v>659</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>2209</v>
+        <v>2134</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>2200</v>
+        <v>2128</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>2201</v>
+        <v>2129</v>
       </c>
       <c r="W2" s="25" t="s">
-        <v>2120</v>
+        <v>2089</v>
       </c>
       <c r="X2" s="25" t="s">
-        <v>2119</v>
+        <v>2088</v>
       </c>
       <c r="Y2" s="25" t="s">
         <v>620</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>2208</v>
+        <v>2133</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>2377</v>
-      </c>
-      <c r="AB2" s="26" t="s">
-        <v>662</v>
+        <v>2186</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="AC2" s="25" t="s">
         <v>15</v>
       </c>
       <c r="AD2" s="26" t="s">
-        <v>1620</v>
+        <v>541</v>
       </c>
       <c r="AE2" s="26" t="s">
         <v>15</v>
       </c>
       <c r="AF2" s="26" t="s">
-        <v>541</v>
+        <v>2250</v>
       </c>
       <c r="AG2" s="25" t="s">
         <v>15</v>
@@ -12922,7 +12285,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="25" t="s">
-        <v>2334</v>
+        <v>2185</v>
       </c>
       <c r="AU2" s="25" t="s">
         <v>87</v>
@@ -12937,10 +12300,10 @@
         <v>461</v>
       </c>
       <c r="AY2" s="25" t="s">
-        <v>2378</v>
+        <v>2187</v>
       </c>
       <c r="AZ2" s="25" t="s">
-        <v>1652</v>
+        <v>1637</v>
       </c>
       <c r="BA2" s="24" t="s">
         <v>420</v>
@@ -12964,10 +12327,10 @@
         <v>411</v>
       </c>
       <c r="BH2" s="25" t="s">
-        <v>2379</v>
+        <v>2188</v>
       </c>
       <c r="BI2" s="25" t="s">
-        <v>2204</v>
+        <v>2131</v>
       </c>
       <c r="BJ2" s="25" t="s">
         <v>447</v>
@@ -12979,21 +12342,21 @@
         <v>447</v>
       </c>
       <c r="BM2" s="25" t="s">
-        <v>2386</v>
+        <v>2194</v>
       </c>
       <c r="BN2" s="25" t="s">
-        <v>2385</v>
+        <v>2193</v>
       </c>
       <c r="BO2" s="25" t="s">
-        <v>2160</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>2241</v>
+        <v>2251</v>
       </c>
       <c r="AD3" s="26" t="s">
         <v>540</v>
@@ -13004,21 +12367,21 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>2219</v>
+        <v>2136</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>2220</v>
+        <v>2137</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
@@ -13026,52 +12389,49 @@
         <v>1545</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>2221</v>
+        <v>2138</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>2222</v>
+        <v>2139</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>2223</v>
+        <v>2140</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>2214</v>
+        <v>2135</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="AB2" xr:uid="{CBB4546A-84E3-4AA0-844F-4EF590542F3D}"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -13079,12 +12439,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -13115,7 +12475,7 @@
         <v>607</v>
       </c>
       <c r="B2" t="s">
-        <v>2125</v>
+        <v>2094</v>
       </c>
       <c r="D2" t="s">
         <v>462</v>
@@ -13124,7 +12484,7 @@
         <v>500</v>
       </c>
       <c r="G2" t="s">
-        <v>2104</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -13132,7 +12492,7 @@
         <v>608</v>
       </c>
       <c r="B3" t="s">
-        <v>2126</v>
+        <v>2095</v>
       </c>
       <c r="D3" t="s">
         <v>463</v>
@@ -13141,7 +12501,7 @@
         <v>501</v>
       </c>
       <c r="G3" t="s">
-        <v>2105</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -13149,7 +12509,7 @@
         <v>609</v>
       </c>
       <c r="B4" t="s">
-        <v>2127</v>
+        <v>2096</v>
       </c>
       <c r="D4" t="s">
         <v>464</v>
@@ -13158,7 +12518,7 @@
         <v>502</v>
       </c>
       <c r="G4" t="s">
-        <v>2106</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13166,7 +12526,7 @@
         <v>610</v>
       </c>
       <c r="B5" t="s">
-        <v>2128</v>
+        <v>2097</v>
       </c>
       <c r="D5" t="s">
         <v>465</v>
@@ -13175,7 +12535,7 @@
         <v>503</v>
       </c>
       <c r="G5" t="s">
-        <v>2107</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -13183,7 +12543,7 @@
         <v>611</v>
       </c>
       <c r="B6" t="s">
-        <v>2129</v>
+        <v>2098</v>
       </c>
       <c r="D6" t="s">
         <v>466</v>
@@ -13192,7 +12552,7 @@
         <v>504</v>
       </c>
       <c r="G6" t="s">
-        <v>2108</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -13200,7 +12560,7 @@
         <v>612</v>
       </c>
       <c r="B7" t="s">
-        <v>2130</v>
+        <v>2099</v>
       </c>
       <c r="D7" t="s">
         <v>467</v>
@@ -13209,7 +12569,7 @@
         <v>505</v>
       </c>
       <c r="G7" t="s">
-        <v>2109</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -13226,7 +12586,7 @@
         <v>506</v>
       </c>
       <c r="G8" t="s">
-        <v>2110</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -13243,7 +12603,7 @@
         <v>507</v>
       </c>
       <c r="G9" t="s">
-        <v>2111</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -13260,7 +12620,7 @@
         <v>508</v>
       </c>
       <c r="G10" t="s">
-        <v>2112</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -13277,7 +12637,7 @@
         <v>509</v>
       </c>
       <c r="G11" t="s">
-        <v>2113</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -13294,7 +12654,7 @@
         <v>510</v>
       </c>
       <c r="G12" t="s">
-        <v>2114</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -13311,7 +12671,7 @@
         <v>511</v>
       </c>
       <c r="G13" t="s">
-        <v>2115</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -13523,51 +12883,52 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BP6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BO6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="41.87890625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="20.62109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="28.96875" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="49" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="42.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="22" customWidth="1"/>
+    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -13775,10 +13136,10 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2282</v>
+        <v>2165</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>633</v>
@@ -13793,7 +13154,7 @@
         <v>1547</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>2292</v>
+        <v>2173</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>1548</v>
@@ -13806,25 +13167,25 @@
         <v>1551</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>1655</v>
+        <v>1640</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>1656</v>
+        <v>1641</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>1654</v>
+        <v>1639</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="P2" s="16" t="s">
         <v>1541</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="S2" s="16" t="s">
         <v>538</v>
@@ -13839,7 +13200,7 @@
         <v>1542</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="X2" s="16" t="s">
         <v>438</v>
@@ -13848,10 +13209,10 @@
         <v>620</v>
       </c>
       <c r="Z2" s="16" t="s">
-        <v>1653</v>
+        <v>1638</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>2287</v>
+        <v>2249</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -13906,7 +13267,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="16" t="s">
-        <v>2288</v>
+        <v>2169</v>
       </c>
       <c r="AU2" s="16" t="s">
         <v>87</v>
@@ -13921,10 +13282,10 @@
         <v>144</v>
       </c>
       <c r="AY2" s="16" t="s">
-        <v>2289</v>
+        <v>2170</v>
       </c>
       <c r="AZ2" s="16" t="s">
-        <v>2290</v>
+        <v>2171</v>
       </c>
       <c r="BA2" s="17" t="s">
         <v>420</v>
@@ -13948,7 +13309,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="16" t="s">
-        <v>2291</v>
+        <v>2172</v>
       </c>
       <c r="BI2" s="16"/>
       <c r="BJ2" s="16"/>
@@ -13958,16 +13319,16 @@
         <v>1549</v>
       </c>
       <c r="BN2" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2195</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="6" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -13988,7 +13349,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
       <c r="U3" s="23" t="s">
-        <v>2196</v>
+        <v>2124</v>
       </c>
       <c r="V3" s="16"/>
       <c r="W3" s="16" t="s">
@@ -14175,14 +13536,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AE7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
@@ -14190,36 +13551,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.890625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.39453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.765625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="23.890625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.51171875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.39453125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.15234375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="26.890625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="25.9296875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="28.17578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -14331,25 +13692,25 @@
         <v>619</v>
       </c>
       <c r="F2" t="s">
-        <v>2284</v>
+        <v>2166</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>416</v>
       </c>
       <c r="H2" t="s">
-        <v>2285</v>
+        <v>2167</v>
       </c>
       <c r="I2" t="s">
-        <v>2286</v>
+        <v>2168</v>
       </c>
       <c r="J2" t="s">
         <v>1514</v>
       </c>
       <c r="K2" t="s">
-        <v>2257</v>
+        <v>2160</v>
       </c>
       <c r="L2" t="s">
-        <v>2258</v>
+        <v>2161</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>1337</v>
@@ -14358,7 +13719,7 @@
         <v>1515</v>
       </c>
       <c r="O2" t="s">
-        <v>2259</v>
+        <v>2162</v>
       </c>
       <c r="P2" t="s">
         <v>1516</v>
@@ -14370,7 +13731,7 @@
         <v>1513</v>
       </c>
       <c r="S2" t="s">
-        <v>2260</v>
+        <v>2163</v>
       </c>
       <c r="T2" t="s">
         <v>1512</v>
@@ -14505,13 +13866,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AF281"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:BN281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -14519,30 +13880,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.8359375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="37.0078125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.6328125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="15.78125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="65" max="66" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="18" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="66" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -14637,57 +13998,57 @@
         <v>1502</v>
       </c>
       <c r="AE1" t="s">
-        <v>1670</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>1716</v>
+        <v>1691</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1726</v>
+        <v>1701</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1736</v>
+        <v>1711</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1781</v>
+        <v>1756</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>1825</v>
+        <v>1800</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>2080</v>
+        <v>2055</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>2396</v>
+        <v>2195</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>2163</v>
+        <v>2121</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>2406</v>
+        <v>2205</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>2152</v>
+        <v>2116</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>2153</v>
+        <v>2117</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>2154</v>
+        <v>2118</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>2155</v>
+        <v>2119</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>2131</v>
+        <v>2100</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>1701</v>
+        <v>1676</v>
       </c>
       <c r="Q2" s="16" t="s">
         <v>693</v>
@@ -14705,7 +14066,7 @@
         <v>60</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>2428</v>
+        <v>2227</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>1518</v>
@@ -14729,52 +14090,52 @@
         <v>200</v>
       </c>
       <c r="AD2" t="s">
-        <v>2293</v>
+        <v>2174</v>
       </c>
       <c r="AE2" t="s">
-        <v>2228</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>1717</v>
+        <v>1692</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1727</v>
+        <v>1702</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1737</v>
+        <v>1712</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1782</v>
+        <v>1757</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>1826</v>
+        <v>1801</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>2081</v>
+        <v>2056</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>2397</v>
+        <v>2196</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>1657</v>
+        <v>1642</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>2407</v>
+        <v>2206</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16" t="s">
-        <v>2132</v>
+        <v>2101</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>1702</v>
+        <v>1677</v>
       </c>
       <c r="Q3" s="16" t="s">
         <v>697</v>
@@ -14792,7 +14153,7 @@
         <v>60</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>2429</v>
+        <v>2228</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>1517</v>
@@ -14816,49 +14177,49 @@
         <v>200</v>
       </c>
       <c r="AE3" t="s">
-        <v>2224</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>1718</v>
+        <v>1693</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1728</v>
+        <v>1703</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1738</v>
+        <v>1713</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>1783</v>
+        <v>1758</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>1827</v>
+        <v>1802</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>2082</v>
+        <v>2057</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>2398</v>
+        <v>2197</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>1658</v>
+        <v>1643</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>2408</v>
+        <v>2207</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16" t="s">
-        <v>2133</v>
+        <v>2102</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>1703</v>
+        <v>1678</v>
       </c>
       <c r="Q4" s="16" t="s">
         <v>701</v>
@@ -14876,7 +14237,7 @@
         <v>60</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>2383</v>
+        <v>2191</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>1519</v>
@@ -14900,49 +14261,49 @@
         <v>199</v>
       </c>
       <c r="AE4" t="s">
-        <v>2224</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>1719</v>
+        <v>1694</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1729</v>
+        <v>1704</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1739</v>
+        <v>1714</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>1784</v>
+        <v>1759</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>1828</v>
+        <v>1803</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>2083</v>
+        <v>2058</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>2399</v>
+        <v>2198</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>1659</v>
+        <v>1644</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>2409</v>
+        <v>2208</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16" t="s">
-        <v>2134</v>
+        <v>2103</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>1704</v>
+        <v>1679</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>705</v>
@@ -14960,7 +14321,7 @@
         <v>60</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>2451</v>
+        <v>2237</v>
       </c>
       <c r="W5" s="15" t="s">
         <v>1520</v>
@@ -14984,49 +14345,49 @@
         <v>199</v>
       </c>
       <c r="AE5" t="s">
-        <v>2224</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>1720</v>
+        <v>1695</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1730</v>
+        <v>1705</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1740</v>
+        <v>1715</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1785</v>
+        <v>1760</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>1829</v>
+        <v>1804</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>2084</v>
+        <v>2059</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>2400</v>
+        <v>2199</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>1660</v>
+        <v>1645</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>2410</v>
+        <v>2209</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16" t="s">
-        <v>2135</v>
+        <v>2104</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>1705</v>
+        <v>1680</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>709</v>
@@ -15064,49 +14425,49 @@
         <v>99</v>
       </c>
       <c r="AE6" t="s">
-        <v>2225</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>1721</v>
+        <v>1696</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>1731</v>
+        <v>1706</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>1741</v>
+        <v>1716</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1786</v>
+        <v>1761</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>1830</v>
+        <v>1805</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>2085</v>
+        <v>2060</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>2401</v>
+        <v>2200</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>1661</v>
+        <v>1646</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>2411</v>
+        <v>2210</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16" t="s">
-        <v>2136</v>
+        <v>2105</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>1706</v>
+        <v>1681</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>713</v>
@@ -15144,49 +14505,49 @@
         <v>199</v>
       </c>
       <c r="AE7" t="s">
-        <v>2225</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>1722</v>
+        <v>1697</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>1732</v>
+        <v>1707</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1742</v>
+        <v>1717</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>1787</v>
+        <v>1762</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>1831</v>
+        <v>1806</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>2086</v>
+        <v>2061</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>2402</v>
+        <v>2201</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>1662</v>
+        <v>1647</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>2412</v>
+        <v>2211</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16" t="s">
-        <v>2137</v>
+        <v>2106</v>
       </c>
       <c r="O8" s="15">
         <v>0.32</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>1707</v>
+        <v>1682</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>717</v>
@@ -15224,49 +14585,49 @@
         <v>99</v>
       </c>
       <c r="AE8" t="s">
-        <v>2225</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>1723</v>
+        <v>1698</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>1733</v>
+        <v>1708</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1743</v>
+        <v>1718</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>1788</v>
+        <v>1763</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>1832</v>
+        <v>1807</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>2087</v>
+        <v>2062</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>2403</v>
+        <v>2202</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>1663</v>
+        <v>1648</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>2413</v>
+        <v>2212</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16" t="s">
-        <v>2138</v>
+        <v>2107</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1708</v>
+        <v>1683</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>721</v>
@@ -15304,49 +14665,49 @@
         <v>299</v>
       </c>
       <c r="AE9" t="s">
-        <v>2224</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>1724</v>
+        <v>1699</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1734</v>
+        <v>1709</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1744</v>
+        <v>1719</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>1789</v>
+        <v>1764</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>1833</v>
+        <v>1808</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>2088</v>
+        <v>2063</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>2404</v>
+        <v>2203</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>257</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>2414</v>
+        <v>2213</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16" t="s">
-        <v>2139</v>
+        <v>2108</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1709</v>
+        <v>1684</v>
       </c>
       <c r="Q10" s="16" t="s">
         <v>725</v>
@@ -15384,30 +14745,30 @@
         <v>100</v>
       </c>
       <c r="AE10" t="s">
-        <v>2224</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>1725</v>
+        <v>1700</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>1735</v>
+        <v>1710</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>1745</v>
+        <v>1720</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>1790</v>
+        <v>1765</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>1834</v>
+        <v>1809</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>2089</v>
+        <v>2064</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>2405</v>
+        <v>2204</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>254</v>
@@ -15420,13 +14781,13 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16" t="s">
-        <v>2140</v>
+        <v>2109</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>1710</v>
+        <v>1685</v>
       </c>
       <c r="Q11" s="16" t="s">
         <v>730</v>
@@ -15464,23 +14825,23 @@
         <v>222</v>
       </c>
       <c r="AE11" t="s">
-        <v>2224</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>1746</v>
+        <v>1721</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>1791</v>
+        <v>1766</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>1835</v>
+        <v>1810</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>2090</v>
+        <v>2065</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>733</v>
@@ -15496,13 +14857,13 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16" t="s">
-        <v>2141</v>
+        <v>2110</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>1711</v>
+        <v>1686</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>736</v>
@@ -15540,23 +14901,23 @@
         <v>88</v>
       </c>
       <c r="AE12" t="s">
-        <v>2226</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>1747</v>
+        <v>1722</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>1792</v>
+        <v>1767</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>1836</v>
+        <v>1811</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>2091</v>
+        <v>2066</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -15566,13 +14927,13 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16" t="s">
-        <v>2142</v>
+        <v>2111</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>1712</v>
+        <v>1687</v>
       </c>
       <c r="Q13" s="16" t="s">
         <v>325</v>
@@ -15606,23 +14967,23 @@
         <v>99</v>
       </c>
       <c r="AE13" t="s">
-        <v>2227</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
-        <v>1748</v>
+        <v>1723</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>1793</v>
+        <v>1768</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>1837</v>
+        <v>1812</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>2092</v>
+        <v>2067</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -15632,13 +14993,13 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16" t="s">
-        <v>2143</v>
+        <v>2112</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>1713</v>
+        <v>1688</v>
       </c>
       <c r="Q14" s="16" t="s">
         <v>743</v>
@@ -15664,16 +15025,16 @@
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16" t="s">
-        <v>1749</v>
+        <v>1724</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>1794</v>
+        <v>1769</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>1838</v>
+        <v>1813</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>2093</v>
+        <v>2068</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -15683,13 +15044,13 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16" t="s">
-        <v>2144</v>
+        <v>2113</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1714</v>
+        <v>1689</v>
       </c>
       <c r="Q15" s="16" t="s">
         <v>747</v>
@@ -15715,16 +15076,16 @@
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16" t="s">
-        <v>1750</v>
+        <v>1725</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>1795</v>
+        <v>1770</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>1839</v>
+        <v>1814</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>2094</v>
+        <v>2069</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -15758,13 +15119,13 @@
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="16" t="s">
-        <v>1751</v>
+        <v>1726</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>1796</v>
+        <v>1771</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>1840</v>
+        <v>1815</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -15789,13 +15150,13 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18" s="16" t="s">
-        <v>1752</v>
+        <v>1727</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>1797</v>
+        <v>1772</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>1841</v>
+        <v>1816</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -15820,13 +15181,13 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="16" t="s">
-        <v>1753</v>
+        <v>1728</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>1798</v>
+        <v>1773</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>1842</v>
+        <v>1817</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -15851,13 +15212,13 @@
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20" s="16" t="s">
-        <v>1754</v>
+        <v>1729</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>1799</v>
+        <v>1774</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>1843</v>
+        <v>1818</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -15882,13 +15243,13 @@
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21" s="16" t="s">
-        <v>1755</v>
+        <v>1730</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>1800</v>
+        <v>1775</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>1844</v>
+        <v>1819</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -15913,13 +15274,13 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="16" t="s">
-        <v>1756</v>
+        <v>1731</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>1801</v>
+        <v>1776</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>1845</v>
+        <v>1820</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -15944,13 +15305,13 @@
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23" s="16" t="s">
-        <v>1757</v>
+        <v>1732</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>1802</v>
+        <v>1777</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>1846</v>
+        <v>1821</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -15975,13 +15336,13 @@
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24" s="16" t="s">
-        <v>1758</v>
+        <v>1733</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>1803</v>
+        <v>1778</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>1847</v>
+        <v>1822</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -16006,13 +15367,13 @@
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" s="16" t="s">
-        <v>1759</v>
+        <v>1734</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>1804</v>
+        <v>1779</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>1848</v>
+        <v>1823</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -16037,13 +15398,13 @@
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26" s="16" t="s">
-        <v>1760</v>
+        <v>1735</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>1805</v>
+        <v>1780</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>1849</v>
+        <v>1824</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -16068,13 +15429,13 @@
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" s="16" t="s">
-        <v>1761</v>
+        <v>1736</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>1806</v>
+        <v>1781</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>1850</v>
+        <v>1825</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -16099,13 +15460,13 @@
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="16" t="s">
-        <v>1762</v>
+        <v>1737</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>1807</v>
+        <v>1782</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>1851</v>
+        <v>1826</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -16130,13 +15491,13 @@
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C29" s="16" t="s">
-        <v>1763</v>
+        <v>1738</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>1808</v>
+        <v>1783</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>1852</v>
+        <v>1827</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -16161,13 +15522,13 @@
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C30" s="16" t="s">
-        <v>1764</v>
+        <v>1739</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>1809</v>
+        <v>1784</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>1853</v>
+        <v>1828</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -16192,13 +15553,13 @@
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C31" s="16" t="s">
-        <v>1765</v>
+        <v>1740</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>1810</v>
+        <v>1785</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>1854</v>
+        <v>1829</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -16223,13 +15584,13 @@
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C32" s="16" t="s">
-        <v>1766</v>
+        <v>1741</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>1811</v>
+        <v>1786</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>1855</v>
+        <v>1830</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -16254,13 +15615,13 @@
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33" s="16" t="s">
-        <v>1767</v>
+        <v>1742</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>1812</v>
+        <v>1787</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>1856</v>
+        <v>1831</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -16285,13 +15646,13 @@
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34" s="16" t="s">
-        <v>1768</v>
+        <v>1743</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>1813</v>
+        <v>1788</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>1857</v>
+        <v>1832</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -16316,13 +15677,13 @@
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35" s="16" t="s">
-        <v>1769</v>
+        <v>1744</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>1814</v>
+        <v>1789</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>1858</v>
+        <v>1833</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -16347,13 +15708,13 @@
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36" s="16" t="s">
-        <v>1770</v>
+        <v>1745</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>1815</v>
+        <v>1790</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>1859</v>
+        <v>1834</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -16378,13 +15739,13 @@
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="16" t="s">
-        <v>1771</v>
+        <v>1746</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>1816</v>
+        <v>1791</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>1860</v>
+        <v>1835</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -16409,13 +15770,13 @@
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38" s="16" t="s">
-        <v>1772</v>
+        <v>1747</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>1817</v>
+        <v>1792</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>1861</v>
+        <v>1836</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -16440,13 +15801,13 @@
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C39" s="16" t="s">
-        <v>1773</v>
+        <v>1748</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>1818</v>
+        <v>1793</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>1862</v>
+        <v>1837</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -16471,13 +15832,13 @@
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40" s="16" t="s">
-        <v>1774</v>
+        <v>1749</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>1819</v>
+        <v>1794</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>1863</v>
+        <v>1838</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -16502,13 +15863,13 @@
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C41" s="16" t="s">
-        <v>1775</v>
+        <v>1750</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>1820</v>
+        <v>1795</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>1864</v>
+        <v>1839</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -16533,13 +15894,13 @@
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42" s="16" t="s">
-        <v>1776</v>
+        <v>1751</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>1821</v>
+        <v>1796</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>1865</v>
+        <v>1840</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -16564,13 +15925,13 @@
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43" s="16" t="s">
-        <v>1777</v>
+        <v>1752</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>1822</v>
+        <v>1797</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>1866</v>
+        <v>1841</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -16595,13 +15956,13 @@
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C44" s="16" t="s">
-        <v>1778</v>
+        <v>1753</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>1823</v>
+        <v>1798</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>1867</v>
+        <v>1842</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
@@ -16626,13 +15987,13 @@
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45" s="16" t="s">
-        <v>1779</v>
+        <v>1754</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>1824</v>
+        <v>1799</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>1868</v>
+        <v>1843</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
@@ -16657,11 +16018,11 @@
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C46" s="16" t="s">
-        <v>1780</v>
+        <v>1755</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16" t="s">
-        <v>1869</v>
+        <v>1844</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
@@ -16688,7 +16049,7 @@
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16" t="s">
-        <v>1870</v>
+        <v>1845</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -16715,7 +16076,7 @@
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16" t="s">
-        <v>1871</v>
+        <v>1846</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
@@ -16740,7 +16101,7 @@
     </row>
     <row r="49" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E49" s="16" t="s">
-        <v>1872</v>
+        <v>1847</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
@@ -16765,7 +16126,7 @@
     </row>
     <row r="50" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E50" s="16" t="s">
-        <v>1873</v>
+        <v>1848</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
@@ -16790,7 +16151,7 @@
     </row>
     <row r="51" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E51" s="16" t="s">
-        <v>1874</v>
+        <v>1849</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
@@ -16815,7 +16176,7 @@
     </row>
     <row r="52" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E52" s="16" t="s">
-        <v>1875</v>
+        <v>1850</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
@@ -16840,7 +16201,7 @@
     </row>
     <row r="53" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E53" s="16" t="s">
-        <v>1876</v>
+        <v>1851</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
@@ -16865,7 +16226,7 @@
     </row>
     <row r="54" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E54" s="16" t="s">
-        <v>1877</v>
+        <v>1852</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
@@ -16890,7 +16251,7 @@
     </row>
     <row r="55" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E55" s="16" t="s">
-        <v>1878</v>
+        <v>1853</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
@@ -16915,7 +16276,7 @@
     </row>
     <row r="56" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E56" s="16" t="s">
-        <v>1879</v>
+        <v>1854</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
@@ -16940,7 +16301,7 @@
     </row>
     <row r="57" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E57" s="16" t="s">
-        <v>1880</v>
+        <v>1855</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
@@ -16965,7 +16326,7 @@
     </row>
     <row r="58" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E58" s="16" t="s">
-        <v>1881</v>
+        <v>1856</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
@@ -16990,7 +16351,7 @@
     </row>
     <row r="59" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E59" s="16" t="s">
-        <v>1882</v>
+        <v>1857</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
@@ -17015,7 +16376,7 @@
     </row>
     <row r="60" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E60" s="16" t="s">
-        <v>1883</v>
+        <v>1858</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
@@ -17040,7 +16401,7 @@
     </row>
     <row r="61" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E61" s="16" t="s">
-        <v>1884</v>
+        <v>1859</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
@@ -17065,7 +16426,7 @@
     </row>
     <row r="62" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E62" s="16" t="s">
-        <v>1885</v>
+        <v>1860</v>
       </c>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
@@ -17090,7 +16451,7 @@
     </row>
     <row r="63" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E63" s="16" t="s">
-        <v>1886</v>
+        <v>1861</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
@@ -17115,7 +16476,7 @@
     </row>
     <row r="64" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E64" s="16" t="s">
-        <v>1887</v>
+        <v>1862</v>
       </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
@@ -17140,7 +16501,7 @@
     </row>
     <row r="65" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E65" s="16" t="s">
-        <v>1888</v>
+        <v>1863</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
@@ -17165,7 +16526,7 @@
     </row>
     <row r="66" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E66" s="16" t="s">
-        <v>1889</v>
+        <v>1864</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
@@ -17190,7 +16551,7 @@
     </row>
     <row r="67" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E67" s="16" t="s">
-        <v>1890</v>
+        <v>1865</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
@@ -17215,7 +16576,7 @@
     </row>
     <row r="68" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E68" s="16" t="s">
-        <v>1891</v>
+        <v>1866</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
@@ -17240,7 +16601,7 @@
     </row>
     <row r="69" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E69" s="16" t="s">
-        <v>1892</v>
+        <v>1867</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
@@ -17265,7 +16626,7 @@
     </row>
     <row r="70" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E70" s="16" t="s">
-        <v>1893</v>
+        <v>1868</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
@@ -17290,7 +16651,7 @@
     </row>
     <row r="71" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E71" s="16" t="s">
-        <v>1894</v>
+        <v>1869</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
@@ -17315,7 +16676,7 @@
     </row>
     <row r="72" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E72" s="16" t="s">
-        <v>1895</v>
+        <v>1870</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
@@ -17340,7 +16701,7 @@
     </row>
     <row r="73" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E73" s="16" t="s">
-        <v>1896</v>
+        <v>1871</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
@@ -17365,7 +16726,7 @@
     </row>
     <row r="74" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E74" s="16" t="s">
-        <v>1897</v>
+        <v>1872</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
@@ -17390,7 +16751,7 @@
     </row>
     <row r="75" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E75" s="16" t="s">
-        <v>1898</v>
+        <v>1873</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
@@ -17415,7 +16776,7 @@
     </row>
     <row r="76" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E76" s="16" t="s">
-        <v>1899</v>
+        <v>1874</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
@@ -17440,7 +16801,7 @@
     </row>
     <row r="77" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E77" s="16" t="s">
-        <v>1900</v>
+        <v>1875</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
@@ -17465,7 +16826,7 @@
     </row>
     <row r="78" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E78" s="16" t="s">
-        <v>1901</v>
+        <v>1876</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
@@ -17490,7 +16851,7 @@
     </row>
     <row r="79" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E79" s="16" t="s">
-        <v>1902</v>
+        <v>1877</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
@@ -17515,7 +16876,7 @@
     </row>
     <row r="80" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E80" s="16" t="s">
-        <v>1903</v>
+        <v>1878</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
@@ -17540,7 +16901,7 @@
     </row>
     <row r="81" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E81" s="16" t="s">
-        <v>1904</v>
+        <v>1879</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
@@ -17565,7 +16926,7 @@
     </row>
     <row r="82" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E82" s="16" t="s">
-        <v>1905</v>
+        <v>1880</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
@@ -17590,7 +16951,7 @@
     </row>
     <row r="83" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E83" s="16" t="s">
-        <v>1906</v>
+        <v>1881</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
@@ -17615,7 +16976,7 @@
     </row>
     <row r="84" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E84" s="16" t="s">
-        <v>1907</v>
+        <v>1882</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
@@ -17640,7 +17001,7 @@
     </row>
     <row r="85" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E85" s="16" t="s">
-        <v>1908</v>
+        <v>1883</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
@@ -17665,7 +17026,7 @@
     </row>
     <row r="86" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E86" s="16" t="s">
-        <v>1909</v>
+        <v>1884</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
@@ -17690,7 +17051,7 @@
     </row>
     <row r="87" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E87" s="16" t="s">
-        <v>1910</v>
+        <v>1885</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
@@ -17715,7 +17076,7 @@
     </row>
     <row r="88" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E88" s="16" t="s">
-        <v>1911</v>
+        <v>1886</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
@@ -17740,7 +17101,7 @@
     </row>
     <row r="89" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E89" s="16" t="s">
-        <v>1912</v>
+        <v>1887</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
@@ -17765,7 +17126,7 @@
     </row>
     <row r="90" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E90" s="16" t="s">
-        <v>1913</v>
+        <v>1888</v>
       </c>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
@@ -17790,7 +17151,7 @@
     </row>
     <row r="91" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E91" s="16" t="s">
-        <v>1914</v>
+        <v>1889</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
@@ -17815,7 +17176,7 @@
     </row>
     <row r="92" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E92" s="16" t="s">
-        <v>1915</v>
+        <v>1890</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
@@ -17840,7 +17201,7 @@
     </row>
     <row r="93" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E93" s="16" t="s">
-        <v>1916</v>
+        <v>1891</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
@@ -17865,7 +17226,7 @@
     </row>
     <row r="94" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E94" s="16" t="s">
-        <v>1917</v>
+        <v>1892</v>
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
@@ -17890,7 +17251,7 @@
     </row>
     <row r="95" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E95" s="16" t="s">
-        <v>1918</v>
+        <v>1893</v>
       </c>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
@@ -17915,7 +17276,7 @@
     </row>
     <row r="96" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E96" s="16" t="s">
-        <v>1919</v>
+        <v>1894</v>
       </c>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
@@ -17940,7 +17301,7 @@
     </row>
     <row r="97" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E97" s="16" t="s">
-        <v>1920</v>
+        <v>1895</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
@@ -17965,7 +17326,7 @@
     </row>
     <row r="98" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E98" s="16" t="s">
-        <v>1921</v>
+        <v>1896</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
@@ -17990,7 +17351,7 @@
     </row>
     <row r="99" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E99" s="16" t="s">
-        <v>1922</v>
+        <v>1897</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
@@ -18015,7 +17376,7 @@
     </row>
     <row r="100" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E100" s="16" t="s">
-        <v>1923</v>
+        <v>1898</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
@@ -18040,7 +17401,7 @@
     </row>
     <row r="101" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E101" s="16" t="s">
-        <v>1924</v>
+        <v>1899</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
@@ -18065,7 +17426,7 @@
     </row>
     <row r="102" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E102" s="16" t="s">
-        <v>1925</v>
+        <v>1900</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
@@ -18090,7 +17451,7 @@
     </row>
     <row r="103" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E103" s="16" t="s">
-        <v>1926</v>
+        <v>1901</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
@@ -18115,7 +17476,7 @@
     </row>
     <row r="104" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E104" s="16" t="s">
-        <v>1927</v>
+        <v>1902</v>
       </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
@@ -18140,7 +17501,7 @@
     </row>
     <row r="105" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E105" s="16" t="s">
-        <v>1928</v>
+        <v>1903</v>
       </c>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
@@ -18165,7 +17526,7 @@
     </row>
     <row r="106" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E106" s="16" t="s">
-        <v>1929</v>
+        <v>1904</v>
       </c>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
@@ -18190,7 +17551,7 @@
     </row>
     <row r="107" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E107" s="16" t="s">
-        <v>1930</v>
+        <v>1905</v>
       </c>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
@@ -18215,7 +17576,7 @@
     </row>
     <row r="108" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E108" s="16" t="s">
-        <v>1931</v>
+        <v>1906</v>
       </c>
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
@@ -18240,7 +17601,7 @@
     </row>
     <row r="109" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E109" s="16" t="s">
-        <v>1932</v>
+        <v>1907</v>
       </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
@@ -18265,7 +17626,7 @@
     </row>
     <row r="110" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E110" s="16" t="s">
-        <v>1933</v>
+        <v>1908</v>
       </c>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
@@ -18290,7 +17651,7 @@
     </row>
     <row r="111" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E111" s="16" t="s">
-        <v>1934</v>
+        <v>1909</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
@@ -18315,7 +17676,7 @@
     </row>
     <row r="112" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E112" s="16" t="s">
-        <v>1935</v>
+        <v>1910</v>
       </c>
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
@@ -18340,7 +17701,7 @@
     </row>
     <row r="113" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E113" s="16" t="s">
-        <v>1936</v>
+        <v>1911</v>
       </c>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
@@ -18365,7 +17726,7 @@
     </row>
     <row r="114" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E114" s="16" t="s">
-        <v>1937</v>
+        <v>1912</v>
       </c>
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
@@ -18390,7 +17751,7 @@
     </row>
     <row r="115" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E115" s="16" t="s">
-        <v>1938</v>
+        <v>1913</v>
       </c>
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
@@ -18415,7 +17776,7 @@
     </row>
     <row r="116" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E116" s="16" t="s">
-        <v>1939</v>
+        <v>1914</v>
       </c>
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
@@ -18440,7 +17801,7 @@
     </row>
     <row r="117" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E117" s="16" t="s">
-        <v>1940</v>
+        <v>1915</v>
       </c>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
@@ -18465,7 +17826,7 @@
     </row>
     <row r="118" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E118" s="16" t="s">
-        <v>1941</v>
+        <v>1916</v>
       </c>
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
@@ -18490,7 +17851,7 @@
     </row>
     <row r="119" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E119" s="16" t="s">
-        <v>1942</v>
+        <v>1917</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="16"/>
@@ -18515,7 +17876,7 @@
     </row>
     <row r="120" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E120" s="16" t="s">
-        <v>1943</v>
+        <v>1918</v>
       </c>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
@@ -18540,7 +17901,7 @@
     </row>
     <row r="121" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E121" s="16" t="s">
-        <v>1944</v>
+        <v>1919</v>
       </c>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
@@ -18565,7 +17926,7 @@
     </row>
     <row r="122" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E122" s="16" t="s">
-        <v>1945</v>
+        <v>1920</v>
       </c>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
@@ -18590,7 +17951,7 @@
     </row>
     <row r="123" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E123" s="16" t="s">
-        <v>1946</v>
+        <v>1921</v>
       </c>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
@@ -18615,7 +17976,7 @@
     </row>
     <row r="124" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E124" s="16" t="s">
-        <v>1947</v>
+        <v>1922</v>
       </c>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
@@ -18640,7 +18001,7 @@
     </row>
     <row r="125" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E125" s="16" t="s">
-        <v>1948</v>
+        <v>1923</v>
       </c>
       <c r="F125" s="16"/>
       <c r="G125" s="16"/>
@@ -18665,7 +18026,7 @@
     </row>
     <row r="126" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E126" s="16" t="s">
-        <v>1949</v>
+        <v>1924</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
@@ -18690,7 +18051,7 @@
     </row>
     <row r="127" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E127" s="16" t="s">
-        <v>1950</v>
+        <v>1925</v>
       </c>
       <c r="F127" s="16"/>
       <c r="G127" s="16"/>
@@ -18715,7 +18076,7 @@
     </row>
     <row r="128" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E128" s="16" t="s">
-        <v>1951</v>
+        <v>1926</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
@@ -18740,7 +18101,7 @@
     </row>
     <row r="129" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E129" s="16" t="s">
-        <v>1952</v>
+        <v>1927</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
@@ -18765,7 +18126,7 @@
     </row>
     <row r="130" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E130" s="16" t="s">
-        <v>1953</v>
+        <v>1928</v>
       </c>
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
@@ -18790,7 +18151,7 @@
     </row>
     <row r="131" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E131" s="16" t="s">
-        <v>1954</v>
+        <v>1929</v>
       </c>
       <c r="F131" s="16"/>
       <c r="G131" s="16"/>
@@ -18815,7 +18176,7 @@
     </row>
     <row r="132" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E132" s="16" t="s">
-        <v>1955</v>
+        <v>1930</v>
       </c>
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
@@ -18840,7 +18201,7 @@
     </row>
     <row r="133" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E133" s="16" t="s">
-        <v>1956</v>
+        <v>1931</v>
       </c>
       <c r="F133" s="16"/>
       <c r="G133" s="16"/>
@@ -18865,7 +18226,7 @@
     </row>
     <row r="134" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E134" s="16" t="s">
-        <v>1957</v>
+        <v>1932</v>
       </c>
       <c r="F134" s="16"/>
       <c r="G134" s="16"/>
@@ -18890,7 +18251,7 @@
     </row>
     <row r="135" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E135" s="16" t="s">
-        <v>1958</v>
+        <v>1933</v>
       </c>
       <c r="F135" s="16"/>
       <c r="G135" s="16"/>
@@ -18915,7 +18276,7 @@
     </row>
     <row r="136" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E136" s="16" t="s">
-        <v>1959</v>
+        <v>1934</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
@@ -18940,7 +18301,7 @@
     </row>
     <row r="137" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E137" s="16" t="s">
-        <v>1960</v>
+        <v>1935</v>
       </c>
       <c r="F137" s="16"/>
       <c r="G137" s="16"/>
@@ -18965,7 +18326,7 @@
     </row>
     <row r="138" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E138" s="16" t="s">
-        <v>1961</v>
+        <v>1936</v>
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
@@ -18990,7 +18351,7 @@
     </row>
     <row r="139" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E139" s="16" t="s">
-        <v>1962</v>
+        <v>1937</v>
       </c>
       <c r="F139" s="16"/>
       <c r="G139" s="16"/>
@@ -19015,7 +18376,7 @@
     </row>
     <row r="140" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E140" s="16" t="s">
-        <v>1963</v>
+        <v>1938</v>
       </c>
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
@@ -19040,7 +18401,7 @@
     </row>
     <row r="141" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E141" s="16" t="s">
-        <v>1964</v>
+        <v>1939</v>
       </c>
       <c r="F141" s="16"/>
       <c r="G141" s="16"/>
@@ -19065,7 +18426,7 @@
     </row>
     <row r="142" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E142" s="16" t="s">
-        <v>1965</v>
+        <v>1940</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
@@ -19090,7 +18451,7 @@
     </row>
     <row r="143" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E143" s="16" t="s">
-        <v>1966</v>
+        <v>1941</v>
       </c>
       <c r="F143" s="16"/>
       <c r="G143" s="16"/>
@@ -19115,7 +18476,7 @@
     </row>
     <row r="144" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E144" s="16" t="s">
-        <v>1967</v>
+        <v>1942</v>
       </c>
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
@@ -19140,7 +18501,7 @@
     </row>
     <row r="145" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E145" s="16" t="s">
-        <v>1968</v>
+        <v>1943</v>
       </c>
       <c r="F145" s="16"/>
       <c r="G145" s="16"/>
@@ -19165,7 +18526,7 @@
     </row>
     <row r="146" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E146" s="16" t="s">
-        <v>1969</v>
+        <v>1944</v>
       </c>
       <c r="F146" s="16"/>
       <c r="G146" s="16"/>
@@ -19190,7 +18551,7 @@
     </row>
     <row r="147" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E147" s="16" t="s">
-        <v>1970</v>
+        <v>1945</v>
       </c>
       <c r="F147" s="16"/>
       <c r="G147" s="16"/>
@@ -19215,7 +18576,7 @@
     </row>
     <row r="148" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E148" s="16" t="s">
-        <v>1971</v>
+        <v>1946</v>
       </c>
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
@@ -19240,7 +18601,7 @@
     </row>
     <row r="149" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E149" s="16" t="s">
-        <v>1972</v>
+        <v>1947</v>
       </c>
       <c r="F149" s="16"/>
       <c r="G149" s="16"/>
@@ -19265,7 +18626,7 @@
     </row>
     <row r="150" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E150" s="16" t="s">
-        <v>1973</v>
+        <v>1948</v>
       </c>
       <c r="F150" s="16"/>
       <c r="G150" s="16"/>
@@ -19290,7 +18651,7 @@
     </row>
     <row r="151" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E151" s="16" t="s">
-        <v>1974</v>
+        <v>1949</v>
       </c>
       <c r="F151" s="16"/>
       <c r="G151" s="16"/>
@@ -19315,7 +18676,7 @@
     </row>
     <row r="152" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E152" s="16" t="s">
-        <v>1975</v>
+        <v>1950</v>
       </c>
       <c r="F152" s="16"/>
       <c r="G152" s="16"/>
@@ -19340,7 +18701,7 @@
     </row>
     <row r="153" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E153" s="16" t="s">
-        <v>1976</v>
+        <v>1951</v>
       </c>
       <c r="F153" s="16"/>
       <c r="G153" s="16"/>
@@ -19365,7 +18726,7 @@
     </row>
     <row r="154" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E154" s="16" t="s">
-        <v>1977</v>
+        <v>1952</v>
       </c>
       <c r="F154" s="16"/>
       <c r="G154" s="16"/>
@@ -19390,7 +18751,7 @@
     </row>
     <row r="155" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E155" s="16" t="s">
-        <v>1978</v>
+        <v>1953</v>
       </c>
       <c r="F155" s="16"/>
       <c r="G155" s="16"/>
@@ -19415,7 +18776,7 @@
     </row>
     <row r="156" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E156" s="16" t="s">
-        <v>1979</v>
+        <v>1954</v>
       </c>
       <c r="F156" s="16"/>
       <c r="G156" s="16"/>
@@ -19440,7 +18801,7 @@
     </row>
     <row r="157" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E157" s="16" t="s">
-        <v>1980</v>
+        <v>1955</v>
       </c>
       <c r="F157" s="16"/>
       <c r="G157" s="16"/>
@@ -19465,7 +18826,7 @@
     </row>
     <row r="158" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E158" s="16" t="s">
-        <v>1981</v>
+        <v>1956</v>
       </c>
       <c r="F158" s="16"/>
       <c r="G158" s="16"/>
@@ -19490,7 +18851,7 @@
     </row>
     <row r="159" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E159" s="16" t="s">
-        <v>1982</v>
+        <v>1957</v>
       </c>
       <c r="F159" s="16"/>
       <c r="G159" s="16"/>
@@ -19515,7 +18876,7 @@
     </row>
     <row r="160" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E160" s="16" t="s">
-        <v>1983</v>
+        <v>1958</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="16"/>
@@ -19540,7 +18901,7 @@
     </row>
     <row r="161" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E161" s="16" t="s">
-        <v>1984</v>
+        <v>1959</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="16"/>
@@ -19565,7 +18926,7 @@
     </row>
     <row r="162" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E162" s="16" t="s">
-        <v>1985</v>
+        <v>1960</v>
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="16"/>
@@ -19590,7 +18951,7 @@
     </row>
     <row r="163" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E163" s="16" t="s">
-        <v>1986</v>
+        <v>1961</v>
       </c>
       <c r="F163" s="16"/>
       <c r="G163" s="16"/>
@@ -19615,7 +18976,7 @@
     </row>
     <row r="164" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E164" s="16" t="s">
-        <v>1987</v>
+        <v>1962</v>
       </c>
       <c r="F164" s="16"/>
       <c r="G164" s="16"/>
@@ -19640,7 +19001,7 @@
     </row>
     <row r="165" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E165" s="16" t="s">
-        <v>1988</v>
+        <v>1963</v>
       </c>
       <c r="F165" s="16"/>
       <c r="G165" s="16"/>
@@ -19665,7 +19026,7 @@
     </row>
     <row r="166" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E166" s="16" t="s">
-        <v>1989</v>
+        <v>1964</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
@@ -19690,7 +19051,7 @@
     </row>
     <row r="167" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E167" s="16" t="s">
-        <v>1990</v>
+        <v>1965</v>
       </c>
       <c r="F167" s="16"/>
       <c r="G167" s="16"/>
@@ -19715,7 +19076,7 @@
     </row>
     <row r="168" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E168" s="16" t="s">
-        <v>1991</v>
+        <v>1966</v>
       </c>
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
@@ -19740,7 +19101,7 @@
     </row>
     <row r="169" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E169" s="16" t="s">
-        <v>1992</v>
+        <v>1967</v>
       </c>
       <c r="F169" s="16"/>
       <c r="G169" s="16"/>
@@ -19765,7 +19126,7 @@
     </row>
     <row r="170" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E170" s="16" t="s">
-        <v>1993</v>
+        <v>1968</v>
       </c>
       <c r="F170" s="16"/>
       <c r="G170" s="16"/>
@@ -19790,7 +19151,7 @@
     </row>
     <row r="171" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E171" s="16" t="s">
-        <v>1994</v>
+        <v>1969</v>
       </c>
       <c r="F171" s="16"/>
       <c r="G171" s="16"/>
@@ -19815,7 +19176,7 @@
     </row>
     <row r="172" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E172" s="16" t="s">
-        <v>1995</v>
+        <v>1970</v>
       </c>
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
@@ -19840,7 +19201,7 @@
     </row>
     <row r="173" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E173" s="16" t="s">
-        <v>1996</v>
+        <v>1971</v>
       </c>
       <c r="F173" s="16"/>
       <c r="G173" s="16"/>
@@ -19865,7 +19226,7 @@
     </row>
     <row r="174" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E174" s="16" t="s">
-        <v>1997</v>
+        <v>1972</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="16"/>
@@ -19890,7 +19251,7 @@
     </row>
     <row r="175" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E175" s="16" t="s">
-        <v>1998</v>
+        <v>1973</v>
       </c>
       <c r="F175" s="16"/>
       <c r="G175" s="16"/>
@@ -19915,7 +19276,7 @@
     </row>
     <row r="176" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E176" s="16" t="s">
-        <v>1999</v>
+        <v>1974</v>
       </c>
       <c r="F176" s="16"/>
       <c r="G176" s="16"/>
@@ -19940,7 +19301,7 @@
     </row>
     <row r="177" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E177" s="16" t="s">
-        <v>2000</v>
+        <v>1975</v>
       </c>
       <c r="F177" s="16"/>
       <c r="G177" s="16"/>
@@ -19965,7 +19326,7 @@
     </row>
     <row r="178" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E178" s="16" t="s">
-        <v>2001</v>
+        <v>1976</v>
       </c>
       <c r="F178" s="16"/>
       <c r="G178" s="16"/>
@@ -19990,7 +19351,7 @@
     </row>
     <row r="179" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E179" s="16" t="s">
-        <v>2002</v>
+        <v>1977</v>
       </c>
       <c r="F179" s="16"/>
       <c r="G179" s="16"/>
@@ -20015,7 +19376,7 @@
     </row>
     <row r="180" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E180" s="16" t="s">
-        <v>2003</v>
+        <v>1978</v>
       </c>
       <c r="F180" s="16"/>
       <c r="G180" s="16"/>
@@ -20040,7 +19401,7 @@
     </row>
     <row r="181" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E181" s="16" t="s">
-        <v>2004</v>
+        <v>1979</v>
       </c>
       <c r="F181" s="16"/>
       <c r="G181" s="16"/>
@@ -20065,7 +19426,7 @@
     </row>
     <row r="182" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E182" s="16" t="s">
-        <v>2005</v>
+        <v>1980</v>
       </c>
       <c r="F182" s="16"/>
       <c r="G182" s="16"/>
@@ -20090,7 +19451,7 @@
     </row>
     <row r="183" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E183" s="16" t="s">
-        <v>2006</v>
+        <v>1981</v>
       </c>
       <c r="F183" s="16"/>
       <c r="G183" s="16"/>
@@ -20115,7 +19476,7 @@
     </row>
     <row r="184" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E184" s="16" t="s">
-        <v>2007</v>
+        <v>1982</v>
       </c>
       <c r="F184" s="16"/>
       <c r="G184" s="16"/>
@@ -20140,7 +19501,7 @@
     </row>
     <row r="185" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E185" s="16" t="s">
-        <v>2008</v>
+        <v>1983</v>
       </c>
       <c r="F185" s="16"/>
       <c r="G185" s="16"/>
@@ -20165,7 +19526,7 @@
     </row>
     <row r="186" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E186" s="16" t="s">
-        <v>2009</v>
+        <v>1984</v>
       </c>
       <c r="F186" s="16"/>
       <c r="G186" s="16"/>
@@ -20190,7 +19551,7 @@
     </row>
     <row r="187" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E187" s="16" t="s">
-        <v>2010</v>
+        <v>1985</v>
       </c>
       <c r="F187" s="16"/>
       <c r="G187" s="16"/>
@@ -20215,7 +19576,7 @@
     </row>
     <row r="188" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E188" s="16" t="s">
-        <v>2011</v>
+        <v>1986</v>
       </c>
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
@@ -20240,7 +19601,7 @@
     </row>
     <row r="189" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E189" s="16" t="s">
-        <v>2012</v>
+        <v>1987</v>
       </c>
       <c r="F189" s="16"/>
       <c r="G189" s="16"/>
@@ -20265,7 +19626,7 @@
     </row>
     <row r="190" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E190" s="16" t="s">
-        <v>2013</v>
+        <v>1988</v>
       </c>
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
@@ -20290,7 +19651,7 @@
     </row>
     <row r="191" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E191" s="16" t="s">
-        <v>2014</v>
+        <v>1989</v>
       </c>
       <c r="F191" s="16"/>
       <c r="G191" s="16"/>
@@ -20315,7 +19676,7 @@
     </row>
     <row r="192" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E192" s="16" t="s">
-        <v>2015</v>
+        <v>1990</v>
       </c>
       <c r="F192" s="16"/>
       <c r="G192" s="16"/>
@@ -20340,7 +19701,7 @@
     </row>
     <row r="193" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E193" s="16" t="s">
-        <v>2016</v>
+        <v>1991</v>
       </c>
       <c r="F193" s="16"/>
       <c r="G193" s="16"/>
@@ -20365,7 +19726,7 @@
     </row>
     <row r="194" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E194" s="16" t="s">
-        <v>2017</v>
+        <v>1992</v>
       </c>
       <c r="F194" s="16"/>
       <c r="G194" s="16"/>
@@ -20390,7 +19751,7 @@
     </row>
     <row r="195" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E195" s="16" t="s">
-        <v>2018</v>
+        <v>1993</v>
       </c>
       <c r="F195" s="16"/>
       <c r="G195" s="16"/>
@@ -20415,7 +19776,7 @@
     </row>
     <row r="196" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E196" s="16" t="s">
-        <v>2019</v>
+        <v>1994</v>
       </c>
       <c r="F196" s="16"/>
       <c r="G196" s="16"/>
@@ -20440,7 +19801,7 @@
     </row>
     <row r="197" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E197" s="16" t="s">
-        <v>2020</v>
+        <v>1995</v>
       </c>
       <c r="F197" s="16"/>
       <c r="G197" s="16"/>
@@ -20465,7 +19826,7 @@
     </row>
     <row r="198" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E198" s="16" t="s">
-        <v>2021</v>
+        <v>1996</v>
       </c>
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
@@ -20490,7 +19851,7 @@
     </row>
     <row r="199" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E199" s="16" t="s">
-        <v>2022</v>
+        <v>1997</v>
       </c>
       <c r="F199" s="16"/>
       <c r="G199" s="16"/>
@@ -20515,7 +19876,7 @@
     </row>
     <row r="200" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E200" s="16" t="s">
-        <v>2023</v>
+        <v>1998</v>
       </c>
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
@@ -20540,7 +19901,7 @@
     </row>
     <row r="201" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E201" s="16" t="s">
-        <v>2024</v>
+        <v>1999</v>
       </c>
       <c r="F201" s="16"/>
       <c r="G201" s="16"/>
@@ -20565,7 +19926,7 @@
     </row>
     <row r="202" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E202" s="16" t="s">
-        <v>2025</v>
+        <v>2000</v>
       </c>
       <c r="F202" s="16"/>
       <c r="G202" s="16"/>
@@ -20590,7 +19951,7 @@
     </row>
     <row r="203" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E203" s="16" t="s">
-        <v>2026</v>
+        <v>2001</v>
       </c>
       <c r="F203" s="16"/>
       <c r="G203" s="16"/>
@@ -20615,7 +19976,7 @@
     </row>
     <row r="204" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E204" s="16" t="s">
-        <v>2027</v>
+        <v>2002</v>
       </c>
       <c r="F204" s="16"/>
       <c r="G204" s="16"/>
@@ -20640,7 +20001,7 @@
     </row>
     <row r="205" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E205" s="16" t="s">
-        <v>2028</v>
+        <v>2003</v>
       </c>
       <c r="F205" s="16"/>
       <c r="G205" s="16"/>
@@ -20665,7 +20026,7 @@
     </row>
     <row r="206" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E206" s="16" t="s">
-        <v>2029</v>
+        <v>2004</v>
       </c>
       <c r="F206" s="16"/>
       <c r="G206" s="16"/>
@@ -20690,7 +20051,7 @@
     </row>
     <row r="207" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E207" s="16" t="s">
-        <v>2030</v>
+        <v>2005</v>
       </c>
       <c r="F207" s="16"/>
       <c r="G207" s="16"/>
@@ -20715,7 +20076,7 @@
     </row>
     <row r="208" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E208" s="16" t="s">
-        <v>2031</v>
+        <v>2006</v>
       </c>
       <c r="F208" s="16"/>
       <c r="G208" s="16"/>
@@ -20740,7 +20101,7 @@
     </row>
     <row r="209" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E209" s="16" t="s">
-        <v>2032</v>
+        <v>2007</v>
       </c>
       <c r="F209" s="16"/>
       <c r="G209" s="16"/>
@@ -20765,7 +20126,7 @@
     </row>
     <row r="210" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E210" s="16" t="s">
-        <v>2033</v>
+        <v>2008</v>
       </c>
       <c r="F210" s="16"/>
       <c r="G210" s="16"/>
@@ -20790,7 +20151,7 @@
     </row>
     <row r="211" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E211" s="16" t="s">
-        <v>2034</v>
+        <v>2009</v>
       </c>
       <c r="F211" s="16"/>
       <c r="G211" s="16"/>
@@ -20815,7 +20176,7 @@
     </row>
     <row r="212" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E212" s="16" t="s">
-        <v>2035</v>
+        <v>2010</v>
       </c>
       <c r="F212" s="16"/>
       <c r="G212" s="16"/>
@@ -20840,7 +20201,7 @@
     </row>
     <row r="213" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E213" s="16" t="s">
-        <v>2036</v>
+        <v>2011</v>
       </c>
       <c r="F213" s="16"/>
       <c r="G213" s="16"/>
@@ -20865,7 +20226,7 @@
     </row>
     <row r="214" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E214" s="16" t="s">
-        <v>2037</v>
+        <v>2012</v>
       </c>
       <c r="F214" s="16"/>
       <c r="G214" s="16"/>
@@ -20890,7 +20251,7 @@
     </row>
     <row r="215" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E215" s="16" t="s">
-        <v>2038</v>
+        <v>2013</v>
       </c>
       <c r="F215" s="16"/>
       <c r="G215" s="16"/>
@@ -20915,7 +20276,7 @@
     </row>
     <row r="216" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E216" s="16" t="s">
-        <v>2039</v>
+        <v>2014</v>
       </c>
       <c r="F216" s="16"/>
       <c r="G216" s="16"/>
@@ -20940,7 +20301,7 @@
     </row>
     <row r="217" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E217" s="16" t="s">
-        <v>2040</v>
+        <v>2015</v>
       </c>
       <c r="F217" s="16"/>
       <c r="G217" s="16"/>
@@ -20965,7 +20326,7 @@
     </row>
     <row r="218" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E218" s="16" t="s">
-        <v>2041</v>
+        <v>2016</v>
       </c>
       <c r="F218" s="16"/>
       <c r="G218" s="16"/>
@@ -20990,7 +20351,7 @@
     </row>
     <row r="219" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E219" s="16" t="s">
-        <v>2042</v>
+        <v>2017</v>
       </c>
       <c r="F219" s="16"/>
       <c r="G219" s="16"/>
@@ -21015,7 +20376,7 @@
     </row>
     <row r="220" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E220" s="16" t="s">
-        <v>2043</v>
+        <v>2018</v>
       </c>
       <c r="F220" s="16"/>
       <c r="G220" s="16"/>
@@ -21040,7 +20401,7 @@
     </row>
     <row r="221" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E221" s="16" t="s">
-        <v>2044</v>
+        <v>2019</v>
       </c>
       <c r="F221" s="16"/>
       <c r="G221" s="16"/>
@@ -21065,7 +20426,7 @@
     </row>
     <row r="222" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E222" s="16" t="s">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="F222" s="16"/>
       <c r="G222" s="16"/>
@@ -21090,7 +20451,7 @@
     </row>
     <row r="223" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E223" s="16" t="s">
-        <v>2046</v>
+        <v>2021</v>
       </c>
       <c r="F223" s="16"/>
       <c r="G223" s="16"/>
@@ -21115,7 +20476,7 @@
     </row>
     <row r="224" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E224" s="16" t="s">
-        <v>2047</v>
+        <v>2022</v>
       </c>
       <c r="F224" s="16"/>
       <c r="G224" s="16"/>
@@ -21140,7 +20501,7 @@
     </row>
     <row r="225" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E225" s="16" t="s">
-        <v>2048</v>
+        <v>2023</v>
       </c>
       <c r="F225" s="16"/>
       <c r="G225" s="16"/>
@@ -21165,7 +20526,7 @@
     </row>
     <row r="226" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E226" s="16" t="s">
-        <v>2049</v>
+        <v>2024</v>
       </c>
       <c r="F226" s="16"/>
       <c r="G226" s="16"/>
@@ -21190,7 +20551,7 @@
     </row>
     <row r="227" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E227" s="16" t="s">
-        <v>2050</v>
+        <v>2025</v>
       </c>
       <c r="F227" s="16"/>
       <c r="G227" s="16"/>
@@ -21215,7 +20576,7 @@
     </row>
     <row r="228" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E228" s="16" t="s">
-        <v>2051</v>
+        <v>2026</v>
       </c>
       <c r="F228" s="16"/>
       <c r="G228" s="16"/>
@@ -21240,7 +20601,7 @@
     </row>
     <row r="229" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E229" s="16" t="s">
-        <v>2052</v>
+        <v>2027</v>
       </c>
       <c r="F229" s="16"/>
       <c r="G229" s="16"/>
@@ -21265,7 +20626,7 @@
     </row>
     <row r="230" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E230" s="16" t="s">
-        <v>2053</v>
+        <v>2028</v>
       </c>
       <c r="F230" s="16"/>
       <c r="G230" s="16"/>
@@ -21290,7 +20651,7 @@
     </row>
     <row r="231" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E231" s="16" t="s">
-        <v>2054</v>
+        <v>2029</v>
       </c>
       <c r="F231" s="16"/>
       <c r="G231" s="16"/>
@@ -21315,7 +20676,7 @@
     </row>
     <row r="232" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E232" s="16" t="s">
-        <v>2055</v>
+        <v>2030</v>
       </c>
       <c r="F232" s="16"/>
       <c r="G232" s="16"/>
@@ -21340,7 +20701,7 @@
     </row>
     <row r="233" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E233" s="16" t="s">
-        <v>2056</v>
+        <v>2031</v>
       </c>
       <c r="F233" s="16"/>
       <c r="G233" s="16"/>
@@ -21365,7 +20726,7 @@
     </row>
     <row r="234" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E234" s="16" t="s">
-        <v>2057</v>
+        <v>2032</v>
       </c>
       <c r="F234" s="16"/>
       <c r="G234" s="16"/>
@@ -21390,7 +20751,7 @@
     </row>
     <row r="235" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E235" s="16" t="s">
-        <v>2058</v>
+        <v>2033</v>
       </c>
       <c r="F235" s="16"/>
       <c r="G235" s="16"/>
@@ -21415,7 +20776,7 @@
     </row>
     <row r="236" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E236" s="16" t="s">
-        <v>2059</v>
+        <v>2034</v>
       </c>
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
@@ -21440,7 +20801,7 @@
     </row>
     <row r="237" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E237" s="16" t="s">
-        <v>2060</v>
+        <v>2035</v>
       </c>
       <c r="F237" s="16"/>
       <c r="G237" s="16"/>
@@ -21465,7 +20826,7 @@
     </row>
     <row r="238" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E238" s="16" t="s">
-        <v>2061</v>
+        <v>2036</v>
       </c>
       <c r="F238" s="16"/>
       <c r="G238" s="16"/>
@@ -21490,7 +20851,7 @@
     </row>
     <row r="239" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E239" s="16" t="s">
-        <v>2062</v>
+        <v>2037</v>
       </c>
       <c r="F239" s="16"/>
       <c r="G239" s="16"/>
@@ -21515,7 +20876,7 @@
     </row>
     <row r="240" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E240" s="16" t="s">
-        <v>2063</v>
+        <v>2038</v>
       </c>
       <c r="F240" s="16"/>
       <c r="G240" s="16"/>
@@ -21540,7 +20901,7 @@
     </row>
     <row r="241" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E241" s="16" t="s">
-        <v>2064</v>
+        <v>2039</v>
       </c>
       <c r="F241" s="16"/>
       <c r="G241" s="16"/>
@@ -21565,7 +20926,7 @@
     </row>
     <row r="242" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E242" s="16" t="s">
-        <v>2065</v>
+        <v>2040</v>
       </c>
       <c r="F242" s="16"/>
       <c r="G242" s="16"/>
@@ -21590,7 +20951,7 @@
     </row>
     <row r="243" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E243" s="16" t="s">
-        <v>2066</v>
+        <v>2041</v>
       </c>
       <c r="F243" s="16"/>
       <c r="G243" s="16"/>
@@ -21615,7 +20976,7 @@
     </row>
     <row r="244" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E244" s="16" t="s">
-        <v>2067</v>
+        <v>2042</v>
       </c>
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
@@ -21640,7 +21001,7 @@
     </row>
     <row r="245" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E245" s="16" t="s">
-        <v>2068</v>
+        <v>2043</v>
       </c>
       <c r="F245" s="16"/>
       <c r="G245" s="16"/>
@@ -21665,7 +21026,7 @@
     </row>
     <row r="246" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E246" s="16" t="s">
-        <v>2069</v>
+        <v>2044</v>
       </c>
       <c r="F246" s="16"/>
       <c r="G246" s="16"/>
@@ -21690,7 +21051,7 @@
     </row>
     <row r="247" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E247" s="16" t="s">
-        <v>2070</v>
+        <v>2045</v>
       </c>
       <c r="F247" s="16"/>
       <c r="G247" s="16"/>
@@ -21715,7 +21076,7 @@
     </row>
     <row r="248" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E248" s="16" t="s">
-        <v>2071</v>
+        <v>2046</v>
       </c>
       <c r="F248" s="16"/>
       <c r="G248" s="16"/>
@@ -21740,7 +21101,7 @@
     </row>
     <row r="249" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E249" s="16" t="s">
-        <v>2072</v>
+        <v>2047</v>
       </c>
       <c r="F249" s="16"/>
       <c r="G249" s="16"/>
@@ -21765,7 +21126,7 @@
     </row>
     <row r="250" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E250" s="16" t="s">
-        <v>2073</v>
+        <v>2048</v>
       </c>
       <c r="F250" s="16"/>
       <c r="G250" s="16"/>
@@ -21790,7 +21151,7 @@
     </row>
     <row r="251" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E251" s="16" t="s">
-        <v>2074</v>
+        <v>2049</v>
       </c>
       <c r="F251" s="16"/>
       <c r="G251" s="16"/>
@@ -21815,7 +21176,7 @@
     </row>
     <row r="252" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E252" s="16" t="s">
-        <v>2075</v>
+        <v>2050</v>
       </c>
       <c r="F252" s="16"/>
       <c r="G252" s="16"/>
@@ -21840,7 +21201,7 @@
     </row>
     <row r="253" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E253" s="16" t="s">
-        <v>2076</v>
+        <v>2051</v>
       </c>
       <c r="F253" s="16"/>
       <c r="G253" s="16"/>
@@ -21865,7 +21226,7 @@
     </row>
     <row r="254" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E254" s="16" t="s">
-        <v>2077</v>
+        <v>2052</v>
       </c>
       <c r="F254" s="16"/>
       <c r="G254" s="16"/>
@@ -21890,7 +21251,7 @@
     </row>
     <row r="255" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E255" s="16" t="s">
-        <v>2078</v>
+        <v>2053</v>
       </c>
       <c r="F255" s="16"/>
       <c r="G255" s="16"/>
@@ -21915,7 +21276,7 @@
     </row>
     <row r="256" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E256" s="16" t="s">
-        <v>2079</v>
+        <v>2054</v>
       </c>
       <c r="F256" s="16"/>
       <c r="G256" s="16"/>
@@ -22214,14 +21575,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AJ15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AF18" sqref="AF18"/>
@@ -22229,40 +21590,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="11.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="11.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="15" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="15" width="13.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="15" width="7.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="10.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="15.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="6.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="15" width="11.5703125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="15" width="8.7109375" collapsed="true"/>
-    <col min="23" max="24" style="15" width="9.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="15" width="11.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="37.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="15" width="6.5703125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="15" width="6.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="15" width="6.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="15" width="15.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="15" width="14.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="15" width="16.5703125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="15" width="9.42578125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="15" width="17.140625" collapsed="true"/>
-    <col min="36" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="6" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="9.140625" style="15" collapsed="1"/>
+    <col min="25" max="25" width="11" style="15" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="37" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6.5703125" style="15" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.7109375" style="15" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="6.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="6.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="15.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="14.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="17.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -22440,7 +21801,7 @@
         <v>250</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="AA2" s="14" t="s">
         <v>268</v>
@@ -22467,7 +21828,7 @@
         <v>268</v>
       </c>
       <c r="AI2" s="15" t="s">
-        <v>1699</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -22565,7 +21926,7 @@
         <v>269</v>
       </c>
       <c r="AI3" s="15" t="s">
-        <v>1698</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -22663,7 +22024,7 @@
         <v>323</v>
       </c>
       <c r="AI4" s="15" t="s">
-        <v>1697</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -22761,7 +22122,7 @@
         <v>324</v>
       </c>
       <c r="AI5" s="15" t="s">
-        <v>1694</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -22859,7 +22220,7 @@
         <v>325</v>
       </c>
       <c r="AI6" s="15" t="s">
-        <v>1695</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -22957,7 +22318,7 @@
         <v>326</v>
       </c>
       <c r="AI7" s="15" t="s">
-        <v>1696</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -23055,7 +22416,7 @@
         <v>327</v>
       </c>
       <c r="AI8" s="15" t="s">
-        <v>1693</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -23153,7 +22514,7 @@
         <v>328</v>
       </c>
       <c r="AI9" s="14" t="s">
-        <v>1700</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -23251,7 +22612,7 @@
         <v>329</v>
       </c>
       <c r="AI10" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -23349,7 +22710,7 @@
         <v>273</v>
       </c>
       <c r="AI11" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -23447,7 +22808,7 @@
         <v>321</v>
       </c>
       <c r="AI12" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -23545,7 +22906,7 @@
         <v>322</v>
       </c>
       <c r="AI13" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -23553,22 +22914,22 @@
         <v>1509</v>
       </c>
       <c r="AI14" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AI15" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AF12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
@@ -23576,28 +22937,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.59765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="21" max="22" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="26" max="28" bestFit="true" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="18.51953125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.51953125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="32" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="28" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="31" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -23703,10 +23062,10 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>2433</v>
+        <v>2231</v>
       </c>
       <c r="E2" t="s">
-        <v>2432</v>
+        <v>2230</v>
       </c>
       <c r="F2" t="s">
         <v>1521</v>
@@ -23718,7 +23077,7 @@
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>2431</v>
+        <v>2229</v>
       </c>
       <c r="J2" t="s">
         <v>87</v>
@@ -23778,10 +23137,10 @@
         <v>352</v>
       </c>
       <c r="AC2" t="s">
-        <v>2416</v>
+        <v>2215</v>
       </c>
       <c r="AD2" t="s">
-        <v>2424</v>
+        <v>2223</v>
       </c>
       <c r="AE2" t="s">
         <v>1544</v>
@@ -23789,10 +23148,10 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC3" t="s">
-        <v>2417</v>
+        <v>2216</v>
       </c>
       <c r="AD3" t="s">
-        <v>2425</v>
+        <v>2224</v>
       </c>
       <c r="AE3" t="s">
         <v>1545</v>
@@ -23800,10 +23159,10 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC4" t="s">
-        <v>2418</v>
+        <v>2217</v>
       </c>
       <c r="AD4" t="s">
-        <v>2426</v>
+        <v>2225</v>
       </c>
       <c r="AE4" t="s">
         <v>1546</v>
@@ -23811,7 +23170,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC5" t="s">
-        <v>2419</v>
+        <v>2218</v>
       </c>
       <c r="AE5" t="s">
         <v>73</v>
@@ -23819,27 +23178,27 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC6" t="s">
-        <v>2420</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC7" t="s">
-        <v>2421</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC8" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC9" t="s">
-        <v>2422</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC10" t="s">
-        <v>2423</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -23854,15 +23213,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="Q2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:G14"/>
@@ -23870,9 +23229,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -23912,7 +23271,7 @@
         <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="F2" t="s">
         <v>1529</v>
@@ -23935,7 +23294,7 @@
         <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="F3" t="s">
         <v>1530</v>
@@ -23958,7 +23317,7 @@
         <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F4" t="s">
         <v>1531</v>
@@ -23981,7 +23340,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="F5" t="s">
         <v>1532</v>
@@ -24004,7 +23363,7 @@
         <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F6" t="s">
         <v>1533</v>
@@ -24027,7 +23386,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="F7" t="s">
         <v>132</v>
@@ -24050,7 +23409,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="F8" t="s">
         <v>133</v>
@@ -24073,7 +23432,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F9" t="s">
         <v>134</v>
@@ -24096,7 +23455,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F10" t="s">
         <v>135</v>
@@ -24119,7 +23478,7 @@
         <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="F11" t="s">
         <v>136</v>
@@ -24142,7 +23501,7 @@
         <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F12" t="s">
         <v>137</v>
@@ -24152,14 +23511,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:P366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:O366"/>
   <sheetViews>
     <sheetView topLeftCell="A329" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
@@ -24167,8 +23526,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -30049,6 +29408,6 @@
       <c r="O366" s="15"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1" backupFile="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D47201C-4FC3-4B3E-9E1C-8F8463A67B8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr backupFile="1" defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{0D47201C-4FC3-4B3E-9E1C-8F8463A67B8F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="0" windowWidth="20280" windowHeight="10920" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="14" firstSheet="6" windowHeight="10920" windowWidth="20280" xWindow="210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="STG" sheetId="2" r:id="rId1"/>
-    <sheet name="Credit" sheetId="13" r:id="rId2"/>
-    <sheet name="QAS" sheetId="19" r:id="rId3"/>
-    <sheet name="Emission" sheetId="20" r:id="rId4"/>
-    <sheet name="DataInput" sheetId="11" r:id="rId5"/>
-    <sheet name="Graphs" sheetId="16" r:id="rId6"/>
-    <sheet name="LEEDONLINE" sheetId="12" r:id="rId7"/>
-    <sheet name="Manual" sheetId="15" r:id="rId8"/>
-    <sheet name="Score" sheetId="14" r:id="rId9"/>
-    <sheet name="DEV" sheetId="4" r:id="rId10"/>
-    <sheet name="Material" sheetId="18" r:id="rId11"/>
-    <sheet name="MeterData" sheetId="21" r:id="rId12"/>
-    <sheet name="DEV2" sheetId="22" r:id="rId13"/>
-    <sheet name="STG2" sheetId="23" r:id="rId14"/>
-    <sheet name="QAS2" sheetId="24" r:id="rId15"/>
+    <sheet name="STG" r:id="rId1" sheetId="2"/>
+    <sheet name="Credit" r:id="rId2" sheetId="13"/>
+    <sheet name="QAS" r:id="rId3" sheetId="19"/>
+    <sheet name="Emission" r:id="rId4" sheetId="20"/>
+    <sheet name="DataInput" r:id="rId5" sheetId="11"/>
+    <sheet name="Graphs" r:id="rId6" sheetId="16"/>
+    <sheet name="LEEDONLINE" r:id="rId7" sheetId="12"/>
+    <sheet name="Manual" r:id="rId8" sheetId="15"/>
+    <sheet name="Score" r:id="rId9" sheetId="14"/>
+    <sheet name="DEV" r:id="rId10" sheetId="4"/>
+    <sheet name="Material" r:id="rId11" sheetId="18"/>
+    <sheet name="MeterData" r:id="rId12" sheetId="21"/>
+    <sheet name="DEV2" r:id="rId13" sheetId="22"/>
+    <sheet name="STG2" r:id="rId14" sheetId="23"/>
+    <sheet name="QAS2" r:id="rId15" sheetId="24"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId16"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="2252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4593" uniqueCount="2305">
   <si>
     <t>FileID</t>
   </si>
@@ -6799,6 +6799,165 @@
   </si>
   <si>
     <t>70001157</t>
+  </si>
+  <si>
+    <t>Bearer ERkhzpPaVCXuKYLzUSLP3xpOefJDQ0</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>API LEED v4.1 Cities: Plan and DesignUS91</t>
+  </si>
+  <si>
+    <t>Bearer rPBeltJj8rTtkG5OK2os7PylO1Adbs</t>
+  </si>
+  <si>
+    <t>Bearer rAGnQktLIhFgZd2YlqoVhP24NMehV7</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Transit: Line</t>
+  </si>
+  <si>
+    <t>Bearer 8dv9o3bZtNqQpvN5aK0cvfImuroWJ3</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>API LEED v4.1 Cities: Plan and DesignUS49</t>
+  </si>
+  <si>
+    <t>1000094498</t>
+  </si>
+  <si>
+    <t>Bearer qGHnu3C0LSqNULbinjMhntEsfSvKaK</t>
+  </si>
+  <si>
+    <t>Bearer PhQKl6a6qneNsaXxnOTJkj18Lh7pZ8</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Retail: Open Shopping Center</t>
+  </si>
+  <si>
+    <t>Educational: Community College, Public</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-49813</t>
+  </si>
+  <si>
+    <t>8000000280</t>
+  </si>
+  <si>
+    <t>OcNI5P5CO7cvyjrga92b6qvC</t>
+  </si>
+  <si>
+    <t>2767795</t>
+  </si>
+  <si>
+    <t>2767793</t>
+  </si>
+  <si>
+    <t>2767800</t>
+  </si>
+  <si>
+    <t>Bearer TUwcuwdZlp6J5LS085DqCWXlrokxN5</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Transit: Station/Open Air Ground Level</t>
+  </si>
+  <si>
+    <t>Educational: University, Public</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-54798</t>
+  </si>
+  <si>
+    <t>8000000281</t>
+  </si>
+  <si>
+    <t>xMnDzzGaOuFufmgpf2FhrkGB</t>
+  </si>
+  <si>
+    <t>2767813</t>
+  </si>
+  <si>
+    <t>2767812</t>
+  </si>
+  <si>
+    <t>2767821</t>
+  </si>
+  <si>
+    <t>2767822</t>
+  </si>
+  <si>
+    <t>Bearer h3sLzL1RgaOJexpUmgre5vUNYXeIQ6</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Airport: Other</t>
+  </si>
+  <si>
+    <t>Corporate: Privately Held</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-70943</t>
+  </si>
+  <si>
+    <t>8000000282</t>
+  </si>
+  <si>
+    <t>nK4YEvR7B7wY3I9bxGB2dSMD</t>
+  </si>
+  <si>
+    <t>2767836</t>
+  </si>
+  <si>
+    <t>2767834</t>
+  </si>
+  <si>
+    <t>2767843</t>
+  </si>
+  <si>
+    <t>Bearer ZyxdzjDsmjh74jJpIXbvbHdTIJdZDk</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Warehouse: General</t>
+  </si>
+  <si>
+    <t>Community Development Corporation or Non-profit Developer</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-94854</t>
+  </si>
+  <si>
+    <t>8000000283</t>
+  </si>
+  <si>
+    <t>gCqhUsgvQx8HWH0I6TgJ8ZRY</t>
+  </si>
+  <si>
+    <t>2767858</t>
+  </si>
+  <si>
+    <t>2767855</t>
+  </si>
+  <si>
+    <t>2767864</t>
   </si>
 </sst>
 </file>
@@ -6906,79 +7065,79 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="164"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="3"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="3">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="3"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="4">
@@ -7023,7 +7182,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7075,10 +7234,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7113,7 +7272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7165,7 +7324,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7270,7 +7429,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -7279,13 +7438,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -7295,7 +7454,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -7304,7 +7463,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7313,7 +7472,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7323,12 +7482,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -7359,7 +7518,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -7378,7 +7537,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -7390,8 +7549,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -7399,52 +7558,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="15" collapsed="1"/>
-    <col min="10" max="10" width="24.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="15" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="44.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="44" width="9.140625" style="15" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="9.140625" style="15" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="36.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="28.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="59" width="9.140625" style="15" collapsed="1"/>
-    <col min="60" max="60" width="26.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="15" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="21.0" collapsed="true"/>
+    <col min="9" max="9" style="15" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="15" width="24.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="15" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="15" width="37.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="26.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="15" width="23.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="5.42578125" collapsed="true"/>
+    <col min="19" max="19" style="15" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="15" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="15" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="15" width="37.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="15" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="15" width="44.42578125" collapsed="true"/>
+    <col min="28" max="44" style="15" width="9.140625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="15" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="15" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
+    <col min="49" max="49" style="15" width="9.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="15" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="15" width="36.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="15" width="28.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
+    <col min="55" max="59" style="15" width="9.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="15" width="26.7109375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="15" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="15" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" style="15" width="37.140625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="15" width="8.7109375" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="15" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="15" width="12.140625" collapsed="true"/>
+    <col min="68" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -7901,14 +8060,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:BO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView topLeftCell="BK1" workbookViewId="0">
       <selection activeCell="BL14" sqref="BL14"/>
@@ -7916,47 +8075,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="15" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="15" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="11" width="9.140625" style="15" collapsed="1"/>
-    <col min="12" max="13" width="37.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="15" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="3.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="15" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="9.140625" style="15" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="41.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="44" width="9.140625" style="15" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="11.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="24.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="59" width="9.140625" style="15" collapsed="1"/>
-    <col min="60" max="60" width="33" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="9.140625" style="15" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" style="15" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="5" max="6" style="15" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
+    <col min="8" max="11" style="15" width="9.140625" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="15" width="37.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="26.0" collapsed="true"/>
+    <col min="16" max="16" style="15" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="8.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="3.28515625" collapsed="true"/>
+    <col min="19" max="19" style="15" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="21" max="22" style="15" width="9.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="15" width="24.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="15" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="15" width="41.42578125" collapsed="true"/>
+    <col min="28" max="44" style="15" width="9.140625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="15" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="15" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="15" width="11.7109375" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="15" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="15" width="24.85546875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
+    <col min="55" max="59" style="15" width="9.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="15" width="33.0" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="15" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="15" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" style="15" width="37.5703125" collapsed="true"/>
+    <col min="65" max="65" style="15" width="9.140625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="15" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="15" width="12.140625" collapsed="true"/>
+    <col min="68" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -8391,15 +8550,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8407,16 +8566,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="14.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.85546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" hidden="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="26.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="21.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="29.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="10" width="20.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>356</v>
       </c>
@@ -8442,7 +8601,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>407</v>
       </c>
@@ -8456,7 +8615,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>408</v>
       </c>
@@ -8693,14 +8852,14 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D6:D7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="90" orientation="portrait" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
-  <dimension ref="A1:E63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -8708,11 +8867,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>1552</v>
       </c>
@@ -9785,32 +9944,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A16 A2:A3">
-    <cfRule type="timePeriod" dxfId="3" priority="3" timePeriod="lastMonth">
+    <cfRule dxfId="3" priority="3" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A2)=MONTH(EDATE(TODAY(),0-1)),YEAR(A2)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="timePeriod" dxfId="2" priority="5" timePeriod="lastMonth">
+    <cfRule dxfId="2" priority="5" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A5)=MONTH(EDATE(TODAY(),0-1)),YEAR(A5)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A15">
-    <cfRule type="timePeriod" dxfId="1" priority="4" timePeriod="lastMonth">
+    <cfRule dxfId="1" priority="4" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A6)=MONTH(EDATE(TODAY(),0-1)),YEAR(A6)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">
+    <cfRule dxfId="0" priority="1" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A4)=MONTH(EDATE(TODAY(),0-1)),YEAR(A4)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="Y16" sqref="Y16"/>
@@ -9818,38 +9977,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="41.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -10842,15 +11001,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="Z15" sqref="Z15"/>
@@ -10858,41 +11017,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="39.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -11889,15 +12048,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
       <selection activeCell="BE2" sqref="BE2"/>
@@ -11905,50 +12064,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.7109375" style="25" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="25" customWidth="1" collapsed="1"/>
-    <col min="6" max="11" width="9.140625" style="25" collapsed="1"/>
-    <col min="12" max="13" width="37.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.42578125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="25" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="25" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="25" width="9.140625" style="25" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="38.42578125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="20.85546875" style="25" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="9.140625" style="25" collapsed="1"/>
-    <col min="30" max="30" width="22.140625" style="25" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12" style="25" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.5703125" style="25" customWidth="1" collapsed="1"/>
-    <col min="33" max="44" width="9.140625" style="25" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="9.140625" style="25" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.5703125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="44.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="59" width="9.140625" style="25" collapsed="1"/>
-    <col min="60" max="60" width="26.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="16384" width="9.140625" style="25" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="25" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="25" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="25" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="25" width="20.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="25" width="17.140625" collapsed="true"/>
+    <col min="6" max="11" style="25" width="9.140625" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="25" width="37.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="25" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="25" width="29.42578125" collapsed="true"/>
+    <col min="16" max="16" style="25" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="25" width="8.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="25" width="5.42578125" collapsed="true"/>
+    <col min="19" max="19" style="25" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="25" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="25" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="25" width="11.140625" collapsed="true"/>
+    <col min="23" max="25" style="25" width="9.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="25" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="25" width="38.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="25" width="20.85546875" collapsed="true"/>
+    <col min="29" max="29" style="25" width="9.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="25" width="22.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="25" width="12.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="25" width="11.5703125" collapsed="true"/>
+    <col min="33" max="44" style="25" width="9.140625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="25" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="25" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="25" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="25" width="13.140625" collapsed="true"/>
+    <col min="49" max="49" style="25" width="9.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="25" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="25" width="13.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="25" width="44.140625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="25" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="25" width="14.28515625" collapsed="true"/>
+    <col min="55" max="59" style="25" width="9.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="25" width="26.7109375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="25" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="25" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" style="25" width="37.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="25" width="8.7109375" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="25" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="25" width="12.140625" collapsed="true"/>
+    <col min="68" max="16384" style="25" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -12425,13 +12584,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -12439,12 +12598,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -12883,13 +13042,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BO6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BP6"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2"/>
@@ -12897,38 +13056,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="42.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="22" customWidth="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="28.84765625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.58203125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="13.69921875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="23.6015625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.12890625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -13139,7 +13298,7 @@
         <v>1578</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2165</v>
+        <v>2300</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>633</v>
@@ -13176,13 +13335,13 @@
         <v>1639</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>1576</v>
+        <v>2301</v>
       </c>
       <c r="P2" s="16" t="s">
         <v>1541</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>1563</v>
+        <v>2304</v>
       </c>
       <c r="R2" s="16" t="s">
         <v>1579</v>
@@ -13212,7 +13371,7 @@
         <v>1638</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>2249</v>
+        <v>2295</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -13267,7 +13426,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="16" t="s">
-        <v>2169</v>
+        <v>2296</v>
       </c>
       <c r="AU2" s="16" t="s">
         <v>87</v>
@@ -13279,13 +13438,13 @@
         <v>663</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>144</v>
+        <v>461</v>
       </c>
       <c r="AY2" s="16" t="s">
-        <v>2170</v>
+        <v>2297</v>
       </c>
       <c r="AZ2" s="16" t="s">
-        <v>2171</v>
+        <v>2298</v>
       </c>
       <c r="BA2" s="17" t="s">
         <v>420</v>
@@ -13309,7 +13468,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="16" t="s">
-        <v>2172</v>
+        <v>2299</v>
       </c>
       <c r="BI2" s="16"/>
       <c r="BJ2" s="16"/>
@@ -13319,10 +13478,10 @@
         <v>1549</v>
       </c>
       <c r="BN2" s="16" t="s">
-        <v>1564</v>
+        <v>2284</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2123</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -13536,14 +13695,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
@@ -13551,36 +13710,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -13866,13 +14025,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BN281"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AF281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -13880,30 +14039,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="66" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="65" max="66" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -14237,7 +14396,7 @@
         <v>60</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>2191</v>
+        <v>2303</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>1519</v>
@@ -14321,7 +14480,7 @@
         <v>60</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>2237</v>
+        <v>2302</v>
       </c>
       <c r="W5" s="15" t="s">
         <v>1520</v>
@@ -21575,14 +21734,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AI15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AF18" sqref="AF18"/>
@@ -21590,40 +21749,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="9.140625" style="15" collapsed="1"/>
-    <col min="25" max="25" width="11" style="15" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="37" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.5703125" style="15" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="15.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="14.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="17.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="11.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="11.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="15" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="15" width="13.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="15" width="7.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="10.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="15.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="6.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="15" width="11.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="15" width="8.7109375" collapsed="true"/>
+    <col min="23" max="24" style="15" width="9.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="15" width="11.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="37.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="15" width="6.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="15" width="6.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="15" width="6.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="15" width="15.5703125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="15" width="14.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="15" width="16.5703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="15" width="9.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="15" width="17.140625" collapsed="true"/>
+    <col min="36" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -22923,13 +23082,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AE12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
@@ -22937,26 +23096,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="28" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="38.52734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="26" max="28" bestFit="true" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="29" max="31" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -23062,7 +23221,7 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>2231</v>
+        <v>2261</v>
       </c>
       <c r="E2" t="s">
         <v>2230</v>
@@ -23071,13 +23230,13 @@
         <v>1521</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>461</v>
       </c>
       <c r="H2" t="s">
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>2229</v>
+        <v>2260</v>
       </c>
       <c r="J2" t="s">
         <v>87</v>
@@ -23213,15 +23372,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink r:id="rId1" ref="Q2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:G14"/>
@@ -23229,9 +23388,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -23511,14 +23670,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:P366"/>
   <sheetViews>
     <sheetView topLeftCell="A329" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
@@ -23526,8 +23685,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -29408,6 +29567,6 @@
       <c r="O366" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{0D47201C-4FC3-4B3E-9E1C-8F8463A67B8F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DA041713-2934-44CB-9198-FCA716846ACD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
     <workbookView activeTab="14" firstSheet="6" windowHeight="10920" windowWidth="20280" xWindow="210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4593" uniqueCount="2305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="2278">
   <si>
     <t>FileID</t>
   </si>
@@ -4734,12 +4734,6 @@
     <t>1000092395</t>
   </si>
   <si>
-    <t>2308053</t>
-  </si>
-  <si>
-    <t>2308181</t>
-  </si>
-  <si>
     <t>1000172352</t>
   </si>
   <si>
@@ -4773,9 +4767,6 @@
     <t>1000172362</t>
   </si>
   <si>
-    <t>LaxIzNCNz32RUbv7TmS2V9GO</t>
-  </si>
-  <si>
     <t>000000000000005374</t>
   </si>
   <si>
@@ -4956,9 +4947,6 @@
     <t>YIYwrH4rzNIQlAl6s0nazxJy</t>
   </si>
   <si>
-    <t>Investor: Insurance Company</t>
-  </si>
-  <si>
     <t>com.jayway.restassured.path.xml.XmlPath@4833eff3</t>
   </si>
   <si>
@@ -6405,18 +6393,12 @@
     <t>7166566</t>
   </si>
   <si>
-    <t>1000174449</t>
-  </si>
-  <si>
     <t>Formaldehyde</t>
   </si>
   <si>
     <t>47909</t>
   </si>
   <si>
-    <t>1000093670</t>
-  </si>
-  <si>
     <t>70001136</t>
   </si>
   <si>
@@ -6450,24 +6432,6 @@
     <t>1005</t>
   </si>
   <si>
-    <t>25000.0</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>668306.2</t>
-  </si>
-  <si>
-    <t>3092</t>
-  </si>
-  <si>
     <t>46.0</t>
   </si>
   <si>
@@ -6540,9 +6504,6 @@
     <t>1000175344</t>
   </si>
   <si>
-    <t>1000094349</t>
-  </si>
-  <si>
     <t>2763057</t>
   </si>
   <si>
@@ -6552,18 +6513,6 @@
     <t>20476748</t>
   </si>
   <si>
-    <t>GU</t>
-  </si>
-  <si>
-    <t>Public Assembly: Recreation</t>
-  </si>
-  <si>
-    <t>Educational: Community College, Private</t>
-  </si>
-  <si>
-    <t>US-API-Transit-Aboveground-50749</t>
-  </si>
-  <si>
     <t>1000094350</t>
   </si>
   <si>
@@ -6600,364 +6549,334 @@
     <t>US-API-Parksmart-Parksmart-61864</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>Bearer TapqlB2QS31hFGcNdsgPvI3tuCzpRB</t>
+    <t>2763239</t>
+  </si>
+  <si>
+    <t>2763240</t>
+  </si>
+  <si>
+    <t>696990</t>
+  </si>
+  <si>
+    <t>19265</t>
+  </si>
+  <si>
+    <t>19264</t>
+  </si>
+  <si>
+    <t>19263</t>
+  </si>
+  <si>
+    <t>19262</t>
+  </si>
+  <si>
+    <t>19261</t>
+  </si>
+  <si>
+    <t>19260</t>
+  </si>
+  <si>
+    <t>19259</t>
+  </si>
+  <si>
+    <t>19258</t>
+  </si>
+  <si>
+    <t>19257</t>
+  </si>
+  <si>
+    <t>19256</t>
+  </si>
+  <si>
+    <t>168222</t>
+  </si>
+  <si>
+    <t>168223</t>
+  </si>
+  <si>
+    <t>168224</t>
+  </si>
+  <si>
+    <t>168225</t>
+  </si>
+  <si>
+    <t>168226</t>
+  </si>
+  <si>
+    <t>168227</t>
+  </si>
+  <si>
+    <t>168228</t>
+  </si>
+  <si>
+    <t>168229</t>
+  </si>
+  <si>
+    <t>168230</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>19267</t>
+  </si>
+  <si>
+    <t>19266</t>
+  </si>
+  <si>
+    <t>1000147204</t>
+  </si>
+  <si>
+    <t>0000000010000000000144899</t>
+  </si>
+  <si>
+    <t>EA01F9526EC86CF1A60F0AE29B08431D</t>
+  </si>
+  <si>
+    <t>EA01F9526EC86EF1A60F0AE29B08431D</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000147204</t>
+  </si>
+  <si>
+    <t>Public Assembly: Convention Center</t>
+  </si>
+  <si>
+    <t>Business Improvement District</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-02961</t>
+  </si>
+  <si>
+    <t>8000000066</t>
+  </si>
+  <si>
+    <t>Bearer ZulHHk8eSkqoyBeZ1WlIHHXkJnAYBv</t>
+  </si>
+  <si>
+    <t>Bearer FftTM2O27S8DShQj7jGFYlJLS1z82x</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>81185.4</t>
+  </si>
+  <si>
+    <t>13763.9</t>
+  </si>
+  <si>
+    <t>rmishra@usgbc.org</t>
+  </si>
+  <si>
+    <t>70001157</t>
+  </si>
+  <si>
+    <t>1000094498</t>
+  </si>
+  <si>
+    <t>2767822</t>
+  </si>
+  <si>
+    <t>Bearer ZyxdzjDsmjh74jJpIXbvbHdTIJdZDk</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Warehouse: General</t>
+  </si>
+  <si>
+    <t>Community Development Corporation or Non-profit Developer</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-94854</t>
+  </si>
+  <si>
+    <t>8000000283</t>
+  </si>
+  <si>
+    <t>gCqhUsgvQx8HWH0I6TgJ8ZRY</t>
+  </si>
+  <si>
+    <t>2767858</t>
+  </si>
+  <si>
+    <t>2767855</t>
+  </si>
+  <si>
+    <t>2767864</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>763697.5</t>
+  </si>
+  <si>
+    <t>4628</t>
+  </si>
+  <si>
+    <t>58000.0</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Service: Vehicle Storage/Maintenance</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS75</t>
+  </si>
+  <si>
+    <t>1000094502</t>
+  </si>
+  <si>
+    <t>Bearer j0qsNIt4oFMzm4lHq2nRWXwTerC2zc</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Investor: Pension Fund</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-95188</t>
+  </si>
+  <si>
+    <t>8000000284</t>
+  </si>
+  <si>
+    <t>I5DGtcurw7GQpPJMJPwGKj44</t>
+  </si>
+  <si>
+    <t>Bearer aYVjv2zuIju9PBqLXDgCDN2KMReKb3</t>
+  </si>
+  <si>
+    <t>Bearer BXwHuSVYy3JPAWjBwgg7aylG6QiT77</t>
+  </si>
+  <si>
+    <t>Lodging: Hotel/Motel/Resort, Full Service</t>
+  </si>
+  <si>
+    <t>Non-Profit (that do not fit into other categories)</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-62751</t>
+  </si>
+  <si>
+    <t>8000000285</t>
+  </si>
+  <si>
+    <t>MiU9qyExkMA4WndZkzNkxd5w</t>
+  </si>
+  <si>
+    <t>2767909</t>
+  </si>
+  <si>
+    <t>2767907</t>
+  </si>
+  <si>
+    <t>2767916</t>
+  </si>
+  <si>
+    <t>Bearer IsQFwHhEG7BoJkGUENJvDiHWEDBJGE</t>
+  </si>
+  <si>
+    <t>Bearer W7RN93IDvT2yu39XAMqzzZFJ17DM62</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Airport: Distribution Center</t>
+  </si>
+  <si>
+    <t>Educational: K-12 School, Private</t>
+  </si>
+  <si>
+    <t>US-API-Community-Other-65741</t>
+  </si>
+  <si>
+    <t>1000094506</t>
+  </si>
+  <si>
+    <t>LEED for Communities Registration</t>
+  </si>
+  <si>
+    <t>000000000000004953</t>
+  </si>
+  <si>
+    <t>0011108464</t>
+  </si>
+  <si>
+    <t>Bearer sMvpAWpgFLSNTzh756dRvamhTCcFSF</t>
+  </si>
+  <si>
+    <t>Bearer xhnm8468GagaqAOR5ha4NUBdORKt3O</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
   <si>
     <t>Lodging: Other lodging</t>
   </si>
   <si>
-    <t>US-API-Building-None-10516</t>
-  </si>
-  <si>
-    <t>8000000140</t>
-  </si>
-  <si>
-    <t>FctPmyte32MDwVTrpQuyBPXB</t>
-  </si>
-  <si>
-    <t>2763230</t>
-  </si>
-  <si>
-    <t>2763239</t>
-  </si>
-  <si>
-    <t>2763240</t>
-  </si>
-  <si>
-    <t>696990</t>
-  </si>
-  <si>
-    <t>19265</t>
-  </si>
-  <si>
-    <t>19264</t>
-  </si>
-  <si>
-    <t>19263</t>
-  </si>
-  <si>
-    <t>19262</t>
-  </si>
-  <si>
-    <t>19261</t>
-  </si>
-  <si>
-    <t>19260</t>
-  </si>
-  <si>
-    <t>19259</t>
-  </si>
-  <si>
-    <t>19258</t>
-  </si>
-  <si>
-    <t>19257</t>
-  </si>
-  <si>
-    <t>19256</t>
-  </si>
-  <si>
-    <t>168222</t>
-  </si>
-  <si>
-    <t>168223</t>
-  </si>
-  <si>
-    <t>168224</t>
-  </si>
-  <si>
-    <t>168225</t>
-  </si>
-  <si>
-    <t>168226</t>
-  </si>
-  <si>
-    <t>168227</t>
-  </si>
-  <si>
-    <t>168228</t>
-  </si>
-  <si>
-    <t>168229</t>
-  </si>
-  <si>
-    <t>168230</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>19267</t>
-  </si>
-  <si>
-    <t>19266</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>Public Assembly: Stadium/Arena</t>
-  </si>
-  <si>
-    <t>API LEED v4 O+M: Existing BuildingsUS92</t>
-  </si>
-  <si>
-    <t>1000147204</t>
-  </si>
-  <si>
-    <t>0000000010000000000144899</t>
-  </si>
-  <si>
-    <t>EA01F9526EC86CF1A60F0AE29B08431D</t>
-  </si>
-  <si>
-    <t>EA01F9526EC86EF1A60F0AE29B08431D</t>
-  </si>
-  <si>
-    <t>DOCHOLDERL-1000147204</t>
-  </si>
-  <si>
-    <t>19270</t>
-  </si>
-  <si>
-    <t>Public Assembly: Convention Center</t>
-  </si>
-  <si>
-    <t>Business Improvement District</t>
-  </si>
-  <si>
-    <t>US-API-Building-Other-02961</t>
-  </si>
-  <si>
-    <t>8000000066</t>
-  </si>
-  <si>
-    <t>Bearer ZulHHk8eSkqoyBeZ1WlIHHXkJnAYBv</t>
-  </si>
-  <si>
-    <t>Bearer FftTM2O27S8DShQj7jGFYlJLS1z82x</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>81185.4</t>
-  </si>
-  <si>
-    <t>13763.9</t>
-  </si>
-  <si>
-    <t>Bearer 5x1WGbObDUETCuUrTJSXpxwgVGeF1b</t>
-  </si>
-  <si>
-    <t>rmishra@usgbc.org</t>
-  </si>
-  <si>
-    <t>70001157</t>
-  </si>
-  <si>
-    <t>Bearer ERkhzpPaVCXuKYLzUSLP3xpOefJDQ0</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>API LEED v4.1 Cities: Plan and DesignUS91</t>
-  </si>
-  <si>
-    <t>Bearer rPBeltJj8rTtkG5OK2os7PylO1Adbs</t>
-  </si>
-  <si>
-    <t>Bearer rAGnQktLIhFgZd2YlqoVhP24NMehV7</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Transit: Line</t>
-  </si>
-  <si>
-    <t>Bearer 8dv9o3bZtNqQpvN5aK0cvfImuroWJ3</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>API LEED v4.1 Cities: Plan and DesignUS49</t>
-  </si>
-  <si>
-    <t>1000094498</t>
-  </si>
-  <si>
-    <t>Bearer qGHnu3C0LSqNULbinjMhntEsfSvKaK</t>
-  </si>
-  <si>
-    <t>Bearer PhQKl6a6qneNsaXxnOTJkj18Lh7pZ8</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>Retail: Open Shopping Center</t>
-  </si>
-  <si>
-    <t>Educational: Community College, Public</t>
-  </si>
-  <si>
-    <t>US-API-Building-None-49813</t>
-  </si>
-  <si>
-    <t>8000000280</t>
-  </si>
-  <si>
-    <t>OcNI5P5CO7cvyjrga92b6qvC</t>
-  </si>
-  <si>
-    <t>2767795</t>
-  </si>
-  <si>
-    <t>2767793</t>
-  </si>
-  <si>
-    <t>2767800</t>
-  </si>
-  <si>
-    <t>Bearer TUwcuwdZlp6J5LS085DqCWXlrokxN5</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>Transit: Station/Open Air Ground Level</t>
-  </si>
-  <si>
-    <t>Educational: University, Public</t>
-  </si>
-  <si>
-    <t>US-API-Building-None-54798</t>
-  </si>
-  <si>
-    <t>8000000281</t>
-  </si>
-  <si>
-    <t>xMnDzzGaOuFufmgpf2FhrkGB</t>
-  </si>
-  <si>
-    <t>2767813</t>
-  </si>
-  <si>
-    <t>2767812</t>
-  </si>
-  <si>
-    <t>2767821</t>
-  </si>
-  <si>
-    <t>2767822</t>
-  </si>
-  <si>
-    <t>Bearer h3sLzL1RgaOJexpUmgre5vUNYXeIQ6</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>Airport: Other</t>
-  </si>
-  <si>
-    <t>Corporate: Privately Held</t>
-  </si>
-  <si>
-    <t>US-API-Building-None-70943</t>
-  </si>
-  <si>
-    <t>8000000282</t>
-  </si>
-  <si>
-    <t>nK4YEvR7B7wY3I9bxGB2dSMD</t>
-  </si>
-  <si>
-    <t>2767836</t>
-  </si>
-  <si>
-    <t>2767834</t>
-  </si>
-  <si>
-    <t>2767843</t>
-  </si>
-  <si>
-    <t>Bearer ZyxdzjDsmjh74jJpIXbvbHdTIJdZDk</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>Warehouse: General</t>
-  </si>
-  <si>
-    <t>Community Development Corporation or Non-profit Developer</t>
-  </si>
-  <si>
-    <t>US-API-Building-None-94854</t>
-  </si>
-  <si>
-    <t>8000000283</t>
-  </si>
-  <si>
-    <t>gCqhUsgvQx8HWH0I6TgJ8ZRY</t>
-  </si>
-  <si>
-    <t>2767858</t>
-  </si>
-  <si>
-    <t>2767855</t>
-  </si>
-  <si>
-    <t>2767864</t>
+    <t>US-API-Community-Other-15305</t>
+  </si>
+  <si>
+    <t>1000094507</t>
+  </si>
+  <si>
+    <t>0011108465</t>
   </si>
 </sst>
 </file>
@@ -7811,25 +7730,25 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>633</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1540</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>1548</v>
@@ -7842,34 +7761,34 @@
         <v>1551</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>2148</v>
+        <v>2136</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>2149</v>
+        <v>2137</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>2147</v>
+        <v>2135</v>
       </c>
       <c r="P2" s="15" t="s">
         <v>1541</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>538</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>439</v>
@@ -7881,10 +7800,10 @@
         <v>620</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2153</v>
+        <v>2141</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>16</v>
@@ -7953,10 +7872,10 @@
         <v>461</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>2125</v>
+        <v>2119</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -7980,28 +7899,28 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>2150</v>
+        <v>2138</v>
       </c>
       <c r="BJ2" s="15" t="s">
-        <v>2147</v>
+        <v>2135</v>
       </c>
       <c r="BK2" s="15" t="s">
-        <v>2148</v>
+        <v>2136</v>
       </c>
       <c r="BL2" s="15" t="s">
-        <v>2149</v>
+        <v>2137</v>
       </c>
       <c r="BM2" s="15" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="BN2" s="15" t="s">
         <v>1561</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2152</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -8009,7 +7928,7 @@
         <v>1560</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>460</v>
@@ -8027,13 +7946,13 @@
         <v>15</v>
       </c>
       <c r="BO3" s="14" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B4" s="27"/>
       <c r="U4" s="15" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>439</v>
@@ -8323,16 +8242,16 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2241</v>
+        <v>2213</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>652</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>653</v>
@@ -8341,7 +8260,7 @@
         <v>654</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>655</v>
@@ -8356,28 +8275,28 @@
         <v>658</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>2234</v>
+        <v>2207</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>2235</v>
+        <v>2208</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>2233</v>
+        <v>2206</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>659</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>2226</v>
+        <v>2202</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>660</v>
@@ -8389,16 +8308,16 @@
         <v>378</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>620</v>
       </c>
       <c r="Z2" s="15" t="s">
+        <v>2190</v>
+      </c>
+      <c r="AA2" s="15" t="s">
         <v>2214</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>2242</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>662</v>
@@ -8407,7 +8326,7 @@
         <v>15</v>
       </c>
       <c r="AD2" s="20" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="AE2" s="20" t="s">
         <v>15</v>
@@ -8452,7 +8371,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>2151</v>
+        <v>2139</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -8467,10 +8386,10 @@
         <v>144</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>2238</v>
+        <v>2210</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>2239</v>
+        <v>2211</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -8494,19 +8413,19 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2240</v>
+        <v>2212</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>2236</v>
+        <v>2209</v>
       </c>
       <c r="BJ2" s="15" t="s">
-        <v>2233</v>
+        <v>2206</v>
       </c>
       <c r="BK2" s="15" t="s">
-        <v>2234</v>
+        <v>2207</v>
       </c>
       <c r="BL2" s="15" t="s">
-        <v>2235</v>
+        <v>2208</v>
       </c>
       <c r="BM2" s="15" t="s">
         <v>1549</v>
@@ -8515,15 +8434,15 @@
         <v>1559</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2232</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="AD3" s="20" t="s">
         <v>540</v>
@@ -9930,7 +9849,7 @@
         <v>1557</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>2154</v>
+        <v>2142</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>169</v>
@@ -10216,25 +10135,25 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>652</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>653</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>655</v>
@@ -10249,32 +10168,32 @@
         <v>658</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>659</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="V2" s="15" t="s">
         <v>661</v>
@@ -10283,16 +10202,16 @@
         <v>145</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>620</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2243</v>
+        <v>2215</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>662</v>
@@ -10301,7 +10220,7 @@
         <v>15</v>
       </c>
       <c r="AD2" s="20" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="AE2" s="20" t="s">
         <v>15</v>
@@ -10347,7 +10266,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -10362,10 +10281,10 @@
         <v>461</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -10389,22 +10308,22 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="BJ2" s="15" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="BK2" s="15" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="BL2" s="15" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="BM2" s="15" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="BN2" s="15" t="s">
         <v>1559</v>
@@ -10490,7 +10409,7 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>2244</v>
+        <v>2216</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -10502,7 +10421,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
@@ -10563,7 +10482,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -10575,7 +10494,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -10636,7 +10555,7 @@
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>2245</v>
+        <v>2217</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -10648,7 +10567,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -10709,7 +10628,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>2246</v>
+        <v>2218</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -10721,7 +10640,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -10782,7 +10701,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>2247</v>
+        <v>2219</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -10794,7 +10713,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -10855,7 +10774,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>2156</v>
+        <v>2144</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -10867,7 +10786,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
@@ -10928,7 +10847,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>2248</v>
+        <v>2220</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -10940,7 +10859,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -11259,28 +11178,28 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2175</v>
+        <v>2158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>652</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>653</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2164</v>
+        <v>2152</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>656</v>
@@ -11289,53 +11208,53 @@
         <v>657</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>2176</v>
+        <v>2159</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
-        <v>2177</v>
+        <v>2160</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>659</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>620</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2180</v>
+        <v>2163</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>662</v>
@@ -11344,7 +11263,7 @@
         <v>15</v>
       </c>
       <c r="AD2" s="20" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="AE2" s="20" t="s">
         <v>15</v>
@@ -11390,7 +11309,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>2181</v>
+        <v>2164</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -11405,10 +11324,10 @@
         <v>144</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>2182</v>
+        <v>2165</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>2183</v>
+        <v>2166</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -11432,28 +11351,28 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2184</v>
+        <v>2167</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="BJ2" s="15" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="BK2" s="15" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="BL2" s="15" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="BM2" s="15" t="s">
-        <v>2179</v>
+        <v>2162</v>
       </c>
       <c r="BN2" s="15" t="s">
-        <v>2178</v>
+        <v>2161</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2146</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -11480,7 +11399,7 @@
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
@@ -11547,7 +11466,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
@@ -11622,7 +11541,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -11683,7 +11602,7 @@
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>2155</v>
+        <v>2143</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -11695,7 +11614,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -11756,7 +11675,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>2156</v>
+        <v>2144</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -11768,7 +11687,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -11829,7 +11748,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>2157</v>
+        <v>2145</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -11841,7 +11760,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -11902,7 +11821,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>2158</v>
+        <v>2146</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -11914,7 +11833,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
@@ -11975,7 +11894,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>2159</v>
+        <v>2147</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -11987,7 +11906,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -12058,49 +11977,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
   <dimension ref="A1:BP10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BE2" sqref="BE2"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="25" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="25" width="21.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="25" width="21.33984375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="25" width="17.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="25" width="20.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="25" width="17.140625" collapsed="true"/>
-    <col min="6" max="11" style="25" width="9.140625" collapsed="true"/>
+    <col min="6" max="10" style="25" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="25" width="24.5234375" collapsed="true"/>
     <col min="12" max="13" bestFit="true" customWidth="true" style="25" width="37.28515625" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" style="25" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="25" width="29.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="25" width="28.1640625" collapsed="true"/>
     <col min="16" max="16" style="25" width="9.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="25" width="8.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="25" width="8.83984375" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="25" width="5.42578125" collapsed="true"/>
     <col min="19" max="19" style="25" width="9.140625" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" style="25" width="14.42578125" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" style="25" width="10.7109375" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" style="25" width="11.140625" collapsed="true"/>
-    <col min="23" max="25" style="25" width="9.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="25" width="21.10546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="25" width="32.21875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="25" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" style="25" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="25" width="38.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="25" width="42.1484375" collapsed="true"/>
     <col min="28" max="28" customWidth="true" style="25" width="20.85546875" collapsed="true"/>
     <col min="29" max="29" style="25" width="9.140625" collapsed="true"/>
     <col min="30" max="30" customWidth="true" style="25" width="22.140625" collapsed="true"/>
     <col min="31" max="31" customWidth="true" style="25" width="12.0" collapsed="true"/>
     <col min="32" max="32" customWidth="true" style="25" width="11.5703125" collapsed="true"/>
     <col min="33" max="44" style="25" width="9.140625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="25" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="25" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="25" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="25" width="13.140625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="25" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="25" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="25" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="25" width="13.1796875" collapsed="true"/>
     <col min="49" max="49" style="25" width="9.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="25" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="25" width="13.5703125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="25" width="44.140625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="25" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="25" width="14.28515625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="25" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="25" width="25.6015625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="25" width="30.40625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="25" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="25" width="14.2265625" collapsed="true"/>
     <col min="55" max="59" style="25" width="9.140625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="25" width="26.7109375" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="25" width="30.30078125" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" style="25" width="25.140625" collapsed="true"/>
     <col min="62" max="62" bestFit="true" customWidth="true" style="25" width="28.85546875" collapsed="true"/>
     <col min="63" max="64" bestFit="true" customWidth="true" style="25" width="37.28515625" collapsed="true"/>
@@ -12315,28 +12237,28 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>2189</v>
+        <v>2256</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>652</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>653</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>656</v>
@@ -12345,7 +12267,7 @@
         <v>657</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>2073</v>
+        <v>2276</v>
       </c>
       <c r="L2" s="25" t="s">
         <v>447</v>
@@ -12357,40 +12279,40 @@
         <v>447</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>2190</v>
+        <v>2257</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>2192</v>
+        <v>2260</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>2132</v>
+        <v>2126</v>
       </c>
       <c r="S2" s="25" t="s">
         <v>659</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>2134</v>
+        <v>2128</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>2128</v>
+        <v>2122</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>2129</v>
+        <v>2123</v>
       </c>
       <c r="W2" s="25" t="s">
-        <v>2089</v>
+        <v>2269</v>
       </c>
       <c r="X2" s="25" t="s">
-        <v>2088</v>
+        <v>2268</v>
       </c>
       <c r="Y2" s="25" t="s">
         <v>620</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>2133</v>
+        <v>2127</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>2186</v>
+        <v>2272</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -12405,7 +12327,7 @@
         <v>15</v>
       </c>
       <c r="AF2" s="26" t="s">
-        <v>2250</v>
+        <v>2221</v>
       </c>
       <c r="AG2" s="25" t="s">
         <v>15</v>
@@ -12423,7 +12345,7 @@
         <v>15</v>
       </c>
       <c r="AL2" s="26" t="s">
-        <v>541</v>
+        <v>2221</v>
       </c>
       <c r="AM2" s="26" t="s">
         <v>542</v>
@@ -12444,7 +12366,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="25" t="s">
-        <v>2185</v>
+        <v>2273</v>
       </c>
       <c r="AU2" s="25" t="s">
         <v>87</v>
@@ -12456,13 +12378,13 @@
         <v>663</v>
       </c>
       <c r="AX2" s="25" t="s">
-        <v>461</v>
+        <v>144</v>
       </c>
       <c r="AY2" s="25" t="s">
-        <v>2187</v>
+        <v>2274</v>
       </c>
       <c r="AZ2" s="25" t="s">
-        <v>1637</v>
+        <v>2265</v>
       </c>
       <c r="BA2" s="24" t="s">
         <v>420</v>
@@ -12486,10 +12408,10 @@
         <v>411</v>
       </c>
       <c r="BH2" s="25" t="s">
-        <v>2188</v>
+        <v>2275</v>
       </c>
       <c r="BI2" s="25" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="BJ2" s="25" t="s">
         <v>447</v>
@@ -12501,13 +12423,13 @@
         <v>447</v>
       </c>
       <c r="BM2" s="25" t="s">
-        <v>2194</v>
+        <v>2170</v>
       </c>
       <c r="BN2" s="25" t="s">
-        <v>2193</v>
+        <v>2169</v>
       </c>
       <c r="BO2" s="25" t="s">
-        <v>2120</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -12515,7 +12437,7 @@
         <v>1558</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>2251</v>
+        <v>2222</v>
       </c>
       <c r="AD3" s="26" t="s">
         <v>540</v>
@@ -12526,61 +12448,61 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>2136</v>
+        <v>295</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>2137</v>
+        <v>2235</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>1545</v>
+        <v>2236</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>2138</v>
+        <v>2237</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>2139</v>
+        <v>2238</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>2140</v>
+        <v>2239</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>2135</v>
+        <v>2240</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
   </sheetData>
@@ -12634,7 +12556,7 @@
         <v>607</v>
       </c>
       <c r="B2" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="D2" t="s">
         <v>462</v>
@@ -12643,7 +12565,7 @@
         <v>500</v>
       </c>
       <c r="G2" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12651,7 +12573,7 @@
         <v>608</v>
       </c>
       <c r="B3" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="D3" t="s">
         <v>463</v>
@@ -12660,7 +12582,7 @@
         <v>501</v>
       </c>
       <c r="G3" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -12668,7 +12590,7 @@
         <v>609</v>
       </c>
       <c r="B4" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="D4" t="s">
         <v>464</v>
@@ -12677,7 +12599,7 @@
         <v>502</v>
       </c>
       <c r="G4" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -12685,7 +12607,7 @@
         <v>610</v>
       </c>
       <c r="B5" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="D5" t="s">
         <v>465</v>
@@ -12694,7 +12616,7 @@
         <v>503</v>
       </c>
       <c r="G5" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -12702,7 +12624,7 @@
         <v>611</v>
       </c>
       <c r="B6" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="D6" t="s">
         <v>466</v>
@@ -12711,7 +12633,7 @@
         <v>504</v>
       </c>
       <c r="G6" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -12719,7 +12641,7 @@
         <v>612</v>
       </c>
       <c r="B7" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="D7" t="s">
         <v>467</v>
@@ -12728,7 +12650,7 @@
         <v>505</v>
       </c>
       <c r="G7" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -12745,7 +12667,7 @@
         <v>506</v>
       </c>
       <c r="G8" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12762,7 +12684,7 @@
         <v>507</v>
       </c>
       <c r="G9" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -12779,7 +12701,7 @@
         <v>508</v>
       </c>
       <c r="G10" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -12796,7 +12718,7 @@
         <v>509</v>
       </c>
       <c r="G11" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -12813,7 +12735,7 @@
         <v>510</v>
       </c>
       <c r="G12" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -12830,7 +12752,7 @@
         <v>511</v>
       </c>
       <c r="G13" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -13057,37 +12979,36 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="28.84765625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="14" max="15" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.58203125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.5703125" collapsed="true"/>
     <col min="28" max="28" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.69921875" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="23.6015625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
     <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
     <col min="63" max="63" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
     <col min="64" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="14.12890625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -13295,10 +13216,10 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2300</v>
+        <v>2230</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>633</v>
@@ -13313,7 +13234,7 @@
         <v>1547</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>2173</v>
+        <v>2156</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>1548</v>
@@ -13326,25 +13247,25 @@
         <v>1551</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>2301</v>
+        <v>2231</v>
       </c>
       <c r="P2" s="16" t="s">
         <v>1541</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>2304</v>
+        <v>2234</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="S2" s="16" t="s">
         <v>538</v>
@@ -13359,7 +13280,7 @@
         <v>1542</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="X2" s="16" t="s">
         <v>438</v>
@@ -13368,10 +13289,10 @@
         <v>620</v>
       </c>
       <c r="Z2" s="16" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>2295</v>
+        <v>2225</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -13426,7 +13347,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="16" t="s">
-        <v>2296</v>
+        <v>2226</v>
       </c>
       <c r="AU2" s="16" t="s">
         <v>87</v>
@@ -13441,10 +13362,10 @@
         <v>461</v>
       </c>
       <c r="AY2" s="16" t="s">
-        <v>2297</v>
+        <v>2227</v>
       </c>
       <c r="AZ2" s="16" t="s">
-        <v>2298</v>
+        <v>2228</v>
       </c>
       <c r="BA2" s="17" t="s">
         <v>420</v>
@@ -13468,7 +13389,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="16" t="s">
-        <v>2299</v>
+        <v>2229</v>
       </c>
       <c r="BI2" s="16"/>
       <c r="BJ2" s="16"/>
@@ -13478,10 +13399,10 @@
         <v>1549</v>
       </c>
       <c r="BN2" s="16" t="s">
-        <v>2284</v>
+        <v>2224</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2262</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -13508,7 +13429,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
       <c r="U3" s="23" t="s">
-        <v>2124</v>
+        <v>2118</v>
       </c>
       <c r="V3" s="16"/>
       <c r="W3" s="16" t="s">
@@ -13851,25 +13772,25 @@
         <v>619</v>
       </c>
       <c r="F2" t="s">
-        <v>2166</v>
+        <v>2153</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>416</v>
       </c>
       <c r="H2" t="s">
-        <v>2167</v>
+        <v>2154</v>
       </c>
       <c r="I2" t="s">
-        <v>2168</v>
+        <v>2155</v>
       </c>
       <c r="J2" t="s">
         <v>1514</v>
       </c>
       <c r="K2" t="s">
-        <v>2160</v>
+        <v>2148</v>
       </c>
       <c r="L2" t="s">
-        <v>2161</v>
+        <v>2149</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>1337</v>
@@ -13878,7 +13799,7 @@
         <v>1515</v>
       </c>
       <c r="O2" t="s">
-        <v>2162</v>
+        <v>2150</v>
       </c>
       <c r="P2" t="s">
         <v>1516</v>
@@ -13890,7 +13811,7 @@
         <v>1513</v>
       </c>
       <c r="S2" t="s">
-        <v>2163</v>
+        <v>2151</v>
       </c>
       <c r="T2" t="s">
         <v>1512</v>
@@ -14060,7 +13981,7 @@
     <col min="27" max="27" customWidth="true" width="18.0" collapsed="true"/>
     <col min="28" max="28" customWidth="true" width="17.42578125" collapsed="true"/>
     <col min="29" max="29" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="15.78125" collapsed="true"/>
     <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
     <col min="65" max="66" width="9.140625" collapsed="true"/>
   </cols>
@@ -14157,57 +14078,57 @@
         <v>1502</v>
       </c>
       <c r="AE1" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>2195</v>
+        <v>2171</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>2205</v>
+        <v>2181</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q2" s="16" t="s">
         <v>693</v>
@@ -14225,7 +14146,7 @@
         <v>60</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>2227</v>
+        <v>2203</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>1518</v>
@@ -14249,52 +14170,52 @@
         <v>200</v>
       </c>
       <c r="AD2" t="s">
-        <v>2174</v>
+        <v>2277</v>
       </c>
       <c r="AE2" t="s">
-        <v>2145</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>2196</v>
+        <v>2172</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>2206</v>
+        <v>2182</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="Q3" s="16" t="s">
         <v>697</v>
@@ -14312,7 +14233,7 @@
         <v>60</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>2228</v>
+        <v>2204</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>1517</v>
@@ -14336,49 +14257,49 @@
         <v>200</v>
       </c>
       <c r="AE3" t="s">
-        <v>2141</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>2197</v>
+        <v>2173</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>2207</v>
+        <v>2183</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="Q4" s="16" t="s">
         <v>701</v>
@@ -14396,7 +14317,7 @@
         <v>60</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>2303</v>
+        <v>2259</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>1519</v>
@@ -14420,49 +14341,49 @@
         <v>199</v>
       </c>
       <c r="AE4" t="s">
-        <v>2141</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>2198</v>
+        <v>2174</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>2208</v>
+        <v>2184</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>705</v>
@@ -14480,7 +14401,7 @@
         <v>60</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>2302</v>
+        <v>2258</v>
       </c>
       <c r="W5" s="15" t="s">
         <v>1520</v>
@@ -14504,49 +14425,49 @@
         <v>199</v>
       </c>
       <c r="AE5" t="s">
-        <v>2141</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>2199</v>
+        <v>2175</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>2209</v>
+        <v>2185</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>709</v>
@@ -14584,49 +14505,49 @@
         <v>99</v>
       </c>
       <c r="AE6" t="s">
-        <v>2142</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>2200</v>
+        <v>2176</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>2210</v>
+        <v>2186</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>713</v>
@@ -14664,49 +14585,49 @@
         <v>199</v>
       </c>
       <c r="AE7" t="s">
-        <v>2142</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>2201</v>
+        <v>2177</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>2211</v>
+        <v>2187</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="O8" s="15">
         <v>0.32</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>717</v>
@@ -14744,49 +14665,49 @@
         <v>99</v>
       </c>
       <c r="AE8" t="s">
-        <v>2142</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>2202</v>
+        <v>2178</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>2212</v>
+        <v>2188</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>721</v>
@@ -14824,49 +14745,49 @@
         <v>299</v>
       </c>
       <c r="AE9" t="s">
-        <v>2141</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>2203</v>
+        <v>2179</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>257</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>2213</v>
+        <v>2189</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="Q10" s="16" t="s">
         <v>725</v>
@@ -14904,30 +14825,30 @@
         <v>100</v>
       </c>
       <c r="AE10" t="s">
-        <v>2141</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>2204</v>
+        <v>2180</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>254</v>
@@ -14940,13 +14861,13 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="Q11" s="16" t="s">
         <v>730</v>
@@ -14984,23 +14905,23 @@
         <v>222</v>
       </c>
       <c r="AE11" t="s">
-        <v>2141</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>733</v>
@@ -15016,13 +14937,13 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>736</v>
@@ -15060,23 +14981,23 @@
         <v>88</v>
       </c>
       <c r="AE12" t="s">
-        <v>2143</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -15086,13 +15007,13 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="Q13" s="16" t="s">
         <v>325</v>
@@ -15126,23 +15047,23 @@
         <v>99</v>
       </c>
       <c r="AE13" t="s">
-        <v>2144</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -15152,13 +15073,13 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="Q14" s="16" t="s">
         <v>743</v>
@@ -15184,16 +15105,16 @@
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -15203,13 +15124,13 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="Q15" s="16" t="s">
         <v>747</v>
@@ -15235,16 +15156,16 @@
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -15278,13 +15199,13 @@
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="16" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -15309,13 +15230,13 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18" s="16" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -15340,13 +15261,13 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="16" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -15371,13 +15292,13 @@
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20" s="16" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -15402,13 +15323,13 @@
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21" s="16" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -15433,13 +15354,13 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="16" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -15464,13 +15385,13 @@
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23" s="16" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -15495,13 +15416,13 @@
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24" s="16" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -15526,13 +15447,13 @@
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" s="16" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -15557,13 +15478,13 @@
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26" s="16" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -15588,13 +15509,13 @@
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" s="16" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -15619,13 +15540,13 @@
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="16" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -15650,13 +15571,13 @@
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C29" s="16" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -15681,13 +15602,13 @@
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C30" s="16" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -15712,13 +15633,13 @@
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C31" s="16" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -15743,13 +15664,13 @@
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C32" s="16" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -15774,13 +15695,13 @@
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33" s="16" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -15805,13 +15726,13 @@
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34" s="16" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -15836,13 +15757,13 @@
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35" s="16" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -15867,13 +15788,13 @@
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36" s="16" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -15898,13 +15819,13 @@
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="16" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -15929,13 +15850,13 @@
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38" s="16" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -15960,13 +15881,13 @@
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C39" s="16" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -15991,13 +15912,13 @@
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40" s="16" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -16022,13 +15943,13 @@
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C41" s="16" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -16053,13 +15974,13 @@
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42" s="16" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -16084,13 +16005,13 @@
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43" s="16" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -16115,13 +16036,13 @@
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C44" s="16" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
@@ -16146,13 +16067,13 @@
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45" s="16" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
@@ -16177,11 +16098,11 @@
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C46" s="16" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
@@ -16208,7 +16129,7 @@
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -16235,7 +16156,7 @@
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
@@ -16260,7 +16181,7 @@
     </row>
     <row r="49" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E49" s="16" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
@@ -16285,7 +16206,7 @@
     </row>
     <row r="50" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E50" s="16" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
@@ -16310,7 +16231,7 @@
     </row>
     <row r="51" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E51" s="16" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
@@ -16335,7 +16256,7 @@
     </row>
     <row r="52" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E52" s="16" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
@@ -16360,7 +16281,7 @@
     </row>
     <row r="53" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E53" s="16" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
@@ -16385,7 +16306,7 @@
     </row>
     <row r="54" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E54" s="16" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
@@ -16410,7 +16331,7 @@
     </row>
     <row r="55" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E55" s="16" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
@@ -16435,7 +16356,7 @@
     </row>
     <row r="56" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E56" s="16" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
@@ -16460,7 +16381,7 @@
     </row>
     <row r="57" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E57" s="16" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
@@ -16485,7 +16406,7 @@
     </row>
     <row r="58" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E58" s="16" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
@@ -16510,7 +16431,7 @@
     </row>
     <row r="59" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E59" s="16" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
@@ -16535,7 +16456,7 @@
     </row>
     <row r="60" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E60" s="16" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
@@ -16560,7 +16481,7 @@
     </row>
     <row r="61" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E61" s="16" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
@@ -16585,7 +16506,7 @@
     </row>
     <row r="62" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E62" s="16" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
@@ -16610,7 +16531,7 @@
     </row>
     <row r="63" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E63" s="16" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
@@ -16635,7 +16556,7 @@
     </row>
     <row r="64" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E64" s="16" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
@@ -16660,7 +16581,7 @@
     </row>
     <row r="65" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E65" s="16" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
@@ -16685,7 +16606,7 @@
     </row>
     <row r="66" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E66" s="16" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
@@ -16710,7 +16631,7 @@
     </row>
     <row r="67" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E67" s="16" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
@@ -16735,7 +16656,7 @@
     </row>
     <row r="68" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E68" s="16" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
@@ -16760,7 +16681,7 @@
     </row>
     <row r="69" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E69" s="16" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
@@ -16785,7 +16706,7 @@
     </row>
     <row r="70" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E70" s="16" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
@@ -16810,7 +16731,7 @@
     </row>
     <row r="71" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E71" s="16" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
@@ -16835,7 +16756,7 @@
     </row>
     <row r="72" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E72" s="16" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
@@ -16860,7 +16781,7 @@
     </row>
     <row r="73" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E73" s="16" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
@@ -16885,7 +16806,7 @@
     </row>
     <row r="74" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E74" s="16" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
@@ -16910,7 +16831,7 @@
     </row>
     <row r="75" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E75" s="16" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
@@ -16935,7 +16856,7 @@
     </row>
     <row r="76" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E76" s="16" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
@@ -16960,7 +16881,7 @@
     </row>
     <row r="77" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E77" s="16" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
@@ -16985,7 +16906,7 @@
     </row>
     <row r="78" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E78" s="16" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
@@ -17010,7 +16931,7 @@
     </row>
     <row r="79" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E79" s="16" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
@@ -17035,7 +16956,7 @@
     </row>
     <row r="80" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E80" s="16" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
@@ -17060,7 +16981,7 @@
     </row>
     <row r="81" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E81" s="16" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
@@ -17085,7 +17006,7 @@
     </row>
     <row r="82" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E82" s="16" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
@@ -17110,7 +17031,7 @@
     </row>
     <row r="83" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E83" s="16" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
@@ -17135,7 +17056,7 @@
     </row>
     <row r="84" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E84" s="16" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
@@ -17160,7 +17081,7 @@
     </row>
     <row r="85" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E85" s="16" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
@@ -17185,7 +17106,7 @@
     </row>
     <row r="86" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E86" s="16" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
@@ -17210,7 +17131,7 @@
     </row>
     <row r="87" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E87" s="16" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
@@ -17235,7 +17156,7 @@
     </row>
     <row r="88" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E88" s="16" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
@@ -17260,7 +17181,7 @@
     </row>
     <row r="89" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E89" s="16" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
@@ -17285,7 +17206,7 @@
     </row>
     <row r="90" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E90" s="16" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
@@ -17310,7 +17231,7 @@
     </row>
     <row r="91" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E91" s="16" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
@@ -17335,7 +17256,7 @@
     </row>
     <row r="92" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E92" s="16" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
@@ -17360,7 +17281,7 @@
     </row>
     <row r="93" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E93" s="16" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
@@ -17385,7 +17306,7 @@
     </row>
     <row r="94" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E94" s="16" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
@@ -17410,7 +17331,7 @@
     </row>
     <row r="95" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E95" s="16" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
@@ -17435,7 +17356,7 @@
     </row>
     <row r="96" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E96" s="16" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
@@ -17460,7 +17381,7 @@
     </row>
     <row r="97" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E97" s="16" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
@@ -17485,7 +17406,7 @@
     </row>
     <row r="98" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E98" s="16" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
@@ -17510,7 +17431,7 @@
     </row>
     <row r="99" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E99" s="16" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
@@ -17535,7 +17456,7 @@
     </row>
     <row r="100" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E100" s="16" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
@@ -17560,7 +17481,7 @@
     </row>
     <row r="101" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E101" s="16" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
@@ -17585,7 +17506,7 @@
     </row>
     <row r="102" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E102" s="16" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
@@ -17610,7 +17531,7 @@
     </row>
     <row r="103" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E103" s="16" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
@@ -17635,7 +17556,7 @@
     </row>
     <row r="104" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E104" s="16" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
@@ -17660,7 +17581,7 @@
     </row>
     <row r="105" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E105" s="16" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
@@ -17685,7 +17606,7 @@
     </row>
     <row r="106" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E106" s="16" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
@@ -17710,7 +17631,7 @@
     </row>
     <row r="107" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E107" s="16" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
@@ -17735,7 +17656,7 @@
     </row>
     <row r="108" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E108" s="16" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
@@ -17760,7 +17681,7 @@
     </row>
     <row r="109" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E109" s="16" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
@@ -17785,7 +17706,7 @@
     </row>
     <row r="110" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E110" s="16" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
@@ -17810,7 +17731,7 @@
     </row>
     <row r="111" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E111" s="16" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
@@ -17835,7 +17756,7 @@
     </row>
     <row r="112" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E112" s="16" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
@@ -17860,7 +17781,7 @@
     </row>
     <row r="113" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E113" s="16" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
@@ -17885,7 +17806,7 @@
     </row>
     <row r="114" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E114" s="16" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
@@ -17910,7 +17831,7 @@
     </row>
     <row r="115" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E115" s="16" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
@@ -17935,7 +17856,7 @@
     </row>
     <row r="116" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E116" s="16" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
@@ -17960,7 +17881,7 @@
     </row>
     <row r="117" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E117" s="16" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
@@ -17985,7 +17906,7 @@
     </row>
     <row r="118" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E118" s="16" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
@@ -18010,7 +17931,7 @@
     </row>
     <row r="119" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E119" s="16" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="16"/>
@@ -18035,7 +17956,7 @@
     </row>
     <row r="120" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E120" s="16" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
@@ -18060,7 +17981,7 @@
     </row>
     <row r="121" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E121" s="16" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
@@ -18085,7 +18006,7 @@
     </row>
     <row r="122" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E122" s="16" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
@@ -18110,7 +18031,7 @@
     </row>
     <row r="123" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E123" s="16" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
@@ -18135,7 +18056,7 @@
     </row>
     <row r="124" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E124" s="16" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
@@ -18160,7 +18081,7 @@
     </row>
     <row r="125" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E125" s="16" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="F125" s="16"/>
       <c r="G125" s="16"/>
@@ -18185,7 +18106,7 @@
     </row>
     <row r="126" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E126" s="16" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
@@ -18210,7 +18131,7 @@
     </row>
     <row r="127" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E127" s="16" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="F127" s="16"/>
       <c r="G127" s="16"/>
@@ -18235,7 +18156,7 @@
     </row>
     <row r="128" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E128" s="16" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
@@ -18260,7 +18181,7 @@
     </row>
     <row r="129" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E129" s="16" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
@@ -18285,7 +18206,7 @@
     </row>
     <row r="130" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E130" s="16" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
@@ -18310,7 +18231,7 @@
     </row>
     <row r="131" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E131" s="16" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="F131" s="16"/>
       <c r="G131" s="16"/>
@@ -18335,7 +18256,7 @@
     </row>
     <row r="132" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E132" s="16" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
@@ -18360,7 +18281,7 @@
     </row>
     <row r="133" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E133" s="16" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="F133" s="16"/>
       <c r="G133" s="16"/>
@@ -18385,7 +18306,7 @@
     </row>
     <row r="134" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E134" s="16" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="F134" s="16"/>
       <c r="G134" s="16"/>
@@ -18410,7 +18331,7 @@
     </row>
     <row r="135" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E135" s="16" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="F135" s="16"/>
       <c r="G135" s="16"/>
@@ -18435,7 +18356,7 @@
     </row>
     <row r="136" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E136" s="16" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
@@ -18460,7 +18381,7 @@
     </row>
     <row r="137" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E137" s="16" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="F137" s="16"/>
       <c r="G137" s="16"/>
@@ -18485,7 +18406,7 @@
     </row>
     <row r="138" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E138" s="16" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
@@ -18510,7 +18431,7 @@
     </row>
     <row r="139" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E139" s="16" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="F139" s="16"/>
       <c r="G139" s="16"/>
@@ -18535,7 +18456,7 @@
     </row>
     <row r="140" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E140" s="16" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
@@ -18560,7 +18481,7 @@
     </row>
     <row r="141" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E141" s="16" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="F141" s="16"/>
       <c r="G141" s="16"/>
@@ -18585,7 +18506,7 @@
     </row>
     <row r="142" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E142" s="16" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
@@ -18610,7 +18531,7 @@
     </row>
     <row r="143" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E143" s="16" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="F143" s="16"/>
       <c r="G143" s="16"/>
@@ -18635,7 +18556,7 @@
     </row>
     <row r="144" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E144" s="16" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
@@ -18660,7 +18581,7 @@
     </row>
     <row r="145" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E145" s="16" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="F145" s="16"/>
       <c r="G145" s="16"/>
@@ -18685,7 +18606,7 @@
     </row>
     <row r="146" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E146" s="16" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="F146" s="16"/>
       <c r="G146" s="16"/>
@@ -18710,7 +18631,7 @@
     </row>
     <row r="147" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E147" s="16" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="F147" s="16"/>
       <c r="G147" s="16"/>
@@ -18735,7 +18656,7 @@
     </row>
     <row r="148" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E148" s="16" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
@@ -18760,7 +18681,7 @@
     </row>
     <row r="149" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E149" s="16" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="F149" s="16"/>
       <c r="G149" s="16"/>
@@ -18785,7 +18706,7 @@
     </row>
     <row r="150" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E150" s="16" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="F150" s="16"/>
       <c r="G150" s="16"/>
@@ -18810,7 +18731,7 @@
     </row>
     <row r="151" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E151" s="16" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
       <c r="F151" s="16"/>
       <c r="G151" s="16"/>
@@ -18835,7 +18756,7 @@
     </row>
     <row r="152" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E152" s="16" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="F152" s="16"/>
       <c r="G152" s="16"/>
@@ -18860,7 +18781,7 @@
     </row>
     <row r="153" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E153" s="16" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="F153" s="16"/>
       <c r="G153" s="16"/>
@@ -18885,7 +18806,7 @@
     </row>
     <row r="154" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E154" s="16" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="F154" s="16"/>
       <c r="G154" s="16"/>
@@ -18910,7 +18831,7 @@
     </row>
     <row r="155" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E155" s="16" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="F155" s="16"/>
       <c r="G155" s="16"/>
@@ -18935,7 +18856,7 @@
     </row>
     <row r="156" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E156" s="16" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="F156" s="16"/>
       <c r="G156" s="16"/>
@@ -18960,7 +18881,7 @@
     </row>
     <row r="157" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E157" s="16" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="F157" s="16"/>
       <c r="G157" s="16"/>
@@ -18985,7 +18906,7 @@
     </row>
     <row r="158" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E158" s="16" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="F158" s="16"/>
       <c r="G158" s="16"/>
@@ -19010,7 +18931,7 @@
     </row>
     <row r="159" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E159" s="16" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="F159" s="16"/>
       <c r="G159" s="16"/>
@@ -19035,7 +18956,7 @@
     </row>
     <row r="160" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E160" s="16" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="16"/>
@@ -19060,7 +18981,7 @@
     </row>
     <row r="161" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E161" s="16" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="16"/>
@@ -19085,7 +19006,7 @@
     </row>
     <row r="162" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E162" s="16" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="16"/>
@@ -19110,7 +19031,7 @@
     </row>
     <row r="163" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E163" s="16" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="F163" s="16"/>
       <c r="G163" s="16"/>
@@ -19135,7 +19056,7 @@
     </row>
     <row r="164" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E164" s="16" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="F164" s="16"/>
       <c r="G164" s="16"/>
@@ -19160,7 +19081,7 @@
     </row>
     <row r="165" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E165" s="16" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="F165" s="16"/>
       <c r="G165" s="16"/>
@@ -19185,7 +19106,7 @@
     </row>
     <row r="166" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E166" s="16" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
@@ -19210,7 +19131,7 @@
     </row>
     <row r="167" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E167" s="16" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="F167" s="16"/>
       <c r="G167" s="16"/>
@@ -19235,7 +19156,7 @@
     </row>
     <row r="168" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E168" s="16" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
@@ -19260,7 +19181,7 @@
     </row>
     <row r="169" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E169" s="16" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="F169" s="16"/>
       <c r="G169" s="16"/>
@@ -19285,7 +19206,7 @@
     </row>
     <row r="170" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E170" s="16" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="F170" s="16"/>
       <c r="G170" s="16"/>
@@ -19310,7 +19231,7 @@
     </row>
     <row r="171" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E171" s="16" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="F171" s="16"/>
       <c r="G171" s="16"/>
@@ -19335,7 +19256,7 @@
     </row>
     <row r="172" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E172" s="16" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
@@ -19360,7 +19281,7 @@
     </row>
     <row r="173" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E173" s="16" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="F173" s="16"/>
       <c r="G173" s="16"/>
@@ -19385,7 +19306,7 @@
     </row>
     <row r="174" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E174" s="16" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="16"/>
@@ -19410,7 +19331,7 @@
     </row>
     <row r="175" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E175" s="16" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="F175" s="16"/>
       <c r="G175" s="16"/>
@@ -19435,7 +19356,7 @@
     </row>
     <row r="176" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E176" s="16" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="F176" s="16"/>
       <c r="G176" s="16"/>
@@ -19460,7 +19381,7 @@
     </row>
     <row r="177" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E177" s="16" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="F177" s="16"/>
       <c r="G177" s="16"/>
@@ -19485,7 +19406,7 @@
     </row>
     <row r="178" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E178" s="16" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="F178" s="16"/>
       <c r="G178" s="16"/>
@@ -19510,7 +19431,7 @@
     </row>
     <row r="179" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E179" s="16" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="F179" s="16"/>
       <c r="G179" s="16"/>
@@ -19535,7 +19456,7 @@
     </row>
     <row r="180" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E180" s="16" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="F180" s="16"/>
       <c r="G180" s="16"/>
@@ -19560,7 +19481,7 @@
     </row>
     <row r="181" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E181" s="16" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="F181" s="16"/>
       <c r="G181" s="16"/>
@@ -19585,7 +19506,7 @@
     </row>
     <row r="182" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E182" s="16" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="F182" s="16"/>
       <c r="G182" s="16"/>
@@ -19610,7 +19531,7 @@
     </row>
     <row r="183" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E183" s="16" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="F183" s="16"/>
       <c r="G183" s="16"/>
@@ -19635,7 +19556,7 @@
     </row>
     <row r="184" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E184" s="16" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="F184" s="16"/>
       <c r="G184" s="16"/>
@@ -19660,7 +19581,7 @@
     </row>
     <row r="185" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E185" s="16" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="F185" s="16"/>
       <c r="G185" s="16"/>
@@ -19685,7 +19606,7 @@
     </row>
     <row r="186" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E186" s="16" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="F186" s="16"/>
       <c r="G186" s="16"/>
@@ -19710,7 +19631,7 @@
     </row>
     <row r="187" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E187" s="16" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="F187" s="16"/>
       <c r="G187" s="16"/>
@@ -19735,7 +19656,7 @@
     </row>
     <row r="188" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E188" s="16" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
@@ -19760,7 +19681,7 @@
     </row>
     <row r="189" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E189" s="16" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="F189" s="16"/>
       <c r="G189" s="16"/>
@@ -19785,7 +19706,7 @@
     </row>
     <row r="190" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E190" s="16" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
@@ -19810,7 +19731,7 @@
     </row>
     <row r="191" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E191" s="16" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="F191" s="16"/>
       <c r="G191" s="16"/>
@@ -19835,7 +19756,7 @@
     </row>
     <row r="192" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E192" s="16" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="F192" s="16"/>
       <c r="G192" s="16"/>
@@ -19860,7 +19781,7 @@
     </row>
     <row r="193" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E193" s="16" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="F193" s="16"/>
       <c r="G193" s="16"/>
@@ -19885,7 +19806,7 @@
     </row>
     <row r="194" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E194" s="16" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="F194" s="16"/>
       <c r="G194" s="16"/>
@@ -19910,7 +19831,7 @@
     </row>
     <row r="195" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E195" s="16" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="F195" s="16"/>
       <c r="G195" s="16"/>
@@ -19935,7 +19856,7 @@
     </row>
     <row r="196" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E196" s="16" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="F196" s="16"/>
       <c r="G196" s="16"/>
@@ -19960,7 +19881,7 @@
     </row>
     <row r="197" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E197" s="16" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="F197" s="16"/>
       <c r="G197" s="16"/>
@@ -19985,7 +19906,7 @@
     </row>
     <row r="198" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E198" s="16" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
@@ -20010,7 +19931,7 @@
     </row>
     <row r="199" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E199" s="16" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="F199" s="16"/>
       <c r="G199" s="16"/>
@@ -20035,7 +19956,7 @@
     </row>
     <row r="200" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E200" s="16" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
@@ -20060,7 +19981,7 @@
     </row>
     <row r="201" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E201" s="16" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="F201" s="16"/>
       <c r="G201" s="16"/>
@@ -20085,7 +20006,7 @@
     </row>
     <row r="202" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E202" s="16" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="F202" s="16"/>
       <c r="G202" s="16"/>
@@ -20110,7 +20031,7 @@
     </row>
     <row r="203" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E203" s="16" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="F203" s="16"/>
       <c r="G203" s="16"/>
@@ -20135,7 +20056,7 @@
     </row>
     <row r="204" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E204" s="16" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="F204" s="16"/>
       <c r="G204" s="16"/>
@@ -20160,7 +20081,7 @@
     </row>
     <row r="205" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E205" s="16" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="F205" s="16"/>
       <c r="G205" s="16"/>
@@ -20185,7 +20106,7 @@
     </row>
     <row r="206" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E206" s="16" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="F206" s="16"/>
       <c r="G206" s="16"/>
@@ -20210,7 +20131,7 @@
     </row>
     <row r="207" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E207" s="16" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="F207" s="16"/>
       <c r="G207" s="16"/>
@@ -20235,7 +20156,7 @@
     </row>
     <row r="208" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E208" s="16" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="F208" s="16"/>
       <c r="G208" s="16"/>
@@ -20260,7 +20181,7 @@
     </row>
     <row r="209" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E209" s="16" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="F209" s="16"/>
       <c r="G209" s="16"/>
@@ -20285,7 +20206,7 @@
     </row>
     <row r="210" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E210" s="16" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="F210" s="16"/>
       <c r="G210" s="16"/>
@@ -20310,7 +20231,7 @@
     </row>
     <row r="211" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E211" s="16" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="F211" s="16"/>
       <c r="G211" s="16"/>
@@ -20335,7 +20256,7 @@
     </row>
     <row r="212" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E212" s="16" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="F212" s="16"/>
       <c r="G212" s="16"/>
@@ -20360,7 +20281,7 @@
     </row>
     <row r="213" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E213" s="16" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="F213" s="16"/>
       <c r="G213" s="16"/>
@@ -20385,7 +20306,7 @@
     </row>
     <row r="214" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E214" s="16" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="F214" s="16"/>
       <c r="G214" s="16"/>
@@ -20410,7 +20331,7 @@
     </row>
     <row r="215" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E215" s="16" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F215" s="16"/>
       <c r="G215" s="16"/>
@@ -20435,7 +20356,7 @@
     </row>
     <row r="216" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E216" s="16" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F216" s="16"/>
       <c r="G216" s="16"/>
@@ -20460,7 +20381,7 @@
     </row>
     <row r="217" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E217" s="16" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="F217" s="16"/>
       <c r="G217" s="16"/>
@@ -20485,7 +20406,7 @@
     </row>
     <row r="218" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E218" s="16" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="F218" s="16"/>
       <c r="G218" s="16"/>
@@ -20510,7 +20431,7 @@
     </row>
     <row r="219" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E219" s="16" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F219" s="16"/>
       <c r="G219" s="16"/>
@@ -20535,7 +20456,7 @@
     </row>
     <row r="220" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E220" s="16" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="F220" s="16"/>
       <c r="G220" s="16"/>
@@ -20560,7 +20481,7 @@
     </row>
     <row r="221" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E221" s="16" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="F221" s="16"/>
       <c r="G221" s="16"/>
@@ -20585,7 +20506,7 @@
     </row>
     <row r="222" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E222" s="16" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="F222" s="16"/>
       <c r="G222" s="16"/>
@@ -20610,7 +20531,7 @@
     </row>
     <row r="223" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E223" s="16" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="F223" s="16"/>
       <c r="G223" s="16"/>
@@ -20635,7 +20556,7 @@
     </row>
     <row r="224" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E224" s="16" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="F224" s="16"/>
       <c r="G224" s="16"/>
@@ -20660,7 +20581,7 @@
     </row>
     <row r="225" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E225" s="16" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="F225" s="16"/>
       <c r="G225" s="16"/>
@@ -20685,7 +20606,7 @@
     </row>
     <row r="226" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E226" s="16" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="F226" s="16"/>
       <c r="G226" s="16"/>
@@ -20710,7 +20631,7 @@
     </row>
     <row r="227" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E227" s="16" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="F227" s="16"/>
       <c r="G227" s="16"/>
@@ -20735,7 +20656,7 @@
     </row>
     <row r="228" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E228" s="16" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="F228" s="16"/>
       <c r="G228" s="16"/>
@@ -20760,7 +20681,7 @@
     </row>
     <row r="229" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E229" s="16" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="F229" s="16"/>
       <c r="G229" s="16"/>
@@ -20785,7 +20706,7 @@
     </row>
     <row r="230" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E230" s="16" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="F230" s="16"/>
       <c r="G230" s="16"/>
@@ -20810,7 +20731,7 @@
     </row>
     <row r="231" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E231" s="16" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="F231" s="16"/>
       <c r="G231" s="16"/>
@@ -20835,7 +20756,7 @@
     </row>
     <row r="232" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E232" s="16" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="F232" s="16"/>
       <c r="G232" s="16"/>
@@ -20860,7 +20781,7 @@
     </row>
     <row r="233" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E233" s="16" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="F233" s="16"/>
       <c r="G233" s="16"/>
@@ -20885,7 +20806,7 @@
     </row>
     <row r="234" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E234" s="16" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="F234" s="16"/>
       <c r="G234" s="16"/>
@@ -20910,7 +20831,7 @@
     </row>
     <row r="235" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E235" s="16" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="F235" s="16"/>
       <c r="G235" s="16"/>
@@ -20935,7 +20856,7 @@
     </row>
     <row r="236" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E236" s="16" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
@@ -20960,7 +20881,7 @@
     </row>
     <row r="237" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E237" s="16" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="F237" s="16"/>
       <c r="G237" s="16"/>
@@ -20985,7 +20906,7 @@
     </row>
     <row r="238" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E238" s="16" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="F238" s="16"/>
       <c r="G238" s="16"/>
@@ -21010,7 +20931,7 @@
     </row>
     <row r="239" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E239" s="16" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="F239" s="16"/>
       <c r="G239" s="16"/>
@@ -21035,7 +20956,7 @@
     </row>
     <row r="240" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E240" s="16" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="F240" s="16"/>
       <c r="G240" s="16"/>
@@ -21060,7 +20981,7 @@
     </row>
     <row r="241" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E241" s="16" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="F241" s="16"/>
       <c r="G241" s="16"/>
@@ -21085,7 +21006,7 @@
     </row>
     <row r="242" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E242" s="16" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="F242" s="16"/>
       <c r="G242" s="16"/>
@@ -21110,7 +21031,7 @@
     </row>
     <row r="243" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E243" s="16" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="F243" s="16"/>
       <c r="G243" s="16"/>
@@ -21135,7 +21056,7 @@
     </row>
     <row r="244" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E244" s="16" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
@@ -21160,7 +21081,7 @@
     </row>
     <row r="245" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E245" s="16" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="F245" s="16"/>
       <c r="G245" s="16"/>
@@ -21185,7 +21106,7 @@
     </row>
     <row r="246" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E246" s="16" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="F246" s="16"/>
       <c r="G246" s="16"/>
@@ -21210,7 +21131,7 @@
     </row>
     <row r="247" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E247" s="16" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="F247" s="16"/>
       <c r="G247" s="16"/>
@@ -21235,7 +21156,7 @@
     </row>
     <row r="248" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E248" s="16" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="F248" s="16"/>
       <c r="G248" s="16"/>
@@ -21260,7 +21181,7 @@
     </row>
     <row r="249" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E249" s="16" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="F249" s="16"/>
       <c r="G249" s="16"/>
@@ -21285,7 +21206,7 @@
     </row>
     <row r="250" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E250" s="16" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="F250" s="16"/>
       <c r="G250" s="16"/>
@@ -21310,7 +21231,7 @@
     </row>
     <row r="251" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E251" s="16" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="F251" s="16"/>
       <c r="G251" s="16"/>
@@ -21335,7 +21256,7 @@
     </row>
     <row r="252" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E252" s="16" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="F252" s="16"/>
       <c r="G252" s="16"/>
@@ -21360,7 +21281,7 @@
     </row>
     <row r="253" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E253" s="16" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="F253" s="16"/>
       <c r="G253" s="16"/>
@@ -21385,7 +21306,7 @@
     </row>
     <row r="254" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E254" s="16" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="F254" s="16"/>
       <c r="G254" s="16"/>
@@ -21410,7 +21331,7 @@
     </row>
     <row r="255" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E255" s="16" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="F255" s="16"/>
       <c r="G255" s="16"/>
@@ -21435,7 +21356,7 @@
     </row>
     <row r="256" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E256" s="16" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="F256" s="16"/>
       <c r="G256" s="16"/>
@@ -21960,7 +21881,7 @@
         <v>250</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="AA2" s="14" t="s">
         <v>268</v>
@@ -21987,7 +21908,7 @@
         <v>268</v>
       </c>
       <c r="AI2" s="15" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -22085,7 +22006,7 @@
         <v>269</v>
       </c>
       <c r="AI3" s="15" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -22183,7 +22104,7 @@
         <v>323</v>
       </c>
       <c r="AI4" s="15" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -22281,7 +22202,7 @@
         <v>324</v>
       </c>
       <c r="AI5" s="15" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -22379,7 +22300,7 @@
         <v>325</v>
       </c>
       <c r="AI6" s="15" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -22477,7 +22398,7 @@
         <v>326</v>
       </c>
       <c r="AI7" s="15" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -22575,7 +22496,7 @@
         <v>327</v>
       </c>
       <c r="AI8" s="15" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -22673,7 +22594,7 @@
         <v>328</v>
       </c>
       <c r="AI9" s="14" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -22771,7 +22692,7 @@
         <v>329</v>
       </c>
       <c r="AI10" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -22869,7 +22790,7 @@
         <v>273</v>
       </c>
       <c r="AI11" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -22967,7 +22888,7 @@
         <v>321</v>
       </c>
       <c r="AI12" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -23065,7 +22986,7 @@
         <v>322</v>
       </c>
       <c r="AI13" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -23073,12 +22994,12 @@
         <v>1509</v>
       </c>
       <c r="AI14" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AI15" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
   </sheetData>
@@ -23098,14 +23019,14 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="38.52734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="32.0" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="13.85546875" collapsed="true"/>
@@ -23221,22 +23142,22 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>2261</v>
+        <v>2243</v>
       </c>
       <c r="E2" t="s">
-        <v>2230</v>
+        <v>2242</v>
       </c>
       <c r="F2" t="s">
         <v>1521</v>
       </c>
       <c r="G2" t="s">
-        <v>461</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>2260</v>
+        <v>2241</v>
       </c>
       <c r="J2" t="s">
         <v>87</v>
@@ -23296,10 +23217,10 @@
         <v>352</v>
       </c>
       <c r="AC2" t="s">
-        <v>2215</v>
+        <v>2191</v>
       </c>
       <c r="AD2" t="s">
-        <v>2223</v>
+        <v>2199</v>
       </c>
       <c r="AE2" t="s">
         <v>1544</v>
@@ -23307,10 +23228,10 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC3" t="s">
-        <v>2216</v>
+        <v>2192</v>
       </c>
       <c r="AD3" t="s">
-        <v>2224</v>
+        <v>2200</v>
       </c>
       <c r="AE3" t="s">
         <v>1545</v>
@@ -23318,10 +23239,10 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC4" t="s">
-        <v>2217</v>
+        <v>2193</v>
       </c>
       <c r="AD4" t="s">
-        <v>2225</v>
+        <v>2201</v>
       </c>
       <c r="AE4" t="s">
         <v>1546</v>
@@ -23329,7 +23250,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC5" t="s">
-        <v>2218</v>
+        <v>2194</v>
       </c>
       <c r="AE5" t="s">
         <v>73</v>
@@ -23337,27 +23258,27 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC6" t="s">
-        <v>2219</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC7" t="s">
-        <v>2220</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC8" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC9" t="s">
-        <v>2221</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC10" t="s">
-        <v>2222</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -23430,7 +23351,7 @@
         <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="F2" t="s">
         <v>1529</v>
@@ -23453,7 +23374,7 @@
         <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="F3" t="s">
         <v>1530</v>
@@ -23476,7 +23397,7 @@
         <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="F4" t="s">
         <v>1531</v>
@@ -23499,7 +23420,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="F5" t="s">
         <v>1532</v>
@@ -23522,7 +23443,7 @@
         <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="F6" t="s">
         <v>1533</v>
@@ -23545,7 +23466,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="F7" t="s">
         <v>132</v>
@@ -23568,7 +23489,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="F8" t="s">
         <v>133</v>
@@ -23591,7 +23512,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F9" t="s">
         <v>134</v>
@@ -23614,7 +23535,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="F10" t="s">
         <v>135</v>
@@ -23637,7 +23558,7 @@
         <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="F11" t="s">
         <v>136</v>
@@ -23660,7 +23581,7 @@
         <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="F12" t="s">
         <v>137</v>

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="2278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="2292">
   <si>
     <t>FileID</t>
   </si>
@@ -6877,6 +6877,48 @@
   </si>
   <si>
     <t>0011108465</t>
+  </si>
+  <si>
+    <t>Bearer XYGOYEj2IsjdrjgB7fo2B5uxyLRwVw</t>
+  </si>
+  <si>
+    <t>Bearer uUKgN6wb6oY7kfDLzN5MUXnu41uhXj</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>6.072704E7</t>
+  </si>
+  <si>
+    <t>54591</t>
+  </si>
+  <si>
+    <t>761037.6</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Public Order and Safety: Other Public Order</t>
+  </si>
+  <si>
+    <t>Government Use: Local, City</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-17824</t>
+  </si>
+  <si>
+    <t>8000000308</t>
   </si>
 </sst>
 </file>
@@ -12970,7 +13012,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BP6"/>
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2"/>
@@ -12978,7 +13020,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
@@ -12991,18 +13033,18 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="38.96484375" collapsed="true"/>
     <col min="28" max="28" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="19.48046875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="57.3671875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
     <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
     <col min="63" max="63" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
@@ -13216,7 +13258,7 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1575</v>
+        <v>2291</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2230</v>
@@ -13292,7 +13334,7 @@
         <v>1634</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>2225</v>
+        <v>2279</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -13347,7 +13389,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="16" t="s">
-        <v>2226</v>
+        <v>2287</v>
       </c>
       <c r="AU2" s="16" t="s">
         <v>87</v>
@@ -13362,10 +13404,10 @@
         <v>461</v>
       </c>
       <c r="AY2" s="16" t="s">
-        <v>2227</v>
+        <v>2288</v>
       </c>
       <c r="AZ2" s="16" t="s">
-        <v>2228</v>
+        <v>2289</v>
       </c>
       <c r="BA2" s="17" t="s">
         <v>420</v>
@@ -13389,7 +13431,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="16" t="s">
-        <v>2229</v>
+        <v>2290</v>
       </c>
       <c r="BI2" s="16"/>
       <c r="BJ2" s="16"/>
@@ -13487,7 +13529,9 @@
       <c r="BO3" s="16"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="16" t="s">
+        <v>2280</v>
+      </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -13564,6 +13608,9 @@
       <c r="BO4" s="16"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2281</v>
+      </c>
       <c r="AD5" s="3" t="s">
         <v>540</v>
       </c>
@@ -13608,11 +13655,34 @@
       <c r="BO5" s="16"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2282</v>
+      </c>
       <c r="AD6" s="3" t="s">
         <v>540</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>2286</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="2292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="2309">
   <si>
     <t>FileID</t>
   </si>
@@ -6919,6 +6919,57 @@
   </si>
   <si>
     <t>8000000308</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>API LEED v4.1 Communities: ExistingUS95</t>
+  </si>
+  <si>
+    <t>1000094630</t>
+  </si>
+  <si>
+    <t>Bearer 0OZuNmDwqGmVGN6pM17etCZ1Xiv1gi</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>API LEED v4.1 Communities: ExistingUS84</t>
+  </si>
+  <si>
+    <t>1000094632</t>
+  </si>
+  <si>
+    <t>Bearer MlvFgqziPubE8txPiI9VbvwMvV63ny</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>API LEED v4.1 Communities: ExistingUS38</t>
+  </si>
+  <si>
+    <t>1000094634</t>
+  </si>
+  <si>
+    <t>Bearer 5bIFhbiA1XwsREPxJozENWvH6QfaHu</t>
+  </si>
+  <si>
+    <t>0000000010000000000438508</t>
+  </si>
+  <si>
+    <t>EA11BF9180BB2DF1823A0AF82116B5DF</t>
+  </si>
+  <si>
+    <t>EA11BF9180BB2FF1823A0AF82116B5DF</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000094634</t>
+  </si>
+  <si>
+    <t>sC5ziUyD9INcDPzCp38bWT9d</t>
   </si>
 </sst>
 </file>
@@ -13023,9 +13074,10 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="14" max="15" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="48.65625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="47.80859375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="49.8125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="28.109375" collapsed="true"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
@@ -13033,7 +13085,7 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="38.96484375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="39.57421875" collapsed="true"/>
     <col min="28" max="28" customWidth="true" width="22.0" collapsed="true"/>
     <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
@@ -13045,12 +13097,12 @@
     <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
     <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
     <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="22.9453125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="21.50390625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="24.203125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="17.18359375" collapsed="true"/>
     <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -13289,16 +13341,16 @@
         <v>1551</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>1636</v>
+        <v>2305</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>1637</v>
+        <v>2306</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>1635</v>
+        <v>2304</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>2231</v>
+        <v>2308</v>
       </c>
       <c r="P2" s="16" t="s">
         <v>1541</v>
@@ -13334,7 +13386,7 @@
         <v>1634</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>2279</v>
+        <v>2303</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -13433,10 +13485,18 @@
       <c r="BH2" s="16" t="s">
         <v>2290</v>
       </c>
-      <c r="BI2" s="16"/>
-      <c r="BJ2" s="16"/>
-      <c r="BK2" s="16"/>
-      <c r="BL2" s="16"/>
+      <c r="BI2" s="16" t="s">
+        <v>2307</v>
+      </c>
+      <c r="BJ2" s="16" t="s">
+        <v>2304</v>
+      </c>
+      <c r="BK2" s="16" t="s">
+        <v>2305</v>
+      </c>
+      <c r="BL2" s="16" t="s">
+        <v>2306</v>
+      </c>
       <c r="BM2" s="16" t="s">
         <v>1549</v>
       </c>
@@ -13444,7 +13504,7 @@
         <v>2224</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2223</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -23089,14 +23149,14 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="38.12109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="32.0" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="13.85546875" collapsed="true"/>
@@ -23212,7 +23272,7 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>2243</v>
+        <v>2301</v>
       </c>
       <c r="E2" t="s">
         <v>2242</v>
@@ -23227,7 +23287,7 @@
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>2241</v>
+        <v>2300</v>
       </c>
       <c r="J2" t="s">
         <v>87</v>

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="2309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="2393">
   <si>
     <t>FileID</t>
   </si>
@@ -6970,6 +6970,258 @@
   </si>
   <si>
     <t>sC5ziUyD9INcDPzCp38bWT9d</t>
+  </si>
+  <si>
+    <t>Bearer eYqergtfeqGkNe1drVKVUIs24Q8Bou</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Transit: Maintenance/Storage</t>
+  </si>
+  <si>
+    <t>Government Use: Local, Public Housing Authority</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-40617</t>
+  </si>
+  <si>
+    <t>8000000474</t>
+  </si>
+  <si>
+    <t>Bearer unMTkglkimyUWZr7oiOgznM96h1Eoa</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-19224</t>
+  </si>
+  <si>
+    <t>8000001034</t>
+  </si>
+  <si>
+    <t>Bearer pOoXNYcDq8Y3fX3jzsozA9UGQF7Ibv</t>
+  </si>
+  <si>
+    <t>Retail: Bank Branch</t>
+  </si>
+  <si>
+    <t>Investor: Endowment</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-44959</t>
+  </si>
+  <si>
+    <t>8000001035</t>
+  </si>
+  <si>
+    <t>Bearer oIaDQW3CeYJ502WuiUMboOuuCcyxK9</t>
+  </si>
+  <si>
+    <t>Core Learning Space: K-12 High School</t>
+  </si>
+  <si>
+    <t>Educational: Community College, Public</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-24091</t>
+  </si>
+  <si>
+    <t>8000001036</t>
+  </si>
+  <si>
+    <t>Bearer yHv0PGqeVikPilhF8LjaTIPrzXJJj0</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>Office: Administrative/Professional</t>
+  </si>
+  <si>
+    <t>Government Use: Other (utility, airport, etc.)</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-23848</t>
+  </si>
+  <si>
+    <t>8000001037</t>
+  </si>
+  <si>
+    <t>Bearer VYx2J6uz7hlqtvv3NvHMMqwFt5L3YB</t>
+  </si>
+  <si>
+    <t>Office: Government</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-39030</t>
+  </si>
+  <si>
+    <t>8000001038</t>
+  </si>
+  <si>
+    <t>Bearer Vuse5jI8rEIxx19yoPELL3ZbRgSLq3</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Warehouse: Refrigerated</t>
+  </si>
+  <si>
+    <t>Investor: REIT, Publicly traded</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-50293</t>
+  </si>
+  <si>
+    <t>8000001039</t>
+  </si>
+  <si>
+    <t>Bearer 7Ent8vGPRNJI0zIdvqU18kBRu67KRv</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Retail: Enclosed Mall</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-25383</t>
+  </si>
+  <si>
+    <t>8000001040</t>
+  </si>
+  <si>
+    <t>Bearer Z8kHiGGgiPddeeXzme9mL4SG4BzB3z</t>
+  </si>
+  <si>
+    <t>Lodging: Inn</t>
+  </si>
+  <si>
+    <t>Corporate: Privately Held</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-27196</t>
+  </si>
+  <si>
+    <t>8000001041</t>
+  </si>
+  <si>
+    <t>Bearer A2wDfpnXlbX9oN2cJLdgvvZQ4kzHgy</t>
+  </si>
+  <si>
+    <t>Investor: Insurance Company</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-48635</t>
+  </si>
+  <si>
+    <t>8000001042</t>
+  </si>
+  <si>
+    <t>Bearer j16l2nLAQRAJGe8IttOj2SsvE764yd</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Office: Other Office</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-71951</t>
+  </si>
+  <si>
+    <t>8000001043</t>
+  </si>
+  <si>
+    <t>Bearer H9tJQeo1JLHjOzHENa29FnbxlVKDfC</t>
+  </si>
+  <si>
+    <t>Airport: Rental Car Center</t>
+  </si>
+  <si>
+    <t>Investor: Bank</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-19374</t>
+  </si>
+  <si>
+    <t>8000001044</t>
+  </si>
+  <si>
+    <t>Bearer BZJRc7Tkwf1bTiPUMEZqYHoZhYUY7e</t>
+  </si>
+  <si>
+    <t>Retail: Grocery Store/Food Market</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-73426</t>
+  </si>
+  <si>
+    <t>8000001046</t>
+  </si>
+  <si>
+    <t>Bearer Zss7E06AAKR9Su3Eq2rHAnDVWymkWM</t>
+  </si>
+  <si>
+    <t>Bearer xOLSpqyBvdRV3PvTHR0rScwCih6c3c</t>
+  </si>
+  <si>
+    <t>4687</t>
+  </si>
+  <si>
+    <t>Bearer WX3BapJUsrz8fH2uxjC1rS5tjndylF</t>
+  </si>
+  <si>
+    <t>Bearer PB1xkbbxiVPQDS7yVNLkLxvtko6yZl</t>
+  </si>
+  <si>
+    <t>4690</t>
+  </si>
+  <si>
+    <t>Bearer UafX4mrEQ5zN6stBgHLojHn0WzCANf</t>
+  </si>
+  <si>
+    <t>4691</t>
+  </si>
+  <si>
+    <t>Bearer 46DCs1Vs6jybEVjhHWAw9hxs1SbRKX</t>
+  </si>
+  <si>
+    <t>4692</t>
+  </si>
+  <si>
+    <t>Bearer mMA2mgbbIlE6vhwnWd5TNUFw06mgPP</t>
+  </si>
+  <si>
+    <t>4693</t>
+  </si>
+  <si>
+    <t>Bearer NgwoHitqBc1tC8QiuDdiISgUR9PECR</t>
+  </si>
+  <si>
+    <t>4694</t>
+  </si>
+  <si>
+    <t>Bearer MMchcKo77z0nCbEJA2mueiv2Z5YzI3</t>
+  </si>
+  <si>
+    <t>4696</t>
+  </si>
+  <si>
+    <t>Bearer t1F9gSOIVsMtrayZ8UKY8Sidw3lepX</t>
+  </si>
+  <si>
+    <t>4697</t>
+  </si>
+  <si>
+    <t>Bearer pfglVkiCwVhAKD50Qq0i2FhgIogcyF</t>
+  </si>
+  <si>
+    <t>49500</t>
   </si>
 </sst>
 </file>
@@ -7571,7 +7823,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="21.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="21.33984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="15" width="17.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="17.5703125" collapsed="true"/>
@@ -7595,20 +7847,20 @@
     <col min="24" max="24" bestFit="true" customWidth="true" style="15" width="37.5703125" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" style="15" width="14.0" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="15" width="44.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="15" width="39.2265625" collapsed="true"/>
     <col min="28" max="44" style="15" width="9.140625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="15" width="8.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="15" width="5.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="15" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="15" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="15" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="15" width="13.1796875" collapsed="true"/>
     <col min="49" max="49" style="15" width="9.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="15" width="4.85546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="15" width="36.42578125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="15" width="28.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="15" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="15" width="24.23828125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="15" width="13.8515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="15" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="15" width="14.2265625" collapsed="true"/>
     <col min="55" max="59" style="15" width="9.140625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="15" width="26.7109375" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="15" width="26.734375" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" style="15" width="25.140625" collapsed="true"/>
     <col min="62" max="62" bestFit="true" customWidth="true" style="15" width="28.85546875" collapsed="true"/>
     <col min="63" max="64" bestFit="true" customWidth="true" style="15" width="37.140625" collapsed="true"/>
@@ -7826,7 +8078,7 @@
         <v>1658</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1653</v>
+        <v>2372</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>633</v>
@@ -7896,7 +8148,7 @@
         <v>2117</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2141</v>
+        <v>2391</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>16</v>
@@ -7950,7 +8202,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>111</v>
+        <v>2340</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -7962,13 +8214,13 @@
         <v>663</v>
       </c>
       <c r="AX2" s="15" t="s">
-        <v>461</v>
+        <v>144</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>2119</v>
+        <v>2370</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>2120</v>
+        <v>2166</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -7992,7 +8244,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2121</v>
+        <v>2371</v>
       </c>
       <c r="BI2" s="15" t="s">
         <v>2138</v>
@@ -13072,7 +13324,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="48.65625" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="47.80859375" collapsed="true"/>
@@ -13085,18 +13337,18 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="39.57421875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.875" collapsed="true"/>
     <col min="28" max="28" customWidth="true" width="22.0" collapsed="true"/>
     <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
     <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
     <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
     <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="19.48046875" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="57.3671875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="40.0078125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="26.3203125" collapsed="true"/>
     <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
     <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="27.1171875" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="22.9453125" collapsed="true"/>
     <col min="62" max="62" bestFit="true" customWidth="true" width="21.50390625" collapsed="true"/>
     <col min="63" max="63" bestFit="true" customWidth="true" width="24.203125" collapsed="true"/>
@@ -13313,7 +13565,7 @@
         <v>2291</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2230</v>
+        <v>2314</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>633</v>
@@ -13386,7 +13638,7 @@
         <v>1634</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>2303</v>
+        <v>2309</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -13441,7 +13693,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="16" t="s">
-        <v>2287</v>
+        <v>2310</v>
       </c>
       <c r="AU2" s="16" t="s">
         <v>87</v>
@@ -13453,13 +13705,13 @@
         <v>663</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>461</v>
+        <v>144</v>
       </c>
       <c r="AY2" s="16" t="s">
-        <v>2288</v>
+        <v>2311</v>
       </c>
       <c r="AZ2" s="16" t="s">
-        <v>2289</v>
+        <v>2312</v>
       </c>
       <c r="BA2" s="17" t="s">
         <v>420</v>
@@ -13483,7 +13735,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="16" t="s">
-        <v>2290</v>
+        <v>2313</v>
       </c>
       <c r="BI2" s="16" t="s">
         <v>2307</v>
@@ -23148,7 +23400,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="38.12109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
@@ -23368,6 +23620,9 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2392</v>
+      </c>
       <c r="AC4" t="s">
         <v>2193</v>
       </c>

--- a/src/main/resources/ARC-API-STG1.xlsx
+++ b/src/main/resources/ARC-API-STG1.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="2393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="2405">
   <si>
     <t>FileID</t>
   </si>
@@ -7222,6 +7222,42 @@
   </si>
   <si>
     <t>49500</t>
+  </si>
+  <si>
+    <t>Bearer YMoPO6DZwFZ0kp27A7P00HMMkE3Jg1</t>
+  </si>
+  <si>
+    <t>Bearer pi0CoWlYacJTxZ2jVLOCXVbHj1CuDe</t>
+  </si>
+  <si>
+    <t>US-API-Building-Other-94954</t>
+  </si>
+  <si>
+    <t>8000001809</t>
+  </si>
+  <si>
+    <t>Bearer K4utae6CCB9Q84bf2il2Hy7j9wUDRX</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1321605.8</t>
+  </si>
+  <si>
+    <t>3253</t>
+  </si>
+  <si>
+    <t>181754.0</t>
   </si>
 </sst>
 </file>
@@ -7822,7 +7858,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="21.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="21.72265625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="21.33984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="15" width="17.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
@@ -7847,7 +7883,7 @@
     <col min="24" max="24" bestFit="true" customWidth="true" style="15" width="37.5703125" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" style="15" width="14.0" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="15" width="39.2265625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="15" width="43.75390625" collapsed="true"/>
     <col min="28" max="44" style="15" width="9.140625" collapsed="true"/>
     <col min="45" max="45" bestFit="true" customWidth="true" style="15" width="8.1796875" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" style="15" width="5.66796875" collapsed="true"/>
@@ -7855,8 +7891,8 @@
     <col min="48" max="48" bestFit="true" customWidth="true" style="15" width="13.1796875" collapsed="true"/>
     <col min="49" max="49" style="15" width="9.140625" collapsed="true"/>
     <col min="50" max="50" bestFit="true" customWidth="true" style="15" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="15" width="24.23828125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="15" width="13.8515625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="15" width="31.94921875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="15" width="28.125" collapsed="true"/>
     <col min="53" max="53" bestFit="true" customWidth="true" style="15" width="10.33984375" collapsed="true"/>
     <col min="54" max="54" bestFit="true" customWidth="true" style="15" width="14.2265625" collapsed="true"/>
     <col min="55" max="59" style="15" width="9.140625" collapsed="true"/>
@@ -8075,7 +8111,7 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1658</v>
+        <v>2396</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2372</v>
@@ -8148,7 +8184,7 @@
         <v>2117</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2391</v>
+        <v>2394</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>16</v>
@@ -8202,7 +8238,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>2340</v>
+        <v>2292</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -8214,13 +8250,13 @@
         <v>663</v>
       </c>
       <c r="AX2" s="15" t="s">
-        <v>144</v>
+        <v>461</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>2370</v>
+        <v>2227</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>2166</v>
+        <v>2254</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -8244,7 +8280,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2371</v>
+        <v>2395</v>
       </c>
       <c r="BI2" s="15" t="s">
         <v>2138</v>
@@ -12328,7 +12364,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="25" width="21.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="25" width="21.72265625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="25" width="21.33984375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="25" width="17.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="25" width="20.7109375" collapsed="true"/>
@@ -12349,7 +12385,7 @@
     <col min="24" max="24" bestFit="true" customWidth="true" style="25" width="32.21875" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" style="25" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" style="25" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="25" width="42.1484375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="25" width="43.328125" collapsed="true"/>
     <col min="28" max="28" customWidth="true" style="25" width="20.85546875" collapsed="true"/>
     <col min="29" max="29" style="25" width="9.140625" collapsed="true"/>
     <col min="30" max="30" customWidth="true" style="25" width="22.140625" collapsed="true"/>
@@ -12657,7 +12693,7 @@
         <v>2127</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>2272</v>
+        <v>2397</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -12793,7 +12829,7 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>295</v>
+        <v>2398</v>
       </c>
       <c r="K4" s="25" t="s">
         <v>1618</v>
@@ -12804,7 +12840,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>2235</v>
+        <v>2399</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>1618</v>
@@ -12812,7 +12848,7 @@
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>2236</v>
+        <v>2400</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>1613</v>
@@ -12820,7 +12856,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>2237</v>
+        <v>2401</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>1618</v>
@@ -12828,7 +12864,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>2238</v>
+        <v>2402</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>1619</v>
@@ -12836,7 +12872,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>2239</v>
+        <v>2403</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>1620</v>
@@ -12844,7 +12880,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>2240</v>
+        <v>2404</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>1614</v>
